--- a/data/heating/heating_data_results.xlsx
+++ b/data/heating/heating_data_results.xlsx
@@ -682,34 +682,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3354811069345606</v>
+        <v>0.3354811069612613</v>
       </c>
       <c r="C2" t="n">
         <v>202.14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04902673234934449</v>
+        <v>0.04902673234745315</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4094676032350194</v>
+        <v>0.4094676047098669</v>
       </c>
       <c r="F2" t="n">
-        <v>15.84454174444826</v>
+        <v>15.84454174532855</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4072072765164204</v>
+        <v>0.4072072779002595</v>
       </c>
       <c r="H2" t="n">
-        <v>22.42095269616775</v>
+        <v>22.42095269142165</v>
       </c>
       <c r="I2" t="n">
-        <v>39343.16019728019</v>
+        <v>39343.16021832186</v>
       </c>
       <c r="J2" t="n">
-        <v>8.858249566999907</v>
+        <v>8.858249564906572</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5609358234291121</v>
+        <v>0.5609358234287903</v>
       </c>
       <c r="L2" t="n">
         <v>0.7</v>
@@ -718,7 +718,7 @@
         <v>1.8339e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>1.513212643779954</v>
+        <v>1.51321264377996</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         <v>9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.001190447984941629</v>
+        <v>0.001190448042135585</v>
       </c>
       <c r="R2" t="n">
         <v>0.0009343490403278611</v>
@@ -738,44 +738,44 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04196601495694224</v>
+        <v>0.04196601461227539</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09313703079693531</v>
+        <v>0.09313704238552371</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04171719169489261</v>
+        <v>0.04171719133910391</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1954396228906943</v>
+        <v>0.1954396227922081</v>
       </c>
       <c r="X2" t="n">
-        <v>675.1146860802542</v>
+        <v>675.1147355857871</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0632028539189136</v>
+        <v>0.06320285695167294</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.003500729685906178</v>
+        <v>0.003500729684360824</v>
       </c>
       <c r="AA2" t="n">
         <v>1.867230148954097</v>
       </c>
       <c r="AB2" t="n">
-        <v>32761.24210063451</v>
+        <v>32761.24617099675</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.008875679449642158</v>
+        <v>0.008875677934634915</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.00191902848994225</v>
+        <v>0.001919028502678501</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0007317215234671813</v>
+        <v>0.0007317215174254034</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>data//heating/2024-03-19_L_UHfit.dat</t>
+          <t>data//heating\2024-03-19_L_UHfit.dat</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -790,13 +790,13 @@
         <v>18.16190744696709</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11146734.30367849</v>
+        <v>11146734.30226994</v>
       </c>
       <c r="AK2" t="n">
-        <v>4.235504311046178e-07</v>
+        <v>4.235504311546634e-07</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.005433657951733742</v>
+        <v>0.005433657492178893</v>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="AP2" t="n">
-        <v>0.01441185981953702</v>
+        <v>0.01441185986461834</v>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
@@ -831,10 +831,10 @@
         <v>441</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.007130706753340057</v>
+        <v>0.007130706776320704</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.1017304132441476</v>
+        <v>0.1017304132402231</v>
       </c>
     </row>
     <row r="3">
@@ -844,34 +844,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2639812615254142</v>
+        <v>0.2639812614023043</v>
       </c>
       <c r="C3" t="n">
         <v>202.14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0387323107323396</v>
+        <v>0.03873231071383666</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5823701980001815</v>
+        <v>0.5823701956878249</v>
       </c>
       <c r="F3" t="n">
-        <v>16.14251574041392</v>
+        <v>16.14251574029773</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5154114832946158</v>
+        <v>0.51541148074925</v>
       </c>
       <c r="H3" t="n">
-        <v>22.21226864369802</v>
+        <v>22.21226865758801</v>
       </c>
       <c r="I3" t="n">
-        <v>41578.02771773867</v>
+        <v>41578.02767856442</v>
       </c>
       <c r="J3" t="n">
-        <v>8.955728590254722</v>
+        <v>8.955728590099092</v>
       </c>
       <c r="K3" t="n">
-        <v>0.555337651069152</v>
+        <v>0.5553376510672267</v>
       </c>
       <c r="L3" t="n">
         <v>0.5</v>
@@ -880,7 +880,7 @@
         <v>1.8339e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>1.443859101409604</v>
+        <v>1.44385910140961</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0006217404120658985</v>
+        <v>0.0006217403880847942</v>
       </c>
       <c r="R3" t="n">
         <v>0.000398994630063782</v>
@@ -900,44 +900,44 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02528700816730562</v>
+        <v>0.02528700927214315</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1095037745547503</v>
+        <v>0.1095037631771035</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02231122136536048</v>
+        <v>0.02231122233934434</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1379535870795775</v>
+        <v>0.1379535938488667</v>
       </c>
       <c r="X3" t="n">
-        <v>837.9709276449047</v>
+        <v>837.9709623925241</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.04233536729031161</v>
+        <v>0.04233536567069147</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.006209759376484341</v>
+        <v>0.006209759374349501</v>
       </c>
       <c r="AA3" t="n">
         <v>1.014614454717123</v>
       </c>
       <c r="AB3" t="n">
-        <v>38006.37191890309</v>
+        <v>38006.36796956629</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.03105463068003033</v>
+        <v>0.03105463064758753</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.002335119772688627</v>
+        <v>0.002335119757222893</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0001596052555142872</v>
+        <v>0.0001596052620443751</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>data//heating/2024-03-19_L_UHfit.dat</t>
+          <t>data//heating\2024-03-19_L_UHfit.dat</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -952,13 +952,13 @@
         <v>23.20390993821211</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11205430.30469088</v>
+        <v>11205430.30449119</v>
       </c>
       <c r="AK3" t="n">
-        <v>4.212390476231208e-07</v>
+        <v>4.212390476267808e-07</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.009547562531633191</v>
+        <v>0.009547562831382625</v>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="AP3" t="n">
-        <v>0.02838346768660127</v>
+        <v>0.02838346757331154</v>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
@@ -993,10 +993,10 @@
         <v>441</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.003642586280255991</v>
+        <v>0.003642586265598008</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.08036950022744732</v>
+        <v>0.08036950018905376</v>
       </c>
     </row>
     <row r="4">
@@ -1006,34 +1006,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2136079237339889</v>
+        <v>0.2136079237823387</v>
       </c>
       <c r="C4" t="n">
         <v>202.14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02987654038927012</v>
+        <v>0.02987654039837011</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2616756729363933</v>
+        <v>0.2616756428060139</v>
       </c>
       <c r="F4" t="n">
-        <v>16.12957611111113</v>
+        <v>16.12957610243477</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04946379336892483</v>
+        <v>0.04946378748748615</v>
       </c>
       <c r="H4" t="n">
-        <v>22.07786403955852</v>
+        <v>22.07786406948382</v>
       </c>
       <c r="I4" t="n">
-        <v>41376.77668876212</v>
+        <v>41376.77667748242</v>
       </c>
       <c r="J4" t="n">
-        <v>8.158882834630393</v>
+        <v>8.158882835882983</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5045460761865812</v>
+        <v>0.504546076060682</v>
       </c>
       <c r="L4" t="n">
         <v>0.9</v>
@@ -1042,7 +1042,7 @@
         <v>1.8339e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>1.963507735553112</v>
+        <v>1.96350773555309</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0008433476372549782</v>
+        <v>0.0008433477488544318</v>
       </c>
       <c r="R4" t="n">
         <v>0.0003692110403157166</v>
@@ -1062,44 +1062,44 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1581359875023696</v>
+        <v>0.158135978427914</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1857149691273164</v>
+        <v>0.1857150223462521</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02989063058599282</v>
+        <v>0.02989062875774376</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1671922138837793</v>
+        <v>0.1671922436301732</v>
       </c>
       <c r="X4" t="n">
-        <v>1422.899417106488</v>
+        <v>1422.899231447779</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.06480788819190757</v>
+        <v>0.06480789681409119</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.005327626116911856</v>
+        <v>0.00532762453945029</v>
       </c>
       <c r="AA4" t="n">
         <v>1.353964082237834</v>
       </c>
       <c r="AB4" t="n">
-        <v>65330.85230386758</v>
+        <v>65330.87077513434</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.005925513761764653</v>
+        <v>-0.005925516223727762</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.002546878954915562</v>
+        <v>0.002546878802000316</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.023250001524139</v>
+        <v>0.02324999988687599</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>data//heating/2024-03-19_L_UHfit.dat</t>
+          <t>data//heating\2024-03-19_L_UHfit.dat</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1114,13 +1114,13 @@
         <v>2.240424277573293</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11348131.59747603</v>
+        <v>11348131.54792835</v>
       </c>
       <c r="AK4" t="n">
-        <v>4.413302901262147e-07</v>
+        <v>4.413302900923371e-07</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.00579584440739551</v>
+        <v>-0.005795845133466677</v>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="AP4" t="n">
-        <v>0.004166839701891457</v>
+        <v>0.004166839209034406</v>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
@@ -1155,10 +1155,10 @@
         <v>441</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.03846772558365042</v>
+        <v>0.03846772065045541</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.06199378694971405</v>
+        <v>0.06199378696859652</v>
       </c>
     </row>
     <row r="5">
@@ -1168,34 +1168,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1222436716232025</v>
+        <v>0.1222436714503849</v>
       </c>
       <c r="C5" t="n">
         <v>202.14</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01611643146948971</v>
+        <v>0.0161164314521513</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7296566418327334</v>
+        <v>0.7296567060970114</v>
       </c>
       <c r="F5" t="n">
-        <v>15.27481766154129</v>
+        <v>15.27481763393494</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1872877923654219</v>
+        <v>0.1872878066426102</v>
       </c>
       <c r="H5" t="n">
-        <v>18.96158192583419</v>
+        <v>18.96158184932081</v>
       </c>
       <c r="I5" t="n">
-        <v>35138.40378117771</v>
+        <v>35138.40375288931</v>
       </c>
       <c r="J5" t="n">
-        <v>7.277944784191823</v>
+        <v>7.277944789147533</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4791824473382754</v>
+        <v>0.4791824474517589</v>
       </c>
       <c r="L5" t="n">
         <v>0.25</v>
@@ -1204,7 +1204,7 @@
         <v>1.8339e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>1.595983831389055</v>
+        <v>1.595983831389056</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0005688923649212936</v>
+        <v>0.0005688923354533471</v>
       </c>
       <c r="R5" t="n">
         <v>0.0001521218421289064</v>
@@ -1224,44 +1224,44 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1292356101303164</v>
+        <v>0.129235605239077</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1671149080537321</v>
+        <v>0.167114829196894</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03315628759018356</v>
+        <v>0.03315628595351369</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1978780011117845</v>
+        <v>0.1978779859945113</v>
       </c>
       <c r="X5" t="n">
-        <v>1148.333794490546</v>
+        <v>1148.335191828728</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.06821539224030196</v>
+        <v>0.068215388825587</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.004605023868615634</v>
+        <v>0.004605024080529822</v>
       </c>
       <c r="AA5" t="n">
         <v>1.751546421931985</v>
       </c>
       <c r="AB5" t="n">
-        <v>60164.50619921755</v>
+        <v>60164.4773346018</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.0001827809096212254</v>
+        <v>-0.0001827808191928272</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.01089355712823767</v>
+        <v>0.01089355686451951</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0001570234794334023</v>
+        <v>0.0001570234687683461</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>data//heating/2024-03-21_B_UHfit.dat</t>
+          <t>data//heating\2024-03-21_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1276,13 +1276,13 @@
         <v>9.87722465439019</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10998442.59967799</v>
+        <v>10998442.49302725</v>
       </c>
       <c r="AK5" t="n">
-        <v>4.672773236081605e-07</v>
+        <v>4.672773234490709e-07</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0.0009702164222219862</v>
+        <v>-0.0009702162119030783</v>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="AP5" t="n">
-        <v>0.05371611932975399</v>
+        <v>0.05371612377064459</v>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
@@ -1317,10 +1317,10 @@
         <v>441</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.0008852795521606563</v>
+        <v>0.0008852796043779825</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.03344157676529496</v>
+        <v>0.03344157672931779</v>
       </c>
     </row>
     <row r="6">
@@ -1330,34 +1330,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.331628516383437</v>
+        <v>0.3316285164233719</v>
       </c>
       <c r="C6" t="n">
         <v>202.14</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04717063370073405</v>
+        <v>0.04717063370597056</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3533427890754617</v>
+        <v>0.3533427882235353</v>
       </c>
       <c r="F6" t="n">
-        <v>15.23511710734731</v>
+        <v>15.23511707381434</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2781762834930827</v>
+        <v>0.2781762816743086</v>
       </c>
       <c r="H6" t="n">
-        <v>21.90625765850353</v>
+        <v>21.90625766733252</v>
       </c>
       <c r="I6" t="n">
-        <v>34900.37175997071</v>
+        <v>34900.37181868273</v>
       </c>
       <c r="J6" t="n">
-        <v>8.39631784024594</v>
+        <v>8.396317840072898</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5446513964844253</v>
+        <v>0.5446513964853444</v>
       </c>
       <c r="L6" t="n">
         <v>0.75</v>
@@ -1366,7 +1366,7 @@
         <v>1.8339e-05</v>
       </c>
       <c r="N6" t="n">
-        <v>2.288023640017621</v>
+        <v>2.288023640017647</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.001612514517581879</v>
+        <v>0.001612514573856521</v>
       </c>
       <c r="R6" t="n">
         <v>0.001195533601683541</v>
@@ -1386,44 +1386,44 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.06543452527668331</v>
+        <v>0.06543452609319385</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1161280507827535</v>
+        <v>0.1161281206734756</v>
       </c>
       <c r="V6" t="n">
-        <v>0.05150374774721229</v>
+        <v>0.0515037481644691</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2649368859408744</v>
+        <v>0.264936880689985</v>
       </c>
       <c r="X6" t="n">
-        <v>812.1335286592864</v>
+        <v>812.133245245403</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.08225214364123944</v>
+        <v>0.08225214652111791</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.007370583555346578</v>
+        <v>0.007370583557059543</v>
       </c>
       <c r="AA6" t="n">
         <v>2.355961793337599</v>
       </c>
       <c r="AB6" t="n">
-        <v>41927.37624646962</v>
+        <v>41927.40139012847</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.002136459901581963</v>
+        <v>-0.002136462553547266</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.002292014835433633</v>
+        <v>0.00229201487202249</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.001687601526448338</v>
+        <v>0.001687601526758457</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>data//heating/2024-03-21_B_UHfit.dat</t>
+          <t>data//heating\2024-03-21_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1438,13 +1438,13 @@
         <v>12.69848412114133</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11001105.81058064</v>
+        <v>11001105.76275454</v>
       </c>
       <c r="AK6" t="n">
-        <v>4.350454679569419e-07</v>
+        <v>4.350454679614249e-07</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.002643358490298567</v>
+        <v>-0.00264335951247644</v>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="AP6" t="n">
-        <v>0.0108974471339143</v>
+        <v>0.01089744710801123</v>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
         <v>441</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.009107170043267252</v>
+        <v>0.009107169902532143</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.09787901068279441</v>
+        <v>0.09787901069366015</v>
       </c>
     </row>
     <row r="7">
@@ -1492,34 +1492,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2347127323482914</v>
+        <v>0.2347127322483485</v>
       </c>
       <c r="C7" t="n">
         <v>202.14</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03354361834348995</v>
+        <v>0.03354361832802753</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5178007075695159</v>
+        <v>0.5178007051563801</v>
       </c>
       <c r="F7" t="n">
-        <v>15.41898504230144</v>
+        <v>15.41898504217519</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3191012329856618</v>
+        <v>0.3191012312067147</v>
       </c>
       <c r="H7" t="n">
-        <v>21.91335829868554</v>
+        <v>21.91335830811049</v>
       </c>
       <c r="I7" t="n">
-        <v>36207.12802667142</v>
+        <v>36207.12795731248</v>
       </c>
       <c r="J7" t="n">
-        <v>8.509299124408679</v>
+        <v>8.509299123848685</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5530748758675129</v>
+        <v>0.5530748758459124</v>
       </c>
       <c r="L7" t="n">
         <v>0.45</v>
@@ -1528,7 +1528,7 @@
         <v>1.8339e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8337415116402584</v>
+        <v>0.833741511640258</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>9</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.000344405916483588</v>
+        <v>0.000344405949578312</v>
       </c>
       <c r="R7" t="n">
         <v>0.0001831418323715859</v>
@@ -1548,44 +1548,44 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0159101991674727</v>
+        <v>0.01591019958159024</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03125060867081655</v>
+        <v>0.03125061023419905</v>
       </c>
       <c r="V7" t="n">
-        <v>0.009799527450264968</v>
+        <v>0.009799527696163081</v>
       </c>
       <c r="W7" t="n">
-        <v>0.05845895331901674</v>
+        <v>0.0584589598955579</v>
       </c>
       <c r="X7" t="n">
-        <v>226.2223036932575</v>
+        <v>226.2222413158127</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02502732613979753</v>
+        <v>0.02502732855906454</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.003256025533538459</v>
+        <v>0.003256025572087955</v>
       </c>
       <c r="AA7" t="n">
         <v>0.4488441376243605</v>
       </c>
       <c r="AB7" t="n">
-        <v>11253.5135782503</v>
+        <v>11253.51414135778</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.02576832607322814</v>
+        <v>-0.02576833489307765</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.001520386550515175</v>
+        <v>0.001520386610265496</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0001185338489049785</v>
+        <v>0.000118533851998725</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>data//heating/2024-03-21_B_UHfit.dat</t>
+          <t>data//heating\2024-03-21_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1600,13 +1600,13 @@
         <v>14.56195024233941</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11104920.18662135</v>
+        <v>11104920.18665375</v>
       </c>
       <c r="AK7" t="n">
-        <v>4.321476828593749e-07</v>
+        <v>4.321476828735947e-07</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0.006707130698606711</v>
+        <v>-0.006707130582073758</v>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="AP7" t="n">
-        <v>0.02436372055407691</v>
+        <v>0.02436372043939997</v>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
@@ -1641,10 +1641,10 @@
         <v>441</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.003851429685631659</v>
+        <v>0.003851429667716328</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.06960296948758055</v>
+        <v>0.06960296945549606</v>
       </c>
     </row>
     <row r="8">
@@ -1654,34 +1654,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2096746118925363</v>
+        <v>0.2096746117576415</v>
       </c>
       <c r="C8" t="n">
         <v>202.14</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03015449819776909</v>
+        <v>0.03015449817756121</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6459195034422761</v>
+        <v>0.6459195140263368</v>
       </c>
       <c r="F8" t="n">
-        <v>15.37746983179268</v>
+        <v>15.37746985640533</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4019655232969129</v>
+        <v>0.4019655248181001</v>
       </c>
       <c r="H8" t="n">
-        <v>21.86004242676784</v>
+        <v>21.8600424183368</v>
       </c>
       <c r="I8" t="n">
-        <v>35825.21552153853</v>
+        <v>35825.21551325837</v>
       </c>
       <c r="J8" t="n">
-        <v>8.625467225340545</v>
+        <v>8.625467224928467</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5571246713035809</v>
+        <v>0.5571246713043277</v>
       </c>
       <c r="L8" t="n">
         <v>0.4</v>
@@ -1690,7 +1690,7 @@
         <v>1.8339e-05</v>
       </c>
       <c r="N8" t="n">
-        <v>1.003464526157227</v>
+        <v>1.003464526157219</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0004707090941121699</v>
+        <v>0.000470709080752922</v>
       </c>
       <c r="R8" t="n">
         <v>0.0002310967644852671</v>
@@ -1710,44 +1710,44 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.03327796154114112</v>
+        <v>0.03327795955323343</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2074529127319583</v>
+        <v>0.2074530305871123</v>
       </c>
       <c r="V8" t="n">
-        <v>0.02053111746452187</v>
+        <v>0.02053111574923022</v>
       </c>
       <c r="W8" t="n">
-        <v>0.12867319274115</v>
+        <v>0.1286731864095997</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.860694742904</v>
+        <v>1483.861811146466</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.03885829479465408</v>
+        <v>0.03885829371131856</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.009247218160037944</v>
+        <v>0.009247218164599403</v>
       </c>
       <c r="AA8" t="n">
         <v>0.9453266815662364</v>
       </c>
       <c r="AB8" t="n">
-        <v>74595.0663731055</v>
+        <v>74595.10779110652</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.0005381624332717014</v>
+        <v>-0.0005381623829175345</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.003420721667533242</v>
+        <v>0.003420721727387419</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0001272428064372481</v>
+        <v>0.0001272427985345487</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>data//heating/2024-03-21_B_UHfit.dat</t>
+          <t>data//heating\2024-03-21_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -1762,13 +1762,13 @@
         <v>18.38814011788988</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11058734.8969653</v>
+        <v>11058734.7723645</v>
       </c>
       <c r="AK8" t="n">
-        <v>4.292277277964482e-07</v>
+        <v>4.292277278067013e-07</v>
       </c>
       <c r="AL8" t="n">
-        <v>-0.002005624202428942</v>
+        <v>-0.002005624768702863</v>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="AP8" t="n">
-        <v>0.03866583044184844</v>
+        <v>0.03866583051415144</v>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
@@ -1803,10 +1803,10 @@
         <v>441</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.002408606096625524</v>
+        <v>0.002408606054678403</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.06257054908269793</v>
+        <v>0.06257054904076662</v>
       </c>
     </row>
     <row r="9">
@@ -1816,34 +1816,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1201651048089374</v>
+        <v>0.1201651046857674</v>
       </c>
       <c r="C9" t="n">
         <v>202.14</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01609377214953949</v>
+        <v>0.016093772132441</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8141659819350886</v>
+        <v>0.8141660019208506</v>
       </c>
       <c r="F9" t="n">
-        <v>15.21894687414334</v>
+        <v>15.21894688006069</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1680767570948922</v>
+        <v>0.1680767608197653</v>
       </c>
       <c r="H9" t="n">
-        <v>19.73594736892178</v>
+        <v>19.73594734720702</v>
       </c>
       <c r="I9" t="n">
-        <v>34758.35570889336</v>
+        <v>34758.35572999506</v>
       </c>
       <c r="J9" t="n">
-        <v>7.51078875001186</v>
+        <v>7.510788749502558</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4914068853087659</v>
+        <v>0.4914068853111642</v>
       </c>
       <c r="L9" t="n">
         <v>0.25</v>
@@ -1852,7 +1852,7 @@
         <v>1.8339e-05</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2697585547853398</v>
+        <v>0.2697585547853401</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>9</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0007367699636110954</v>
+        <v>0.0007367699784202634</v>
       </c>
       <c r="R9" t="n">
         <v>0.0001914727085253033</v>
@@ -1872,44 +1872,44 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1958703509945993</v>
+        <v>0.1958703550133653</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07494509345554085</v>
+        <v>0.07494507088655961</v>
       </c>
       <c r="V9" t="n">
-        <v>0.04043343725215359</v>
+        <v>0.04043343798654029</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2727876967797308</v>
+        <v>0.2727876938341263</v>
       </c>
       <c r="X9" t="n">
-        <v>515.6109930631799</v>
+        <v>515.6109573319067</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.09295604289083717</v>
+        <v>0.09295604486643413</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.009025917297820613</v>
+        <v>0.009025917325402965</v>
       </c>
       <c r="AA9" t="n">
         <v>2.051997636845923</v>
       </c>
       <c r="AB9" t="n">
-        <v>27045.87948181294</v>
+        <v>27045.87131944787</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.0008456915610483019</v>
+        <v>-0.0008456904232831837</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.01331824698422349</v>
+        <v>0.01331824727145519</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.000449549591917639</v>
+        <v>0.0004495496007378563</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>data//heating/2024-03-21_B_UHfit.dat</t>
+          <t>data//heating\2024-03-21_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -1924,13 +1924,13 @@
         <v>8.516274901654725</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10984302.88147872</v>
+        <v>10984302.87853529</v>
       </c>
       <c r="AK9" t="n">
-        <v>4.599772054634453e-07</v>
+        <v>4.599772054790406e-07</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0.00164979872545752</v>
+        <v>-0.001649797644130926</v>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="AP9" t="n">
-        <v>0.05025528253222907</v>
+        <v>0.0502552837099175</v>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
@@ -1965,10 +1965,10 @@
         <v>441</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.00186833019249752</v>
+        <v>0.001868330236858455</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.03339455870245647</v>
+        <v>0.03339455866697712</v>
       </c>
     </row>
     <row r="10">
@@ -1978,34 +1978,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1223707277885627</v>
+        <v>0.1223707276530547</v>
       </c>
       <c r="C10" t="n">
         <v>202.14</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01611301704855604</v>
+        <v>0.0161130170312614</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7513465119716767</v>
+        <v>0.7513465356351433</v>
       </c>
       <c r="F10" t="n">
-        <v>15.34170303023001</v>
+        <v>15.34170301638793</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1752030834184386</v>
+        <v>0.1752030878091956</v>
       </c>
       <c r="H10" t="n">
-        <v>18.96592305173098</v>
+        <v>18.96592303478932</v>
       </c>
       <c r="I10" t="n">
-        <v>35610.51231910352</v>
+        <v>35610.51233755074</v>
       </c>
       <c r="J10" t="n">
-        <v>7.259769470404278</v>
+        <v>7.259769470947237</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4780655988669092</v>
+        <v>0.478065598865124</v>
       </c>
       <c r="L10" t="n">
         <v>0.25</v>
@@ -2014,7 +2014,7 @@
         <v>1.8339e-05</v>
       </c>
       <c r="N10" t="n">
-        <v>0.8569693500323962</v>
+        <v>0.8569693500323949</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0002721754434058973</v>
+        <v>0.0002721754398510558</v>
       </c>
       <c r="R10" t="n">
         <v>7.250677997496892e-05</v>
@@ -2034,44 +2034,44 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.07666794701133268</v>
+        <v>0.07666796109992861</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1452767832880278</v>
+        <v>0.1452767652743318</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0178585950178518</v>
+        <v>0.01785859819528085</v>
       </c>
       <c r="W10" t="n">
-        <v>0.08877602833294693</v>
+        <v>0.08877604492048433</v>
       </c>
       <c r="X10" t="n">
-        <v>1007.216378204649</v>
+        <v>1007.216582053636</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.03240223992008764</v>
+        <v>0.03240223953389481</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.006773081514827197</v>
+        <v>0.006773081514518398</v>
       </c>
       <c r="AA10" t="n">
         <v>0.942573754995929</v>
       </c>
       <c r="AB10" t="n">
-        <v>52072.10200913143</v>
+        <v>52072.09537580652</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0006062126305991633</v>
+        <v>0.0006062127220519951</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.0061279848972437</v>
+        <v>0.006127985687347026</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0001242736093717449</v>
+        <v>0.0001242736303879682</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>data//heating/2024-03-21_B_UHfit.dat</t>
+          <t>data//heating\2024-03-21_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -2086,13 +2086,13 @@
         <v>9.23778329408673</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10997968.25209266</v>
+        <v>10997968.20486889</v>
       </c>
       <c r="AK10" t="n">
-        <v>4.678618878301157e-07</v>
+        <v>4.678618878126199e-07</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.001621437097289208</v>
+        <v>0.001621437635904469</v>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="AP10" t="n">
-        <v>0.04970951380808977</v>
+        <v>0.04970951525365109</v>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
@@ -2127,10 +2127,10 @@
         <v>441</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.001213968247570413</v>
+        <v>0.001213968270166191</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.03343449184578418</v>
+        <v>0.03343449180989782</v>
       </c>
     </row>
     <row r="11">
@@ -2140,34 +2140,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1621740696431216</v>
+        <v>0.1621740696359982</v>
       </c>
       <c r="C11" t="n">
         <v>202.14</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02250075498303831</v>
+        <v>0.02250075498091412</v>
       </c>
       <c r="E11" t="n">
-        <v>1.040582493889419</v>
+        <v>1.040582494076915</v>
       </c>
       <c r="F11" t="n">
-        <v>16.59214966060304</v>
+        <v>16.59214965465781</v>
       </c>
       <c r="G11" t="n">
-        <v>0.194517268030158</v>
+        <v>0.1945172679204691</v>
       </c>
       <c r="H11" t="n">
-        <v>21.0970632163764</v>
+        <v>21.09706321637482</v>
       </c>
       <c r="I11" t="n">
-        <v>45065.18820660144</v>
+        <v>45065.18818252184</v>
       </c>
       <c r="J11" t="n">
-        <v>8.045575872303257</v>
+        <v>8.045575871490572</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4896334516087947</v>
+        <v>0.4896334517382453</v>
       </c>
       <c r="L11" t="n">
         <v>0.4</v>
@@ -2176,7 +2176,7 @@
         <v>1.8339e-05</v>
       </c>
       <c r="N11" t="n">
-        <v>17.04469400289279</v>
+        <v>17.04469400289277</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>9</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.843692362608058e-05</v>
+        <v>1.843692364864533e-05</v>
       </c>
       <c r="R11" t="n">
         <v>6.481565471062465e-06</v>
@@ -2196,44 +2196,44 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1064593724195669</v>
+        <v>0.1064593625833518</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1333144485682261</v>
+        <v>0.1333143426632088</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0198852225534748</v>
+        <v>0.01988522072294357</v>
       </c>
       <c r="W11" t="n">
-        <v>0.03867925966337543</v>
+        <v>0.03867925905941023</v>
       </c>
       <c r="X11" t="n">
-        <v>1076.053041414807</v>
+        <v>1076.053192978017</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.001829650912545634</v>
+        <v>0.001829650914677405</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.00431442223298221</v>
+        <v>0.004314422337541476</v>
       </c>
       <c r="AA11" t="n">
         <v>0.942705653427713</v>
       </c>
       <c r="AB11" t="n">
-        <v>45794.28998722864</v>
+        <v>45794.25359922051</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.01091169915583982</v>
+        <v>0.01091169905922483</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.002809473347221501</v>
+        <v>0.002809473049631079</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.003059599327309143</v>
+        <v>0.003059599029641544</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>data//heating/2024-03-21_D_UHfit.dat</t>
+          <t>data//heating\2024-03-21_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
@@ -2248,13 +2248,13 @@
         <v>9.220111059874879</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11399000.20184681</v>
+        <v>11399000.19551775</v>
       </c>
       <c r="AK11" t="n">
-        <v>4.444270829873628e-07</v>
+        <v>4.444270830098086e-07</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.005853575902667974</v>
+        <v>0.005853576126718225</v>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="AP11" t="n">
-        <v>0.02686519630031931</v>
+        <v>0.02686519630678244</v>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
@@ -2289,10 +2289,10 @@
         <v>441</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.02983698848250151</v>
+        <v>0.02983698843817857</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.04668904071393627</v>
+        <v>0.04668904070952857</v>
       </c>
     </row>
     <row r="12">
@@ -2302,34 +2302,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1722292715544601</v>
+        <v>0.1722292714552118</v>
       </c>
       <c r="C12" t="n">
         <v>202.14</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02445876857650143</v>
+        <v>0.02445876856214173</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6772641286266557</v>
+        <v>0.6772641298529515</v>
       </c>
       <c r="F12" t="n">
-        <v>16.67731284809606</v>
+        <v>16.67731284187015</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2307599877928465</v>
+        <v>0.2307599883828847</v>
       </c>
       <c r="H12" t="n">
-        <v>21.94776315160408</v>
+        <v>21.94776314743635</v>
       </c>
       <c r="I12" t="n">
-        <v>45730.0278030815</v>
+        <v>45730.02783425825</v>
       </c>
       <c r="J12" t="n">
-        <v>8.424350863295933</v>
+        <v>8.424350863152684</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5037151657840144</v>
+        <v>0.5037151658631416</v>
       </c>
       <c r="L12" t="n">
         <v>0.35</v>
@@ -2338,7 +2338,7 @@
         <v>1.8339e-05</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7269131851081403</v>
+        <v>0.7269131851081349</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0002330787356448705</v>
+        <v>0.0002330787529608506</v>
       </c>
       <c r="R12" t="n">
         <v>8.841714254319355e-05</v>
@@ -2358,44 +2358,44 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0.02483543355381125</v>
+        <v>0.02483543567860279</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1455075141385279</v>
+        <v>0.1455074999324931</v>
       </c>
       <c r="V12" t="n">
-        <v>0.008401930062616856</v>
+        <v>0.008401930809544276</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0653345235004834</v>
+        <v>0.06533452253978309</v>
       </c>
       <c r="X12" t="n">
-        <v>1221.905828646318</v>
+        <v>1221.905851884658</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0228478020168378</v>
+        <v>0.02284780373051151</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.002267289501267315</v>
+        <v>0.002267289340678756</v>
       </c>
       <c r="AA12" t="n">
         <v>0.3840637348152651</v>
       </c>
       <c r="AB12" t="n">
-        <v>50245.6067885593</v>
+        <v>50245.60199805128</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.002213026790113425</v>
+        <v>-0.00221302754626944</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.001841951019576657</v>
+        <v>0.001841951106855273</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.0002104360464417822</v>
+        <v>0.000210436064103754</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>data//heating/2024-03-21_D_UHfit.dat</t>
+          <t>data//heating\2024-03-21_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
@@ -2410,13 +2410,13 @@
         <v>10.51405488768499</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11517779.114245</v>
+        <v>11517779.13631066</v>
       </c>
       <c r="AK12" t="n">
-        <v>4.34321032190159e-07</v>
+        <v>4.343210321938516e-07</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0.003250764051350065</v>
+        <v>-0.003250764775032926</v>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         </is>
       </c>
       <c r="AP12" t="n">
-        <v>0.02797012623198277</v>
+        <v>0.02797012635661993</v>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
@@ -2451,10 +2451,10 @@
         <v>441</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.005620530637174197</v>
+        <v>0.005620530679654372</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.0507519166686566</v>
+        <v>0.05075191663886025</v>
       </c>
     </row>
     <row r="13">
@@ -2464,34 +2464,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1455991808919285</v>
+        <v>0.1455991807791394</v>
       </c>
       <c r="C13" t="n">
         <v>202.14</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02070836673757438</v>
+        <v>0.0207083667199866</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8714797233738724</v>
+        <v>0.8714797196148125</v>
       </c>
       <c r="F13" t="n">
-        <v>16.41509192818586</v>
+        <v>16.41509192764189</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2663985473697726</v>
+        <v>0.2663985457340233</v>
       </c>
       <c r="H13" t="n">
-        <v>21.90517876262416</v>
+        <v>21.90517877186547</v>
       </c>
       <c r="I13" t="n">
-        <v>43652.54015451063</v>
+        <v>43652.5401652278</v>
       </c>
       <c r="J13" t="n">
-        <v>8.459088545074197</v>
+        <v>8.459088543849717</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5138599226930197</v>
+        <v>0.5138599227093562</v>
       </c>
       <c r="L13" t="n">
         <v>0.3</v>
@@ -2500,7 +2500,7 @@
         <v>1.8339e-05</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5702377075312114</v>
+        <v>0.5702377075312071</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0002480981625107613</v>
+        <v>0.0002480981787089106</v>
       </c>
       <c r="R13" t="n">
         <v>8.02764092921185e-05</v>
@@ -2520,44 +2520,44 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.04161211656401198</v>
+        <v>0.04161211569333091</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1147019223176294</v>
+        <v>0.1147019444643253</v>
       </c>
       <c r="V13" t="n">
-        <v>0.01268611562392699</v>
+        <v>0.01268611532098973</v>
       </c>
       <c r="W13" t="n">
-        <v>0.07964388495975223</v>
+        <v>0.07964388435200044</v>
       </c>
       <c r="X13" t="n">
-        <v>932.1741928060494</v>
+        <v>932.1741841524174</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.02890209547376165</v>
+        <v>0.02890209738385253</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.001680234223030037</v>
+        <v>0.001680234323855728</v>
       </c>
       <c r="AA13" t="n">
         <v>0.5807835239911961</v>
       </c>
       <c r="AB13" t="n">
-        <v>40132.83852960879</v>
+        <v>40132.84627447662</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.02651437546619731</v>
+        <v>-0.02651437745698496</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.003573417046757775</v>
+        <v>0.003573417097577792</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0001752904972628671</v>
+        <v>0.0001752904941064603</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>data//heating/2024-03-21_D_UHfit.dat</t>
+          <t>data//heating\2024-03-21_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
@@ -2572,13 +2572,13 @@
         <v>12.16144142344487</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11486890.89932217</v>
+        <v>11486890.89779729</v>
       </c>
       <c r="AK13" t="n">
-        <v>4.334283339514569e-07</v>
+        <v>4.33428333982827e-07</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.00996803906075599</v>
+        <v>-0.009968039660431641</v>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="AP13" t="n">
-        <v>0.04663665040575152</v>
+        <v>0.04663665019473712</v>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
@@ -2613,10 +2613,10 @@
         <v>441</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.003641965413915097</v>
+        <v>0.003641965396755351</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.0429698371658451</v>
+        <v>0.04296983712935046</v>
       </c>
     </row>
     <row r="14">
@@ -2626,16 +2626,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1419347488499073</v>
+        <v>0.1419347487436624</v>
       </c>
       <c r="C14" t="n">
         <v>202.14</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02025429651413827</v>
+        <v>0.02025429649893607</v>
       </c>
       <c r="E14" t="n">
-        <v>1.03426611310246</v>
+        <v>1.034266114650855</v>
       </c>
       <c r="F14" t="n">
         <v>15.47103678037577</v>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.000396462709080344</v>
+        <v>0.0003964627087835728</v>
       </c>
       <c r="R14" t="n">
         <v>0.0001237205922427153</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.01253774096000622</v>
+        <v>0.01253774097877641</v>
       </c>
       <c r="U14" t="n">
         <v>0.107833711941158</v>
@@ -2694,7 +2694,7 @@
         <v>0.1460982768299964</v>
       </c>
       <c r="X14" t="n">
-        <v>784.8396036346121</v>
+        <v>784.839603634612</v>
       </c>
       <c r="Y14" t="n">
         <v>0.04777817712918715</v>
@@ -2712,14 +2712,14 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0009778645659375572</v>
+        <v>0.0009778645674015133</v>
       </c>
       <c r="AE14" t="n">
-        <v>8.425564229300819e-05</v>
+        <v>8.425564241914689e-05</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>data//heating/2024-03-26_B_UHfit.dat</t>
+          <t>data//heating\2024-03-26_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="AP14" t="n">
-        <v>0.05151356959026975</v>
+        <v>0.05151356966739045</v>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
@@ -2775,10 +2775,10 @@
         <v>441</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.006221771490525747</v>
+        <v>0.006221771499840329</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.04202764197439592</v>
+        <v>0.04202764194285137</v>
       </c>
     </row>
     <row r="15">
@@ -2788,16 +2788,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2646813161226024</v>
+        <v>0.2646813159968662</v>
       </c>
       <c r="C15" t="n">
         <v>202.14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0387323107323396</v>
+        <v>0.03873231071383666</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5408624841467211</v>
+        <v>0.5408624846605921</v>
       </c>
       <c r="F15" t="n">
         <v>15.52663836497415</v>
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.000653754688063374</v>
+        <v>0.0006537546877528092</v>
       </c>
       <c r="R15" t="n">
         <v>0.000413656029797415</v>
@@ -2844,10 +2844,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.00558425623105351</v>
+        <v>0.005584256236359086</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1572699077346515</v>
+        <v>0.1572699077346514</v>
       </c>
       <c r="V15" t="n">
         <v>0.004258805802325055</v>
@@ -2862,26 +2862,26 @@
         <v>0.04417061460135861</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.006117710547527837</v>
+        <v>0.006117710547527836</v>
       </c>
       <c r="AA15" t="n">
         <v>0.1902629613680637</v>
       </c>
       <c r="AB15" t="n">
-        <v>56118.07504076299</v>
+        <v>56118.07504076297</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.0006364922898760111</v>
+        <v>0.0006364922904807393</v>
       </c>
       <c r="AE15" t="n">
-        <v>4.431803244639053e-05</v>
+        <v>4.431803248849688e-05</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>data//heating/2024-03-26_B_UHfit.dat</t>
+          <t>data//heating\2024-03-26_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="AP15" t="n">
-        <v>0.02802698544340882</v>
+        <v>0.02802698547003713</v>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
@@ -2937,10 +2937,10 @@
         <v>441</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.003271189084259184</v>
+        <v>0.003271189087367125</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.08036950022744732</v>
+        <v>0.08036950018905376</v>
       </c>
     </row>
     <row r="16">
@@ -2950,16 +2950,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.391411451653824</v>
+        <v>0.3914114515059015</v>
       </c>
       <c r="C16" t="n">
         <v>202.14</v>
       </c>
       <c r="D16" t="n">
-        <v>0.05721032495054093</v>
+        <v>0.05721032492873725</v>
       </c>
       <c r="E16" t="n">
-        <v>0.486815337944379</v>
+        <v>0.486815338312334</v>
       </c>
       <c r="F16" t="n">
         <v>15.63049706016167</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0008693098981207672</v>
+        <v>0.000869309897792237</v>
       </c>
       <c r="R16" t="n">
         <v>0.0008109955988434187</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.004126701588352018</v>
+        <v>0.004126701591471149</v>
       </c>
       <c r="U16" t="n">
         <v>0.1162940558530659</v>
@@ -3018,7 +3018,7 @@
         <v>0.1203126514343147</v>
       </c>
       <c r="X16" t="n">
-        <v>858.5518001650609</v>
+        <v>858.551800165061</v>
       </c>
       <c r="Y16" t="n">
         <v>0.03940050708852261</v>
@@ -3036,14 +3036,14 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.0004287023491862121</v>
+        <v>0.000428702349510243</v>
       </c>
       <c r="AE16" t="n">
-        <v>3.166550235848653e-05</v>
+        <v>3.166550238242062e-05</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>data//heating/2024-03-26_B_UHfit.dat</t>
+          <t>data//heating\2024-03-26_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="AP16" t="n">
-        <v>0.02478518799122312</v>
+        <v>0.02478518800995678</v>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
@@ -3099,10 +3099,10 @@
         <v>441</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.00297389800555409</v>
+        <v>0.002973898007801884</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.1187113584804987</v>
+        <v>0.1187113584352561</v>
       </c>
     </row>
     <row r="17">
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6367254116006256</v>
+        <v>0.6367254114110226</v>
       </c>
       <c r="C17" t="n">
         <v>202.14</v>
       </c>
       <c r="D17" t="n">
-        <v>0.09416635338694361</v>
+        <v>0.09416635335853846</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4001872353606599</v>
+        <v>0.4001872355989941</v>
       </c>
       <c r="F17" t="n">
         <v>15.79962445764327</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.001365410125243205</v>
+        <v>0.001365410124836616</v>
       </c>
       <c r="R17" t="n">
         <v>0.002113942033059336</v>
@@ -3168,22 +3168,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.003567306888177453</v>
+        <v>0.003567306890301985</v>
       </c>
       <c r="U17" t="n">
         <v>0.1287073904165052</v>
       </c>
       <c r="V17" t="n">
-        <v>0.01629769135936454</v>
+        <v>0.01629769135936453</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1135133261063984</v>
+        <v>0.1135133261063983</v>
       </c>
       <c r="X17" t="n">
         <v>953.8562572176862</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.03853408812786285</v>
+        <v>0.03853408812786284</v>
       </c>
       <c r="Z17" t="n">
         <v>0.004588966102511543</v>
@@ -3192,20 +3192,20 @@
         <v>0.7312080339994109</v>
       </c>
       <c r="AB17" t="n">
-        <v>45527.72561120741</v>
+        <v>45527.7256112074</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.000378169453322354</v>
+        <v>0.0003781694535475752</v>
       </c>
       <c r="AE17" t="n">
-        <v>2.824365279353679e-05</v>
+        <v>2.824365281035747e-05</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>data//heating/2024-03-26_B_UHfit.dat</t>
+          <t>data//heating\2024-03-26_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="AP17" t="n">
-        <v>0.02030970687566023</v>
+        <v>0.0203097068877558</v>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
@@ -3261,10 +3261,10 @@
         <v>441</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.002484482897168274</v>
+        <v>0.002484482898647924</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.1953950749866016</v>
+        <v>0.1953950749276609</v>
       </c>
     </row>
     <row r="18">
@@ -3274,16 +3274,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7513424651519971</v>
+        <v>0.7513424649438164</v>
       </c>
       <c r="C18" t="n">
         <v>202.14</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1126443676051449</v>
+        <v>0.112644367573439</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3742329173500222</v>
+        <v>0.3742329175574058</v>
       </c>
       <c r="F18" t="n">
         <v>15.77356009644506</v>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.001425362990547409</v>
+        <v>0.001425362990152472</v>
       </c>
       <c r="R18" t="n">
         <v>0.00277334506332259</v>
@@ -3330,10 +3330,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.002929594199322141</v>
+        <v>0.002929594200945595</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1077465488527266</v>
+        <v>0.1077465488527265</v>
       </c>
       <c r="V18" t="n">
         <v>0.01925666328928261</v>
@@ -3345,7 +3345,7 @@
         <v>766.425430133654</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.03483647459090099</v>
+        <v>0.03483647459090098</v>
       </c>
       <c r="Z18" t="n">
         <v>0.005248494574108314</v>
@@ -3360,14 +3360,14 @@
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.0003081547666621449</v>
+        <v>0.000308154766832911</v>
       </c>
       <c r="AE18" t="n">
-        <v>2.274051616001659e-05</v>
+        <v>2.274051617261839e-05</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>data//heating/2024-03-26_B_UHfit.dat</t>
+          <t>data//heating\2024-03-26_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -3406,7 +3406,7 @@
         </is>
       </c>
       <c r="AP18" t="n">
-        <v>0.0194639948035462</v>
+        <v>0.0194639948143323</v>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
@@ -3423,10 +3423,10 @@
         <v>441</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.002317603859207282</v>
+        <v>0.002317603860491597</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.233736933239653</v>
+        <v>0.2337369331738633</v>
       </c>
     </row>
     <row r="19">
@@ -3436,16 +3436,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1123187331849204</v>
+        <v>0.1123187330643758</v>
       </c>
       <c r="C19" t="n">
         <v>202.14</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01611668995532094</v>
+        <v>0.01611668993797871</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9420425564385589</v>
+        <v>0.9420425584606276</v>
       </c>
       <c r="F19" t="n">
         <v>15.226558535605</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0006181776303065634</v>
+        <v>0.0006181776296431126</v>
       </c>
       <c r="R19" t="n">
         <v>0.0001525863326529895</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.01641158975142946</v>
+        <v>0.01641158978665649</v>
       </c>
       <c r="U19" t="n">
         <v>0.1325386049448036</v>
@@ -3510,7 +3510,7 @@
         <v>0.09568835007763113</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.01015014486574234</v>
+        <v>0.01015014486574233</v>
       </c>
       <c r="AA19" t="n">
         <v>0.1834014288598314</v>
@@ -3522,14 +3522,14 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.002243183770599446</v>
+        <v>0.002243183775414378</v>
       </c>
       <c r="AE19" t="n">
-        <v>2.02135227902105e-05</v>
+        <v>2.021352283359828e-05</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>data//heating/2024-03-26_C_UHfit.dat</t>
+          <t>data//heating\2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="AP19" t="n">
-        <v>0.08425674587608263</v>
+        <v>0.08425674605693743</v>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
@@ -3585,10 +3585,10 @@
         <v>441</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.00106486341855055</v>
+        <v>0.00106486342083625</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.0334421131230975</v>
+        <v>0.03344211308711238</v>
       </c>
     </row>
     <row r="20">
@@ -3598,16 +3598,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2427237282585855</v>
+        <v>0.2427237280955998</v>
       </c>
       <c r="C20" t="n">
         <v>202.14</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03516423519077838</v>
+        <v>0.03516423516705296</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5898575113616493</v>
+        <v>0.5898575121538121</v>
       </c>
       <c r="F20" t="n">
         <v>15.00603415736551</v>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.001197319639795559</v>
+        <v>0.001197319638991575</v>
       </c>
       <c r="R20" t="n">
         <v>0.0006476774196837223</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0.009189039703669244</v>
+        <v>0.009189039716009878</v>
       </c>
       <c r="U20" t="n">
         <v>0.1724953376954753</v>
@@ -3684,14 +3684,14 @@
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.001580222415750307</v>
+        <v>0.001580222417872504</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.205996026098114e-05</v>
+        <v>1.205996027717734e-05</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>data//heating/2024-03-26_C_UHfit.dat</t>
+          <t>data//heating\2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
@@ -3730,7 +3730,7 @@
         </is>
       </c>
       <c r="AP20" t="n">
-        <v>0.05466848185115084</v>
+        <v>0.05466848192456914</v>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
@@ -3747,10 +3747,10 @@
         <v>441</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.0006523291129026327</v>
+        <v>0.0006523291137786932</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.07296574758199467</v>
+        <v>0.07296574753276444</v>
       </c>
     </row>
     <row r="21">
@@ -3760,16 +3760,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3722214928747171</v>
+        <v>0.3722214926694687</v>
       </c>
       <c r="C21" t="n">
         <v>202.14</v>
       </c>
       <c r="D21" t="n">
-        <v>0.05421178042623583</v>
+        <v>0.0542117803961272</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4709119295810393</v>
+        <v>0.4709119301003746</v>
       </c>
       <c r="F21" t="n">
         <v>14.64084710905151</v>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.001566799907393344</v>
+        <v>0.001566799906529388</v>
       </c>
       <c r="R21" t="n">
         <v>0.001286899393708358</v>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0.009053923337252264</v>
+        <v>0.009053923347237192</v>
       </c>
       <c r="U21" t="n">
         <v>0.2390001346721647</v>
@@ -3834,7 +3834,7 @@
         <v>0.07443008053349141</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.01400154668503924</v>
+        <v>0.01400154668503923</v>
       </c>
       <c r="AA21" t="n">
         <v>1.015663517342898</v>
@@ -3846,14 +3846,14 @@
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.001727302890613154</v>
+        <v>0.001727302892518074</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.197736941732764e-05</v>
+        <v>1.197736943053663e-05</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>data//heating/2024-03-26_C_UHfit.dat</t>
+          <t>data//heating\2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="AP21" t="n">
-        <v>0.04552119633797952</v>
+        <v>0.04552119638818161</v>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
@@ -3909,10 +3909,10 @@
         <v>441</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.0005018913972248566</v>
+        <v>0.0005018913977783569</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.1124893820408919</v>
+        <v>0.1124893819784165</v>
       </c>
     </row>
     <row r="22">
@@ -3922,16 +3922,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5057914044826287</v>
+        <v>0.5057914042333089</v>
       </c>
       <c r="C22" t="n">
         <v>202.14</v>
       </c>
       <c r="D22" t="n">
-        <v>0.07325932566169326</v>
+        <v>0.07325932562520146</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4594595682513825</v>
+        <v>0.4594595687043455</v>
       </c>
       <c r="F22" t="n">
         <v>15.07355079843216</v>
@@ -3969,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.002898001838617607</v>
+        <v>0.002898001837189094</v>
       </c>
       <c r="R22" t="n">
         <v>0.003215597378501776</v>
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.007900652816237259</v>
+        <v>0.007900652824026199</v>
       </c>
       <c r="U22" t="n">
         <v>0.1596403578408903</v>
@@ -3993,29 +3993,29 @@
         <v>1053.684472384615</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.09988324905752002</v>
+        <v>0.09988324905752001</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.0118520301610221</v>
+        <v>0.01185203016102211</v>
       </c>
       <c r="AA22" t="n">
         <v>1.745436260875499</v>
       </c>
       <c r="AB22" t="n">
-        <v>57813.69947094033</v>
+        <v>57813.69947094032</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.001217530865793019</v>
+        <v>0.001217530866993335</v>
       </c>
       <c r="AE22" t="n">
-        <v>9.969522205873452e-06</v>
+        <v>9.969522215702005e-06</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>data//heating/2024-03-26_C_UHfit.dat</t>
+          <t>data//heating\2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="AP22" t="n">
-        <v>0.0418196225964231</v>
+        <v>0.0418196226376514</v>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
@@ -4071,10 +4071,10 @@
         <v>441</v>
       </c>
       <c r="AU22" t="n">
-        <v>0.0005115539051990473</v>
+        <v>0.000511553905703368</v>
       </c>
       <c r="AV22" t="n">
-        <v>0.152013016499789</v>
+        <v>0.1520130164240686</v>
       </c>
     </row>
     <row r="23">
@@ -4084,16 +4084,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6411421048748662</v>
+        <v>0.6411421045810842</v>
       </c>
       <c r="C23" t="n">
         <v>202.14</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0923068708971507</v>
+        <v>0.0923068708542757</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4339126025975822</v>
+        <v>0.4339126029952342</v>
       </c>
       <c r="F23" t="n">
         <v>15.7986567805124</v>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.003241684984734251</v>
+        <v>0.003241684983248856</v>
       </c>
       <c r="R23" t="n">
         <v>0.004542880267104922</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0.006081942483746867</v>
+        <v>0.006081942489320562</v>
       </c>
       <c r="U23" t="n">
         <v>0.1878705319257546</v>
@@ -4170,14 +4170,14 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.001041414580280901</v>
+        <v>0.001041414581235288</v>
       </c>
       <c r="AE23" t="n">
-        <v>9.016332057145748e-06</v>
+        <v>9.016332065408616e-06</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>data//heating/2024-03-26_C_UHfit.dat</t>
+          <t>data//heating\2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="AP23" t="n">
-        <v>0.03616974983381935</v>
+        <v>0.03616974986696651</v>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
@@ -4233,10 +4233,10 @@
         <v>441</v>
       </c>
       <c r="AU23" t="n">
-        <v>0.000518385996864912</v>
+        <v>0.0005183859973399783</v>
       </c>
       <c r="AV23" t="n">
-        <v>0.1915366509586862</v>
+        <v>0.1915366508697206</v>
       </c>
     </row>
     <row r="24">
@@ -4246,16 +4246,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1626214849670611</v>
+        <v>0.162621485008474</v>
       </c>
       <c r="C24" t="n">
         <v>202.14</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02258269375230244</v>
+        <v>0.02258269375806449</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1570822450142212</v>
+        <v>0.1570822449342167</v>
       </c>
       <c r="F24" t="n">
         <v>15.72707089435206</v>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.0007357071767101165</v>
+        <v>0.0007357071768974702</v>
       </c>
       <c r="R24" t="n">
         <v>0.0002412392319179509</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.001976223210824569</v>
+        <v>0.001976223209818046</v>
       </c>
       <c r="U24" t="n">
         <v>0.1243609888015762</v>
@@ -4317,7 +4317,7 @@
         <v>892.1489088213422</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.07342149336700363</v>
+        <v>0.07342149336700361</v>
       </c>
       <c r="Z24" t="n">
         <v>0.008443359972059573</v>
@@ -4332,14 +4332,14 @@
         <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>5.564184160427474e-05</v>
+        <v>5.564184157593546e-05</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.0003139036466635366</v>
+        <v>0.0003139036465036604</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>data//heating/2024-03-26_C_UHfit.dat</t>
+          <t>data//heating\2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="AP24" t="n">
-        <v>0.002554033947608955</v>
+        <v>0.002554033946308145</v>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
@@ -4395,10 +4395,10 @@
         <v>441</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.02191474794073231</v>
+        <v>0.02191474792957078</v>
       </c>
       <c r="AV24" t="n">
-        <v>0.04685906356592975</v>
+        <v>0.046859063577886</v>
       </c>
     </row>
     <row r="25">
@@ -4408,16 +4408,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2136108203361517</v>
+        <v>0.2136108204008995</v>
       </c>
       <c r="C25" t="n">
         <v>202.14</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02987654038927012</v>
+        <v>0.02987654039837011</v>
       </c>
       <c r="E25" t="n">
-        <v>0.257898318480914</v>
+        <v>0.2578983183245706</v>
       </c>
       <c r="F25" t="n">
         <v>15.34445420865337</v>
@@ -4455,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0007146060826180219</v>
+        <v>0.0007146060828346268</v>
       </c>
       <c r="R25" t="n">
         <v>0.0003109692726287586</v>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.003248332693261687</v>
+        <v>0.003248332691292478</v>
       </c>
       <c r="U25" t="n">
         <v>0.1719589084138103</v>
@@ -4494,14 +4494,14 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.0001143792698955398</v>
+        <v>0.0001143792698262006</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.0005513554621831118</v>
+        <v>0.0005513554618488682</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>data//heating/2024-03-26_C_UHfit.dat</t>
+          <t>data//heating\2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
@@ -4540,7 +4540,7 @@
         </is>
       </c>
       <c r="AP25" t="n">
-        <v>0.004404538401380333</v>
+        <v>0.004404538398710207</v>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
@@ -4557,10 +4557,10 @@
         <v>441</v>
       </c>
       <c r="AU25" t="n">
-        <v>0.03467474630567142</v>
+        <v>0.03467474628465084</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.06199378694971405</v>
+        <v>0.06199378696859652</v>
       </c>
     </row>
     <row r="26">
@@ -4570,16 +4570,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2667112066936685</v>
+        <v>0.266711206782516</v>
       </c>
       <c r="C26" t="n">
         <v>202.14</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0371703870262378</v>
+        <v>0.03717038703867572</v>
       </c>
       <c r="E26" t="n">
-        <v>0.241705465977702</v>
+        <v>0.241705465816667</v>
       </c>
       <c r="F26" t="n">
         <v>15.48707494441483</v>
@@ -4617,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.0009978514532302705</v>
+        <v>0.0009978514535626773</v>
       </c>
       <c r="R26" t="n">
         <v>0.0005425911207120942</v>
@@ -4626,13 +4626,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0.003571786914013965</v>
+        <v>0.003571786911634279</v>
       </c>
       <c r="U26" t="n">
         <v>0.2085502123174643</v>
       </c>
       <c r="V26" t="n">
-        <v>0.0009052993026546312</v>
+        <v>0.0009052993026546311</v>
       </c>
       <c r="W26" t="n">
         <v>0.203172259697347</v>
@@ -4641,7 +4641,7 @@
         <v>1449.053194257854</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.06082804482041914</v>
+        <v>0.06082804482041913</v>
       </c>
       <c r="Z26" t="n">
         <v>0.01069565694808464</v>
@@ -4656,14 +4656,14 @@
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.0001246113351468966</v>
+        <v>0.0001246113350638749</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.0006203105644076123</v>
+        <v>0.0006203105639943336</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>data//heating/2024-03-26_C_UHfit.dat</t>
+          <t>data//heating\2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="AP26" t="n">
-        <v>0.004033658804998125</v>
+        <v>0.00403365880231072</v>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
@@ -4719,10 +4719,10 @@
         <v>441</v>
       </c>
       <c r="AU26" t="n">
-        <v>0.03295172732924315</v>
+        <v>0.03295172730728924</v>
       </c>
       <c r="AV26" t="n">
-        <v>0.07712851033349835</v>
+        <v>0.07712851035930703</v>
       </c>
     </row>
     <row r="27">
@@ -4732,16 +4732,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3164990439809538</v>
+        <v>0.3164990440925186</v>
       </c>
       <c r="C27" t="n">
         <v>202.14</v>
       </c>
       <c r="D27" t="n">
-        <v>0.04446423366320548</v>
+        <v>0.04446423367898133</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3094149786402002</v>
+        <v>0.3094149784220647</v>
       </c>
       <c r="F27" t="n">
         <v>15.44658261729994</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0008291081192943856</v>
+        <v>0.0008291081195866434</v>
       </c>
       <c r="R27" t="n">
         <v>0.0005366754458806917</v>
@@ -4788,13 +4788,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0.00527293486831096</v>
+        <v>0.005272934864593576</v>
       </c>
       <c r="U27" t="n">
         <v>0.1304474071211491</v>
       </c>
       <c r="V27" t="n">
-        <v>0.002074332037368825</v>
+        <v>0.002074332037368824</v>
       </c>
       <c r="W27" t="n">
         <v>0.1365026610103034</v>
@@ -4803,29 +4803,29 @@
         <v>940.5464221811588</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.04311624135117768</v>
+        <v>0.04311624135117767</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.00617111727692446</v>
+        <v>0.006171117276924459</v>
       </c>
       <c r="AA27" t="n">
         <v>0.09319474735516134</v>
       </c>
       <c r="AB27" t="n">
-        <v>46667.56034378102</v>
+        <v>46667.56034378101</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.0001271774545212307</v>
+        <v>0.0001271774544315715</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.0007791977879123228</v>
+        <v>0.0007791977873629935</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>data//heating/2024-03-26_C_UHfit.dat</t>
+          <t>data//heating\2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
@@ -4864,7 +4864,7 @@
         </is>
       </c>
       <c r="AP27" t="n">
-        <v>0.005256732111982739</v>
+        <v>0.00525673210827678</v>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
@@ -4881,10 +4881,10 @@
         <v>441</v>
       </c>
       <c r="AU27" t="n">
-        <v>0.04201724420516365</v>
+        <v>0.04201724417554178</v>
       </c>
       <c r="AV27" t="n">
-        <v>0.09226323371728265</v>
+        <v>0.09226323375001753</v>
       </c>
     </row>
     <row r="28">
@@ -4894,16 +4894,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3676934177741843</v>
+        <v>0.367693417908862</v>
       </c>
       <c r="C28" t="n">
         <v>202.14</v>
       </c>
       <c r="D28" t="n">
-        <v>0.05175808030017313</v>
+        <v>0.05175808031928695</v>
       </c>
       <c r="E28" t="n">
-        <v>0.09925782330749616</v>
+        <v>0.09925782323478445</v>
       </c>
       <c r="F28" t="n">
         <v>15.38806376808432</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.001070760053732721</v>
+        <v>0.001070760054124916</v>
       </c>
       <c r="R28" t="n">
         <v>0.0007947443299954079</v>
@@ -4950,13 +4950,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0.001301992706371746</v>
+        <v>0.001301992705417966</v>
       </c>
       <c r="U28" t="n">
         <v>0.1645445680239333</v>
       </c>
       <c r="V28" t="n">
-        <v>0.0006515445393777737</v>
+        <v>0.0006515445393777736</v>
       </c>
       <c r="W28" t="n">
         <v>0.1644965717230196</v>
@@ -4980,14 +4980,14 @@
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>4.280718698969998e-05</v>
+        <v>4.28071869583414e-05</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.0002151964698023518</v>
+        <v>0.0002151964696447087</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>data//heating/2024-03-26_C_UHfit.dat</t>
+          <t>data//heating\2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="AP28" t="n">
-        <v>0.001699072110463808</v>
+        <v>0.001699072109219147</v>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
@@ -5043,10 +5043,10 @@
         <v>441</v>
       </c>
       <c r="AU28" t="n">
-        <v>0.01340226887888665</v>
+        <v>0.01340226886906876</v>
       </c>
       <c r="AV28" t="n">
-        <v>0.1073979571010669</v>
+        <v>0.1073979571407281</v>
       </c>
     </row>
     <row r="29">
@@ -5056,16 +5056,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1487106470905628</v>
+        <v>0.1487106469968315</v>
       </c>
       <c r="C29" t="n">
         <v>202.14</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02094992510741003</v>
+        <v>0.02094992509415159</v>
       </c>
       <c r="E29" t="n">
-        <v>0.297369530668927</v>
+        <v>0.2973695310437869</v>
       </c>
       <c r="F29" t="n">
         <v>14.07100783561731</v>
@@ -5103,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0008538327704990386</v>
+        <v>0.0008538327699608737</v>
       </c>
       <c r="R29" t="n">
         <v>0.0002561807282803008</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0.006285216426839851</v>
+        <v>0.006285216434762909</v>
       </c>
       <c r="U29" t="n">
         <v>0.2309874813807395</v>
@@ -5130,7 +5130,7 @@
         <v>0.09612005392216005</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.01613076917777534</v>
+        <v>0.01613076917777533</v>
       </c>
       <c r="AA29" t="n">
         <v>0.009760320614785616</v>
@@ -5142,14 +5142,14 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.0001048735392758905</v>
+        <v>0.0001048735394080927</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.00999876879844149</v>
+        <v>0.009998768811045802</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-03_B_UHfit.dat</t>
+          <t>data//heating\2024-04-03_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
@@ -5188,7 +5188,7 @@
         </is>
       </c>
       <c r="AP29" t="n">
-        <v>0.002630777838133772</v>
+        <v>0.002630777841450094</v>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
@@ -5205,10 +5205,10 @@
         <v>441</v>
       </c>
       <c r="AU29" t="n">
-        <v>0.3925336519336355</v>
+        <v>0.3925336524284581</v>
       </c>
       <c r="AV29" t="n">
-        <v>0.04347107050546194</v>
+        <v>0.04347107047795069</v>
       </c>
     </row>
     <row r="30">
@@ -5218,16 +5218,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2698280633474793</v>
+        <v>0.2698280633819131</v>
       </c>
       <c r="C30" t="n">
         <v>202.14</v>
       </c>
       <c r="D30" t="n">
-        <v>0.03831817403400536</v>
+        <v>0.03831817403892208</v>
       </c>
       <c r="E30" t="n">
-        <v>0.02702647793135955</v>
+        <v>0.02702647792446166</v>
       </c>
       <c r="F30" t="n">
         <v>13.60078249230261</v>
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.001280439945966125</v>
+        <v>0.001280439946129526</v>
       </c>
       <c r="R30" t="n">
         <v>0.0006952336120634018</v>
@@ -5274,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0.0006653029457010026</v>
+        <v>0.0006653029455311992</v>
       </c>
       <c r="U30" t="n">
         <v>0.2381493717181488</v>
@@ -5292,7 +5292,7 @@
         <v>0.08020276367902912</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.01436052319052324</v>
+        <v>0.01436052319052323</v>
       </c>
       <c r="AA30" t="n">
         <v>0.005319459004290654</v>
@@ -5304,14 +5304,14 @@
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>1.728100175647496e-05</v>
+        <v>1.728100175206438e-05</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.00024797238973483</v>
+        <v>0.0002479723896715407</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-03_B_UHfit.dat</t>
+          <t>data//heating\2024-04-03_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
@@ -5350,7 +5350,7 @@
         </is>
       </c>
       <c r="AP30" t="n">
-        <v>0.0004022314820837767</v>
+        <v>0.0004022314819811163</v>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
@@ -5367,10 +5367,10 @@
         <v>441</v>
       </c>
       <c r="AU30" t="n">
-        <v>0.008576654244384672</v>
+        <v>0.008576654242195676</v>
       </c>
       <c r="AV30" t="n">
-        <v>0.07951016705466099</v>
+        <v>0.07951016706486316</v>
       </c>
     </row>
     <row r="31">
@@ -5380,16 +5380,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.211918632058654</v>
+        <v>0.2119186321228888</v>
       </c>
       <c r="C31" t="n">
         <v>202.14</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02987654038927012</v>
+        <v>0.02987654039837011</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2171585766128883</v>
+        <v>0.2171585764812421</v>
       </c>
       <c r="F31" t="n">
         <v>13.91744773483873</v>
@@ -5427,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.001326032756464982</v>
+        <v>0.001326032756866916</v>
       </c>
       <c r="R31" t="n">
         <v>0.0005780907528441129</v>
@@ -5436,16 +5436,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0.0052250481763851</v>
+        <v>0.005225048173217563</v>
       </c>
       <c r="U31" t="n">
         <v>0.2045901580484306</v>
       </c>
       <c r="V31" t="n">
-        <v>0.0008694072160257353</v>
+        <v>0.0008694072160257352</v>
       </c>
       <c r="W31" t="n">
-        <v>0.3555183384532536</v>
+        <v>0.3555183384532535</v>
       </c>
       <c r="X31" t="n">
         <v>1208.141442919661</v>
@@ -5466,14 +5466,14 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.0001715209356328634</v>
+        <v>0.0001715209355288838</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.0006865375557979094</v>
+        <v>0.0006865375553817156</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-03_B_UHfit.dat</t>
+          <t>data//heating\2024-04-03_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="AP31" t="n">
-        <v>0.004362393707097919</v>
+        <v>0.004362393704453343</v>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
@@ -5529,10 +5529,10 @@
         <v>441</v>
       </c>
       <c r="AU31" t="n">
-        <v>0.02522051778141891</v>
+        <v>0.02522051776612969</v>
       </c>
       <c r="AV31" t="n">
-        <v>0.06199378694971405</v>
+        <v>0.06199378696859652</v>
       </c>
     </row>
     <row r="32">
@@ -5542,16 +5542,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1626772788039831</v>
+        <v>0.1626772787014487</v>
       </c>
       <c r="C32" t="n">
         <v>202.14</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02094992510741003</v>
+        <v>0.02094992509415159</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.3506651836262032</v>
+        <v>-0.3506651840682471</v>
       </c>
       <c r="F32" t="n">
         <v>13.10467374088999</v>
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.000384000956512494</v>
+        <v>0.0003840009562704608</v>
       </c>
       <c r="R32" t="n">
         <v>0.0001234005393582777</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.003633952842933123</v>
+        <v>-0.003633952847514036</v>
       </c>
       <c r="U32" t="n">
         <v>0.1559261441305212</v>
@@ -5628,14 +5628,14 @@
         <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>-7.413505127768965e-05</v>
+        <v>-7.413505137114331e-05</v>
       </c>
       <c r="AE32" t="n">
-        <v>-0.006079922972442538</v>
+        <v>-0.006079922980106806</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-03_C_UHfit.dat</t>
+          <t>data//heating\2024-04-03_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
@@ -5674,7 +5674,7 @@
         </is>
       </c>
       <c r="AP32" t="n">
-        <v>-0.002884424474804984</v>
+        <v>-0.002884424478441051</v>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
@@ -5691,10 +5691,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU32" t="n">
-        <v>-0.4160299417327649</v>
+        <v>-0.4160299422572066</v>
       </c>
       <c r="AV32" t="n">
-        <v>0.04347107050546194</v>
+        <v>0.04347107047795069</v>
       </c>
     </row>
     <row r="33">
@@ -5704,16 +5704,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2967583448470716</v>
+        <v>0.296758344884942</v>
       </c>
       <c r="C33" t="n">
         <v>202.14</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03831817403400536</v>
+        <v>0.03831817403892208</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08653315932231061</v>
+        <v>0.08653315930022501</v>
       </c>
       <c r="F33" t="n">
         <v>13.21957933089495</v>
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.001229408511348995</v>
+        <v>0.001229408511505884</v>
       </c>
       <c r="R33" t="n">
         <v>0.0007413808513716452</v>
@@ -5760,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.001394111480361784</v>
+        <v>0.001394111480005969</v>
       </c>
       <c r="U33" t="n">
         <v>0.1079064073718668</v>
@@ -5769,10 +5769,10 @@
         <v>0.0002665079735409577</v>
       </c>
       <c r="W33" t="n">
-        <v>0.174583813565843</v>
+        <v>0.1745838135658429</v>
       </c>
       <c r="X33" t="n">
-        <v>782.9356043052895</v>
+        <v>782.9356043052896</v>
       </c>
       <c r="Y33" t="n">
         <v>0.05783413710477434</v>
@@ -5790,14 +5790,14 @@
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>2.671433432171831e-05</v>
+        <v>2.67143343149001e-05</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.0004629569280156656</v>
+        <v>0.0004629569278975064</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-03_C_UHfit.dat</t>
+          <t>data//heating\2024-04-03_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="AP33" t="n">
-        <v>0.001111109623018763</v>
+        <v>0.001111109622735177</v>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
@@ -5853,10 +5853,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU33" t="n">
-        <v>0.02631428779553646</v>
+        <v>0.02631428778882034</v>
       </c>
       <c r="AV33" t="n">
-        <v>0.07951016705466099</v>
+        <v>0.07951016706486316</v>
       </c>
     </row>
     <row r="34">
@@ -5866,16 +5866,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2315627344783182</v>
+        <v>0.2315627345485074</v>
       </c>
       <c r="C34" t="n">
         <v>202.14</v>
       </c>
       <c r="D34" t="n">
-        <v>0.02987654038927012</v>
+        <v>0.02987654039837011</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1671631257392551</v>
+        <v>0.1671631256379172</v>
       </c>
       <c r="F34" t="n">
         <v>13.25195598781881</v>
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.0008576613023967561</v>
+        <v>0.0008576613026567224</v>
       </c>
       <c r="R34" t="n">
         <v>0.00040830512232788</v>
@@ -5922,25 +5922,25 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0.00198809392017659</v>
+        <v>0.001988093918971365</v>
       </c>
       <c r="U34" t="n">
         <v>0.09328861391850306</v>
       </c>
       <c r="V34" t="n">
-        <v>0.0003238157315342232</v>
+        <v>0.0003238157315342231</v>
       </c>
       <c r="W34" t="n">
         <v>0.1571507382258482</v>
       </c>
       <c r="X34" t="n">
-        <v>698.0142086185161</v>
+        <v>698.0142086185159</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.05171580045317156</v>
+        <v>0.05171580045317155</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.005934622266459391</v>
+        <v>0.00593462226645939</v>
       </c>
       <c r="AA34" t="n">
         <v>0.01721910186501135</v>
@@ -5952,14 +5952,14 @@
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>5.917363757870123e-05</v>
+        <v>5.91736375428289e-05</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.0002410768853185433</v>
+        <v>0.0002410768851723972</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-03_C_UHfit.dat</t>
+          <t>data//heating\2024-04-03_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
@@ -5998,7 +5998,7 @@
         </is>
       </c>
       <c r="AP34" t="n">
-        <v>0.003026974214643456</v>
+        <v>0.003026974212808439</v>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
@@ -6015,10 +6015,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU34" t="n">
-        <v>0.01803840253184024</v>
+        <v>0.01803840252090497</v>
       </c>
       <c r="AV34" t="n">
-        <v>0.06199378694971405</v>
+        <v>0.06199378696859652</v>
       </c>
     </row>
     <row r="35">
@@ -6028,16 +6028,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1551029865096303</v>
+        <v>0.15510298641187</v>
       </c>
       <c r="C35" t="n">
         <v>202.14</v>
       </c>
       <c r="D35" t="n">
-        <v>0.02094992510741003</v>
+        <v>0.02094992509415159</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1458201263178945</v>
+        <v>0.1458201265017134</v>
       </c>
       <c r="F35" t="n">
         <v>14.22355149680992</v>
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.000773480378694872</v>
+        <v>0.0007734803782073526</v>
       </c>
       <c r="R35" t="n">
         <v>0.0002415682063954473</v>
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.002414449106955722</v>
+        <v>0.002414449109999343</v>
       </c>
       <c r="U35" t="n">
         <v>0.2471669149447833</v>
@@ -6114,14 +6114,14 @@
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>4.528356560132601e-05</v>
+        <v>4.528356565840986e-05</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.004377067345611211</v>
+        <v>0.004377067351128882</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-03_D_UHfit.dat</t>
+          <t>data//heating\2024-04-03_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
@@ -6160,7 +6160,7 @@
         </is>
       </c>
       <c r="AP35" t="n">
-        <v>0.001166876024987274</v>
+        <v>0.001166876026458222</v>
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
@@ -6177,10 +6177,10 @@
         <v>418.3693344402766</v>
       </c>
       <c r="AU35" t="n">
-        <v>0.1956240132953996</v>
+        <v>0.1956240135420005</v>
       </c>
       <c r="AV35" t="n">
-        <v>0.04347107050546194</v>
+        <v>0.04347107047795069</v>
       </c>
     </row>
     <row r="36">
@@ -6190,16 +6190,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2835391583396787</v>
+        <v>0.2835391583758622</v>
       </c>
       <c r="C36" t="n">
         <v>202.14</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03831817403400536</v>
+        <v>0.03831817403892208</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1240209039443922</v>
+        <v>0.1240209039127387</v>
       </c>
       <c r="F36" t="n">
         <v>13.97646914438417</v>
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.001052642144978799</v>
+        <v>0.00105264214511313</v>
       </c>
       <c r="R36" t="n">
         <v>0.0006096779887731199</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0.001793867625458464</v>
+        <v>0.00179386762500062</v>
       </c>
       <c r="U36" t="n">
         <v>0.1736166648563411</v>
@@ -6264,7 +6264,7 @@
         <v>0.05673576142102279</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.007939324916725193</v>
+        <v>0.007939324916725192</v>
       </c>
       <c r="AA36" t="n">
         <v>0.01589035298903333</v>
@@ -6276,14 +6276,14 @@
         <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>4.659001907997571e-05</v>
+        <v>4.659001906808467e-05</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.0007390581593337825</v>
+        <v>0.0007390581591451549</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-03_D_UHfit.dat</t>
+          <t>data//heating\2024-04-03_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
@@ -6322,7 +6322,7 @@
         </is>
       </c>
       <c r="AP36" t="n">
-        <v>0.001604646147835979</v>
+        <v>0.001604646147426429</v>
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
@@ -6339,10 +6339,10 @@
         <v>418.3693344402766</v>
       </c>
       <c r="AU36" t="n">
-        <v>0.04099904158709241</v>
+        <v>0.04099904157662834</v>
       </c>
       <c r="AV36" t="n">
-        <v>0.07951016705466099</v>
+        <v>0.07951016706486316</v>
       </c>
     </row>
     <row r="37">
@@ -6352,16 +6352,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2194540635993094</v>
+        <v>0.2194540636658283</v>
       </c>
       <c r="C37" t="n">
         <v>202.14</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02987654038927012</v>
+        <v>0.02987654039837011</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1847501198654566</v>
+        <v>0.1847501197534571</v>
       </c>
       <c r="F37" t="n">
         <v>13.91316993527453</v>
@@ -6399,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.0007899956321315357</v>
+        <v>0.000789995632370992</v>
       </c>
       <c r="R37" t="n">
         <v>0.0003572377265178076</v>
@@ -6408,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.002448304280483059</v>
+        <v>0.002448304278998844</v>
       </c>
       <c r="U37" t="n">
         <v>0.1847457730870832</v>
@@ -6423,10 +6423,10 @@
         <v>1209.268304866855</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.05595504252672415</v>
+        <v>0.05595504252672416</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.01086911142463409</v>
+        <v>0.01086911142463408</v>
       </c>
       <c r="AA37" t="n">
         <v>0.01758516202167256</v>
@@ -6438,14 +6438,14 @@
         <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.0001032161008820103</v>
+        <v>0.0001032161008194385</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.0003762993647659389</v>
+        <v>0.000376299364537818</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-03_D_UHfit.dat</t>
+          <t>data//heating\2024-04-03_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
@@ -6484,7 +6484,7 @@
         </is>
       </c>
       <c r="AP37" t="n">
-        <v>0.003462453061004964</v>
+        <v>0.00346245305890595</v>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
@@ -6501,10 +6501,10 @@
         <v>418.3693344402766</v>
       </c>
       <c r="AU37" t="n">
-        <v>0.02144674938122545</v>
+        <v>0.02144674936822397</v>
       </c>
       <c r="AV37" t="n">
-        <v>0.06199378694971405</v>
+        <v>0.06199378696859652</v>
       </c>
     </row>
     <row r="38">
@@ -6514,16 +6514,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3152043504913776</v>
+        <v>0.3152043505720522</v>
       </c>
       <c r="C38" t="n">
         <v>202.14</v>
       </c>
       <c r="D38" t="n">
-        <v>0.04106597822755617</v>
+        <v>0.041065978238127</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4461791584920439</v>
+        <v>0.4461791582636502</v>
       </c>
       <c r="F38" t="n">
         <v>13.89331276548589</v>
@@ -6561,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.0009959531477462182</v>
+        <v>0.0009959531480011265</v>
       </c>
       <c r="R38" t="n">
         <v>0.0006938648877744191</v>
@@ -6570,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.00532930313234125</v>
+        <v>0.005329303129613243</v>
       </c>
       <c r="U38" t="n">
         <v>0.1549161745561966</v>
@@ -6585,10 +6585,10 @@
         <v>1269.534113694206</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.04480518699217536</v>
+        <v>0.04480518699217535</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.00642517351265923</v>
+        <v>0.006425173512659229</v>
       </c>
       <c r="AA38" t="n">
         <v>0.1195105581499039</v>
@@ -6600,14 +6600,14 @@
         <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.0002755724295639664</v>
+        <v>0.0002755724294229042</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.0002806653120643558</v>
+        <v>0.0002806653119206865</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-03_E_UHfit.dat</t>
+          <t>data//heating\2024-04-03_E_UHfit.dat</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="AP38" t="n">
-        <v>0.01081845206956649</v>
+        <v>0.01081845206402866</v>
       </c>
       <c r="AQ38" t="inlineStr">
         <is>
@@ -6663,10 +6663,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU38" t="n">
-        <v>0.01827303218029027</v>
+        <v>0.01827303217093653</v>
       </c>
       <c r="AV38" t="n">
-        <v>0.08521185759630409</v>
+        <v>0.08521185761823856</v>
       </c>
     </row>
     <row r="39">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.08769882858005114</v>
+        <v>0.0876988284586387</v>
       </c>
       <c r="C39" t="n">
         <v>202.14</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01135480364645658</v>
+        <v>0.01135480363071015</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9198148484764102</v>
+        <v>0.9198148510232392</v>
       </c>
       <c r="F39" t="n">
         <v>13.3319777206682</v>
@@ -6723,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.0003982974699366299</v>
+        <v>0.000398297469385217</v>
       </c>
       <c r="R39" t="n">
         <v>7.364304298300004e-05</v>
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0.01762546969018046</v>
+        <v>0.01762546973898273</v>
       </c>
       <c r="U39" t="n">
         <v>0.212092949616298</v>
@@ -6741,7 +6741,7 @@
         <v>0.001951034595195173</v>
       </c>
       <c r="W39" t="n">
-        <v>0.1969578277471486</v>
+        <v>0.1969578277471485</v>
       </c>
       <c r="X39" t="n">
         <v>1544.365797375912</v>
@@ -6750,7 +6750,7 @@
         <v>0.06428376339749634</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.01018807325861371</v>
+        <v>0.0101880732586137</v>
       </c>
       <c r="AA39" t="n">
         <v>0.1038379378196855</v>
@@ -6762,14 +6762,14 @@
         <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.00306186024072964</v>
+        <v>0.003061860249207471</v>
       </c>
       <c r="AE39" t="n">
-        <v>2.01042640190532e-05</v>
+        <v>2.010426407471889e-05</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-03_E_UHfit.dat</t>
+          <t>data//heating\2024-04-03_E_UHfit.dat</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
@@ -6808,7 +6808,7 @@
         </is>
       </c>
       <c r="AP39" t="n">
-        <v>0.08186822353064502</v>
+        <v>0.08186822375732582</v>
       </c>
       <c r="AQ39" t="inlineStr">
         <is>
@@ -6825,10 +6825,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU39" t="n">
-        <v>0.0008518498198130898</v>
+        <v>0.0008518498221717339</v>
       </c>
       <c r="AV39" t="n">
-        <v>0.02356120450837321</v>
+        <v>0.02356120447569938</v>
       </c>
     </row>
     <row r="40">
@@ -6838,16 +6838,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3614391502026425</v>
+        <v>0.3614391501887024</v>
       </c>
       <c r="C40" t="n">
         <v>202.14</v>
       </c>
       <c r="D40" t="n">
-        <v>0.04902673234934449</v>
+        <v>0.04902673234745315</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5030861538495842</v>
+        <v>0.5030861538883906</v>
       </c>
       <c r="F40" t="n">
         <v>13.63122981726959</v>
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.001725854678225539</v>
+        <v>0.001725854678158975</v>
       </c>
       <c r="R40" t="n">
         <v>0.001537155401485908</v>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.007525768524172733</v>
+        <v>0.007525768524753246</v>
       </c>
       <c r="U40" t="n">
         <v>0.1707452966345169</v>
@@ -6909,7 +6909,7 @@
         <v>1342.266566818976</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.07340607204926589</v>
+        <v>0.07340607204926587</v>
       </c>
       <c r="Z40" t="n">
         <v>0.01020255497134582</v>
@@ -6924,14 +6924,14 @@
         <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.0005769974813229448</v>
+        <v>0.0005769974813674524</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.0001308153344685651</v>
+        <v>0.0001308153344786557</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-03_E_UHfit.dat</t>
+          <t>data//heating\2024-04-03_E_UHfit.dat</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
@@ -6970,7 +6970,7 @@
         </is>
       </c>
       <c r="AP40" t="n">
-        <v>0.01919745251929167</v>
+        <v>0.01919745252077249</v>
       </c>
       <c r="AQ40" t="inlineStr">
         <is>
@@ -6987,10 +6987,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU40" t="n">
-        <v>0.007079336418923646</v>
+        <v>0.007079336419469722</v>
       </c>
       <c r="AV40" t="n">
-        <v>0.1017304132441476</v>
+        <v>0.1017304132402231</v>
       </c>
     </row>
     <row r="41">
@@ -7000,16 +7000,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.254980747939596</v>
+        <v>0.2549807478081045</v>
       </c>
       <c r="C41" t="n">
         <v>202.14</v>
       </c>
       <c r="D41" t="n">
-        <v>0.03411280717778927</v>
+        <v>0.03411280716011152</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5264627267921804</v>
+        <v>0.5264627273351656</v>
       </c>
       <c r="F41" t="n">
         <v>13.69727122493564</v>
@@ -7047,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.001047621966103668</v>
+        <v>0.001047621965563418</v>
       </c>
       <c r="R41" t="n">
         <v>0.0006228227380999385</v>
@@ -7056,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.009282053251137118</v>
+        <v>0.009282053260710478</v>
       </c>
       <c r="U41" t="n">
         <v>0.1579070666191242</v>
@@ -7071,7 +7071,7 @@
         <v>1211.160256007988</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.06164623886970068</v>
+        <v>0.06164623886970067</v>
       </c>
       <c r="Z41" t="n">
         <v>0.006371946366256116</v>
@@ -7086,14 +7086,14 @@
         <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.0008159410728451664</v>
+        <v>0.000815941073686715</v>
       </c>
       <c r="AE41" t="n">
-        <v>5.345558899913664e-05</v>
+        <v>5.345558905426989e-05</v>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-03_E_UHfit.dat</t>
+          <t>data//heating\2024-04-03_E_UHfit.dat</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="AP41" t="n">
-        <v>0.02755612178786869</v>
+        <v>0.02755612181628963</v>
       </c>
       <c r="AQ41" t="inlineStr">
         <is>
@@ -7149,10 +7149,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU41" t="n">
-        <v>0.002638282793771635</v>
+        <v>0.002638282796492718</v>
       </c>
       <c r="AV41" t="n">
-        <v>0.07078403566418448</v>
+        <v>0.07078403562750317</v>
       </c>
     </row>
     <row r="42">
@@ -7162,16 +7162,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1221292284283256</v>
+        <v>0.1221292282984225</v>
       </c>
       <c r="C42" t="n">
         <v>202.14</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01610198386504403</v>
+        <v>0.01610198384786716</v>
       </c>
       <c r="E42" t="n">
-        <v>1.269733730246051</v>
+        <v>1.269733732947162</v>
       </c>
       <c r="F42" t="n">
         <v>13.3247630950602</v>
@@ -7209,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.0005329295416879992</v>
+        <v>0.0005329295411211473</v>
       </c>
       <c r="R42" t="n">
         <v>0.0001462387902582811</v>
@@ -7218,7 +7218,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0.02456620283815754</v>
+        <v>0.02456620289041735</v>
       </c>
       <c r="U42" t="n">
         <v>0.1983890047006756</v>
@@ -7227,7 +7227,7 @@
         <v>0.004522510252964317</v>
       </c>
       <c r="W42" t="n">
-        <v>0.1979633027450769</v>
+        <v>0.1979633027450768</v>
       </c>
       <c r="X42" t="n">
         <v>1464.904879733379</v>
@@ -7248,14 +7248,14 @@
         <v>0</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.003423687971285157</v>
+        <v>0.003423687978568386</v>
       </c>
       <c r="AE42" t="n">
-        <v>5.018692834288581e-05</v>
+        <v>5.018692844964873e-05</v>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-03_E_UHfit.dat</t>
+          <t>data//heating\2024-04-03_E_UHfit.dat</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
@@ -7294,7 +7294,7 @@
         </is>
       </c>
       <c r="AP42" t="n">
-        <v>0.09562878851645382</v>
+        <v>0.09562878871988544</v>
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
@@ -7311,10 +7311,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU42" t="n">
-        <v>0.002158537215288104</v>
+        <v>0.002158537219879971</v>
       </c>
       <c r="AV42" t="n">
-        <v>0.03341159800268492</v>
+        <v>0.03341159796704294</v>
       </c>
     </row>
     <row r="43">
@@ -7324,16 +7324,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1591233331109341</v>
+        <v>0.1591233330106397</v>
       </c>
       <c r="C43" t="n">
         <v>202.14</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02094992510741003</v>
+        <v>0.02094992509415159</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.003923600706450411</v>
+        <v>-0.003923600711396448</v>
       </c>
       <c r="F43" t="n">
         <v>13.31800148771208</v>
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.0002713108289404955</v>
+        <v>0.0002713108287694901</v>
       </c>
       <c r="R43" t="n">
         <v>8.619437675110126e-05</v>
@@ -7380,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>-2.49001161184403e-05</v>
+        <v>-2.490011614982905e-05</v>
       </c>
       <c r="U43" t="n">
         <v>0.08707519952468655</v>
@@ -7410,14 +7410,14 @@
         <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>-4.796202200797204e-07</v>
+        <v>-4.796202206843231e-07</v>
       </c>
       <c r="AE43" t="n">
-        <v>-4.05612645509093e-05</v>
+        <v>-4.056126460204028e-05</v>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-03_F_UHfit.dat</t>
+          <t>data//heating\2024-04-03_F_UHfit.dat</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr">
@@ -7456,7 +7456,7 @@
         </is>
       </c>
       <c r="AP43" t="n">
-        <v>-3.292441918017817e-05</v>
+        <v>-3.292441922168224e-05</v>
       </c>
       <c r="AQ43" t="inlineStr">
         <is>
@@ -7473,10 +7473,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU43" t="n">
-        <v>-0.004769095428982678</v>
+        <v>-0.004769095434994534</v>
       </c>
       <c r="AV43" t="n">
-        <v>0.04347107050546194</v>
+        <v>0.04347107047795069</v>
       </c>
     </row>
     <row r="44">
@@ -7486,16 +7486,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2872887361513775</v>
+        <v>0.2872887361880394</v>
       </c>
       <c r="C44" t="n">
         <v>202.14</v>
       </c>
       <c r="D44" t="n">
-        <v>0.03831817403400536</v>
+        <v>0.03831817403892208</v>
       </c>
       <c r="E44" t="n">
-        <v>0.008151622294705658</v>
+        <v>0.008151622292625145</v>
       </c>
       <c r="F44" t="n">
         <v>13.16203500254065</v>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.0005846278602572997</v>
+        <v>0.0005846278603319061</v>
       </c>
       <c r="R44" t="n">
         <v>0.0003368341510079095</v>
@@ -7542,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>5.832593702730162e-05</v>
+        <v>5.832593701241526e-05</v>
       </c>
       <c r="U44" t="n">
         <v>0.09185022888317876</v>
@@ -7551,10 +7551,10 @@
         <v>1.004068344570396e-05</v>
       </c>
       <c r="W44" t="n">
-        <v>0.09985197858641159</v>
+        <v>0.09985197858641158</v>
       </c>
       <c r="X44" t="n">
-        <v>651.8869378315417</v>
+        <v>651.8869378315416</v>
       </c>
       <c r="Y44" t="n">
         <v>0.03021638434698934</v>
@@ -7572,14 +7572,14 @@
         <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>1.778804809669006e-06</v>
+        <v>1.778804809215007e-06</v>
       </c>
       <c r="AE44" t="n">
-        <v>2.30653354865041e-05</v>
+        <v>2.30653354806172e-05</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-03_F_UHfit.dat</t>
+          <t>data//heating\2024-04-03_F_UHfit.dat</t>
         </is>
       </c>
       <c r="AG44" t="inlineStr">
@@ -7618,7 +7618,7 @@
         </is>
       </c>
       <c r="AP44" t="n">
-        <v>0.0001124162181930311</v>
+        <v>0.0001124162181643395</v>
       </c>
       <c r="AQ44" t="inlineStr">
         <is>
@@ -7635,10 +7635,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU44" t="n">
-        <v>0.002462698339605793</v>
+        <v>0.002462698338977246</v>
       </c>
       <c r="AV44" t="n">
-        <v>0.07951016705466099</v>
+        <v>0.07951016706486316</v>
       </c>
     </row>
     <row r="45">
@@ -7648,16 +7648,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.3755813733427077</v>
+        <v>0.3755813734802746</v>
       </c>
       <c r="C45" t="n">
         <v>202.14</v>
       </c>
       <c r="D45" t="n">
-        <v>0.05175808030017313</v>
+        <v>0.05175808031928695</v>
       </c>
       <c r="E45" t="n">
-        <v>0.135949575039516</v>
+        <v>0.1359495749399256</v>
       </c>
       <c r="F45" t="n">
         <v>12.7450835243572</v>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.0006974870510578975</v>
+        <v>0.000697487051313371</v>
       </c>
       <c r="R45" t="n">
         <v>0.0005858899233278746</v>
@@ -7704,16 +7704,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0.001106999056984222</v>
+        <v>0.001106999056173285</v>
       </c>
       <c r="U45" t="n">
         <v>0.1025135602301789</v>
       </c>
       <c r="V45" t="n">
-        <v>0.0004800563279680004</v>
+        <v>0.0004800563279680003</v>
       </c>
       <c r="W45" t="n">
-        <v>0.09731581530616237</v>
+        <v>0.09731581530616236</v>
       </c>
       <c r="X45" t="n">
         <v>708.5029059300879</v>
@@ -7722,7 +7722,7 @@
         <v>0.0293156619254747</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.005676023935468346</v>
+        <v>0.005676023935468345</v>
       </c>
       <c r="AA45" t="n">
         <v>0.02321634462179726</v>
@@ -7734,14 +7734,14 @@
         <v>0</v>
       </c>
       <c r="AD45" t="n">
-        <v>5.315644245860756e-05</v>
+        <v>5.315644241966758e-05</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.0001482686416969443</v>
+        <v>0.0001482686415883295</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-03_F_UHfit.dat</t>
+          <t>data//heating\2024-04-03_F_UHfit.dat</t>
         </is>
       </c>
       <c r="AG45" t="inlineStr">
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="AP45" t="n">
-        <v>0.002959037542694224</v>
+        <v>0.002959037540526569</v>
       </c>
       <c r="AQ45" t="inlineStr">
         <is>
@@ -7797,10 +7797,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU45" t="n">
-        <v>0.0138366035254133</v>
+        <v>0.01383660351527724</v>
       </c>
       <c r="AV45" t="n">
-        <v>0.1073979571010669</v>
+        <v>0.1073979571407281</v>
       </c>
     </row>
     <row r="46">
@@ -7810,16 +7810,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2295876885941832</v>
+        <v>0.2295876885908148</v>
       </c>
       <c r="C46" t="n">
         <v>202.14</v>
       </c>
       <c r="D46" t="n">
-        <v>0.03277715930338938</v>
+        <v>0.03277715930288185</v>
       </c>
       <c r="E46" t="n">
-        <v>0.04062961722090495</v>
+        <v>0.04062961722209716</v>
       </c>
       <c r="F46" t="n">
         <v>12.26055059699803</v>
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.0006077182544448926</v>
+        <v>0.0006077182544359763</v>
       </c>
       <c r="R46" t="n">
         <v>0.0002839772565408898</v>
@@ -7866,10 +7866,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.0004026497128842844</v>
+        <v>0.0004026497128960995</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0613540034344002</v>
+        <v>0.06135400343440021</v>
       </c>
       <c r="V46" t="n">
         <v>4.86021434494244e-05</v>
@@ -7881,10 +7881,10 @@
         <v>390.4652376048063</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.04514389510461349</v>
+        <v>0.0451438951046135</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.0051451690705738</v>
+        <v>0.005145169070573799</v>
       </c>
       <c r="AA46" t="n">
         <v>0.002039573340076269</v>
@@ -7896,14 +7896,14 @@
         <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>9.490998754739227e-06</v>
+        <v>9.490998755017724e-06</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.0001668160889830501</v>
+        <v>0.0001668160889879451</v>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-04_C_UHfit.dat</t>
+          <t>data//heating\2024-04-04_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG46" t="inlineStr">
@@ -7942,7 +7942,7 @@
         </is>
       </c>
       <c r="AP46" t="n">
-        <v>0.000639670348177541</v>
+        <v>0.0006396703481963111</v>
       </c>
       <c r="AQ46" t="inlineStr">
         <is>
@@ -7959,10 +7959,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU46" t="n">
-        <v>0.01542251915091855</v>
+        <v>0.0154225191513711</v>
       </c>
       <c r="AV46" t="n">
-        <v>0.06801256786079977</v>
+        <v>0.06801256785974664</v>
       </c>
     </row>
     <row r="47">
@@ -7972,16 +7972,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.3007536314399773</v>
+        <v>0.3007536315069598</v>
       </c>
       <c r="C47" t="n">
         <v>202.14</v>
       </c>
       <c r="D47" t="n">
-        <v>0.04362474944510088</v>
+        <v>0.04362474945486402</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1133730146898725</v>
+        <v>0.1133730146393726</v>
       </c>
       <c r="F47" t="n">
         <v>11.82548871122662</v>
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0006429598298219959</v>
+        <v>0.0006429598299651931</v>
       </c>
       <c r="R47" t="n">
         <v>0.0004329408371995737</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>0.004477167590961989</v>
+        <v>0.004477167588967718</v>
       </c>
       <c r="U47" t="n">
         <v>0.09053697468096671</v>
@@ -8043,10 +8043,10 @@
         <v>530.5602649408449</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.03749144874452614</v>
+        <v>0.03749144874452613</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.007190339801329442</v>
+        <v>0.007190339801329443</v>
       </c>
       <c r="AA47" t="n">
         <v>0.05039415159101032</v>
@@ -8058,14 +8058,14 @@
         <v>0</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.0001006926646362766</v>
+        <v>0.000100692664591425</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.0008885447863959459</v>
+        <v>0.0008885447860001603</v>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-04_C_UHfit.dat</t>
+          <t>data//heating\2024-04-04_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
@@ -8104,7 +8104,7 @@
         </is>
       </c>
       <c r="AP47" t="n">
-        <v>0.002374934683913873</v>
+        <v>0.002374934682856003</v>
       </c>
       <c r="AQ47" t="inlineStr">
         <is>
@@ -8121,10 +8121,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU47" t="n">
-        <v>0.02218957988334129</v>
+        <v>0.02218957987345735</v>
       </c>
       <c r="AV47" t="n">
-        <v>0.09052130493012248</v>
+        <v>0.09052130495038097</v>
       </c>
     </row>
     <row r="48">
@@ -8134,16 +8134,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.3663243183919353</v>
+        <v>0.3663243185132377</v>
       </c>
       <c r="C48" t="n">
         <v>202.14</v>
       </c>
       <c r="D48" t="n">
-        <v>0.05357383897294321</v>
+        <v>0.05357383899082014</v>
       </c>
       <c r="E48" t="n">
-        <v>0.09044887160387119</v>
+        <v>0.09044887154396983</v>
       </c>
       <c r="F48" t="n">
         <v>12.30797262235444</v>
@@ -8181,7 +8181,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.0007336655082400116</v>
+        <v>0.000733665508482953</v>
       </c>
       <c r="R48" t="n">
         <v>0.0006296354816356805</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>0.0006798322883552901</v>
+        <v>0.0006798322879050591</v>
       </c>
       <c r="U48" t="n">
         <v>0.07796575887813112</v>
@@ -8220,14 +8220,14 @@
         <v>0</v>
       </c>
       <c r="AD48" t="n">
-        <v>3.119036153099041e-05</v>
+        <v>3.119036151033404e-05</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.0001136097424023394</v>
+        <v>0.0001136097423270994</v>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-04_C_UHfit.dat</t>
+          <t>data//heating\2024-04-04_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG48" t="inlineStr">
@@ -8266,7 +8266,7 @@
         </is>
       </c>
       <c r="AP48" t="n">
-        <v>0.002088598466594036</v>
+        <v>0.002088598465210825</v>
       </c>
       <c r="AQ48" t="inlineStr">
         <is>
@@ -8283,10 +8283,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU48" t="n">
-        <v>0.01220915390997079</v>
+        <v>0.01220915390188507</v>
       </c>
       <c r="AV48" t="n">
-        <v>0.1111656542589423</v>
+        <v>0.1111656542960369</v>
       </c>
     </row>
     <row r="49">
@@ -8296,16 +8296,16 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2287685681852976</v>
+        <v>0.2287685682546399</v>
       </c>
       <c r="C49" t="n">
         <v>202.14</v>
       </c>
       <c r="D49" t="n">
-        <v>0.02987654038927012</v>
+        <v>0.02987654039837011</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2292950443247527</v>
+        <v>0.2292950441857491</v>
       </c>
       <c r="F49" t="n">
         <v>11.50849648037608</v>
@@ -8343,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.001476158102967864</v>
+        <v>0.001476158103415303</v>
       </c>
       <c r="R49" t="n">
         <v>0.0007197083226667287</v>
@@ -8352,10 +8352,10 @@
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>0.005163129807714289</v>
+        <v>0.005163129804584289</v>
       </c>
       <c r="U49" t="n">
-        <v>0.2224101947811592</v>
+        <v>0.2224101947811591</v>
       </c>
       <c r="V49" t="n">
         <v>0.0007410587335454579</v>
@@ -8367,7 +8367,7 @@
         <v>1251.955100295356</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.09269549496557192</v>
+        <v>0.09269549496557189</v>
       </c>
       <c r="Z49" t="n">
         <v>0.01782022484235882</v>
@@ -8376,20 +8376,20 @@
         <v>0.03862544380619028</v>
       </c>
       <c r="AB49" t="n">
-        <v>92180.96457149847</v>
+        <v>92180.96457149845</v>
       </c>
       <c r="AC49" t="n">
         <v>0</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.000239397255914133</v>
+        <v>0.0002393972557690052</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.0005618081266940026</v>
+        <v>0.0005618081263534223</v>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-05_C_UHfit.dat</t>
+          <t>data//heating\2024-04-05_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG49" t="inlineStr">
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="AP49" t="n">
-        <v>0.005256535852480853</v>
+        <v>0.005256535849294228</v>
       </c>
       <c r="AQ49" t="inlineStr">
         <is>
@@ -8445,10 +8445,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU49" t="n">
-        <v>0.02002443015265479</v>
+        <v>0.02002443014051554</v>
       </c>
       <c r="AV49" t="n">
-        <v>0.06199378694971405</v>
+        <v>0.06199378696859652</v>
       </c>
     </row>
     <row r="50">
@@ -8458,16 +8458,16 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2693925488530196</v>
+        <v>0.2693925489409492</v>
       </c>
       <c r="C50" t="n">
         <v>202.14</v>
       </c>
       <c r="D50" t="n">
-        <v>0.03534692536699587</v>
+        <v>0.03534692537859931</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1276552600691935</v>
+        <v>0.1276552599858603</v>
       </c>
       <c r="F50" t="n">
         <v>11.61449596183343</v>
@@ -8505,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.001063150359934729</v>
+        <v>0.00106315036028174</v>
       </c>
       <c r="R50" t="n">
         <v>0.0006044676604811834</v>
@@ -8514,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>0.002641403885308675</v>
+        <v>0.002641403883584371</v>
       </c>
       <c r="U50" t="n">
         <v>0.2010917821240933</v>
@@ -8529,7 +8529,7 @@
         <v>1097.357346684398</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.05692072654298943</v>
+        <v>0.05692072654298942</v>
       </c>
       <c r="Z50" t="n">
         <v>0.01358354724428702</v>
@@ -8544,14 +8544,14 @@
         <v>0</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.0001168914688742742</v>
+        <v>0.0001168914687979676</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.0002888183037444004</v>
+        <v>0.0002888183035558602</v>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-05_C_UHfit.dat</t>
+          <t>data//heating\2024-04-05_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG50" t="inlineStr">
@@ -8590,7 +8590,7 @@
         </is>
       </c>
       <c r="AP50" t="n">
-        <v>0.002909060810801416</v>
+        <v>0.002909060808902385</v>
       </c>
       <c r="AQ50" t="inlineStr">
         <is>
@@ -8607,10 +8607,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU50" t="n">
-        <v>0.01130256151114425</v>
+        <v>0.01130256150376595</v>
       </c>
       <c r="AV50" t="n">
-        <v>0.07334482948755226</v>
+        <v>0.07334482951162939</v>
       </c>
     </row>
     <row r="51">
@@ -8620,16 +8620,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.3097210588797341</v>
+        <v>0.3097210589860768</v>
       </c>
       <c r="C51" t="n">
         <v>202.14</v>
       </c>
       <c r="D51" t="n">
-        <v>0.04081731034472164</v>
+        <v>0.04081731035882852</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1327231944354384</v>
+        <v>0.1327231943442974</v>
       </c>
       <c r="F51" t="n">
         <v>11.44592319174285</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.001637570429786564</v>
+        <v>0.001637570430348824</v>
       </c>
       <c r="R51" t="n">
         <v>0.001087491582191195</v>
@@ -8676,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>0.002677854854049381</v>
+        <v>0.002677854852210498</v>
       </c>
       <c r="U51" t="n">
         <v>0.2288090584726222</v>
@@ -8706,14 +8706,14 @@
         <v>0</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.0001398690757327503</v>
+        <v>0.0001398690756367022</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.000305637813313334</v>
+        <v>0.0003056378131034526</v>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-05_C_UHfit.dat</t>
+          <t>data//heating\2024-04-05_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG51" t="inlineStr">
@@ -8752,7 +8752,7 @@
         </is>
       </c>
       <c r="AP51" t="n">
-        <v>0.003113999174040549</v>
+        <v>0.003113999171902167</v>
       </c>
       <c r="AQ51" t="inlineStr">
         <is>
@@ -8769,10 +8769,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU51" t="n">
-        <v>0.0114963686124495</v>
+        <v>0.01149636860455495</v>
       </c>
       <c r="AV51" t="n">
-        <v>0.0846958720253905</v>
+        <v>0.08469587205466228</v>
       </c>
     </row>
     <row r="52">
@@ -8782,16 +8782,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.3480785982019458</v>
+        <v>0.3480785983261472</v>
       </c>
       <c r="C52" t="n">
         <v>202.14</v>
       </c>
       <c r="D52" t="n">
-        <v>0.04628769532244738</v>
+        <v>0.04628769533905774</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1513802698023839</v>
+        <v>0.1513802696943528</v>
       </c>
       <c r="F52" t="n">
         <v>11.79398319530318</v>
@@ -8829,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.001139862661495925</v>
+        <v>0.001139862661902652</v>
       </c>
       <c r="R52" t="n">
         <v>0.0008803745960908611</v>
@@ -8838,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>0.00357580306805947</v>
+        <v>0.003575803065507632</v>
       </c>
       <c r="U52" t="n">
         <v>0.1447834485230894</v>
@@ -8862,20 +8862,20 @@
         <v>0.06840309558678188</v>
       </c>
       <c r="AB52" t="n">
-        <v>59276.76807329816</v>
+        <v>59276.76807329814</v>
       </c>
       <c r="AC52" t="n">
         <v>0</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.0001178750954822576</v>
+        <v>0.0001178750953981371</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.0003552684717816155</v>
+        <v>0.0003552684715280816</v>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-05_C_UHfit.dat</t>
+          <t>data//heating\2024-04-05_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr">
@@ -8914,7 +8914,7 @@
         </is>
       </c>
       <c r="AP52" t="n">
-        <v>0.00345202744689701</v>
+        <v>0.003452027444433503</v>
       </c>
       <c r="AQ52" t="inlineStr">
         <is>
@@ -8931,10 +8931,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU52" t="n">
-        <v>0.01371505790139024</v>
+        <v>0.01371505789160262</v>
       </c>
       <c r="AV52" t="n">
-        <v>0.09604691456322871</v>
+        <v>0.09604691459769517</v>
       </c>
     </row>
     <row r="53">
@@ -8944,16 +8944,16 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.3927416763080692</v>
+        <v>0.3927416764519214</v>
       </c>
       <c r="C53" t="n">
         <v>202.14</v>
       </c>
       <c r="D53" t="n">
-        <v>0.05175808030017313</v>
+        <v>0.05175808031928695</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1054239299612292</v>
+        <v>0.1054239298840005</v>
       </c>
       <c r="F53" t="n">
         <v>11.88551407050829</v>
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.001636536905086819</v>
+        <v>0.001636536905686245</v>
       </c>
       <c r="R53" t="n">
         <v>0.001409561213389829</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>0.001585093649765838</v>
+        <v>0.001585093648604671</v>
       </c>
       <c r="U53" t="n">
         <v>0.1931497921627567</v>
@@ -9015,29 +9015,29 @@
         <v>1141.75025484755</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.0603657468104332</v>
+        <v>0.06036574681043319</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.009809404674489743</v>
+        <v>0.009809404674489741</v>
       </c>
       <c r="AA53" t="n">
         <v>0.03365451106271742</v>
       </c>
       <c r="AB53" t="n">
-        <v>78773.67597450473</v>
+        <v>78773.67597450476</v>
       </c>
       <c r="AC53" t="n">
         <v>0</v>
       </c>
       <c r="AD53" t="n">
-        <v>8.355824946963697e-05</v>
+        <v>8.355824940842604e-05</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.000199000507764098</v>
+        <v>0.0001990005076183194</v>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-05_C_UHfit.dat</t>
+          <t>data//heating\2024-04-05_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG53" t="inlineStr">
@@ -9076,7 +9076,7 @@
         </is>
       </c>
       <c r="AP53" t="n">
-        <v>0.002330198981590302</v>
+        <v>0.002330198979883305</v>
       </c>
       <c r="AQ53" t="inlineStr">
         <is>
@@ -9093,10 +9093,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU53" t="n">
-        <v>0.009662817362185038</v>
+        <v>0.009662817355106502</v>
       </c>
       <c r="AV53" t="n">
-        <v>0.1073979571010669</v>
+        <v>0.1073979571407281</v>
       </c>
     </row>
     <row r="54">
@@ -9106,16 +9106,16 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.4324189089785215</v>
+        <v>0.4324189091406113</v>
       </c>
       <c r="C54" t="n">
         <v>202.14</v>
       </c>
       <c r="D54" t="n">
-        <v>0.05722846527789888</v>
+        <v>0.05722846529951615</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1244363552924304</v>
+        <v>0.1244363551991418</v>
       </c>
       <c r="F54" t="n">
         <v>11.82416699889602</v>
@@ -9153,7 +9153,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.001983626966739201</v>
+        <v>0.001983626967482753</v>
       </c>
       <c r="R54" t="n">
         <v>0.001957273231333831</v>
@@ -9162,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>0.002827377643114595</v>
+        <v>0.002827377640994941</v>
       </c>
       <c r="U54" t="n">
         <v>0.2073062896388083</v>
@@ -9171,13 +9171,13 @@
         <v>0.001529516983356796</v>
       </c>
       <c r="W54" t="n">
-        <v>0.2198194885780312</v>
+        <v>0.2198194885780311</v>
       </c>
       <c r="X54" t="n">
         <v>1242.280729125086</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.066956774264818</v>
+        <v>0.06695677426481798</v>
       </c>
       <c r="Z54" t="n">
         <v>0.01277093627195055</v>
@@ -9186,20 +9186,20 @@
         <v>0.08128997262514499</v>
       </c>
       <c r="AB54" t="n">
-        <v>84766.26619669162</v>
+        <v>84766.26619669159</v>
       </c>
       <c r="AC54" t="n">
         <v>0</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.0001168616708999037</v>
+        <v>0.0001168616708122938</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.0003092746257860618</v>
+        <v>0.000309274625554202</v>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-05_C_UHfit.dat</t>
+          <t>data//heating\2024-04-05_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG54" t="inlineStr">
@@ -9238,7 +9238,7 @@
         </is>
       </c>
       <c r="AP54" t="n">
-        <v>0.002791029464742292</v>
+        <v>0.002791029462649888</v>
       </c>
       <c r="AQ54" t="inlineStr">
         <is>
@@ -9255,10 +9255,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU54" t="n">
-        <v>0.01131724526884989</v>
+        <v>0.01131724526036548</v>
       </c>
       <c r="AV54" t="n">
-        <v>0.1187489996389051</v>
+        <v>0.1187489996837609</v>
       </c>
     </row>
     <row r="55">
@@ -9268,16 +9268,16 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.472496910387186</v>
+        <v>0.4724969105673988</v>
       </c>
       <c r="C55" t="n">
         <v>202.14</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06269885025562466</v>
+        <v>0.06269885027974537</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1306127475559557</v>
+        <v>0.130612747456323</v>
       </c>
       <c r="F55" t="n">
         <v>12.02318197947576</v>
@@ -9315,7 +9315,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.001783037291257028</v>
+        <v>0.001783037291937088</v>
       </c>
       <c r="R55" t="n">
         <v>0.001997162080808323</v>
@@ -9324,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>0.001816690947530572</v>
+        <v>0.001816690946144781</v>
       </c>
       <c r="U55" t="n">
         <v>0.1914226085217738</v>
@@ -9333,10 +9333,10 @@
         <v>0.0010556346543599</v>
       </c>
       <c r="W55" t="n">
-        <v>0.17424310423147</v>
+        <v>0.1742431042314699</v>
       </c>
       <c r="X55" t="n">
-        <v>1135.510159962374</v>
+        <v>1135.510159962375</v>
       </c>
       <c r="Y55" t="n">
         <v>0.05521977313741935</v>
@@ -9354,14 +9354,14 @@
         <v>0</v>
       </c>
       <c r="AD55" t="n">
-        <v>9.93857057988268e-05</v>
+        <v>9.938570572301434e-05</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.0002385478708266485</v>
+        <v>0.0002385478706446817</v>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-05_C_UHfit.dat</t>
+          <t>data//heating\2024-04-05_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG55" t="inlineStr">
@@ -9400,7 +9400,7 @@
         </is>
       </c>
       <c r="AP55" t="n">
-        <v>0.00286784718380605</v>
+        <v>0.002867847181618426</v>
       </c>
       <c r="AQ55" t="inlineStr">
         <is>
@@ -9417,10 +9417,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU55" t="n">
-        <v>0.01218014082649161</v>
+        <v>0.01218014081720047</v>
       </c>
       <c r="AV55" t="n">
-        <v>0.1301000421767434</v>
+        <v>0.1301000422267938</v>
       </c>
     </row>
     <row r="56">
@@ -9430,16 +9430,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.3180963890241739</v>
+        <v>0.3180963888679635</v>
       </c>
       <c r="C56" t="n">
         <v>202.14</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07324925276263533</v>
+        <v>0.07324925272627343</v>
       </c>
       <c r="E56" t="n">
-        <v>0.03864644220373</v>
+        <v>0.0386464422416869</v>
       </c>
       <c r="F56" t="n">
         <v>17.5353075273098</v>
@@ -9477,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.001647305620896403</v>
+        <v>0.001647305620087446</v>
       </c>
       <c r="R56" t="n">
         <v>0.001080295373492714</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>0.0008410804297349909</v>
+        <v>0.0008410804305610644</v>
       </c>
       <c r="U56" t="n">
         <v>0.1410992825865406</v>
@@ -9516,14 +9516,14 @@
         <v>0</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.0001856535203998359</v>
+        <v>0.0001856535205821769</v>
       </c>
       <c r="AE56" t="n">
-        <v>1.621789081642775e-06</v>
+        <v>1.621789083235627e-06</v>
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-08_G_UHfit.dat</t>
+          <t>data//heating\2024-04-08_G_UHfit.dat</t>
         </is>
       </c>
       <c r="AG56" t="inlineStr">
@@ -9562,7 +9562,7 @@
         </is>
       </c>
       <c r="AP56" t="n">
-        <v>0.006468628385784807</v>
+        <v>0.006468628392138019</v>
       </c>
       <c r="AQ56" t="inlineStr">
         <is>
@@ -9579,10 +9579,10 @@
         <v>483.0912957195565</v>
       </c>
       <c r="AU56" t="n">
-        <v>7.096957738707877e-05</v>
+        <v>7.096957745678209e-05</v>
       </c>
       <c r="AV56" t="n">
-        <v>0.1519921152458276</v>
+        <v>0.1519921151703768</v>
       </c>
     </row>
     <row r="57">
@@ -9592,16 +9592,16 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2774126147265901</v>
+        <v>0.2774126145830492</v>
       </c>
       <c r="C57" t="n">
         <v>202.14</v>
       </c>
       <c r="D57" t="n">
-        <v>0.06373555304396454</v>
+        <v>0.06373555301066434</v>
       </c>
       <c r="E57" t="n">
-        <v>0.02280243424197826</v>
+        <v>0.02280243426557547</v>
       </c>
       <c r="F57" t="n">
         <v>17.3937060818269</v>
@@ -9639,7 +9639,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.001217437703397071</v>
+        <v>0.001217437702767135</v>
       </c>
       <c r="R57" t="n">
         <v>0.0006852378703559522</v>
@@ -9648,7 +9648,7 @@
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>0.0002750879745606913</v>
+        <v>0.0002750879748453674</v>
       </c>
       <c r="U57" t="n">
         <v>0.1322430496342258</v>
@@ -9672,20 +9672,20 @@
         <v>0.01760034699424387</v>
       </c>
       <c r="AB57" t="n">
-        <v>44583.34449562404</v>
+        <v>44583.34449562406</v>
       </c>
       <c r="AC57" t="n">
         <v>0</v>
       </c>
       <c r="AD57" t="n">
-        <v>8.854447694968298e-05</v>
+        <v>8.854447704131369e-05</v>
       </c>
       <c r="AE57" t="n">
-        <v>4.325117245857432e-07</v>
+        <v>4.325117250333301e-07</v>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-08_G_UHfit.dat</t>
+          <t>data//heating\2024-04-08_G_UHfit.dat</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
@@ -9724,7 +9724,7 @@
         </is>
       </c>
       <c r="AP57" t="n">
-        <v>0.004224344693126146</v>
+        <v>0.00422434469749773</v>
       </c>
       <c r="AQ57" t="inlineStr">
         <is>
@@ -9741,10 +9741,10 @@
         <v>483.0912957195565</v>
       </c>
       <c r="AU57" t="n">
-        <v>3.146952252665578e-05</v>
+        <v>3.146952255922216e-05</v>
       </c>
       <c r="AV57" t="n">
-        <v>0.1322511992703404</v>
+        <v>0.1322511992012426</v>
       </c>
     </row>
     <row r="58">
@@ -9754,16 +9754,16 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2802970070813259</v>
+        <v>0.2802970069361724</v>
       </c>
       <c r="C58" t="n">
         <v>202.14</v>
       </c>
       <c r="D58" t="n">
-        <v>0.06373710784473627</v>
+        <v>0.0637371078114119</v>
       </c>
       <c r="E58" t="n">
-        <v>0.04612269619408237</v>
+        <v>0.04612269624185222</v>
       </c>
       <c r="F58" t="n">
         <v>17.4157679269363</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.001803848492745783</v>
+        <v>0.001803848491811649</v>
       </c>
       <c r="R58" t="n">
         <v>0.001044996735598873</v>
@@ -9810,7 +9810,7 @@
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>0.0007437063270427836</v>
+        <v>0.0007437063278130495</v>
       </c>
       <c r="U58" t="n">
         <v>0.1045368340827676</v>
@@ -9819,13 +9819,13 @@
         <v>0.003406668038524972</v>
       </c>
       <c r="W58" t="n">
-        <v>0.8468573351952025</v>
+        <v>0.8468573351952023</v>
       </c>
       <c r="X58" t="n">
-        <v>507.6283261950178</v>
+        <v>507.6283261950177</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.2775599508392597</v>
+        <v>0.2775599508392596</v>
       </c>
       <c r="Z58" t="n">
         <v>0.01400537479763473</v>
@@ -9840,14 +9840,14 @@
         <v>0</v>
       </c>
       <c r="AD58" t="n">
-        <v>0.0002136829496876746</v>
+        <v>0.0002136829499089887</v>
       </c>
       <c r="AE58" t="n">
-        <v>8.574064825548933e-07</v>
+        <v>8.5740648344292e-07</v>
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-08_G_UHfit.dat</t>
+          <t>data//heating\2024-04-08_G_UHfit.dat</t>
         </is>
       </c>
       <c r="AG58" t="inlineStr">
@@ -9886,7 +9886,7 @@
         </is>
       </c>
       <c r="AP58" t="n">
-        <v>0.009023540066875306</v>
+        <v>0.009023540076221099</v>
       </c>
       <c r="AQ58" t="inlineStr">
         <is>
@@ -9903,10 +9903,10 @@
         <v>483.0912957195565</v>
       </c>
       <c r="AU58" t="n">
-        <v>5.060916789364015e-05</v>
+        <v>5.06091679460567e-05</v>
       </c>
       <c r="AV58" t="n">
-        <v>0.1322544254801537</v>
+        <v>0.1322544254110057</v>
       </c>
     </row>
     <row r="59">
@@ -9916,16 +9916,16 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.5887947498374494</v>
+        <v>0.5887947498900191</v>
       </c>
       <c r="C59" t="n">
         <v>202.14</v>
       </c>
       <c r="D59" t="n">
-        <v>0.136118382678804</v>
+        <v>0.1361183826911875</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.0001453364481133643</v>
+        <v>-0.0001453364480874119</v>
       </c>
       <c r="F59" t="n">
         <v>17.49695481265015</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.002923576767141194</v>
+        <v>0.002923576767402221</v>
       </c>
       <c r="R59" t="n">
         <v>0.003441386958015838</v>
@@ -9972,22 +9972,22 @@
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>-2.759819118562667e-06</v>
+        <v>-2.759819118069853e-06</v>
       </c>
       <c r="U59" t="n">
-        <v>0.09262695010105117</v>
+        <v>0.09262695010105115</v>
       </c>
       <c r="V59" t="n">
         <v>-2.156606246098924e-05</v>
       </c>
       <c r="W59" t="n">
-        <v>0.6549792133746021</v>
+        <v>0.654979213374602</v>
       </c>
       <c r="X59" t="n">
         <v>460.2709773842168</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.2163597000183791</v>
+        <v>0.216359700018379</v>
       </c>
       <c r="Z59" t="n">
         <v>0.008481387962932574</v>
@@ -10002,14 +10002,14 @@
         <v>0</v>
       </c>
       <c r="AD59" t="n">
-        <v>-2.567017104231585e-07</v>
+        <v>-2.567017103773199e-07</v>
       </c>
       <c r="AE59" t="n">
-        <v>-5.809977229934092e-08</v>
+        <v>-5.809977228896621e-08</v>
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-08_G_UHfit.dat</t>
+          <t>data//heating\2024-04-08_G_UHfit.dat</t>
         </is>
       </c>
       <c r="AG59" t="inlineStr">
@@ -10048,7 +10048,7 @@
         </is>
       </c>
       <c r="AP59" t="n">
-        <v>-1.080619327507309e-05</v>
+        <v>-1.080619327314346e-05</v>
       </c>
       <c r="AQ59" t="inlineStr">
         <is>
@@ -10065,10 +10065,10 @@
         <v>483.0912957195565</v>
       </c>
       <c r="AU59" t="n">
-        <v>-2.974170585242451e-06</v>
+        <v>-2.974170584711362e-06</v>
       </c>
       <c r="AV59" t="n">
-        <v>0.2824454875223783</v>
+        <v>0.282445487548074</v>
       </c>
     </row>
     <row r="60">
@@ -10078,16 +10078,16 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.6479905974296034</v>
+        <v>0.6479905973536577</v>
       </c>
       <c r="C60" t="n">
         <v>202.14</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1521054562723503</v>
+        <v>0.1521054562541256</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0208724479219997</v>
+        <v>0.02087244792689228</v>
       </c>
       <c r="F60" t="n">
         <v>17.53752184467893</v>
@@ -10125,7 +10125,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.00415601067804391</v>
+        <v>0.004156010677556818</v>
       </c>
       <c r="R60" t="n">
         <v>0.005589285763334817</v>
@@ -10134,10 +10134,10 @@
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>0.0003671129528085726</v>
+        <v>0.0003671129528946252</v>
       </c>
       <c r="U60" t="n">
-        <v>0.1075518023355562</v>
+        <v>0.1075518023355561</v>
       </c>
       <c r="V60" t="n">
         <v>0.004348004036318956</v>
@@ -10158,20 +10158,20 @@
         <v>0.06751425090226157</v>
       </c>
       <c r="AB60" t="n">
-        <v>36110.16164437631</v>
+        <v>36110.1616443763</v>
       </c>
       <c r="AC60" t="n">
         <v>0</v>
       </c>
       <c r="AD60" t="n">
-        <v>4.820640704628416e-05</v>
+        <v>4.820640705758391e-05</v>
       </c>
       <c r="AE60" t="n">
-        <v>4.286583766252649e-06</v>
+        <v>4.28658376725744e-06</v>
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-08_G_UHfit.dat</t>
+          <t>data//heating\2024-04-08_G_UHfit.dat</t>
         </is>
       </c>
       <c r="AG60" t="inlineStr">
@@ -10210,7 +10210,7 @@
         </is>
       </c>
       <c r="AP60" t="n">
-        <v>0.001943981317764349</v>
+        <v>0.001943981318220025</v>
       </c>
       <c r="AQ60" t="inlineStr">
         <is>
@@ -10227,10 +10227,10 @@
         <v>483.0912957195565</v>
       </c>
       <c r="AU60" t="n">
-        <v>0.00023331166962296</v>
+        <v>0.0002333116696776492</v>
       </c>
       <c r="AV60" t="n">
-        <v>0.3156186468438522</v>
+        <v>0.315618646806036</v>
       </c>
     </row>
     <row r="61">
@@ -10240,16 +10240,16 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.5639625786172978</v>
+        <v>0.5639625784694912</v>
       </c>
       <c r="C61" t="n">
         <v>202.14</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1311223818233462</v>
+        <v>0.1311223817883397</v>
       </c>
       <c r="E61" t="n">
-        <v>0.03702417976693782</v>
+        <v>0.03702417978634485</v>
       </c>
       <c r="F61" t="n">
         <v>17.41964151506405</v>
@@ -10287,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.001890837372707064</v>
+        <v>0.001890837372211503</v>
       </c>
       <c r="R61" t="n">
         <v>0.002259277345807567</v>
@@ -10296,7 +10296,7 @@
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>0.0005079471814610691</v>
+        <v>0.0005079471817273206</v>
       </c>
       <c r="U61" t="n">
         <v>0.1008505346187583</v>
@@ -10305,7 +10305,7 @@
         <v>0.005137693945840181</v>
       </c>
       <c r="W61" t="n">
-        <v>0.4465225446190244</v>
+        <v>0.4465225446190242</v>
       </c>
       <c r="X61" t="n">
         <v>505.0834578452248</v>
@@ -10320,20 +10320,20 @@
         <v>0.08172376454090759</v>
       </c>
       <c r="AB61" t="n">
-        <v>33974.60768885797</v>
+        <v>33974.60768885796</v>
       </c>
       <c r="AC61" t="n">
         <v>0</v>
       </c>
       <c r="AD61" t="n">
-        <v>7.52000319940072e-05</v>
+        <v>7.52000320334249e-05</v>
       </c>
       <c r="AE61" t="n">
-        <v>3.88688834110932e-06</v>
+        <v>3.886888343146718e-06</v>
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-08_G_UHfit.dat</t>
+          <t>data//heating\2024-04-08_G_UHfit.dat</t>
         </is>
       </c>
       <c r="AG61" t="inlineStr">
@@ -10372,7 +10372,7 @@
         </is>
       </c>
       <c r="AP61" t="n">
-        <v>0.003969586224392301</v>
+        <v>0.003969586226473045</v>
       </c>
       <c r="AQ61" t="inlineStr">
         <is>
@@ -10389,10 +10389,10 @@
         <v>483.0912957195565</v>
       </c>
       <c r="AU61" t="n">
-        <v>0.0002661012403492584</v>
+        <v>0.0002661012404887412</v>
       </c>
       <c r="AV61" t="n">
-        <v>0.2720787914927044</v>
+        <v>0.2720787914200657</v>
       </c>
     </row>
     <row r="62">
@@ -10402,16 +10402,16 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.3987740911286464</v>
+        <v>0.3987740909618719</v>
       </c>
       <c r="C62" t="n">
         <v>202.14</v>
       </c>
       <c r="D62" t="n">
-        <v>0.09181944104323055</v>
+        <v>0.09181944100432003</v>
       </c>
       <c r="E62" t="n">
-        <v>0.01378846012833403</v>
+        <v>0.01378846013986719</v>
       </c>
       <c r="F62" t="n">
         <v>17.44955869505849</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.001695937211492872</v>
+        <v>0.001695937210783601</v>
       </c>
       <c r="R62" t="n">
         <v>0.001370259056864319</v>
@@ -10458,10 +10458,10 @@
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>0.0001877308871703991</v>
+        <v>0.000187730887327424</v>
       </c>
       <c r="U62" t="n">
-        <v>0.08365948766701584</v>
+        <v>0.08365948766701582</v>
       </c>
       <c r="V62" t="n">
         <v>0.001162300586984725</v>
@@ -10470,10 +10470,10 @@
         <v>0.5681362279045871</v>
       </c>
       <c r="X62" t="n">
-        <v>412.2819561093274</v>
+        <v>412.2819561093273</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.1859577171795152</v>
+        <v>0.1859577171795151</v>
       </c>
       <c r="Z62" t="n">
         <v>0.0104514611471847</v>
@@ -10482,20 +10482,20 @@
         <v>0.01822078451552707</v>
       </c>
       <c r="AB62" t="n">
-        <v>28159.10382048652</v>
+        <v>28159.10382048651</v>
       </c>
       <c r="AC62" t="n">
         <v>0</v>
       </c>
       <c r="AD62" t="n">
-        <v>3.321540202548452e-05</v>
+        <v>3.321540205326708e-05</v>
       </c>
       <c r="AE62" t="n">
-        <v>7.698182900942794e-07</v>
+        <v>7.69818290738183e-07</v>
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-08_G_UHfit.dat</t>
+          <t>data//heating\2024-04-08_G_UHfit.dat</t>
         </is>
       </c>
       <c r="AG62" t="inlineStr">
@@ -10534,7 +10534,7 @@
         </is>
       </c>
       <c r="AP62" t="n">
-        <v>0.00179107527304281</v>
+        <v>0.00179107527454093</v>
       </c>
       <c r="AQ62" t="inlineStr">
         <is>
@@ -10551,10 +10551,10 @@
         <v>483.0912957195565</v>
       </c>
       <c r="AU62" t="n">
-        <v>5.408267746805662e-05</v>
+        <v>5.408267751329332e-05</v>
       </c>
       <c r="AV62" t="n">
-        <v>0.1905252345723462</v>
+        <v>0.1905252344916069</v>
       </c>
     </row>
     <row r="63">
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.3608211428767057</v>
+        <v>0.3608211427090838</v>
       </c>
       <c r="C63" t="n">
         <v>202.14</v>
       </c>
       <c r="D63" t="n">
-        <v>0.08270756070191235</v>
+        <v>0.08270756066303324</v>
       </c>
       <c r="E63" t="n">
-        <v>0.05131119878488407</v>
+        <v>0.05131119883255798</v>
       </c>
       <c r="F63" t="n">
         <v>17.59307513519156</v>
@@ -10611,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.002314729458886213</v>
+        <v>0.00231472945781089</v>
       </c>
       <c r="R63" t="n">
         <v>0.001749032009203159</v>
@@ -10620,10 +10620,10 @@
         <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>0.0009308467776821905</v>
+        <v>0.0009308467785470526</v>
       </c>
       <c r="U63" t="n">
-        <v>0.08203431924452682</v>
+        <v>0.0820343192445268</v>
       </c>
       <c r="V63" t="n">
         <v>0.005476203903737925</v>
@@ -10632,7 +10632,7 @@
         <v>0.8596016317838717</v>
       </c>
       <c r="X63" t="n">
-        <v>412.1277000181162</v>
+        <v>412.1277000181161</v>
       </c>
       <c r="Y63" t="n">
         <v>0.2796249782220391</v>
@@ -10644,20 +10644,20 @@
         <v>0.0879662484514811</v>
       </c>
       <c r="AB63" t="n">
-        <v>27499.23118651175</v>
+        <v>27499.23118651174</v>
       </c>
       <c r="AC63" t="n">
         <v>0</v>
       </c>
       <c r="AD63" t="n">
-        <v>0.0001811726790101093</v>
+        <v>0.0001811726791784392</v>
       </c>
       <c r="AE63" t="n">
-        <v>2.459517294197776e-06</v>
+        <v>2.459517296482946e-06</v>
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-08_G_UHfit.dat</t>
+          <t>data//heating\2024-04-08_G_UHfit.dat</t>
         </is>
       </c>
       <c r="AG63" t="inlineStr">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="AP63" t="n">
-        <v>0.007553748864144019</v>
+        <v>0.007553748871162308</v>
       </c>
       <c r="AQ63" t="inlineStr">
         <is>
@@ -10713,10 +10713,10 @@
         <v>483.0912957195565</v>
       </c>
       <c r="AU63" t="n">
-        <v>0.0001323373509452212</v>
+        <v>0.0001323373510681776</v>
       </c>
       <c r="AV63" t="n">
-        <v>0.1716180933427733</v>
+        <v>0.1716180932620992</v>
       </c>
     </row>
     <row r="64">
@@ -10726,16 +10726,16 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.3808669036843059</v>
+        <v>0.3808669034972701</v>
       </c>
       <c r="C64" t="n">
         <v>202.14</v>
       </c>
       <c r="D64" t="n">
-        <v>0.07324925276263533</v>
+        <v>0.07324925272627343</v>
       </c>
       <c r="E64" t="n">
-        <v>0.09313095397860532</v>
+        <v>0.09313095407007461</v>
       </c>
       <c r="F64" t="n">
         <v>14.93788063804305</v>
@@ -10773,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.001691981959569349</v>
+        <v>0.001691981958738453</v>
       </c>
       <c r="R64" t="n">
         <v>0.001419682552067362</v>
@@ -10782,19 +10782,19 @@
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>0.001372582203724726</v>
+        <v>0.001372582205072818</v>
       </c>
       <c r="U64" t="n">
         <v>0.1164691925311543</v>
       </c>
       <c r="V64" t="n">
-        <v>0.006362417896020847</v>
+        <v>0.006362417896020846</v>
       </c>
       <c r="W64" t="n">
-        <v>0.4378631971499067</v>
+        <v>0.4378631971499066</v>
       </c>
       <c r="X64" t="n">
-        <v>759.1732819982533</v>
+        <v>759.1732819982534</v>
       </c>
       <c r="Y64" t="n">
         <v>0.1362770243032592</v>
@@ -10812,14 +10812,14 @@
         <v>0</v>
       </c>
       <c r="AD64" t="n">
-        <v>0.0003166078177305975</v>
+        <v>0.0003166078180415564</v>
       </c>
       <c r="AE64" t="n">
-        <v>2.179915089581443e-06</v>
+        <v>2.179915091722463e-06</v>
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-10_C_UHfit.dat</t>
+          <t>data//heating\2024-04-10_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG64" t="inlineStr">
@@ -10858,7 +10858,7 @@
         </is>
       </c>
       <c r="AP64" t="n">
-        <v>0.01382943207194201</v>
+        <v>0.0138294320855247</v>
       </c>
       <c r="AQ64" t="inlineStr">
         <is>
@@ -10875,10 +10875,10 @@
         <v>441</v>
       </c>
       <c r="AU64" t="n">
-        <v>0.0001344683726287602</v>
+        <v>0.0001344683727608293</v>
       </c>
       <c r="AV64" t="n">
-        <v>0.1519921152458276</v>
+        <v>0.1519921151703768</v>
       </c>
     </row>
     <row r="65">
@@ -10888,16 +10888,16 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.3816995455173198</v>
+        <v>0.3816995453291687</v>
       </c>
       <c r="C65" t="n">
         <v>202.14</v>
       </c>
       <c r="D65" t="n">
-        <v>0.07325932566169326</v>
+        <v>0.07325932562520146</v>
       </c>
       <c r="E65" t="n">
-        <v>0.06485699636949448</v>
+        <v>0.0648569964334344</v>
       </c>
       <c r="F65" t="n">
         <v>15.0157986178278</v>
@@ -10935,7 +10935,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.001705749719058223</v>
+        <v>0.001705749718217408</v>
       </c>
       <c r="R65" t="n">
         <v>0.001401571431910469</v>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>0.000789765332975246</v>
+        <v>0.0007897653337538441</v>
       </c>
       <c r="U65" t="n">
         <v>0.119965137481259</v>
@@ -10953,13 +10953,13 @@
         <v>0.003939558814646643</v>
       </c>
       <c r="W65" t="n">
-        <v>0.429087065338982</v>
+        <v>0.4290870653389819</v>
       </c>
       <c r="X65" t="n">
         <v>798.6928478179552</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.1365313738411004</v>
+        <v>0.1365313738411003</v>
       </c>
       <c r="Z65" t="n">
         <v>0.01278698408404246</v>
@@ -10974,14 +10974,14 @@
         <v>0</v>
       </c>
       <c r="AD65" t="n">
-        <v>0.000225418215569494</v>
+        <v>0.0002254182157917248</v>
       </c>
       <c r="AE65" t="n">
-        <v>1.005531551938784e-06</v>
+        <v>1.005531552930098e-06</v>
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-10_C_UHfit.dat</t>
+          <t>data//heating\2024-04-10_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG65" t="inlineStr">
@@ -11020,7 +11020,7 @@
         </is>
       </c>
       <c r="AP65" t="n">
-        <v>0.01042533321973544</v>
+        <v>0.01042533323001336</v>
       </c>
       <c r="AQ65" t="inlineStr">
         <is>
@@ -11037,10 +11037,10 @@
         <v>441</v>
       </c>
       <c r="AU65" t="n">
-        <v>7.17959978133098e-05</v>
+        <v>7.179599788409061e-05</v>
       </c>
       <c r="AV65" t="n">
-        <v>0.152013016499789</v>
+        <v>0.1520130164240686</v>
       </c>
     </row>
     <row r="66">
@@ -11050,16 +11050,16 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.3328876451961089</v>
+        <v>0.3328876450237209</v>
       </c>
       <c r="C66" t="n">
         <v>202.14</v>
       </c>
       <c r="D66" t="n">
-        <v>0.06373710784473627</v>
+        <v>0.0637371078114119</v>
       </c>
       <c r="E66" t="n">
-        <v>0.08679020268062632</v>
+        <v>0.08679020277051604</v>
       </c>
       <c r="F66" t="n">
         <v>15.23189729586548</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.001502215081314011</v>
+        <v>0.001502215080536079</v>
       </c>
       <c r="R66" t="n">
         <v>0.001084774802181182</v>
@@ -11106,10 +11106,10 @@
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>0.001376444148101108</v>
+        <v>0.001376444149526708</v>
       </c>
       <c r="U66" t="n">
-        <v>0.1007492277705462</v>
+        <v>0.1007492277705461</v>
       </c>
       <c r="V66" t="n">
         <v>0.005869412216422343</v>
@@ -11118,7 +11118,7 @@
         <v>0.4370225433976812</v>
       </c>
       <c r="X66" t="n">
-        <v>707.1127931714054</v>
+        <v>707.1127931714053</v>
       </c>
       <c r="Y66" t="n">
         <v>0.137591170683432</v>
@@ -11130,20 +11130,20 @@
         <v>0.1385595962969782</v>
       </c>
       <c r="AB66" t="n">
-        <v>36296.15133601532</v>
+        <v>36296.15133601531</v>
       </c>
       <c r="AC66" t="n">
         <v>0</v>
       </c>
       <c r="AD66" t="n">
-        <v>0.0003281356043626749</v>
+        <v>0.0003281356047025291</v>
       </c>
       <c r="AE66" t="n">
-        <v>1.313459891101545e-06</v>
+        <v>1.313459892461912e-06</v>
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-10_C_UHfit.dat</t>
+          <t>data//heating\2024-04-10_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG66" t="inlineStr">
@@ -11182,7 +11182,7 @@
         </is>
       </c>
       <c r="AP66" t="n">
-        <v>0.01471829397256928</v>
+        <v>0.01471829398781321</v>
       </c>
       <c r="AQ66" t="inlineStr">
         <is>
@@ -11199,10 +11199,10 @@
         <v>441</v>
       </c>
       <c r="AU66" t="n">
-        <v>7.789368916643415e-05</v>
+        <v>7.789368924710963e-05</v>
       </c>
       <c r="AV66" t="n">
-        <v>0.1322544254801537</v>
+        <v>0.1322544254110057</v>
       </c>
     </row>
     <row r="67">
@@ -11212,16 +11212,16 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.704840595063883</v>
+        <v>0.7048405951268137</v>
       </c>
       <c r="C67" t="n">
         <v>202.14</v>
       </c>
       <c r="D67" t="n">
-        <v>0.136118382678804</v>
+        <v>0.1361183826911875</v>
       </c>
       <c r="E67" t="n">
-        <v>0.06678476869342673</v>
+        <v>0.06678476868150116</v>
       </c>
       <c r="F67" t="n">
         <v>15.47645326393051</v>
@@ -11259,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.002509769002755852</v>
+        <v>0.002509769002979933</v>
       </c>
       <c r="R67" t="n">
         <v>0.003939269866303302</v>
@@ -11268,13 +11268,13 @@
         <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>0.0008670597791780183</v>
+        <v>0.0008670597790231895</v>
       </c>
       <c r="U67" t="n">
         <v>0.1508338431921717</v>
       </c>
       <c r="V67" t="n">
-        <v>0.005964598997961158</v>
+        <v>0.005964598997961156</v>
       </c>
       <c r="W67" t="n">
         <v>0.3505670496764239</v>
@@ -11286,7 +11286,7 @@
         <v>0.108042616673549</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.01377251986662814</v>
+        <v>0.01377251986662813</v>
       </c>
       <c r="AA67" t="n">
         <v>0.1434911731625054</v>
@@ -11298,14 +11298,14 @@
         <v>0</v>
       </c>
       <c r="AD67" t="n">
-        <v>9.992352061698108e-05</v>
+        <v>9.9923520599138e-05</v>
       </c>
       <c r="AE67" t="n">
-        <v>1.760563343195816e-05</v>
+        <v>1.760563342881436e-05</v>
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-10_C_UHfit.dat</t>
+          <t>data//heating\2024-04-10_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG67" t="inlineStr">
@@ -11344,7 +11344,7 @@
         </is>
       </c>
       <c r="AP67" t="n">
-        <v>0.00416541425166399</v>
+        <v>0.004165414250920183</v>
       </c>
       <c r="AQ67" t="inlineStr">
         <is>
@@ -11361,10 +11361,10 @@
         <v>441</v>
       </c>
       <c r="AU67" t="n">
-        <v>0.001136926039755948</v>
+        <v>0.00113692603955293</v>
       </c>
       <c r="AV67" t="n">
-        <v>0.2824454875223783</v>
+        <v>0.282445487548074</v>
       </c>
     </row>
     <row r="68">
@@ -11374,16 +11374,16 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.775746690718308</v>
+        <v>0.775746690627389</v>
       </c>
       <c r="C68" t="n">
         <v>202.14</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1521054562723503</v>
+        <v>0.1521054562541256</v>
       </c>
       <c r="E68" t="n">
-        <v>0.05229104265525995</v>
+        <v>0.05229104266751718</v>
       </c>
       <c r="F68" t="n">
         <v>15.34606635914083</v>
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.003236671381731015</v>
+        <v>0.00323667138135167</v>
       </c>
       <c r="R68" t="n">
         <v>0.005690858812340902</v>
@@ -11430,44 +11430,44 @@
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>0.0006992329697832496</v>
+        <v>0.0006992329699471526</v>
       </c>
       <c r="U68" t="n">
         <v>0.1235817870667482</v>
       </c>
       <c r="V68" t="n">
-        <v>0.007502215588129963</v>
+        <v>0.007502215588129964</v>
       </c>
       <c r="W68" t="n">
         <v>0.4116893613562038</v>
       </c>
       <c r="X68" t="n">
-        <v>860.8529724832999</v>
+        <v>860.8529724832997</v>
       </c>
       <c r="Y68" t="n">
         <v>0.1300367644405842</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.0130141905282913</v>
+        <v>0.01301419052829129</v>
       </c>
       <c r="AA68" t="n">
         <v>0.1771218932068319</v>
       </c>
       <c r="AB68" t="n">
-        <v>44355.94002269917</v>
+        <v>44355.94002269916</v>
       </c>
       <c r="AC68" t="n">
         <v>0</v>
       </c>
       <c r="AD68" t="n">
-        <v>9.204931510407833e-05</v>
+        <v>9.204931512565502e-05</v>
       </c>
       <c r="AE68" t="n">
-        <v>7.215621100944649e-06</v>
+        <v>7.215621102636019e-06</v>
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-10_C_UHfit.dat</t>
+          <t>data//heating\2024-04-10_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG68" t="inlineStr">
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="AP68" t="n">
-        <v>0.004151454449677635</v>
+        <v>0.004151454450650752</v>
       </c>
       <c r="AQ68" t="inlineStr">
         <is>
@@ -11523,10 +11523,10 @@
         <v>441</v>
       </c>
       <c r="AU68" t="n">
-        <v>0.0004784467922785796</v>
+        <v>0.0004784467923907295</v>
       </c>
       <c r="AV68" t="n">
-        <v>0.3156186468438522</v>
+        <v>0.315618646806036</v>
       </c>
     </row>
     <row r="69">
@@ -11536,16 +11536,16 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.6004626194227543</v>
+        <v>0.6004626192588877</v>
       </c>
       <c r="C69" t="n">
         <v>202.14</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1172638711596952</v>
+        <v>0.1172638711271642</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0657180442327711</v>
+        <v>0.06571804426864007</v>
       </c>
       <c r="F69" t="n">
         <v>15.11113567066597</v>
@@ -11583,7 +11583,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.00221730112622323</v>
+        <v>0.002217301125618127</v>
       </c>
       <c r="R69" t="n">
         <v>0.002967185859470168</v>
@@ -11592,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>0.0007922371521606631</v>
+        <v>0.0007922371525930669</v>
       </c>
       <c r="U69" t="n">
         <v>0.1069035043652578</v>
@@ -11604,7 +11604,7 @@
         <v>0.3594978469391446</v>
       </c>
       <c r="X69" t="n">
-        <v>721.5122321285423</v>
+        <v>721.5122321285421</v>
       </c>
       <c r="Y69" t="n">
         <v>0.115213335547838</v>
@@ -11622,14 +11622,14 @@
         <v>0</v>
       </c>
       <c r="AD69" t="n">
-        <v>0.0001215992560504714</v>
+        <v>0.0001215992561168404</v>
       </c>
       <c r="AE69" t="n">
-        <v>5.160527456991525e-06</v>
+        <v>5.160527459808148e-06</v>
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-10_C_UHfit.dat</t>
+          <t>data//heating\2024-04-10_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG69" t="inlineStr">
@@ -11668,7 +11668,7 @@
         </is>
       </c>
       <c r="AP69" t="n">
-        <v>0.006176855129036853</v>
+        <v>0.006176855132408188</v>
       </c>
       <c r="AQ69" t="inlineStr">
         <is>
@@ -11685,10 +11685,10 @@
         <v>441</v>
       </c>
       <c r="AU69" t="n">
-        <v>0.0003816215758560981</v>
+        <v>0.0003816215760643876</v>
       </c>
       <c r="AV69" t="n">
-        <v>0.2433223978029158</v>
+        <v>0.2433223977354139</v>
       </c>
     </row>
     <row r="70">
@@ -11698,16 +11698,16 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.5169659856916878</v>
+        <v>0.5169659854819575</v>
       </c>
       <c r="C70" t="n">
         <v>202.14</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1012929230265708</v>
+        <v>0.1012929229848712</v>
       </c>
       <c r="E70" t="n">
-        <v>0.08441083907637344</v>
+        <v>0.08441083914486347</v>
       </c>
       <c r="F70" t="n">
         <v>15.12889204772455</v>
@@ -11745,7 +11745,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.001577330564916602</v>
+        <v>0.001577330564276687</v>
       </c>
       <c r="R70" t="n">
         <v>0.001851140723155121</v>
@@ -11754,13 +11754,13 @@
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>0.001038410807944043</v>
+        <v>0.001038410808786598</v>
       </c>
       <c r="U70" t="n">
         <v>0.1197204072876763</v>
       </c>
       <c r="V70" t="n">
-        <v>0.006988871852343425</v>
+        <v>0.006988871852343422</v>
       </c>
       <c r="W70" t="n">
         <v>0.3091349633900268</v>
@@ -11772,26 +11772,26 @@
         <v>0.09617311549417953</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.01182500639140067</v>
+        <v>0.01182500639140066</v>
       </c>
       <c r="AA70" t="n">
         <v>0.1626604066866005</v>
       </c>
       <c r="AB70" t="n">
-        <v>43277.33169044922</v>
+        <v>43277.33169044923</v>
       </c>
       <c r="AC70" t="n">
         <v>0</v>
       </c>
       <c r="AD70" t="n">
-        <v>0.0002018306956596929</v>
+        <v>0.0002018306958234562</v>
       </c>
       <c r="AE70" t="n">
-        <v>3.763899888365621e-06</v>
+        <v>3.763899891419608e-06</v>
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-10_C_UHfit.dat</t>
+          <t>data//heating\2024-04-10_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG70" t="inlineStr">
@@ -11830,7 +11830,7 @@
         </is>
       </c>
       <c r="AP70" t="n">
-        <v>0.009808668461892966</v>
+        <v>0.009808668469851614</v>
       </c>
       <c r="AQ70" t="inlineStr">
         <is>
@@ -11847,10 +11847,10 @@
         <v>441</v>
       </c>
       <c r="AU70" t="n">
-        <v>0.0002672850374715429</v>
+        <v>0.0002672850376884151</v>
       </c>
       <c r="AV70" t="n">
-        <v>0.210182698793273</v>
+        <v>0.2101826987067464</v>
       </c>
     </row>
     <row r="71">
@@ -11860,16 +11860,16 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.4263088010343904</v>
+        <v>0.4263088008363459</v>
       </c>
       <c r="C71" t="n">
         <v>202.14</v>
       </c>
       <c r="D71" t="n">
-        <v>0.08270756070191235</v>
+        <v>0.08270756066303324</v>
       </c>
       <c r="E71" t="n">
-        <v>0.07863168660880576</v>
+        <v>0.0786316866818635</v>
       </c>
       <c r="F71" t="n">
         <v>15.17781697496819</v>
@@ -11907,7 +11907,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.002129757497100268</v>
+        <v>0.002129757496110875</v>
       </c>
       <c r="R71" t="n">
         <v>0.001992277715880681</v>
@@ -11916,22 +11916,22 @@
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>0.001278694032724538</v>
+        <v>0.001278694033912589</v>
       </c>
       <c r="U71" t="n">
         <v>0.1502189766327944</v>
       </c>
       <c r="V71" t="n">
-        <v>0.006711452742764235</v>
+        <v>0.006711452742764234</v>
       </c>
       <c r="W71" t="n">
-        <v>0.497289846287055</v>
+        <v>0.4972898462870549</v>
       </c>
       <c r="X71" t="n">
         <v>1037.914885420658</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.1556603824664358</v>
+        <v>0.1556603824664357</v>
       </c>
       <c r="Z71" t="n">
         <v>0.01683467585540828</v>
@@ -11946,14 +11946,14 @@
         <v>0</v>
       </c>
       <c r="AD71" t="n">
-        <v>0.0002799129675047451</v>
+        <v>0.0002799129677648159</v>
       </c>
       <c r="AE71" t="n">
-        <v>2.987253427044193e-06</v>
+        <v>2.98725342981969e-06</v>
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-10_C_UHfit.dat</t>
+          <t>data//heating\2024-04-10_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG71" t="inlineStr">
@@ -11992,7 +11992,7 @@
         </is>
       </c>
       <c r="AP71" t="n">
-        <v>0.01034860949466903</v>
+        <v>0.01034860950428406</v>
       </c>
       <c r="AQ71" t="inlineStr">
         <is>
@@ -12009,10 +12009,10 @@
         <v>441</v>
       </c>
       <c r="AU71" t="n">
-        <v>0.0001625059242002769</v>
+        <v>0.0001625059243512633</v>
       </c>
       <c r="AV71" t="n">
-        <v>0.1716180933427733</v>
+        <v>0.1716180932620992</v>
       </c>
     </row>
     <row r="72">
@@ -12022,16 +12022,16 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.4085152279542764</v>
+        <v>0.4085152277536632</v>
       </c>
       <c r="C72" t="n">
         <v>202.14</v>
       </c>
       <c r="D72" t="n">
-        <v>0.07324925276263533</v>
+        <v>0.07324925272627343</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1137475326485542</v>
+        <v>0.1137475327602722</v>
       </c>
       <c r="F72" t="n">
         <v>13.76135596753379</v>
@@ -12069,7 +12069,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.002204079514240532</v>
+        <v>0.002204079513158155</v>
       </c>
       <c r="R72" t="n">
         <v>0.002049474997795276</v>
@@ -12078,7 +12078,7 @@
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>0.001815411839163385</v>
+        <v>0.001815411840946406</v>
       </c>
       <c r="U72" t="n">
         <v>0.1698291078135141</v>
@@ -12090,10 +12090,10 @@
         <v>0.457572224761756</v>
       </c>
       <c r="X72" t="n">
-        <v>946.386650605578</v>
+        <v>946.3866506055778</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.1440699690381346</v>
+        <v>0.1440699690381345</v>
       </c>
       <c r="Z72" t="n">
         <v>0.01737240266402754</v>
@@ -12108,14 +12108,14 @@
         <v>0</v>
       </c>
       <c r="AD72" t="n">
-        <v>0.0005097013510349848</v>
+        <v>0.000509701351535592</v>
       </c>
       <c r="AE72" t="n">
-        <v>2.78938652893127e-06</v>
+        <v>2.789386531670889e-06</v>
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-10_D_UHfit.dat</t>
+          <t>data//heating\2024-04-10_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG72" t="inlineStr">
@@ -12154,7 +12154,7 @@
         </is>
       </c>
       <c r="AP72" t="n">
-        <v>0.01660442661051692</v>
+        <v>0.01660442662682508</v>
       </c>
       <c r="AQ72" t="inlineStr">
         <is>
@@ -12171,10 +12171,10 @@
         <v>441</v>
       </c>
       <c r="AU72" t="n">
-        <v>0.0001452200053556705</v>
+        <v>0.0001452200054982995</v>
       </c>
       <c r="AV72" t="n">
-        <v>0.1519921152458276</v>
+        <v>0.1519921151703768</v>
       </c>
     </row>
     <row r="73">
@@ -12184,16 +12184,16 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.4072850017993394</v>
+        <v>0.4072850015985764</v>
       </c>
       <c r="C73" t="n">
         <v>202.14</v>
       </c>
       <c r="D73" t="n">
-        <v>0.07325932566169326</v>
+        <v>0.07325932562520146</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1171971035533123</v>
+        <v>0.1171971036688522</v>
       </c>
       <c r="F73" t="n">
         <v>13.62813144983079</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.002031122054756252</v>
+        <v>0.002031122053755051</v>
       </c>
       <c r="R73" t="n">
         <v>0.001915392223450218</v>
@@ -12240,7 +12240,7 @@
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>0.002017406334099918</v>
+        <v>0.002017406336088798</v>
       </c>
       <c r="U73" t="n">
         <v>0.2235949367348394</v>
@@ -12249,7 +12249,7 @@
         <v>0.00892214200974261</v>
       </c>
       <c r="W73" t="n">
-        <v>0.4021357686096942</v>
+        <v>0.4021357686096941</v>
       </c>
       <c r="X73" t="n">
         <v>1184.421972145063</v>
@@ -12270,14 +12270,14 @@
         <v>0</v>
       </c>
       <c r="AD73" t="n">
-        <v>0.0007173642928386513</v>
+        <v>0.0007173642935458719</v>
       </c>
       <c r="AE73" t="n">
-        <v>2.503776150835707e-06</v>
+        <v>2.50377615330408e-06</v>
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-10_D_UHfit.dat</t>
+          <t>data//heating\2024-04-10_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG73" t="inlineStr">
@@ -12316,7 +12316,7 @@
         </is>
       </c>
       <c r="AP73" t="n">
-        <v>0.01913659316543879</v>
+        <v>0.01913659318430479</v>
       </c>
       <c r="AQ73" t="inlineStr">
         <is>
@@ -12333,10 +12333,10 @@
         <v>441</v>
       </c>
       <c r="AU73" t="n">
-        <v>0.0001121739725482955</v>
+        <v>0.0001121739726588834</v>
       </c>
       <c r="AV73" t="n">
-        <v>0.152013016499789</v>
+        <v>0.1520130164240686</v>
       </c>
     </row>
     <row r="74">
@@ -12346,16 +12346,16 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.3557548483121029</v>
+        <v>0.355754848127873</v>
       </c>
       <c r="C74" t="n">
         <v>202.14</v>
       </c>
       <c r="D74" t="n">
-        <v>0.06373710784473627</v>
+        <v>0.0637371078114119</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1079129787764236</v>
+        <v>0.1079129788881905</v>
       </c>
       <c r="F74" t="n">
         <v>13.40133789558506</v>
@@ -12393,7 +12393,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.001533243202632732</v>
+        <v>0.001533243201838732</v>
       </c>
       <c r="R74" t="n">
         <v>0.001218574117521438</v>
@@ -12402,13 +12402,13 @@
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>0.002049316176670424</v>
+        <v>0.002049316178792926</v>
       </c>
       <c r="U74" t="n">
         <v>0.1711794585322717</v>
       </c>
       <c r="V74" t="n">
-        <v>0.007892827701943848</v>
+        <v>0.007892827701943847</v>
       </c>
       <c r="W74" t="n">
         <v>0.3691615525116914</v>
@@ -12420,7 +12420,7 @@
         <v>0.1150210208379362</v>
       </c>
       <c r="Z74" t="n">
-        <v>0.01681783668295197</v>
+        <v>0.01681783668295196</v>
       </c>
       <c r="AA74" t="n">
         <v>0.2160810861415322</v>
@@ -12432,14 +12432,14 @@
         <v>0</v>
       </c>
       <c r="AD74" t="n">
-        <v>0.0006281883371752559</v>
+        <v>0.0006281883378258785</v>
       </c>
       <c r="AE74" t="n">
-        <v>1.756598286415458e-06</v>
+        <v>1.756598288234789e-06</v>
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-10_D_UHfit.dat</t>
+          <t>data//heating\2024-04-10_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG74" t="inlineStr">
@@ -12478,7 +12478,7 @@
         </is>
       </c>
       <c r="AP74" t="n">
-        <v>0.01941614104601376</v>
+        <v>0.01941614106612331</v>
       </c>
       <c r="AQ74" t="inlineStr">
         <is>
@@ -12495,10 +12495,10 @@
         <v>441</v>
       </c>
       <c r="AU74" t="n">
-        <v>7.992754679543824e-05</v>
+        <v>7.992754687822021e-05</v>
       </c>
       <c r="AV74" t="n">
-        <v>0.1322544254801537</v>
+        <v>0.1322544254110057</v>
       </c>
     </row>
     <row r="75">
@@ -12508,16 +12508,16 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.7518617893858621</v>
+        <v>0.7518617894529911</v>
       </c>
       <c r="C75" t="n">
         <v>202.14</v>
       </c>
       <c r="D75" t="n">
-        <v>0.136118382678804</v>
+        <v>0.1361183826911875</v>
       </c>
       <c r="E75" t="n">
-        <v>0.08892123388659751</v>
+        <v>0.08892123387071908</v>
       </c>
       <c r="F75" t="n">
         <v>14.29850693627202</v>
@@ -12555,7 +12555,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.003634408627346261</v>
+        <v>0.003634408627670754</v>
       </c>
       <c r="R75" t="n">
         <v>0.006407457914468855</v>
@@ -12564,13 +12564,13 @@
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>0.001397920196199283</v>
+        <v>0.00139792019594966</v>
       </c>
       <c r="U75" t="n">
-        <v>0.1384286396050573</v>
+        <v>0.1384286396050572</v>
       </c>
       <c r="V75" t="n">
-        <v>0.00948783699013999</v>
+        <v>0.009487836990139989</v>
       </c>
       <c r="W75" t="n">
         <v>0.4127417909298814</v>
@@ -12588,20 +12588,20 @@
         <v>0.2679639141875054</v>
       </c>
       <c r="AB75" t="n">
-        <v>51472.64173139907</v>
+        <v>51472.64173139906</v>
       </c>
       <c r="AC75" t="n">
         <v>0</v>
       </c>
       <c r="AD75" t="n">
-        <v>0.0001443927111452099</v>
+        <v>0.000144392711119426</v>
       </c>
       <c r="AE75" t="n">
-        <v>2.395088403741672e-05</v>
+        <v>2.395088403313987e-05</v>
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-10_D_UHfit.dat</t>
+          <t>data//heating\2024-04-10_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG75" t="inlineStr">
@@ -12640,7 +12640,7 @@
         </is>
       </c>
       <c r="AP75" t="n">
-        <v>0.005488620059847738</v>
+        <v>0.005488620058867649</v>
       </c>
       <c r="AQ75" t="inlineStr">
         <is>
@@ -12657,10 +12657,10 @@
         <v>441</v>
       </c>
       <c r="AU75" t="n">
-        <v>0.001344278158983571</v>
+        <v>0.001344278158743526</v>
       </c>
       <c r="AV75" t="n">
-        <v>0.2824454875223783</v>
+        <v>0.282445487548074</v>
       </c>
     </row>
     <row r="76">
@@ -12670,16 +12670,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.8322642511608173</v>
+        <v>0.8322642510632744</v>
       </c>
       <c r="C76" t="n">
         <v>202.14</v>
       </c>
       <c r="D76" t="n">
-        <v>0.1521054562723503</v>
+        <v>0.1521054562541256</v>
       </c>
       <c r="E76" t="n">
-        <v>0.07392574111247666</v>
+        <v>0.07392574112980511</v>
       </c>
       <c r="F76" t="n">
         <v>13.86708563932457</v>
@@ -12717,7 +12717,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.003934631436459677</v>
+        <v>0.003934631435998531</v>
       </c>
       <c r="R76" t="n">
         <v>0.007987972443721195</v>
@@ -12726,19 +12726,19 @@
         <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>0.001178164044997822</v>
+        <v>0.001178164045273988</v>
       </c>
       <c r="U76" t="n">
         <v>0.1642122001202183</v>
       </c>
       <c r="V76" t="n">
-        <v>0.01169914010117584</v>
+        <v>0.01169914010117583</v>
       </c>
       <c r="W76" t="n">
         <v>0.4111931969415055</v>
       </c>
       <c r="X76" t="n">
-        <v>922.0940827449947</v>
+        <v>922.0940827449946</v>
       </c>
       <c r="Y76" t="n">
         <v>0.128118340792136</v>
@@ -12756,14 +12756,14 @@
         <v>0</v>
       </c>
       <c r="AD76" t="n">
-        <v>0.0001750159444699521</v>
+        <v>0.0001750159445109764</v>
       </c>
       <c r="AE76" t="n">
-        <v>1.101110473486217e-05</v>
+        <v>1.101110473744322e-05</v>
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-10_D_UHfit.dat</t>
+          <t>data//heating\2024-04-10_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG76" t="inlineStr">
@@ -12802,7 +12802,7 @@
         </is>
       </c>
       <c r="AP76" t="n">
-        <v>0.00593613619020289</v>
+        <v>0.005936136191594342</v>
       </c>
       <c r="AQ76" t="inlineStr">
         <is>
@@ -12819,10 +12819,10 @@
         <v>441</v>
       </c>
       <c r="AU76" t="n">
-        <v>0.0005810108217076479</v>
+        <v>0.0005810108218438389</v>
       </c>
       <c r="AV76" t="n">
-        <v>0.3156186468438522</v>
+        <v>0.315618646806036</v>
       </c>
     </row>
     <row r="77">
@@ -12832,16 +12832,16 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.6495061746563527</v>
+        <v>0.6495061744791022</v>
       </c>
       <c r="C77" t="n">
         <v>202.14</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1172638711596952</v>
+        <v>0.1172638711271642</v>
       </c>
       <c r="E77" t="n">
-        <v>0.07803332703899635</v>
+        <v>0.07803332708158701</v>
       </c>
       <c r="F77" t="n">
         <v>13.91593552627872</v>
@@ -12879,7 +12879,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.002114964115228676</v>
+        <v>0.002114964114651501</v>
       </c>
       <c r="R77" t="n">
         <v>0.003178417369188775</v>
@@ -12888,7 +12888,7 @@
         <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>0.00119444719420414</v>
+        <v>0.001194447194856071</v>
       </c>
       <c r="U77" t="n">
         <v>0.1496300835064674</v>
@@ -12900,32 +12900,32 @@
         <v>0.2829113997021684</v>
       </c>
       <c r="X77" t="n">
-        <v>848.8610869800126</v>
+        <v>848.8610869800125</v>
       </c>
       <c r="Y77" t="n">
         <v>0.08677681645653362</v>
       </c>
       <c r="Z77" t="n">
-        <v>0.01358301691656001</v>
+        <v>0.01358301691656</v>
       </c>
       <c r="AA77" t="n">
         <v>0.2323249376503597</v>
       </c>
       <c r="AB77" t="n">
-        <v>56397.33297559083</v>
+        <v>56397.33297559082</v>
       </c>
       <c r="AC77" t="n">
         <v>0</v>
       </c>
       <c r="AD77" t="n">
-        <v>0.0001890413151927403</v>
+        <v>0.0001890413152959192</v>
       </c>
       <c r="AE77" t="n">
-        <v>7.174833697836265e-06</v>
+        <v>7.174833701752296e-06</v>
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-10_D_UHfit.dat</t>
+          <t>data//heating\2024-04-10_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG77" t="inlineStr">
@@ -12964,7 +12964,7 @@
         </is>
       </c>
       <c r="AP77" t="n">
-        <v>0.007093251181200174</v>
+        <v>0.007093251185071677</v>
       </c>
       <c r="AQ77" t="inlineStr">
         <is>
@@ -12981,10 +12981,10 @@
         <v>441</v>
       </c>
       <c r="AU77" t="n">
-        <v>0.0004004528316178715</v>
+        <v>0.0004004528318364391</v>
       </c>
       <c r="AV77" t="n">
-        <v>0.2433223978029158</v>
+        <v>0.2433223977354139</v>
       </c>
     </row>
     <row r="78">
@@ -12994,16 +12994,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.5596929188320843</v>
+        <v>0.5596929186050199</v>
       </c>
       <c r="C78" t="n">
         <v>202.14</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1012929230265708</v>
+        <v>0.1012929229848712</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1057190684564885</v>
+        <v>0.1057190685422678</v>
       </c>
       <c r="F78" t="n">
         <v>13.94222335542282</v>
@@ -13041,7 +13041,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.002443851073229229</v>
+        <v>0.002443851072237773</v>
       </c>
       <c r="R78" t="n">
         <v>0.003280485389553757</v>
@@ -13050,7 +13050,7 @@
         <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>0.00184144626538953</v>
+        <v>0.00184144626688366</v>
       </c>
       <c r="U78" t="n">
         <v>0.1025079903786855</v>
@@ -13059,7 +13059,7 @@
         <v>0.01228222624674894</v>
       </c>
       <c r="W78" t="n">
-        <v>0.3645267684816201</v>
+        <v>0.36452676848162</v>
       </c>
       <c r="X78" t="n">
         <v>571.4794243501298</v>
@@ -13080,14 +13080,14 @@
         <v>0</v>
       </c>
       <c r="AD78" t="n">
-        <v>0.0002858924492290442</v>
+        <v>0.0002858924494610142</v>
       </c>
       <c r="AE78" t="n">
-        <v>5.492351833358655e-06</v>
+        <v>5.49235183781509e-06</v>
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-10_D_UHfit.dat</t>
+          <t>data//heating\2024-04-10_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG78" t="inlineStr">
@@ -13126,7 +13126,7 @@
         </is>
       </c>
       <c r="AP78" t="n">
-        <v>0.01184682877807217</v>
+        <v>0.01184682878768456</v>
       </c>
       <c r="AQ78" t="inlineStr">
         <is>
@@ -13143,10 +13143,10 @@
         <v>441</v>
       </c>
       <c r="AU78" t="n">
-        <v>0.0002961536748393981</v>
+        <v>0.000296153675079694</v>
       </c>
       <c r="AV78" t="n">
-        <v>0.210182698793273</v>
+        <v>0.2101826987067464</v>
       </c>
     </row>
     <row r="79">
@@ -13156,16 +13156,16 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.4589581117107036</v>
+        <v>0.4589581114974915</v>
       </c>
       <c r="C79" t="n">
         <v>202.14</v>
       </c>
       <c r="D79" t="n">
-        <v>0.08270756070191235</v>
+        <v>0.08270756066303324</v>
       </c>
       <c r="E79" t="n">
-        <v>0.121024756742559</v>
+        <v>0.1210247568550047</v>
       </c>
       <c r="F79" t="n">
         <v>13.92932128857706</v>
@@ -13203,7 +13203,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.00196313500655475</v>
+        <v>0.001963135005642762</v>
       </c>
       <c r="R79" t="n">
         <v>0.002113723982671905</v>
@@ -13212,7 +13212,7 @@
         <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>0.001666407331873537</v>
+        <v>0.001666407333421819</v>
       </c>
       <c r="U79" t="n">
         <v>0.1559029112958186</v>
@@ -13221,16 +13221,16 @@
         <v>0.008036886595531067</v>
       </c>
       <c r="W79" t="n">
-        <v>0.3811124076741261</v>
+        <v>0.381112407674126</v>
       </c>
       <c r="X79" t="n">
-        <v>885.8313714873227</v>
+        <v>885.8313714873228</v>
       </c>
       <c r="Y79" t="n">
         <v>0.1148632993488698</v>
       </c>
       <c r="Z79" t="n">
-        <v>0.01741574030075475</v>
+        <v>0.01741574030075476</v>
       </c>
       <c r="AA79" t="n">
         <v>0.22512513893306</v>
@@ -13242,14 +13242,14 @@
         <v>0</v>
       </c>
       <c r="AD79" t="n">
-        <v>0.0004230531827733908</v>
+        <v>0.0004230531831664552</v>
       </c>
       <c r="AE79" t="n">
-        <v>3.702845614301011e-06</v>
+        <v>3.702845617741374e-06</v>
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>data//heating/2024-04-10_D_UHfit.dat</t>
+          <t>data//heating\2024-04-10_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG79" t="inlineStr">
@@ -13288,7 +13288,7 @@
         </is>
       </c>
       <c r="AP79" t="n">
-        <v>0.01563076224022409</v>
+        <v>0.01563076225474684</v>
       </c>
       <c r="AQ79" t="inlineStr">
         <is>
@@ -13305,10 +13305,10 @@
         <v>441</v>
       </c>
       <c r="AU79" t="n">
-        <v>0.0002199007910247074</v>
+        <v>0.0002199007912290202</v>
       </c>
       <c r="AV79" t="n">
-        <v>0.1716180933427733</v>
+        <v>0.1716180932620992</v>
       </c>
     </row>
     <row r="80">
@@ -13318,16 +13318,16 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.3082635083069257</v>
+        <v>0.3082635083703555</v>
       </c>
       <c r="C80" t="n">
         <v>202.14</v>
       </c>
       <c r="D80" t="n">
-        <v>0.04542237016194293</v>
+        <v>0.04542237017134775</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.09445775729195918</v>
+        <v>-0.09445775725308704</v>
       </c>
       <c r="F80" t="n">
         <v>10.25606708978171</v>
@@ -13365,14 +13365,14 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.003076053717865068</v>
+        <v>0.003076053718498011</v>
       </c>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="n">
         <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>-0.002803072881033836</v>
+        <v>-0.002803072879880289</v>
       </c>
       <c r="U80" t="n">
         <v>0.128450811997874</v>
@@ -13381,7 +13381,7 @@
         <v>-0.001465228671529741</v>
       </c>
       <c r="W80" t="n">
-        <v>0.5760174785195163</v>
+        <v>0.5760174785195162</v>
       </c>
       <c r="X80" t="n">
         <v>573.288709901041</v>
@@ -13400,14 +13400,14 @@
         <v>0</v>
       </c>
       <c r="AD80" t="n">
-        <v>-0.0002183653684918511</v>
+        <v>-0.0002183653684019873</v>
       </c>
       <c r="AE80" t="n">
-        <v>-5.897320962079459e-05</v>
+        <v>-5.897320959652537e-05</v>
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>data//heating/2024-05-09_M_UHfit.dat</t>
+          <t>data//heating\2024-05-09_M_UHfit.dat</t>
         </is>
       </c>
       <c r="AG80" t="inlineStr">
@@ -13444,7 +13444,7 @@
         </is>
       </c>
       <c r="AP80" t="n">
-        <v>-0.005053523807904185</v>
+        <v>-0.005053523805824511</v>
       </c>
       <c r="AQ80" t="inlineStr">
         <is>
@@ -13461,10 +13461,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU80" t="n">
-        <v>-0.001866507161334768</v>
+        <v>-0.001866507160566646</v>
       </c>
       <c r="AV80" t="n">
-        <v>0.0942513658503059</v>
+        <v>0.09425136586982089</v>
       </c>
     </row>
     <row r="81">
@@ -13474,16 +13474,16 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.332352061463401</v>
+        <v>0.3323520615134642</v>
       </c>
       <c r="C81" t="n">
         <v>202.14</v>
       </c>
       <c r="D81" t="n">
-        <v>0.04908697446886687</v>
+        <v>0.04908697447632865</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3742018283935626</v>
+        <v>-0.3742018282808284</v>
       </c>
       <c r="F81" t="n">
         <v>10.41635440578606</v>
@@ -13521,26 +13521,26 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.002212175949630757</v>
+        <v>0.002212175949963984</v>
       </c>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="n">
         <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>-0.008699830745020735</v>
+        <v>-0.008699830742399771</v>
       </c>
       <c r="U81" t="n">
         <v>0.1468978153909799</v>
       </c>
       <c r="V81" t="n">
-        <v>-0.00562985098125902</v>
+        <v>-0.005629850981259019</v>
       </c>
       <c r="W81" t="n">
         <v>0.3968932863973194</v>
       </c>
       <c r="X81" t="n">
-        <v>664.6183160280793</v>
+        <v>664.6183160280792</v>
       </c>
       <c r="Y81" t="n">
         <v>0.1216608103964792</v>
@@ -13556,14 +13556,14 @@
         <v>0</v>
       </c>
       <c r="AD81" t="n">
-        <v>-0.0008111874847313386</v>
+        <v>-0.0008111874844869554</v>
       </c>
       <c r="AE81" t="n">
-        <v>-0.0001577262614442531</v>
+        <v>-0.0001577262613967356</v>
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>data//heating/2024-05-09_M_UHfit.dat</t>
+          <t>data//heating\2024-05-09_M_UHfit.dat</t>
         </is>
       </c>
       <c r="AG81" t="inlineStr">
@@ -13600,7 +13600,7 @@
         </is>
       </c>
       <c r="AP81" t="n">
-        <v>-0.02120400349195101</v>
+        <v>-0.02120400348556297</v>
       </c>
       <c r="AQ81" t="inlineStr">
         <is>
@@ -13617,10 +13617,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU81" t="n">
-        <v>-0.006005927613415689</v>
+        <v>-0.006005927611606308</v>
       </c>
       <c r="AV81" t="n">
-        <v>0.1018554155728781</v>
+        <v>0.1018554155883613</v>
       </c>
     </row>
     <row r="82">
@@ -13630,16 +13630,16 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.3022630738987419</v>
+        <v>0.3022630739192654</v>
       </c>
       <c r="C82" t="n">
         <v>202.14</v>
       </c>
       <c r="D82" t="n">
-        <v>0.04491606309540944</v>
+        <v>0.04491606309846513</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.252335010508921</v>
+        <v>-0.2523350104746543</v>
       </c>
       <c r="F82" t="n">
         <v>10.33409976802012</v>
@@ -13677,14 +13677,14 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.002682327347044426</v>
+        <v>0.002682327347226554</v>
       </c>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="n">
         <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>-0.00834872621394302</v>
+        <v>-0.008348726212809274</v>
       </c>
       <c r="U82" t="n">
         <v>0.1207253744025646</v>
@@ -13706,20 +13706,20 @@
       </c>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="n">
-        <v>52802.9380738182</v>
+        <v>52802.93807381821</v>
       </c>
       <c r="AC82" t="n">
         <v>0</v>
       </c>
       <c r="AD82" t="n">
-        <v>-0.0006871983623885751</v>
+        <v>-0.0006871983622952543</v>
       </c>
       <c r="AE82" t="n">
-        <v>-0.0001133318349532538</v>
+        <v>-0.0001133318349378635</v>
       </c>
       <c r="AF82" t="inlineStr">
         <is>
-          <t>data//heating/2024-05-09_M_UHfit.dat</t>
+          <t>data//heating\2024-05-09_M_UHfit.dat</t>
         </is>
       </c>
       <c r="AG82" t="inlineStr">
@@ -13756,7 +13756,7 @@
         </is>
       </c>
       <c r="AP82" t="n">
-        <v>-0.01567713669434319</v>
+        <v>-0.01567713669221425</v>
       </c>
       <c r="AQ82" t="inlineStr">
         <is>
@@ -13773,10 +13773,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU82" t="n">
-        <v>-0.003275662375953723</v>
+        <v>-0.003275662375508892</v>
       </c>
       <c r="AV82" t="n">
-        <v>0.09320077926950204</v>
+        <v>0.09320077927584258</v>
       </c>
     </row>
     <row r="83">
@@ -13786,16 +13786,16 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.3188125325578039</v>
+        <v>0.3188125325621942</v>
       </c>
       <c r="C83" t="n">
         <v>202.14</v>
       </c>
       <c r="D83" t="n">
-        <v>0.04714866436388331</v>
+        <v>0.04714866436451996</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.3365434682837425</v>
+        <v>-0.3365434682744736</v>
       </c>
       <c r="F83" t="n">
         <v>10.70219955338082</v>
@@ -13833,14 +13833,14 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.002546758517589591</v>
+        <v>0.002546758517624662</v>
       </c>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="n">
         <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>-0.009391077657680054</v>
+        <v>-0.009391077657421408</v>
       </c>
       <c r="U83" t="n">
         <v>0.2303692964355874</v>
@@ -13862,20 +13862,20 @@
       </c>
       <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="n">
-        <v>99011.10924637312</v>
+        <v>99011.1092463731</v>
       </c>
       <c r="AC83" t="n">
         <v>0</v>
       </c>
       <c r="AD83" t="n">
-        <v>-0.001096519506140728</v>
+        <v>-0.001096519506110528</v>
       </c>
       <c r="AE83" t="n">
-        <v>-0.0001294900352140496</v>
+        <v>-0.0001294900352104832</v>
       </c>
       <c r="AF83" t="inlineStr">
         <is>
-          <t>data//heating/2024-05-09_M_UHfit.dat</t>
+          <t>data//heating\2024-05-09_M_UHfit.dat</t>
         </is>
       </c>
       <c r="AG83" t="inlineStr">
@@ -13912,7 +13912,7 @@
         </is>
       </c>
       <c r="AP83" t="n">
-        <v>-0.02082873661885309</v>
+        <v>-0.02082873661827943</v>
       </c>
       <c r="AQ83" t="inlineStr">
         <is>
@@ -13929,10 +13929,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU83" t="n">
-        <v>-0.003858642961223578</v>
+        <v>-0.003858642961117304</v>
       </c>
       <c r="AV83" t="n">
-        <v>0.09783342433409384</v>
+        <v>0.09783342433541489</v>
       </c>
     </row>
     <row r="84">
@@ -13942,16 +13942,16 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.2304604127429043</v>
+        <v>0.2304604128173939</v>
       </c>
       <c r="C84" t="n">
         <v>202.14</v>
       </c>
       <c r="D84" t="n">
-        <v>0.03386453176458312</v>
+        <v>0.03386453177556882</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.3109290421428245</v>
+        <v>-0.3109290419418272</v>
       </c>
       <c r="F84" t="n">
         <v>11.0127448620507</v>
@@ -13989,14 +13989,14 @@
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.002697394250523656</v>
+        <v>0.002697394251395509</v>
       </c>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="n">
         <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>-0.01116355841649786</v>
+        <v>-0.01116355840928128</v>
       </c>
       <c r="U84" t="n">
         <v>0.2070783241114581</v>
@@ -14011,10 +14011,10 @@
         <v>1086.470063815229</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.2143186798627461</v>
+        <v>0.214318679862746</v>
       </c>
       <c r="Z84" t="n">
-        <v>0.03377763388530937</v>
+        <v>0.03377763388530936</v>
       </c>
       <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="n">
@@ -14024,14 +14024,14 @@
         <v>0</v>
       </c>
       <c r="AD84" t="n">
-        <v>-0.0005932255031851782</v>
+        <v>-0.0005932255028016928</v>
       </c>
       <c r="AE84" t="n">
-        <v>-0.0007623129542123617</v>
+        <v>-0.0007623129537195714</v>
       </c>
       <c r="AF84" t="inlineStr">
         <is>
-          <t>data//heating/2024-05-09_M_UHfit.dat</t>
+          <t>data//heating\2024-05-09_M_UHfit.dat</t>
         </is>
       </c>
       <c r="AG84" t="inlineStr">
@@ -14068,7 +14068,7 @@
         </is>
       </c>
       <c r="AP84" t="n">
-        <v>-0.01054807988200471</v>
+        <v>-0.01054807987518599</v>
       </c>
       <c r="AQ84" t="inlineStr">
         <is>
@@ -14085,10 +14085,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU84" t="n">
-        <v>-0.01933616752835685</v>
+        <v>-0.01933616751585716</v>
       </c>
       <c r="AV84" t="n">
-        <v>0.07026886446729844</v>
+        <v>0.07026886449009376</v>
       </c>
     </row>
     <row r="85">
@@ -14098,16 +14098,16 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.2814813096997912</v>
+        <v>0.2814813097883189</v>
       </c>
       <c r="C85" t="n">
         <v>202.14</v>
       </c>
       <c r="D85" t="n">
-        <v>0.04087690488437152</v>
+        <v>0.04087690489731198</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.233955537816878</v>
+        <v>-0.2339555376697171</v>
       </c>
       <c r="F85" t="n">
         <v>10.59678865609354</v>
@@ -14145,14 +14145,14 @@
         <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.002440459511174399</v>
+        <v>0.002440459511941939</v>
       </c>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="n">
         <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>-0.007079286282246948</v>
+        <v>-0.007079286277793988</v>
       </c>
       <c r="U85" t="n">
         <v>0.09484705353613027</v>
@@ -14180,14 +14180,14 @@
         <v>0</v>
       </c>
       <c r="AD85" t="n">
-        <v>-0.0003685818093050309</v>
+        <v>-0.0003685818090731884</v>
       </c>
       <c r="AE85" t="n">
-        <v>-0.0002786185781055014</v>
+        <v>-0.0002786185779302468</v>
       </c>
       <c r="AF85" t="inlineStr">
         <is>
-          <t>data//heating/2024-05-09_M_UHfit.dat</t>
+          <t>data//heating\2024-05-09_M_UHfit.dat</t>
         </is>
       </c>
       <c r="AG85" t="inlineStr">
@@ -14224,7 +14224,7 @@
         </is>
       </c>
       <c r="AP85" t="n">
-        <v>-0.009464157967605441</v>
+        <v>-0.009464157961652368</v>
       </c>
       <c r="AQ85" t="inlineStr">
         <is>
@@ -14241,10 +14241,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU85" t="n">
-        <v>-0.008919743756737843</v>
+        <v>-0.008919743751127213</v>
       </c>
       <c r="AV85" t="n">
-        <v>0.08481953062663029</v>
+        <v>0.08481953065348173</v>
       </c>
     </row>
     <row r="86">
@@ -14254,16 +14254,16 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.3852263981323527</v>
+        <v>0.3852263982260559</v>
       </c>
       <c r="C86" t="n">
         <v>202.14</v>
       </c>
       <c r="D86" t="n">
-        <v>0.05805327517876775</v>
+        <v>0.05805327519298979</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2368272547430281</v>
+        <v>0.2368272546278155</v>
       </c>
       <c r="F86" t="n">
         <v>15.14878921105295</v>
@@ -14301,29 +14301,29 @@
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.002599555123247096</v>
+        <v>0.002599555123879417</v>
       </c>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="n">
         <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>0.005235424502868393</v>
+        <v>0.005235424500321444</v>
       </c>
       <c r="U86" t="n">
         <v>0.2683277520276918</v>
       </c>
       <c r="V86" t="n">
-        <v>0.00507418033313768</v>
+        <v>0.005074180333137679</v>
       </c>
       <c r="W86" t="n">
-        <v>0.4410532889547695</v>
+        <v>0.4410532889547694</v>
       </c>
       <c r="X86" t="n">
         <v>1757.05845756164</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.1280982554102633</v>
+        <v>0.1280982554102632</v>
       </c>
       <c r="Z86" t="n">
         <v>0.01878103033207829</v>
@@ -14336,14 +14336,14 @@
         <v>0</v>
       </c>
       <c r="AD86" t="n">
-        <v>0.0003161740671845362</v>
+        <v>0.0003161740670307227</v>
       </c>
       <c r="AE86" t="n">
-        <v>0.0002260426254691548</v>
+        <v>0.0002260426253591887</v>
       </c>
       <c r="AF86" t="inlineStr">
         <is>
-          <t>data//heating/2024-05-10_R_UHfit.dat</t>
+          <t>data//heating\2024-05-10_R_UHfit.dat</t>
         </is>
       </c>
       <c r="AG86" t="inlineStr">
@@ -14380,7 +14380,7 @@
         </is>
       </c>
       <c r="AP86" t="n">
-        <v>0.007356096015448088</v>
+        <v>0.007356096011869467</v>
       </c>
       <c r="AQ86" t="inlineStr">
         <is>
@@ -14397,10 +14397,10 @@
         <v>441</v>
       </c>
       <c r="AU86" t="n">
-        <v>0.008400774276129447</v>
+        <v>0.008400774272042607</v>
       </c>
       <c r="AV86" t="n">
-        <v>0.1204604792346766</v>
+        <v>0.1204604792641873</v>
       </c>
     </row>
     <row r="87">
@@ -14410,16 +14410,16 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.3287106146367557</v>
+        <v>0.3287106146862703</v>
       </c>
       <c r="C87" t="n">
         <v>202.14</v>
       </c>
       <c r="D87" t="n">
-        <v>0.04908697446886687</v>
+        <v>0.04908697447632865</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2720659470945371</v>
+        <v>0.2720659470125729</v>
       </c>
       <c r="F87" t="n">
         <v>15.83393891475779</v>
@@ -14457,14 +14457,14 @@
         <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.001236053745965157</v>
+        <v>0.001236053746151347</v>
       </c>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="n">
         <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>0.00400685410132395</v>
+        <v>0.004006854100116822</v>
       </c>
       <c r="U87" t="n">
         <v>0.2732534839138727</v>
@@ -14492,14 +14492,14 @@
         <v>0</v>
       </c>
       <c r="AD87" t="n">
-        <v>0.000313543120858175</v>
+        <v>0.0003135431207637152</v>
       </c>
       <c r="AE87" t="n">
-        <v>0.0001717176646122049</v>
+        <v>0.0001717176645604723</v>
       </c>
       <c r="AF87" t="inlineStr">
         <is>
-          <t>data//heating/2024-05-10_R_UHfit.dat</t>
+          <t>data//heating\2024-05-10_R_UHfit.dat</t>
         </is>
       </c>
       <c r="AG87" t="inlineStr">
@@ -14536,7 +14536,7 @@
         </is>
       </c>
       <c r="AP87" t="n">
-        <v>0.008409024542592302</v>
+        <v>0.008409024540058952</v>
       </c>
       <c r="AQ87" t="inlineStr">
         <is>
@@ -14553,10 +14553,10 @@
         <v>441</v>
       </c>
       <c r="AU87" t="n">
-        <v>0.008183860187851159</v>
+        <v>0.008183860185385642</v>
       </c>
       <c r="AV87" t="n">
-        <v>0.1018554155728781</v>
+        <v>0.1018554155883613</v>
       </c>
     </row>
     <row r="88">
@@ -14566,16 +14566,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.3018831844231286</v>
+        <v>0.3018831844436263</v>
       </c>
       <c r="C88" t="n">
         <v>202.14</v>
       </c>
       <c r="D88" t="n">
-        <v>0.04491606309540944</v>
+        <v>0.04491606309846513</v>
       </c>
       <c r="E88" t="n">
-        <v>0.3583044247022077</v>
+        <v>0.3583044246535503</v>
       </c>
       <c r="F88" t="n">
         <v>16.20842559295875</v>
@@ -14613,23 +14613,23 @@
         <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.001041376080425925</v>
+        <v>0.001041376080496634</v>
       </c>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="n">
         <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>0.004806574483386934</v>
+        <v>0.004806574482734204</v>
       </c>
       <c r="U88" t="n">
         <v>0.2045226104608164</v>
       </c>
       <c r="V88" t="n">
-        <v>0.003220245951797197</v>
+        <v>0.003220245951797196</v>
       </c>
       <c r="W88" t="n">
-        <v>0.2257937187895019</v>
+        <v>0.2257937187895018</v>
       </c>
       <c r="X88" t="n">
         <v>1528.23021596515</v>
@@ -14648,14 +14648,14 @@
         <v>0</v>
       </c>
       <c r="AD88" t="n">
-        <v>0.000326258866300252</v>
+        <v>0.0003262588662559463</v>
       </c>
       <c r="AE88" t="n">
-        <v>0.0001580817756573808</v>
+        <v>0.0001580817756359134</v>
       </c>
       <c r="AF88" t="inlineStr">
         <is>
-          <t>data//heating/2024-05-10_R_UHfit.dat</t>
+          <t>data//heating\2024-05-10_R_UHfit.dat</t>
         </is>
       </c>
       <c r="AG88" t="inlineStr">
@@ -14692,7 +14692,7 @@
         </is>
       </c>
       <c r="AP88" t="n">
-        <v>0.01136139023059758</v>
+        <v>0.01136139022905472</v>
       </c>
       <c r="AQ88" t="inlineStr">
         <is>
@@ -14709,10 +14709,10 @@
         <v>441</v>
       </c>
       <c r="AU88" t="n">
-        <v>0.009136420189815093</v>
+        <v>0.009136420188574376</v>
       </c>
       <c r="AV88" t="n">
-        <v>0.09320077926950204</v>
+        <v>0.09320077927584258</v>
       </c>
     </row>
     <row r="89">
@@ -14722,16 +14722,16 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.3135194469683836</v>
+        <v>0.3135194469727011</v>
       </c>
       <c r="C89" t="n">
         <v>202.14</v>
       </c>
       <c r="D89" t="n">
-        <v>0.04714866436388331</v>
+        <v>0.04714866436451996</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4106607303252914</v>
+        <v>0.4106607303139811</v>
       </c>
       <c r="F89" t="n">
         <v>16.44861917820996</v>
@@ -14769,23 +14769,23 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.0009937391986156042</v>
+        <v>0.0009937391986292888</v>
       </c>
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="n">
         <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>0.004850041525872101</v>
+        <v>0.004850041525738522</v>
       </c>
       <c r="U89" t="n">
         <v>0.2350806437380841</v>
       </c>
       <c r="V89" t="n">
-        <v>0.003449255609817537</v>
+        <v>0.003449255609817536</v>
       </c>
       <c r="W89" t="n">
-        <v>0.1886395354585385</v>
+        <v>0.1886395354585384</v>
       </c>
       <c r="X89" t="n">
         <v>1762.434010280964</v>
@@ -14794,7 +14794,7 @@
         <v>0.05978170885114411</v>
       </c>
       <c r="Z89" t="n">
-        <v>0.009473788279787971</v>
+        <v>0.009473788279787973</v>
       </c>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="n">
@@ -14804,14 +14804,14 @@
         <v>0</v>
       </c>
       <c r="AD89" t="n">
-        <v>0.0004241532558509993</v>
+        <v>0.0004241532558393174</v>
       </c>
       <c r="AE89" t="n">
-        <v>0.0001534810670089028</v>
+        <v>0.0001534810670046756</v>
       </c>
       <c r="AF89" t="inlineStr">
         <is>
-          <t>data//heating/2024-05-10_R_UHfit.dat</t>
+          <t>data//heating\2024-05-10_R_UHfit.dat</t>
         </is>
       </c>
       <c r="AG89" t="inlineStr">
@@ -14848,7 +14848,7 @@
         </is>
       </c>
       <c r="AP89" t="n">
-        <v>0.01379310801319592</v>
+        <v>0.01379310801281603</v>
       </c>
       <c r="AQ89" t="inlineStr">
         <is>
@@ -14865,10 +14865,10 @@
         <v>441</v>
       </c>
       <c r="AU89" t="n">
-        <v>0.008971420362092643</v>
+        <v>0.008971420361845554</v>
       </c>
       <c r="AV89" t="n">
-        <v>0.09783342433409384</v>
+        <v>0.09783342433541489</v>
       </c>
     </row>
     <row r="90">
@@ -14878,16 +14878,16 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.4783265364583103</v>
+        <v>0.4783265366497449</v>
       </c>
       <c r="C90" t="n">
         <v>202.14</v>
       </c>
       <c r="D90" t="n">
-        <v>0.07106804129326143</v>
+        <v>0.07106804132201004</v>
       </c>
       <c r="E90" t="n">
-        <v>0.1653611351928642</v>
+        <v>0.1653611350605034</v>
       </c>
       <c r="F90" t="n">
         <v>15.77475300348277</v>
@@ -14925,17 +14925,17 @@
         <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.001555315853563803</v>
+        <v>0.001555315854186267</v>
       </c>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="n">
         <v>0</v>
       </c>
       <c r="T90" t="n">
-        <v>0.002570973972916467</v>
+        <v>0.00257097397085857</v>
       </c>
       <c r="U90" t="n">
-        <v>0.2088696724096263</v>
+        <v>0.2088696724096262</v>
       </c>
       <c r="V90" t="n">
         <v>0.002651036649188613</v>
@@ -14947,27 +14947,27 @@
         <v>1584.103536893975</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.05946006475079803</v>
+        <v>0.05946006475079801</v>
       </c>
       <c r="Z90" t="n">
         <v>0.01056010630502048</v>
       </c>
       <c r="AA90" t="inlineStr"/>
       <c r="AB90" t="n">
-        <v>73941.78900653584</v>
+        <v>73941.78900653582</v>
       </c>
       <c r="AC90" t="n">
         <v>0</v>
       </c>
       <c r="AD90" t="n">
-        <v>0.0001015594997024442</v>
+        <v>0.0001015594996211524</v>
       </c>
       <c r="AE90" t="n">
-        <v>0.0003405836496627456</v>
+        <v>0.0003405836493901305</v>
       </c>
       <c r="AF90" t="inlineStr">
         <is>
-          <t>data//heating/2024-05-10_R_UHfit.dat</t>
+          <t>data//heating\2024-05-10_R_UHfit.dat</t>
         </is>
       </c>
       <c r="AG90" t="inlineStr">
@@ -15004,7 +15004,7 @@
         </is>
       </c>
       <c r="AP90" t="n">
-        <v>0.0033099343090877</v>
+        <v>0.003309934306438314</v>
       </c>
       <c r="AQ90" t="inlineStr">
         <is>
@@ -15021,10 +15021,10 @@
         <v>441</v>
       </c>
       <c r="AU90" t="n">
-        <v>0.01762962365411519</v>
+        <v>0.01762962364000382</v>
       </c>
       <c r="AV90" t="n">
-        <v>0.14746610395527</v>
+        <v>0.1474661040149233</v>
       </c>
     </row>
     <row r="91">
@@ -15034,16 +15034,16 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.5635734128679083</v>
+        <v>0.5635734130886807</v>
       </c>
       <c r="C91" t="n">
         <v>202.14</v>
       </c>
       <c r="D91" t="n">
-        <v>0.08578419404875527</v>
+        <v>0.0857841940827852</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1844808918161469</v>
+        <v>0.1844808916716109</v>
       </c>
       <c r="F91" t="n">
         <v>15.28062225541032</v>
@@ -15081,14 +15081,14 @@
         <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.002450029768162101</v>
+        <v>0.002450029769121868</v>
       </c>
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="n">
         <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>0.003740483566482015</v>
+        <v>0.003740483563551444</v>
       </c>
       <c r="U91" t="n">
         <v>0.270290562939886</v>
@@ -15116,14 +15116,14 @@
         <v>0</v>
       </c>
       <c r="AD91" t="n">
-        <v>0.0001904512602259585</v>
+        <v>0.000190451260076745</v>
       </c>
       <c r="AE91" t="n">
-        <v>0.0003094982309478393</v>
+        <v>0.0003094982307053555</v>
       </c>
       <c r="AF91" t="inlineStr">
         <is>
-          <t>data//heating/2024-05-10_R_UHfit.dat</t>
+          <t>data//heating\2024-05-10_R_UHfit.dat</t>
         </is>
       </c>
       <c r="AG91" t="inlineStr">
@@ -15160,7 +15160,7 @@
         </is>
       </c>
       <c r="AP91" t="n">
-        <v>0.00467443310228559</v>
+        <v>0.004674433098623295</v>
       </c>
       <c r="AQ91" t="inlineStr">
         <is>
@@ -15177,10 +15177,10 @@
         <v>441</v>
       </c>
       <c r="AU91" t="n">
-        <v>0.01217925122224448</v>
+        <v>0.01217925121270236</v>
       </c>
       <c r="AV91" t="n">
-        <v>0.178002103999344</v>
+        <v>0.1780021040699561</v>
       </c>
     </row>
     <row r="92">
@@ -15190,16 +15190,16 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.1390941389655674</v>
+        <v>0.1390941388400127</v>
       </c>
       <c r="C92" t="n">
         <v>202.14</v>
       </c>
       <c r="D92" t="n">
-        <v>0.02087570553354066</v>
+        <v>0.02087570551464082</v>
       </c>
       <c r="E92" t="n">
-        <v>0.89979790924612</v>
+        <v>0.8997979108705437</v>
       </c>
       <c r="F92" t="n">
         <v>16.15901405968147</v>
@@ -15237,14 +15237,14 @@
         <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.0002348248504716641</v>
+        <v>0.0002348248502596971</v>
       </c>
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="n">
         <v>0</v>
       </c>
       <c r="T92" t="n">
-        <v>0.0076770515205824</v>
+        <v>0.007677051534441938</v>
       </c>
       <c r="U92" t="n">
         <v>0.1193543380225066</v>
@@ -15259,7 +15259,7 @@
         <v>907.3883361153877</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.03188303004367852</v>
+        <v>0.03188303004367853</v>
       </c>
       <c r="Z92" t="n">
         <v>0.005494324458045458</v>
@@ -15272,14 +15272,14 @@
         <v>0</v>
       </c>
       <c r="AD92" t="n">
-        <v>0.001247603357688444</v>
+        <v>0.001247603359940768</v>
       </c>
       <c r="AE92" t="n">
-        <v>1.558701512192259e-05</v>
+        <v>1.558701515006214e-05</v>
       </c>
       <c r="AF92" t="inlineStr">
         <is>
-          <t>data//heating/2024-05-10_S_UHfit.dat</t>
+          <t>data//heating\2024-05-10_S_UHfit.dat</t>
         </is>
       </c>
       <c r="AG92" t="inlineStr">
@@ -15316,7 +15316,7 @@
         </is>
       </c>
       <c r="AP92" t="n">
-        <v>0.07341610187499965</v>
+        <v>0.07341610200753926</v>
       </c>
       <c r="AQ92" t="inlineStr">
         <is>
@@ -15333,10 +15333,10 @@
         <v>441</v>
       </c>
       <c r="AU92" t="n">
-        <v>0.001461705523156975</v>
+        <v>0.001461705525795822</v>
       </c>
       <c r="AV92" t="n">
-        <v>0.04331706497503551</v>
+        <v>0.04331706493581837</v>
       </c>
     </row>
     <row r="93">
@@ -15346,16 +15346,16 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.369689757549744</v>
+        <v>0.3696897576492976</v>
       </c>
       <c r="C93" t="n">
         <v>202.14</v>
       </c>
       <c r="D93" t="n">
-        <v>0.05538964936023421</v>
+        <v>0.05538964937525055</v>
       </c>
       <c r="E93" t="n">
-        <v>0.3186691183660918</v>
+        <v>0.3186691181944632</v>
       </c>
       <c r="F93" t="n">
         <v>16.64574891347928</v>
@@ -15393,14 +15393,14 @@
         <v>0</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.0009245523036278999</v>
+        <v>0.0009245523038768723</v>
       </c>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="n">
         <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>0.003047778024479576</v>
+        <v>0.003047778022838106</v>
       </c>
       <c r="U93" t="n">
         <v>0.1952767995008098</v>
@@ -15428,14 +15428,14 @@
         <v>0</v>
       </c>
       <c r="AD93" t="n">
-        <v>0.0002047025066100327</v>
+        <v>0.0002047025064997841</v>
       </c>
       <c r="AE93" t="n">
-        <v>0.0002069999190382952</v>
+        <v>0.0002069999189268093</v>
       </c>
       <c r="AF93" t="inlineStr">
         <is>
-          <t>data//heating/2024-05-10_S_UHfit.dat</t>
+          <t>data//heating\2024-05-10_S_UHfit.dat</t>
         </is>
       </c>
       <c r="AG93" t="inlineStr">
@@ -15472,7 +15472,7 @@
         </is>
       </c>
       <c r="AP93" t="n">
-        <v>0.008138895009315847</v>
+        <v>0.008138895004932405</v>
       </c>
       <c r="AQ93" t="inlineStr">
         <is>
@@ -15489,10 +15489,10 @@
         <v>441</v>
       </c>
       <c r="AU93" t="n">
-        <v>0.01483537676241812</v>
+        <v>0.01483537675442809</v>
       </c>
       <c r="AV93" t="n">
-        <v>0.1149334587243892</v>
+        <v>0.1149334587555481</v>
       </c>
     </row>
     <row r="94">
@@ -15502,16 +15502,16 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.3013638138755887</v>
+        <v>0.3013638137892731</v>
       </c>
       <c r="C94" t="n">
         <v>202.14</v>
       </c>
       <c r="D94" t="n">
-        <v>0.04593758880683902</v>
+        <v>0.04593758879359213</v>
       </c>
       <c r="E94" t="n">
-        <v>0.4622941077814924</v>
+        <v>0.46229410804631</v>
       </c>
       <c r="F94" t="n">
         <v>16.87873769341244</v>
@@ -15549,14 +15549,14 @@
         <v>0</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.0008353890276834768</v>
+        <v>0.0008353890274442074</v>
       </c>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="n">
         <v>0</v>
       </c>
       <c r="T94" t="n">
-        <v>0.004435890045139393</v>
+        <v>0.004435890047680419</v>
       </c>
       <c r="U94" t="n">
         <v>0.1588520771549456</v>
@@ -15571,10 +15571,10 @@
         <v>1354.063562191804</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.05370234934821156</v>
+        <v>0.05370234934821157</v>
       </c>
       <c r="Z94" t="n">
-        <v>0.00502761502945924</v>
+        <v>0.005027615029459241</v>
       </c>
       <c r="AA94" t="inlineStr"/>
       <c r="AB94" t="n">
@@ -15584,14 +15584,14 @@
         <v>0</v>
       </c>
       <c r="AD94" t="n">
-        <v>0.0004227540320556246</v>
+        <v>0.0004227540322977923</v>
       </c>
       <c r="AE94" t="n">
-        <v>6.142656364556831e-05</v>
+        <v>6.142656368075551e-05</v>
       </c>
       <c r="AF94" t="inlineStr">
         <is>
-          <t>data//heating/2024-05-10_S_UHfit.dat</t>
+          <t>data//heating\2024-05-10_S_UHfit.dat</t>
         </is>
       </c>
       <c r="AG94" t="inlineStr">
@@ -15628,7 +15628,7 @@
         </is>
       </c>
       <c r="AP94" t="n">
-        <v>0.01981988194283591</v>
+        <v>0.01981988195418941</v>
       </c>
       <c r="AQ94" t="inlineStr">
         <is>
@@ -15645,10 +15645,10 @@
         <v>441</v>
       </c>
       <c r="AU94" t="n">
-        <v>0.004879092391767485</v>
+        <v>0.004879092394562394</v>
       </c>
       <c r="AV94" t="n">
-        <v>0.09532044394596384</v>
+        <v>0.09532044391847656</v>
       </c>
     </row>
     <row r="95">
@@ -15658,16 +15658,16 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.4265627385219935</v>
+        <v>0.4265627386846867</v>
       </c>
       <c r="C95" t="n">
         <v>202.14</v>
       </c>
       <c r="D95" t="n">
-        <v>0.06269885025562466</v>
+        <v>0.06269885027974537</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1459174495910435</v>
+        <v>0.1459174494797361</v>
       </c>
       <c r="F95" t="n">
         <v>16.8021387458447</v>
@@ -15705,20 +15705,20 @@
         <v>0</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.001191275650762253</v>
+        <v>0.001191275651216612</v>
       </c>
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="n">
         <v>0</v>
       </c>
       <c r="T95" t="n">
-        <v>0.001339595682378331</v>
+        <v>0.001339595681356473</v>
       </c>
       <c r="U95" t="n">
         <v>0.1459413886980297</v>
       </c>
       <c r="V95" t="n">
-        <v>0.0009886532597377436</v>
+        <v>0.0009886532597377434</v>
       </c>
       <c r="W95" t="n">
         <v>0.1516906581923808</v>
@@ -15730,7 +15730,7 @@
         <v>0.05006718363447132</v>
       </c>
       <c r="Z95" t="n">
-        <v>0.005762476949001881</v>
+        <v>0.00576247694900188</v>
       </c>
       <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="n">
@@ -15740,14 +15740,14 @@
         <v>0</v>
       </c>
       <c r="AD95" t="n">
-        <v>4.749518697430226e-05</v>
+        <v>4.749518693807243e-05</v>
       </c>
       <c r="AE95" t="n">
-        <v>0.0002668046073596341</v>
+        <v>0.0002668046071561128</v>
       </c>
       <c r="AF95" t="inlineStr">
         <is>
-          <t>data//heating/2024-05-10_S_UHfit.dat</t>
+          <t>data//heating\2024-05-10_S_UHfit.dat</t>
         </is>
       </c>
       <c r="AG95" t="inlineStr">
@@ -15784,7 +15784,7 @@
         </is>
       </c>
       <c r="AP95" t="n">
-        <v>0.002379534828608236</v>
+        <v>0.002379534826793102</v>
       </c>
       <c r="AQ95" t="inlineStr">
         <is>
@@ -15801,10 +15801,10 @@
         <v>441</v>
       </c>
       <c r="AU95" t="n">
-        <v>0.02247976121442779</v>
+        <v>0.02247976119727999</v>
       </c>
       <c r="AV95" t="n">
-        <v>0.1301000421767434</v>
+        <v>0.1301000422267938</v>
       </c>
     </row>
     <row r="96">
@@ -15814,16 +15814,16 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.5239128407081116</v>
+        <v>0.523912840918459</v>
       </c>
       <c r="C96" t="n">
         <v>202.14</v>
       </c>
       <c r="D96" t="n">
-        <v>0.07874401630902897</v>
+        <v>0.0787440163410144</v>
       </c>
       <c r="E96" t="n">
-        <v>0.1934300328674549</v>
+        <v>0.1934300327121333</v>
       </c>
       <c r="F96" t="n">
         <v>16.64818625561941</v>
@@ -15861,14 +15861,14 @@
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.0008431816533035149</v>
+        <v>0.0008431816536420466</v>
       </c>
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="n">
         <v>0</v>
       </c>
       <c r="T96" t="n">
-        <v>0.001421123039518514</v>
+        <v>0.001421123038377372</v>
       </c>
       <c r="U96" t="n">
         <v>0.1452497053900568</v>
@@ -15896,14 +15896,14 @@
         <v>0</v>
       </c>
       <c r="AD96" t="n">
-        <v>7.366209189657523e-05</v>
+        <v>7.366209183742559e-05</v>
       </c>
       <c r="AE96" t="n">
-        <v>0.0001869878924337886</v>
+        <v>0.0001869878922836399</v>
       </c>
       <c r="AF96" t="inlineStr">
         <is>
-          <t>data//heating/2024-05-10_S_UHfit.dat</t>
+          <t>data//heating\2024-05-10_S_UHfit.dat</t>
         </is>
       </c>
       <c r="AG96" t="inlineStr">
@@ -15940,7 +15940,7 @@
         </is>
       </c>
       <c r="AP96" t="n">
-        <v>0.003938602842015261</v>
+        <v>0.003938602838852617</v>
       </c>
       <c r="AQ96" t="inlineStr">
         <is>
@@ -15957,10 +15957,10 @@
         <v>441</v>
       </c>
       <c r="AU96" t="n">
-        <v>0.01774270593328339</v>
+        <v>0.01774270591903624</v>
       </c>
       <c r="AV96" t="n">
-        <v>0.1633937432856164</v>
+        <v>0.1633937433519861</v>
       </c>
     </row>
     <row r="97">
@@ -15970,16 +15970,16 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.6071669968182205</v>
+        <v>0.6071669970458633</v>
       </c>
       <c r="C97" t="n">
         <v>202.14</v>
       </c>
       <c r="D97" t="n">
-        <v>0.09224123729148685</v>
+        <v>0.09224123732654418</v>
       </c>
       <c r="E97" t="n">
-        <v>0.2211935583999821</v>
+        <v>0.2211935582341196</v>
       </c>
       <c r="F97" t="n">
         <v>16.60243515532355</v>
@@ -16017,14 +16017,14 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.001060160339063215</v>
+        <v>0.001060160339460697</v>
       </c>
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="n">
         <v>0</v>
       </c>
       <c r="T97" t="n">
-        <v>0.001729578462489013</v>
+        <v>0.001729578461192085</v>
       </c>
       <c r="U97" t="n">
         <v>0.1303784418346133</v>
@@ -16052,14 +16052,14 @@
         <v>0</v>
       </c>
       <c r="AD97" t="n">
-        <v>9.108849181928727e-05</v>
+        <v>9.108849175098437e-05</v>
       </c>
       <c r="AE97" t="n">
-        <v>0.0001436308077024419</v>
+        <v>0.00014363080759474</v>
       </c>
       <c r="AF97" t="inlineStr">
         <is>
-          <t>data//heating/2024-05-10_S_UHfit.dat</t>
+          <t>data//heating\2024-05-10_S_UHfit.dat</t>
         </is>
       </c>
       <c r="AG97" t="inlineStr">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="AP97" t="n">
-        <v>0.00521917054539657</v>
+        <v>0.005219170541482964</v>
       </c>
       <c r="AQ97" t="inlineStr">
         <is>
@@ -16113,10 +16113,10 @@
         <v>441</v>
       </c>
       <c r="AU97" t="n">
-        <v>0.01385986564037431</v>
+        <v>0.01385986562998146</v>
       </c>
       <c r="AV97" t="n">
-        <v>0.1914004613024123</v>
+        <v>0.1914004613751563</v>
       </c>
     </row>
   </sheetData>

--- a/data/heating/heating_data_results.xlsx
+++ b/data/heating/heating_data_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -741,7 +741,7 @@
         <v>0.04196601461227539</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09313704238552371</v>
+        <v>0.09313704238552373</v>
       </c>
       <c r="V2" t="n">
         <v>0.04171719133910391</v>
@@ -756,7 +756,7 @@
         <v>0.06320285695167294</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.003500729684360824</v>
+        <v>0.003500729684360823</v>
       </c>
       <c r="AA2" t="n">
         <v>1.867230148954097</v>
@@ -765,7 +765,7 @@
         <v>32761.24617099675</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.008875677934634915</v>
+        <v>0.008875677934634913</v>
       </c>
       <c r="AD2" t="n">
         <v>0.001919028502678501</v>
@@ -775,7 +775,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-19_L_UHfit.dat</t>
+          <t>data//heating/2024-03-19_L_UHfit.dat</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2639812614023043</v>
+        <v>0.2639812614084332</v>
       </c>
       <c r="C3" t="n">
         <v>202.14</v>
@@ -853,10 +853,10 @@
         <v>0.03873231071383666</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5823701956878249</v>
+        <v>0.5823701956009978</v>
       </c>
       <c r="F3" t="n">
-        <v>16.14251574029773</v>
+        <v>16.14251574130433</v>
       </c>
       <c r="G3" t="n">
         <v>0.51541148074925</v>
@@ -868,10 +868,10 @@
         <v>41578.02767856442</v>
       </c>
       <c r="J3" t="n">
-        <v>8.955728590099092</v>
+        <v>8.955728589683236</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5553376510672267</v>
+        <v>0.5553376510675236</v>
       </c>
       <c r="L3" t="n">
         <v>0.5</v>
@@ -891,7 +891,7 @@
         <v>9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0006217403880847942</v>
+        <v>0.0006217403931625934</v>
       </c>
       <c r="R3" t="n">
         <v>0.000398994630063782</v>
@@ -900,44 +900,44 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02528700927214315</v>
+        <v>0.02528700928265141</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1095037631771035</v>
+        <v>0.1095037733172235</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02231122233934434</v>
+        <v>0.02231122233934435</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1379535938488667</v>
+        <v>0.1379535938488668</v>
       </c>
       <c r="X3" t="n">
-        <v>837.9709623925241</v>
+        <v>837.970962392524</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.04233536567069147</v>
+        <v>0.0423353660147202</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.006209759374349501</v>
+        <v>0.006209759373673453</v>
       </c>
       <c r="AA3" t="n">
         <v>1.014614454717123</v>
       </c>
       <c r="AB3" t="n">
-        <v>38006.36796956629</v>
+        <v>38006.37149227726</v>
       </c>
       <c r="AC3" t="n">
         <v>0.03105463064758753</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.002335119757222893</v>
+        <v>0.002335119769317149</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0001596052620443751</v>
+        <v>0.0001596052624459724</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-19_L_UHfit.dat</t>
+          <t>data//heating/2024-03-19_L_UHfit.dat</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -952,10 +952,10 @@
         <v>23.20390993821211</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11205430.30449119</v>
+        <v>11205430.30616184</v>
       </c>
       <c r="AK3" t="n">
-        <v>4.212390476267808e-07</v>
+        <v>4.212390476365609e-07</v>
       </c>
       <c r="AL3" t="n">
         <v>0.009547562831382625</v>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="AP3" t="n">
-        <v>0.02838346757331154</v>
+        <v>0.02838346756845374</v>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
         <v>441</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.003642586265598008</v>
+        <v>0.003642586266684174</v>
       </c>
       <c r="AV3" t="n">
         <v>0.08036950018905376</v>
@@ -1077,10 +1077,10 @@
         <v>1422.899231447779</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.06480789681409119</v>
+        <v>0.06480789681409117</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.00532762453945029</v>
+        <v>0.005327624539450291</v>
       </c>
       <c r="AA4" t="n">
         <v>1.353964082237834</v>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-19_L_UHfit.dat</t>
+          <t>data//heating/2024-03-19_L_UHfit.dat</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1189,7 +1189,7 @@
         <v>18.96158184932081</v>
       </c>
       <c r="I5" t="n">
-        <v>35138.40375288931</v>
+        <v>35138.40376558231</v>
       </c>
       <c r="J5" t="n">
         <v>7.277944789147533</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.129235605239077</v>
+        <v>0.1292356052390771</v>
       </c>
       <c r="U5" t="n">
         <v>0.167114829196894</v>
@@ -1236,22 +1236,22 @@
         <v>0.1978779859945113</v>
       </c>
       <c r="X5" t="n">
-        <v>1148.335191828728</v>
+        <v>1148.334862794141</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.068215388825587</v>
+        <v>0.06821538882558702</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.004605024080529822</v>
+        <v>0.004605024080529823</v>
       </c>
       <c r="AA5" t="n">
         <v>1.751546421931985</v>
       </c>
       <c r="AB5" t="n">
-        <v>60164.4773346018</v>
+        <v>60164.47733460181</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.0001827808191928272</v>
+        <v>-0.0001827812368232636</v>
       </c>
       <c r="AD5" t="n">
         <v>0.01089355686451951</v>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-21_B_UHfit.dat</t>
+          <t>data//heating/2024-03-21_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1282,7 +1282,7 @@
         <v>4.672773234490709e-07</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0.0009702162119030783</v>
+        <v>-0.0009702172883137651</v>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
@@ -1389,31 +1389,31 @@
         <v>0.06543452609319385</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1161281206734756</v>
+        <v>0.1161281206734758</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0515037481644691</v>
+        <v>0.05150374816446911</v>
       </c>
       <c r="W6" t="n">
-        <v>0.264936880689985</v>
+        <v>0.2649368806899849</v>
       </c>
       <c r="X6" t="n">
-        <v>812.133245245403</v>
+        <v>812.1332452454026</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.08225214652111791</v>
+        <v>0.0822521465211179</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.007370583557059543</v>
+        <v>0.007370583557059548</v>
       </c>
       <c r="AA6" t="n">
         <v>2.355961793337599</v>
       </c>
       <c r="AB6" t="n">
-        <v>41927.40139012847</v>
+        <v>41927.40139012854</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.002136462553547266</v>
+        <v>-0.002136462553547268</v>
       </c>
       <c r="AD6" t="n">
         <v>0.00229201487202249</v>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-21_B_UHfit.dat</t>
+          <t>data//heating/2024-03-21_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1554,16 +1554,16 @@
         <v>0.03125061023419905</v>
       </c>
       <c r="V7" t="n">
-        <v>0.009799527696163081</v>
+        <v>0.009799527696163083</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0584589598955579</v>
+        <v>0.05845895989555792</v>
       </c>
       <c r="X7" t="n">
         <v>226.2222413158127</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02502732855906454</v>
+        <v>0.02502732855906455</v>
       </c>
       <c r="Z7" t="n">
         <v>0.003256025572087955</v>
@@ -1578,14 +1578,14 @@
         <v>-0.02576833489307765</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.001520386610265496</v>
+        <v>0.001520386610265497</v>
       </c>
       <c r="AE7" t="n">
         <v>0.000118533851998725</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-21_B_UHfit.dat</t>
+          <t>data//heating/2024-03-21_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1725,10 +1725,10 @@
         <v>1483.861811146466</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.03885829371131856</v>
+        <v>0.03885829371131858</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.009247218164599403</v>
+        <v>0.009247218164599405</v>
       </c>
       <c r="AA8" t="n">
         <v>0.9453266815662364</v>
@@ -1737,7 +1737,7 @@
         <v>74595.10779110652</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.0005381623829175345</v>
+        <v>-0.0005381623829175344</v>
       </c>
       <c r="AD8" t="n">
         <v>0.003420721727387419</v>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-21_B_UHfit.dat</t>
+          <t>data//heating/2024-03-21_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -1837,13 +1837,13 @@
         <v>19.73594734720702</v>
       </c>
       <c r="I9" t="n">
-        <v>34758.35572999506</v>
+        <v>34758.35575101056</v>
       </c>
       <c r="J9" t="n">
         <v>7.510788749502558</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4914068853111642</v>
+        <v>0.4914068853007254</v>
       </c>
       <c r="L9" t="n">
         <v>0.25</v>
@@ -1878,19 +1878,19 @@
         <v>0.07494507088655961</v>
       </c>
       <c r="V9" t="n">
-        <v>0.04043343798654029</v>
+        <v>0.0404334379865403</v>
       </c>
       <c r="W9" t="n">
         <v>0.2727876938341263</v>
       </c>
       <c r="X9" t="n">
-        <v>515.6109573319067</v>
+        <v>515.6109501704831</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.09295604486643413</v>
+        <v>0.09295604486643409</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.009025917325402965</v>
+        <v>0.009025917910043485</v>
       </c>
       <c r="AA9" t="n">
         <v>2.051997636845923</v>
@@ -1899,17 +1899,17 @@
         <v>27045.87131944787</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.0008456904232831837</v>
+        <v>-0.0008456901871648382</v>
       </c>
       <c r="AD9" t="n">
         <v>0.01331824727145519</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0004495496007378563</v>
+        <v>0.0004495496007378565</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-21_B_UHfit.dat</t>
+          <t>data//heating/2024-03-21_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -1930,7 +1930,7 @@
         <v>4.599772054790406e-07</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0.001649797644130926</v>
+        <v>-0.001649797348676317</v>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
@@ -2037,31 +2037,31 @@
         <v>0.07666796109992861</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1452767652743318</v>
+        <v>0.1452767652743319</v>
       </c>
       <c r="V10" t="n">
         <v>0.01785859819528085</v>
       </c>
       <c r="W10" t="n">
-        <v>0.08877604492048433</v>
+        <v>0.08877604492048434</v>
       </c>
       <c r="X10" t="n">
         <v>1007.216582053636</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.03240223953389481</v>
+        <v>0.03240223953389482</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.006773081514518398</v>
+        <v>0.006773081514518396</v>
       </c>
       <c r="AA10" t="n">
         <v>0.942573754995929</v>
       </c>
       <c r="AB10" t="n">
-        <v>52072.09537580652</v>
+        <v>52072.09537580654</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0006062127220519951</v>
+        <v>0.0006062127220519952</v>
       </c>
       <c r="AD10" t="n">
         <v>0.006127985687347026</v>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-21_B_UHfit.dat</t>
+          <t>data//heating/2024-03-21_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1621740696359982</v>
+        <v>0.1621740696106332</v>
       </c>
       <c r="C11" t="n">
         <v>202.14</v>
@@ -2149,25 +2149,25 @@
         <v>0.02250075498091412</v>
       </c>
       <c r="E11" t="n">
-        <v>1.040582494076915</v>
+        <v>1.040582486709213</v>
       </c>
       <c r="F11" t="n">
-        <v>16.59214965465781</v>
+        <v>16.59214964686587</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1945172679204691</v>
+        <v>0.1945172664016481</v>
       </c>
       <c r="H11" t="n">
-        <v>21.09706321637482</v>
+        <v>21.09706321723407</v>
       </c>
       <c r="I11" t="n">
-        <v>45065.18818252184</v>
+        <v>45065.18816834358</v>
       </c>
       <c r="J11" t="n">
-        <v>8.045575871490572</v>
+        <v>8.045575874007326</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4896334517382453</v>
+        <v>0.4896334522255242</v>
       </c>
       <c r="L11" t="n">
         <v>0.4</v>
@@ -2176,7 +2176,7 @@
         <v>1.8339e-05</v>
       </c>
       <c r="N11" t="n">
-        <v>17.04469400289277</v>
+        <v>17.04469400289274</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>9</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.843692364864533e-05</v>
+        <v>1.843692361297252e-05</v>
       </c>
       <c r="R11" t="n">
         <v>6.481565471062465e-06</v>
@@ -2196,44 +2196,44 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1064593625833518</v>
+        <v>0.1064593610060458</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1333143426632088</v>
+        <v>0.1333144192949004</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01988522072294357</v>
+        <v>0.0198852203959466</v>
       </c>
       <c r="W11" t="n">
-        <v>0.03867925905941023</v>
+        <v>0.03867925959876352</v>
       </c>
       <c r="X11" t="n">
-        <v>1076.053192978017</v>
+        <v>1076.05329023257</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.001829650914677405</v>
+        <v>0.001829650911996071</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.004314422337541476</v>
+        <v>0.004314421642305491</v>
       </c>
       <c r="AA11" t="n">
         <v>0.942705653427713</v>
       </c>
       <c r="AB11" t="n">
-        <v>45794.25359922051</v>
+        <v>45794.27991083018</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.01091169905922483</v>
+        <v>0.01091169707095155</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.002809473049631079</v>
+        <v>0.002809473046138117</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.003059599029641544</v>
+        <v>0.003059598985843919</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-21_D_UHfit.dat</t>
+          <t>data//heating/2024-03-21_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
@@ -2248,13 +2248,13 @@
         <v>9.220111059874879</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11399000.19551775</v>
+        <v>11399000.18722165</v>
       </c>
       <c r="AK11" t="n">
-        <v>4.444270830098086e-07</v>
+        <v>4.444270829402975e-07</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.005853576126718225</v>
+        <v>0.005853576259848489</v>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="AP11" t="n">
-        <v>0.02686519630678244</v>
+        <v>0.02686519613065123</v>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>441</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.02983698843817857</v>
+        <v>0.02983698816177649</v>
       </c>
       <c r="AV11" t="n">
         <v>0.04668904070952857</v>
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1722292714552118</v>
+        <v>0.1722292714526016</v>
       </c>
       <c r="C12" t="n">
         <v>202.14</v>
@@ -2311,10 +2311,10 @@
         <v>0.02445876856214173</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6772641298529515</v>
+        <v>0.6772641296400652</v>
       </c>
       <c r="F12" t="n">
-        <v>16.67731284187015</v>
+        <v>16.67731284068332</v>
       </c>
       <c r="G12" t="n">
         <v>0.2307599883828847</v>
@@ -2323,10 +2323,10 @@
         <v>21.94776314743635</v>
       </c>
       <c r="I12" t="n">
-        <v>45730.02783425825</v>
+        <v>45730.02752834967</v>
       </c>
       <c r="J12" t="n">
-        <v>8.424350863152684</v>
+        <v>8.424350863408039</v>
       </c>
       <c r="K12" t="n">
         <v>0.5037151658631416</v>
@@ -2349,7 +2349,7 @@
         <v>9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0002330787529608506</v>
+        <v>0.0002330787331903274</v>
       </c>
       <c r="R12" t="n">
         <v>8.841714254319355e-05</v>
@@ -2358,22 +2358,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0.02483543567860279</v>
+        <v>0.02483543556977545</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1455074999324931</v>
+        <v>0.1455074581012611</v>
       </c>
       <c r="V12" t="n">
-        <v>0.008401930809544276</v>
+        <v>0.008401930809544277</v>
       </c>
       <c r="W12" t="n">
-        <v>0.06533452253978309</v>
+        <v>0.0653345225397831</v>
       </c>
       <c r="X12" t="n">
-        <v>1221.905851884658</v>
+        <v>1221.905742388766</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.02284780373051151</v>
+        <v>0.02284780178957488</v>
       </c>
       <c r="Z12" t="n">
         <v>0.002267289340678756</v>
@@ -2382,20 +2382,20 @@
         <v>0.3840637348152651</v>
       </c>
       <c r="AB12" t="n">
-        <v>50245.60199805128</v>
+        <v>50245.58757256104</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.00221302754626944</v>
+        <v>-0.002213028743290803</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.001841951106855273</v>
+        <v>0.001841951021256278</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.000210436064103754</v>
+        <v>0.0002104360609516122</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-21_D_UHfit.dat</t>
+          <t>data//heating/2024-03-21_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
@@ -2410,13 +2410,13 @@
         <v>10.51405488768499</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11517779.13631066</v>
+        <v>11517779.13993108</v>
       </c>
       <c r="AK12" t="n">
-        <v>4.343210321938516e-07</v>
+        <v>4.343210321872691e-07</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0.003250764775032926</v>
+        <v>-0.003250765206772662</v>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         </is>
       </c>
       <c r="AP12" t="n">
-        <v>0.02797012635661993</v>
+        <v>0.02797012636144868</v>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>441</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.005620530679654372</v>
+        <v>0.005620530683187804</v>
       </c>
       <c r="AV12" t="n">
         <v>0.05075191663886025</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.04161211569333091</v>
+        <v>0.04161211569333092</v>
       </c>
       <c r="U13" t="n">
         <v>0.1147019444643253</v>
@@ -2529,7 +2529,7 @@
         <v>0.01268611532098973</v>
       </c>
       <c r="W13" t="n">
-        <v>0.07964388435200044</v>
+        <v>0.07964388435200048</v>
       </c>
       <c r="X13" t="n">
         <v>932.1741841524174</v>
@@ -2544,10 +2544,10 @@
         <v>0.5807835239911961</v>
       </c>
       <c r="AB13" t="n">
-        <v>40132.84627447662</v>
+        <v>40132.84627447661</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.02651437745698496</v>
+        <v>-0.02651437745698495</v>
       </c>
       <c r="AD13" t="n">
         <v>0.003573417097577792</v>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-21_D_UHfit.dat</t>
+          <t>data//heating/2024-03-21_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
@@ -2694,7 +2694,7 @@
         <v>0.1460982768299964</v>
       </c>
       <c r="X14" t="n">
-        <v>784.839603634612</v>
+        <v>784.8396036346121</v>
       </c>
       <c r="Y14" t="n">
         <v>0.04777817712918715</v>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_B_UHfit.dat</t>
+          <t>data//heating/2024-03-26_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
@@ -2862,7 +2862,7 @@
         <v>0.04417061460135861</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.006117710547527836</v>
+        <v>0.006117710547527837</v>
       </c>
       <c r="AA15" t="n">
         <v>0.1902629613680637</v>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_B_UHfit.dat</t>
+          <t>data//heating/2024-03-26_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
@@ -3018,7 +3018,7 @@
         <v>0.1203126514343147</v>
       </c>
       <c r="X16" t="n">
-        <v>858.551800165061</v>
+        <v>858.5518001650609</v>
       </c>
       <c r="Y16" t="n">
         <v>0.03940050708852261</v>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_B_UHfit.dat</t>
+          <t>data//heating/2024-03-26_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
@@ -3183,7 +3183,7 @@
         <v>953.8562572176862</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.03853408812786284</v>
+        <v>0.03853408812786285</v>
       </c>
       <c r="Z17" t="n">
         <v>0.004588966102511543</v>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_B_UHfit.dat</t>
+          <t>data//heating/2024-03-26_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
@@ -3333,7 +3333,7 @@
         <v>0.002929594200945595</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1077465488527265</v>
+        <v>0.1077465488527266</v>
       </c>
       <c r="V18" t="n">
         <v>0.01925666328928261</v>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_B_UHfit.dat</t>
+          <t>data//heating/2024-03-26_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -3510,7 +3510,7 @@
         <v>0.09568835007763113</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.01015014486574233</v>
+        <v>0.01015014486574234</v>
       </c>
       <c r="AA19" t="n">
         <v>0.1834014288598314</v>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_C_UHfit.dat</t>
+          <t>data//heating/2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_C_UHfit.dat</t>
+          <t>data//heating/2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
@@ -3834,7 +3834,7 @@
         <v>0.07443008053349141</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.01400154668503923</v>
+        <v>0.01400154668503924</v>
       </c>
       <c r="AA21" t="n">
         <v>1.015663517342898</v>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_C_UHfit.dat</t>
+          <t>data//heating/2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
@@ -3993,7 +3993,7 @@
         <v>1053.684472384615</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.09988324905752001</v>
+        <v>0.09988324905752002</v>
       </c>
       <c r="Z22" t="n">
         <v>0.01185203016102211</v>
@@ -4002,7 +4002,7 @@
         <v>1.745436260875499</v>
       </c>
       <c r="AB22" t="n">
-        <v>57813.69947094032</v>
+        <v>57813.69947094033</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -4011,11 +4011,11 @@
         <v>0.001217530866993335</v>
       </c>
       <c r="AE22" t="n">
-        <v>9.969522215702005e-06</v>
+        <v>9.969522215702007e-06</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_C_UHfit.dat</t>
+          <t>data//heating/2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_C_UHfit.dat</t>
+          <t>data//heating/2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
@@ -4317,7 +4317,7 @@
         <v>892.1489088213422</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.07342149336700361</v>
+        <v>0.07342149336700363</v>
       </c>
       <c r="Z24" t="n">
         <v>0.008443359972059573</v>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_C_UHfit.dat</t>
+          <t>data//heating/2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_C_UHfit.dat</t>
+          <t>data//heating/2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
@@ -4626,13 +4626,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0.003571786911634279</v>
+        <v>0.00357178691163428</v>
       </c>
       <c r="U26" t="n">
         <v>0.2085502123174643</v>
       </c>
       <c r="V26" t="n">
-        <v>0.0009052993026546311</v>
+        <v>0.0009052993026546312</v>
       </c>
       <c r="W26" t="n">
         <v>0.203172259697347</v>
@@ -4641,7 +4641,7 @@
         <v>1449.053194257854</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.06082804482041913</v>
+        <v>0.06082804482041914</v>
       </c>
       <c r="Z26" t="n">
         <v>0.01069565694808464</v>
@@ -4659,11 +4659,11 @@
         <v>0.0001246113350638749</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.0006203105639943336</v>
+        <v>0.0006203105639943337</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_C_UHfit.dat</t>
+          <t>data//heating/2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
@@ -4788,13 +4788,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0.005272934864593576</v>
+        <v>0.005272934864593577</v>
       </c>
       <c r="U27" t="n">
         <v>0.1304474071211491</v>
       </c>
       <c r="V27" t="n">
-        <v>0.002074332037368824</v>
+        <v>0.002074332037368825</v>
       </c>
       <c r="W27" t="n">
         <v>0.1365026610103034</v>
@@ -4806,7 +4806,7 @@
         <v>0.04311624135117767</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.006171117276924459</v>
+        <v>0.00617111727692446</v>
       </c>
       <c r="AA27" t="n">
         <v>0.09319474735516134</v>
@@ -4821,11 +4821,11 @@
         <v>0.0001271774544315715</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.0007791977873629935</v>
+        <v>0.0007791977873629936</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_C_UHfit.dat</t>
+          <t>data//heating/2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
@@ -4956,7 +4956,7 @@
         <v>0.1645445680239333</v>
       </c>
       <c r="V28" t="n">
-        <v>0.0006515445393777736</v>
+        <v>0.0006515445393777737</v>
       </c>
       <c r="W28" t="n">
         <v>0.1644965717230196</v>
@@ -4980,14 +4980,14 @@
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>4.28071869583414e-05</v>
+        <v>4.280718695834141e-05</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.0002151964696447087</v>
+        <v>0.0002151964696447088</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_C_UHfit.dat</t>
+          <t>data//heating/2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
@@ -5130,7 +5130,7 @@
         <v>0.09612005392216005</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.01613076917777533</v>
+        <v>0.01613076917777534</v>
       </c>
       <c r="AA29" t="n">
         <v>0.009760320614785616</v>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_B_UHfit.dat</t>
+          <t>data//heating/2024-04-03_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_B_UHfit.dat</t>
+          <t>data//heating/2024-04-03_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
@@ -5436,16 +5436,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0.005225048173217563</v>
+        <v>0.005225048173217564</v>
       </c>
       <c r="U31" t="n">
         <v>0.2045901580484306</v>
       </c>
       <c r="V31" t="n">
-        <v>0.0008694072160257352</v>
+        <v>0.0008694072160257353</v>
       </c>
       <c r="W31" t="n">
-        <v>0.3555183384532535</v>
+        <v>0.3555183384532536</v>
       </c>
       <c r="X31" t="n">
         <v>1208.141442919661</v>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_B_UHfit.dat</t>
+          <t>data//heating/2024-04-03_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
@@ -5635,7 +5635,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_C_UHfit.dat</t>
+          <t>data//heating/2024-04-03_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
@@ -5769,10 +5769,10 @@
         <v>0.0002665079735409577</v>
       </c>
       <c r="W33" t="n">
-        <v>0.1745838135658429</v>
+        <v>0.174583813565843</v>
       </c>
       <c r="X33" t="n">
-        <v>782.9356043052896</v>
+        <v>782.9356043052895</v>
       </c>
       <c r="Y33" t="n">
         <v>0.05783413710477434</v>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_C_UHfit.dat</t>
+          <t>data//heating/2024-04-03_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
@@ -5934,13 +5934,13 @@
         <v>0.1571507382258482</v>
       </c>
       <c r="X34" t="n">
-        <v>698.0142086185159</v>
+        <v>698.0142086185161</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.05171580045317155</v>
+        <v>0.05171580045317156</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.00593462226645939</v>
+        <v>0.005934622266459391</v>
       </c>
       <c r="AA34" t="n">
         <v>0.01721910186501135</v>
@@ -5959,7 +5959,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_C_UHfit.dat</t>
+          <t>data//heating/2024-04-03_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_D_UHfit.dat</t>
+          <t>data//heating/2024-04-03_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
@@ -6264,7 +6264,7 @@
         <v>0.05673576142102279</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.007939324916725192</v>
+        <v>0.007939324916725193</v>
       </c>
       <c r="AA36" t="n">
         <v>0.01589035298903333</v>
@@ -6283,7 +6283,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_D_UHfit.dat</t>
+          <t>data//heating/2024-04-03_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
@@ -6426,7 +6426,7 @@
         <v>0.05595504252672416</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.01086911142463408</v>
+        <v>0.01086911142463409</v>
       </c>
       <c r="AA37" t="n">
         <v>0.01758516202167256</v>
@@ -6441,11 +6441,11 @@
         <v>0.0001032161008194385</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.000376299364537818</v>
+        <v>0.0003762993645378181</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_D_UHfit.dat</t>
+          <t>data//heating/2024-04-03_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
@@ -6570,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.005329303129613243</v>
+        <v>0.005329303129613244</v>
       </c>
       <c r="U38" t="n">
         <v>0.1549161745561966</v>
@@ -6585,7 +6585,7 @@
         <v>1269.534113694206</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.04480518699217535</v>
+        <v>0.04480518699217536</v>
       </c>
       <c r="Z38" t="n">
         <v>0.006425173512659229</v>
@@ -6603,11 +6603,11 @@
         <v>0.0002755724294229042</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.0002806653119206865</v>
+        <v>0.0002806653119206866</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_E_UHfit.dat</t>
+          <t>data//heating/2024-04-03_E_UHfit.dat</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
@@ -6741,7 +6741,7 @@
         <v>0.001951034595195173</v>
       </c>
       <c r="W39" t="n">
-        <v>0.1969578277471485</v>
+        <v>0.1969578277471486</v>
       </c>
       <c r="X39" t="n">
         <v>1544.365797375912</v>
@@ -6769,7 +6769,7 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_E_UHfit.dat</t>
+          <t>data//heating/2024-04-03_E_UHfit.dat</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
@@ -6909,7 +6909,7 @@
         <v>1342.266566818976</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.07340607204926587</v>
+        <v>0.07340607204926589</v>
       </c>
       <c r="Z40" t="n">
         <v>0.01020255497134582</v>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_E_UHfit.dat</t>
+          <t>data//heating/2024-04-03_E_UHfit.dat</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
@@ -7071,7 +7071,7 @@
         <v>1211.160256007988</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.06164623886970067</v>
+        <v>0.06164623886970068</v>
       </c>
       <c r="Z41" t="n">
         <v>0.006371946366256116</v>
@@ -7093,7 +7093,7 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_E_UHfit.dat</t>
+          <t>data//heating/2024-04-03_E_UHfit.dat</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">
@@ -7227,7 +7227,7 @@
         <v>0.004522510252964317</v>
       </c>
       <c r="W42" t="n">
-        <v>0.1979633027450768</v>
+        <v>0.1979633027450769</v>
       </c>
       <c r="X42" t="n">
         <v>1464.904879733379</v>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_E_UHfit.dat</t>
+          <t>data//heating/2024-04-03_E_UHfit.dat</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_F_UHfit.dat</t>
+          <t>data//heating/2024-04-03_F_UHfit.dat</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr">
@@ -7542,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>5.832593701241526e-05</v>
+        <v>5.832593701241527e-05</v>
       </c>
       <c r="U44" t="n">
         <v>0.09185022888317876</v>
@@ -7551,10 +7551,10 @@
         <v>1.004068344570396e-05</v>
       </c>
       <c r="W44" t="n">
-        <v>0.09985197858641158</v>
+        <v>0.09985197858641159</v>
       </c>
       <c r="X44" t="n">
-        <v>651.8869378315416</v>
+        <v>651.8869378315417</v>
       </c>
       <c r="Y44" t="n">
         <v>0.03021638434698934</v>
@@ -7579,7 +7579,7 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_F_UHfit.dat</t>
+          <t>data//heating/2024-04-03_F_UHfit.dat</t>
         </is>
       </c>
       <c r="AG44" t="inlineStr">
@@ -7710,10 +7710,10 @@
         <v>0.1025135602301789</v>
       </c>
       <c r="V45" t="n">
-        <v>0.0004800563279680003</v>
+        <v>0.0004800563279680004</v>
       </c>
       <c r="W45" t="n">
-        <v>0.09731581530616236</v>
+        <v>0.09731581530616237</v>
       </c>
       <c r="X45" t="n">
         <v>708.5029059300879</v>
@@ -7722,7 +7722,7 @@
         <v>0.0293156619254747</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.005676023935468345</v>
+        <v>0.005676023935468346</v>
       </c>
       <c r="AA45" t="n">
         <v>0.02321634462179726</v>
@@ -7741,7 +7741,7 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_F_UHfit.dat</t>
+          <t>data//heating/2024-04-03_F_UHfit.dat</t>
         </is>
       </c>
       <c r="AG45" t="inlineStr">
@@ -7869,7 +7869,7 @@
         <v>0.0004026497128960995</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06135400343440021</v>
+        <v>0.0613540034344002</v>
       </c>
       <c r="V46" t="n">
         <v>4.86021434494244e-05</v>
@@ -7903,7 +7903,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-04_C_UHfit.dat</t>
+          <t>data//heating/2024-04-04_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG46" t="inlineStr">
@@ -8043,7 +8043,7 @@
         <v>530.5602649408449</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.03749144874452613</v>
+        <v>0.03749144874452614</v>
       </c>
       <c r="Z47" t="n">
         <v>0.007190339801329443</v>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-04_C_UHfit.dat</t>
+          <t>data//heating/2024-04-04_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>0.0006798322879050591</v>
+        <v>0.0006798322879050592</v>
       </c>
       <c r="U48" t="n">
         <v>0.07796575887813112</v>
@@ -8205,7 +8205,7 @@
         <v>492.2958926549198</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.03559549329326848</v>
+        <v>0.03559549329326849</v>
       </c>
       <c r="Z48" t="n">
         <v>0.006248411997567139</v>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-04_C_UHfit.dat</t>
+          <t>data//heating/2024-04-04_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG48" t="inlineStr">
@@ -8355,7 +8355,7 @@
         <v>0.005163129804584289</v>
       </c>
       <c r="U49" t="n">
-        <v>0.2224101947811591</v>
+        <v>0.2224101947811592</v>
       </c>
       <c r="V49" t="n">
         <v>0.0007410587335454579</v>
@@ -8367,7 +8367,7 @@
         <v>1251.955100295356</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.09269549496557189</v>
+        <v>0.09269549496557192</v>
       </c>
       <c r="Z49" t="n">
         <v>0.01782022484235882</v>
@@ -8376,7 +8376,7 @@
         <v>0.03862544380619028</v>
       </c>
       <c r="AB49" t="n">
-        <v>92180.96457149845</v>
+        <v>92180.96457149847</v>
       </c>
       <c r="AC49" t="n">
         <v>0</v>
@@ -8385,11 +8385,11 @@
         <v>0.0002393972557690052</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.0005618081263534223</v>
+        <v>0.0005618081263534224</v>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-05_C_UHfit.dat</t>
+          <t>data//heating/2024-04-05_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG49" t="inlineStr">
@@ -8529,7 +8529,7 @@
         <v>1097.357346684398</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.05692072654298942</v>
+        <v>0.05692072654298943</v>
       </c>
       <c r="Z50" t="n">
         <v>0.01358354724428702</v>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-05_C_UHfit.dat</t>
+          <t>data//heating/2024-04-05_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG50" t="inlineStr">
@@ -8685,7 +8685,7 @@
         <v>0.0006858914341100466</v>
       </c>
       <c r="W51" t="n">
-        <v>0.2771791001009892</v>
+        <v>0.2771791001009893</v>
       </c>
       <c r="X51" t="n">
         <v>1225.042999045793</v>
@@ -8694,7 +8694,7 @@
         <v>0.07696654813750402</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.01839642501816287</v>
+        <v>0.01839642501816288</v>
       </c>
       <c r="AA51" t="n">
         <v>0.03520929712072402</v>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-05_C_UHfit.dat</t>
+          <t>data//heating/2024-04-05_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG51" t="inlineStr">
@@ -8862,7 +8862,7 @@
         <v>0.06840309558678188</v>
       </c>
       <c r="AB52" t="n">
-        <v>59276.76807329814</v>
+        <v>59276.76807329816</v>
       </c>
       <c r="AC52" t="n">
         <v>0</v>
@@ -8875,7 +8875,7 @@
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-05_C_UHfit.dat</t>
+          <t>data//heating/2024-04-05_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr">
@@ -9015,10 +9015,10 @@
         <v>1141.75025484755</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.06036574681043319</v>
+        <v>0.0603657468104332</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.009809404674489741</v>
+        <v>0.009809404674489743</v>
       </c>
       <c r="AA53" t="n">
         <v>0.03365451106271742</v>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-05_C_UHfit.dat</t>
+          <t>data//heating/2024-04-05_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG53" t="inlineStr">
@@ -9171,13 +9171,13 @@
         <v>0.001529516983356796</v>
       </c>
       <c r="W54" t="n">
-        <v>0.2198194885780311</v>
+        <v>0.2198194885780312</v>
       </c>
       <c r="X54" t="n">
         <v>1242.280729125086</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.06695677426481798</v>
+        <v>0.066956774264818</v>
       </c>
       <c r="Z54" t="n">
         <v>0.01277093627195055</v>
@@ -9186,7 +9186,7 @@
         <v>0.08128997262514499</v>
       </c>
       <c r="AB54" t="n">
-        <v>84766.26619669159</v>
+        <v>84766.26619669162</v>
       </c>
       <c r="AC54" t="n">
         <v>0</v>
@@ -9199,7 +9199,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-05_C_UHfit.dat</t>
+          <t>data//heating/2024-04-05_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG54" t="inlineStr">
@@ -9333,7 +9333,7 @@
         <v>0.0010556346543599</v>
       </c>
       <c r="W55" t="n">
-        <v>0.1742431042314699</v>
+        <v>0.17424310423147</v>
       </c>
       <c r="X55" t="n">
         <v>1135.510159962375</v>
@@ -9361,7 +9361,7 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-05_C_UHfit.dat</t>
+          <t>data//heating/2024-04-05_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG55" t="inlineStr">
@@ -9523,7 +9523,7 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-08_G_UHfit.dat</t>
+          <t>data//heating/2024-04-08_G_UHfit.dat</t>
         </is>
       </c>
       <c r="AG56" t="inlineStr">
@@ -9672,20 +9672,20 @@
         <v>0.01760034699424387</v>
       </c>
       <c r="AB57" t="n">
-        <v>44583.34449562406</v>
+        <v>44583.34449562404</v>
       </c>
       <c r="AC57" t="n">
         <v>0</v>
       </c>
       <c r="AD57" t="n">
-        <v>8.854447704131369e-05</v>
+        <v>8.854447704131368e-05</v>
       </c>
       <c r="AE57" t="n">
-        <v>4.325117250333301e-07</v>
+        <v>4.3251172503333e-07</v>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-08_G_UHfit.dat</t>
+          <t>data//heating/2024-04-08_G_UHfit.dat</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
@@ -9819,13 +9819,13 @@
         <v>0.003406668038524972</v>
       </c>
       <c r="W58" t="n">
-        <v>0.8468573351952023</v>
+        <v>0.8468573351952025</v>
       </c>
       <c r="X58" t="n">
-        <v>507.6283261950177</v>
+        <v>507.6283261950178</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.2775599508392596</v>
+        <v>0.2775599508392597</v>
       </c>
       <c r="Z58" t="n">
         <v>0.01400537479763473</v>
@@ -9847,7 +9847,7 @@
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-08_G_UHfit.dat</t>
+          <t>data//heating/2024-04-08_G_UHfit.dat</t>
         </is>
       </c>
       <c r="AG58" t="inlineStr">
@@ -9975,19 +9975,19 @@
         <v>-2.759819118069853e-06</v>
       </c>
       <c r="U59" t="n">
-        <v>0.09262695010105115</v>
+        <v>0.09262695010105117</v>
       </c>
       <c r="V59" t="n">
         <v>-2.156606246098924e-05</v>
       </c>
       <c r="W59" t="n">
-        <v>0.654979213374602</v>
+        <v>0.6549792133746021</v>
       </c>
       <c r="X59" t="n">
         <v>460.2709773842168</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.216359700018379</v>
+        <v>0.2163597000183791</v>
       </c>
       <c r="Z59" t="n">
         <v>0.008481387962932574</v>
@@ -10002,14 +10002,14 @@
         <v>0</v>
       </c>
       <c r="AD59" t="n">
-        <v>-2.567017103773199e-07</v>
+        <v>-2.5670171037732e-07</v>
       </c>
       <c r="AE59" t="n">
         <v>-5.809977228896621e-08</v>
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-08_G_UHfit.dat</t>
+          <t>data//heating/2024-04-08_G_UHfit.dat</t>
         </is>
       </c>
       <c r="AG59" t="inlineStr">
@@ -10137,7 +10137,7 @@
         <v>0.0003671129528946252</v>
       </c>
       <c r="U60" t="n">
-        <v>0.1075518023355561</v>
+        <v>0.1075518023355562</v>
       </c>
       <c r="V60" t="n">
         <v>0.004348004036318956</v>
@@ -10158,7 +10158,7 @@
         <v>0.06751425090226157</v>
       </c>
       <c r="AB60" t="n">
-        <v>36110.1616443763</v>
+        <v>36110.16164437631</v>
       </c>
       <c r="AC60" t="n">
         <v>0</v>
@@ -10171,7 +10171,7 @@
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-08_G_UHfit.dat</t>
+          <t>data//heating/2024-04-08_G_UHfit.dat</t>
         </is>
       </c>
       <c r="AG60" t="inlineStr">
@@ -10305,7 +10305,7 @@
         <v>0.005137693945840181</v>
       </c>
       <c r="W61" t="n">
-        <v>0.4465225446190242</v>
+        <v>0.4465225446190244</v>
       </c>
       <c r="X61" t="n">
         <v>505.0834578452248</v>
@@ -10320,20 +10320,20 @@
         <v>0.08172376454090759</v>
       </c>
       <c r="AB61" t="n">
-        <v>33974.60768885796</v>
+        <v>33974.60768885797</v>
       </c>
       <c r="AC61" t="n">
         <v>0</v>
       </c>
       <c r="AD61" t="n">
-        <v>7.52000320334249e-05</v>
+        <v>7.520003203342492e-05</v>
       </c>
       <c r="AE61" t="n">
         <v>3.886888343146718e-06</v>
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-08_G_UHfit.dat</t>
+          <t>data//heating/2024-04-08_G_UHfit.dat</t>
         </is>
       </c>
       <c r="AG61" t="inlineStr">
@@ -10461,7 +10461,7 @@
         <v>0.000187730887327424</v>
       </c>
       <c r="U62" t="n">
-        <v>0.08365948766701582</v>
+        <v>0.08365948766701584</v>
       </c>
       <c r="V62" t="n">
         <v>0.001162300586984725</v>
@@ -10470,10 +10470,10 @@
         <v>0.5681362279045871</v>
       </c>
       <c r="X62" t="n">
-        <v>412.2819561093273</v>
+        <v>412.2819561093274</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.1859577171795151</v>
+        <v>0.1859577171795152</v>
       </c>
       <c r="Z62" t="n">
         <v>0.0104514611471847</v>
@@ -10482,7 +10482,7 @@
         <v>0.01822078451552707</v>
       </c>
       <c r="AB62" t="n">
-        <v>28159.10382048651</v>
+        <v>28159.10382048652</v>
       </c>
       <c r="AC62" t="n">
         <v>0</v>
@@ -10491,11 +10491,11 @@
         <v>3.321540205326708e-05</v>
       </c>
       <c r="AE62" t="n">
-        <v>7.69818290738183e-07</v>
+        <v>7.698182907381831e-07</v>
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-08_G_UHfit.dat</t>
+          <t>data//heating/2024-04-08_G_UHfit.dat</t>
         </is>
       </c>
       <c r="AG62" t="inlineStr">
@@ -10632,7 +10632,7 @@
         <v>0.8596016317838717</v>
       </c>
       <c r="X63" t="n">
-        <v>412.1277000181161</v>
+        <v>412.1277000181162</v>
       </c>
       <c r="Y63" t="n">
         <v>0.2796249782220391</v>
@@ -10657,7 +10657,7 @@
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-08_G_UHfit.dat</t>
+          <t>data//heating/2024-04-08_G_UHfit.dat</t>
         </is>
       </c>
       <c r="AG63" t="inlineStr">
@@ -10788,10 +10788,10 @@
         <v>0.1164691925311543</v>
       </c>
       <c r="V64" t="n">
-        <v>0.006362417896020846</v>
+        <v>0.006362417896020847</v>
       </c>
       <c r="W64" t="n">
-        <v>0.4378631971499066</v>
+        <v>0.4378631971499067</v>
       </c>
       <c r="X64" t="n">
         <v>759.1732819982534</v>
@@ -10819,7 +10819,7 @@
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_C_UHfit.dat</t>
+          <t>data//heating/2024-04-10_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG64" t="inlineStr">
@@ -10953,13 +10953,13 @@
         <v>0.003939558814646643</v>
       </c>
       <c r="W65" t="n">
-        <v>0.4290870653389819</v>
+        <v>0.429087065338982</v>
       </c>
       <c r="X65" t="n">
         <v>798.6928478179552</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.1365313738411003</v>
+        <v>0.1365313738411004</v>
       </c>
       <c r="Z65" t="n">
         <v>0.01278698408404246</v>
@@ -10981,7 +10981,7 @@
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_C_UHfit.dat</t>
+          <t>data//heating/2024-04-10_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG65" t="inlineStr">
@@ -11118,7 +11118,7 @@
         <v>0.4370225433976812</v>
       </c>
       <c r="X66" t="n">
-        <v>707.1127931714053</v>
+        <v>707.1127931714054</v>
       </c>
       <c r="Y66" t="n">
         <v>0.137591170683432</v>
@@ -11143,7 +11143,7 @@
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_C_UHfit.dat</t>
+          <t>data//heating/2024-04-10_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG66" t="inlineStr">
@@ -11268,13 +11268,13 @@
         <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>0.0008670597790231895</v>
+        <v>0.0008670597790231899</v>
       </c>
       <c r="U67" t="n">
         <v>0.1508338431921717</v>
       </c>
       <c r="V67" t="n">
-        <v>0.005964598997961156</v>
+        <v>0.005964598997961158</v>
       </c>
       <c r="W67" t="n">
         <v>0.3505670496764239</v>
@@ -11286,7 +11286,7 @@
         <v>0.108042616673549</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.01377251986662813</v>
+        <v>0.01377251986662814</v>
       </c>
       <c r="AA67" t="n">
         <v>0.1434911731625054</v>
@@ -11298,14 +11298,14 @@
         <v>0</v>
       </c>
       <c r="AD67" t="n">
-        <v>9.9923520599138e-05</v>
+        <v>9.992352059913802e-05</v>
       </c>
       <c r="AE67" t="n">
         <v>1.760563342881436e-05</v>
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_C_UHfit.dat</t>
+          <t>data//heating/2024-04-10_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG67" t="inlineStr">
@@ -11430,31 +11430,31 @@
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>0.0006992329699471526</v>
+        <v>0.0006992329699471525</v>
       </c>
       <c r="U68" t="n">
         <v>0.1235817870667482</v>
       </c>
       <c r="V68" t="n">
-        <v>0.007502215588129964</v>
+        <v>0.007502215588129963</v>
       </c>
       <c r="W68" t="n">
         <v>0.4116893613562038</v>
       </c>
       <c r="X68" t="n">
-        <v>860.8529724832997</v>
+        <v>860.8529724832998</v>
       </c>
       <c r="Y68" t="n">
         <v>0.1300367644405842</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.01301419052829129</v>
+        <v>0.0130141905282913</v>
       </c>
       <c r="AA68" t="n">
         <v>0.1771218932068319</v>
       </c>
       <c r="AB68" t="n">
-        <v>44355.94002269916</v>
+        <v>44355.94002269917</v>
       </c>
       <c r="AC68" t="n">
         <v>0</v>
@@ -11467,7 +11467,7 @@
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_C_UHfit.dat</t>
+          <t>data//heating/2024-04-10_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG68" t="inlineStr">
@@ -11604,7 +11604,7 @@
         <v>0.3594978469391446</v>
       </c>
       <c r="X69" t="n">
-        <v>721.5122321285421</v>
+        <v>721.5122321285422</v>
       </c>
       <c r="Y69" t="n">
         <v>0.115213335547838</v>
@@ -11629,7 +11629,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_C_UHfit.dat</t>
+          <t>data//heating/2024-04-10_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG69" t="inlineStr">
@@ -11760,19 +11760,19 @@
         <v>0.1197204072876763</v>
       </c>
       <c r="V70" t="n">
-        <v>0.006988871852343422</v>
+        <v>0.006988871852343425</v>
       </c>
       <c r="W70" t="n">
         <v>0.3091349633900268</v>
       </c>
       <c r="X70" t="n">
-        <v>806.3517988859867</v>
+        <v>806.3517988859866</v>
       </c>
       <c r="Y70" t="n">
         <v>0.09617311549417953</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.01182500639140066</v>
+        <v>0.01182500639140067</v>
       </c>
       <c r="AA70" t="n">
         <v>0.1626604066866005</v>
@@ -11791,7 +11791,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_C_UHfit.dat</t>
+          <t>data//heating/2024-04-10_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG70" t="inlineStr">
@@ -11922,16 +11922,16 @@
         <v>0.1502189766327944</v>
       </c>
       <c r="V71" t="n">
-        <v>0.006711452742764234</v>
+        <v>0.006711452742764235</v>
       </c>
       <c r="W71" t="n">
-        <v>0.4972898462870549</v>
+        <v>0.497289846287055</v>
       </c>
       <c r="X71" t="n">
         <v>1037.914885420658</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.1556603824664357</v>
+        <v>0.1556603824664358</v>
       </c>
       <c r="Z71" t="n">
         <v>0.01683467585540828</v>
@@ -11953,7 +11953,7 @@
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_C_UHfit.dat</t>
+          <t>data//heating/2024-04-10_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG71" t="inlineStr">
@@ -12090,7 +12090,7 @@
         <v>0.457572224761756</v>
       </c>
       <c r="X72" t="n">
-        <v>946.3866506055778</v>
+        <v>946.3866506055779</v>
       </c>
       <c r="Y72" t="n">
         <v>0.1440699690381345</v>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_D_UHfit.dat</t>
+          <t>data//heating/2024-04-10_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG72" t="inlineStr">
@@ -12249,7 +12249,7 @@
         <v>0.00892214200974261</v>
       </c>
       <c r="W73" t="n">
-        <v>0.4021357686096941</v>
+        <v>0.4021357686096942</v>
       </c>
       <c r="X73" t="n">
         <v>1184.421972145063</v>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_D_UHfit.dat</t>
+          <t>data//heating/2024-04-10_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG73" t="inlineStr">
@@ -12402,13 +12402,13 @@
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>0.002049316178792926</v>
+        <v>0.002049316178792927</v>
       </c>
       <c r="U74" t="n">
         <v>0.1711794585322717</v>
       </c>
       <c r="V74" t="n">
-        <v>0.007892827701943847</v>
+        <v>0.007892827701943848</v>
       </c>
       <c r="W74" t="n">
         <v>0.3691615525116914</v>
@@ -12420,7 +12420,7 @@
         <v>0.1150210208379362</v>
       </c>
       <c r="Z74" t="n">
-        <v>0.01681783668295196</v>
+        <v>0.01681783668295197</v>
       </c>
       <c r="AA74" t="n">
         <v>0.2160810861415322</v>
@@ -12439,7 +12439,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_D_UHfit.dat</t>
+          <t>data//heating/2024-04-10_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG74" t="inlineStr">
@@ -12570,7 +12570,7 @@
         <v>0.1384286396050572</v>
       </c>
       <c r="V75" t="n">
-        <v>0.009487836990139989</v>
+        <v>0.00948783699013999</v>
       </c>
       <c r="W75" t="n">
         <v>0.4127417909298814</v>
@@ -12601,7 +12601,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_D_UHfit.dat</t>
+          <t>data//heating/2024-04-10_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG75" t="inlineStr">
@@ -12732,13 +12732,13 @@
         <v>0.1642122001202183</v>
       </c>
       <c r="V76" t="n">
-        <v>0.01169914010117583</v>
+        <v>0.01169914010117584</v>
       </c>
       <c r="W76" t="n">
         <v>0.4111931969415055</v>
       </c>
       <c r="X76" t="n">
-        <v>922.0940827449946</v>
+        <v>922.0940827449947</v>
       </c>
       <c r="Y76" t="n">
         <v>0.128118340792136</v>
@@ -12756,14 +12756,14 @@
         <v>0</v>
       </c>
       <c r="AD76" t="n">
-        <v>0.0001750159445109764</v>
+        <v>0.0001750159445109765</v>
       </c>
       <c r="AE76" t="n">
         <v>1.101110473744322e-05</v>
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_D_UHfit.dat</t>
+          <t>data//heating/2024-04-10_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG76" t="inlineStr">
@@ -12900,19 +12900,19 @@
         <v>0.2829113997021684</v>
       </c>
       <c r="X77" t="n">
-        <v>848.8610869800125</v>
+        <v>848.8610869800126</v>
       </c>
       <c r="Y77" t="n">
         <v>0.08677681645653362</v>
       </c>
       <c r="Z77" t="n">
-        <v>0.01358301691656</v>
+        <v>0.01358301691656001</v>
       </c>
       <c r="AA77" t="n">
         <v>0.2323249376503597</v>
       </c>
       <c r="AB77" t="n">
-        <v>56397.33297559082</v>
+        <v>56397.33297559083</v>
       </c>
       <c r="AC77" t="n">
         <v>0</v>
@@ -12925,7 +12925,7 @@
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_D_UHfit.dat</t>
+          <t>data//heating/2024-04-10_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG77" t="inlineStr">
@@ -13059,7 +13059,7 @@
         <v>0.01228222624674894</v>
       </c>
       <c r="W78" t="n">
-        <v>0.36452676848162</v>
+        <v>0.3645267684816201</v>
       </c>
       <c r="X78" t="n">
         <v>571.4794243501298</v>
@@ -13087,7 +13087,7 @@
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_D_UHfit.dat</t>
+          <t>data//heating/2024-04-10_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG78" t="inlineStr">
@@ -13221,7 +13221,7 @@
         <v>0.008036886595531067</v>
       </c>
       <c r="W79" t="n">
-        <v>0.381112407674126</v>
+        <v>0.3811124076741261</v>
       </c>
       <c r="X79" t="n">
         <v>885.8313714873228</v>
@@ -13230,7 +13230,7 @@
         <v>0.1148632993488698</v>
       </c>
       <c r="Z79" t="n">
-        <v>0.01741574030075476</v>
+        <v>0.01741574030075475</v>
       </c>
       <c r="AA79" t="n">
         <v>0.22512513893306</v>
@@ -13249,7 +13249,7 @@
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_D_UHfit.dat</t>
+          <t>data//heating/2024-04-10_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG79" t="inlineStr">
@@ -13381,7 +13381,7 @@
         <v>-0.001465228671529741</v>
       </c>
       <c r="W80" t="n">
-        <v>0.5760174785195162</v>
+        <v>0.5760174785195163</v>
       </c>
       <c r="X80" t="n">
         <v>573.288709901041</v>
@@ -13390,7 +13390,7 @@
         <v>0.1826428260842739</v>
       </c>
       <c r="Z80" t="n">
-        <v>0.02264260516521402</v>
+        <v>0.02264260516521403</v>
       </c>
       <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="n">
@@ -13407,7 +13407,7 @@
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-09_M_UHfit.dat</t>
+          <t>data//heating/2024-05-09_M_UHfit.dat</t>
         </is>
       </c>
       <c r="AG80" t="inlineStr">
@@ -13528,19 +13528,19 @@
         <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>-0.008699830742399771</v>
+        <v>-0.008699830742399772</v>
       </c>
       <c r="U81" t="n">
         <v>0.1468978153909799</v>
       </c>
       <c r="V81" t="n">
-        <v>-0.005629850981259019</v>
+        <v>-0.00562985098125902</v>
       </c>
       <c r="W81" t="n">
         <v>0.3968932863973194</v>
       </c>
       <c r="X81" t="n">
-        <v>664.6183160280792</v>
+        <v>664.6183160280793</v>
       </c>
       <c r="Y81" t="n">
         <v>0.1216608103964792</v>
@@ -13563,7 +13563,7 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-09_M_UHfit.dat</t>
+          <t>data//heating/2024-05-09_M_UHfit.dat</t>
         </is>
       </c>
       <c r="AG81" t="inlineStr">
@@ -13706,7 +13706,7 @@
       </c>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="n">
-        <v>52802.93807381821</v>
+        <v>52802.9380738182</v>
       </c>
       <c r="AC82" t="n">
         <v>0</v>
@@ -13719,7 +13719,7 @@
       </c>
       <c r="AF82" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-09_M_UHfit.dat</t>
+          <t>data//heating/2024-05-09_M_UHfit.dat</t>
         </is>
       </c>
       <c r="AG82" t="inlineStr">
@@ -13862,7 +13862,7 @@
       </c>
       <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="n">
-        <v>99011.1092463731</v>
+        <v>99011.10924637312</v>
       </c>
       <c r="AC83" t="n">
         <v>0</v>
@@ -13875,7 +13875,7 @@
       </c>
       <c r="AF83" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-09_M_UHfit.dat</t>
+          <t>data//heating/2024-05-09_M_UHfit.dat</t>
         </is>
       </c>
       <c r="AG83" t="inlineStr">
@@ -14011,10 +14011,10 @@
         <v>1086.470063815229</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.214318679862746</v>
+        <v>0.2143186798627461</v>
       </c>
       <c r="Z84" t="n">
-        <v>0.03377763388530936</v>
+        <v>0.03377763388530937</v>
       </c>
       <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="n">
@@ -14031,7 +14031,7 @@
       </c>
       <c r="AF84" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-09_M_UHfit.dat</t>
+          <t>data//heating/2024-05-09_M_UHfit.dat</t>
         </is>
       </c>
       <c r="AG84" t="inlineStr">
@@ -14187,7 +14187,7 @@
       </c>
       <c r="AF85" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-09_M_UHfit.dat</t>
+          <t>data//heating/2024-05-09_M_UHfit.dat</t>
         </is>
       </c>
       <c r="AG85" t="inlineStr">
@@ -14308,13 +14308,13 @@
         <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>0.005235424500321444</v>
+        <v>0.005235424500321445</v>
       </c>
       <c r="U86" t="n">
         <v>0.2683277520276918</v>
       </c>
       <c r="V86" t="n">
-        <v>0.005074180333137679</v>
+        <v>0.00507418033313768</v>
       </c>
       <c r="W86" t="n">
         <v>0.4410532889547694</v>
@@ -14343,7 +14343,7 @@
       </c>
       <c r="AF86" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-10_R_UHfit.dat</t>
+          <t>data//heating/2024-05-10_R_UHfit.dat</t>
         </is>
       </c>
       <c r="AG86" t="inlineStr">
@@ -14499,7 +14499,7 @@
       </c>
       <c r="AF87" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-10_R_UHfit.dat</t>
+          <t>data//heating/2024-05-10_R_UHfit.dat</t>
         </is>
       </c>
       <c r="AG87" t="inlineStr">
@@ -14626,10 +14626,10 @@
         <v>0.2045226104608164</v>
       </c>
       <c r="V88" t="n">
-        <v>0.003220245951797196</v>
+        <v>0.003220245951797197</v>
       </c>
       <c r="W88" t="n">
-        <v>0.2257937187895018</v>
+        <v>0.2257937187895019</v>
       </c>
       <c r="X88" t="n">
         <v>1528.23021596515</v>
@@ -14655,7 +14655,7 @@
       </c>
       <c r="AF88" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-10_R_UHfit.dat</t>
+          <t>data//heating/2024-05-10_R_UHfit.dat</t>
         </is>
       </c>
       <c r="AG88" t="inlineStr">
@@ -14776,16 +14776,16 @@
         <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>0.004850041525738522</v>
+        <v>0.004850041525738523</v>
       </c>
       <c r="U89" t="n">
         <v>0.2350806437380841</v>
       </c>
       <c r="V89" t="n">
-        <v>0.003449255609817536</v>
+        <v>0.003449255609817537</v>
       </c>
       <c r="W89" t="n">
-        <v>0.1886395354585384</v>
+        <v>0.1886395354585385</v>
       </c>
       <c r="X89" t="n">
         <v>1762.434010280964</v>
@@ -14794,7 +14794,7 @@
         <v>0.05978170885114411</v>
       </c>
       <c r="Z89" t="n">
-        <v>0.009473788279787973</v>
+        <v>0.009473788279787971</v>
       </c>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="n">
@@ -14811,7 +14811,7 @@
       </c>
       <c r="AF89" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-10_R_UHfit.dat</t>
+          <t>data//heating/2024-05-10_R_UHfit.dat</t>
         </is>
       </c>
       <c r="AG89" t="inlineStr">
@@ -14967,7 +14967,7 @@
       </c>
       <c r="AF90" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-10_R_UHfit.dat</t>
+          <t>data//heating/2024-05-10_R_UHfit.dat</t>
         </is>
       </c>
       <c r="AG90" t="inlineStr">
@@ -15123,7 +15123,7 @@
       </c>
       <c r="AF91" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-10_R_UHfit.dat</t>
+          <t>data//heating/2024-05-10_R_UHfit.dat</t>
         </is>
       </c>
       <c r="AG91" t="inlineStr">
@@ -15244,7 +15244,7 @@
         <v>0</v>
       </c>
       <c r="T92" t="n">
-        <v>0.007677051534441938</v>
+        <v>0.007677051534441939</v>
       </c>
       <c r="U92" t="n">
         <v>0.1193543380225066</v>
@@ -15256,10 +15256,10 @@
         <v>0.1081773955496239</v>
       </c>
       <c r="X92" t="n">
-        <v>907.3883361153877</v>
+        <v>907.3883361153878</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.03188303004367853</v>
+        <v>0.03188303004367852</v>
       </c>
       <c r="Z92" t="n">
         <v>0.005494324458045458</v>
@@ -15275,11 +15275,11 @@
         <v>0.001247603359940768</v>
       </c>
       <c r="AE92" t="n">
-        <v>1.558701515006214e-05</v>
+        <v>1.558701515006215e-05</v>
       </c>
       <c r="AF92" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-10_S_UHfit.dat</t>
+          <t>data//heating/2024-05-10_S_UHfit.dat</t>
         </is>
       </c>
       <c r="AG92" t="inlineStr">
@@ -15435,7 +15435,7 @@
       </c>
       <c r="AF93" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-10_S_UHfit.dat</t>
+          <t>data//heating/2024-05-10_S_UHfit.dat</t>
         </is>
       </c>
       <c r="AG93" t="inlineStr">
@@ -15556,7 +15556,7 @@
         <v>0</v>
       </c>
       <c r="T94" t="n">
-        <v>0.004435890047680419</v>
+        <v>0.00443589004768042</v>
       </c>
       <c r="U94" t="n">
         <v>0.1588520771549456</v>
@@ -15574,7 +15574,7 @@
         <v>0.05370234934821157</v>
       </c>
       <c r="Z94" t="n">
-        <v>0.005027615029459241</v>
+        <v>0.00502761502945924</v>
       </c>
       <c r="AA94" t="inlineStr"/>
       <c r="AB94" t="n">
@@ -15591,7 +15591,7 @@
       </c>
       <c r="AF94" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-10_S_UHfit.dat</t>
+          <t>data//heating/2024-05-10_S_UHfit.dat</t>
         </is>
       </c>
       <c r="AG94" t="inlineStr">
@@ -15718,7 +15718,7 @@
         <v>0.1459413886980297</v>
       </c>
       <c r="V95" t="n">
-        <v>0.0009886532597377434</v>
+        <v>0.0009886532597377436</v>
       </c>
       <c r="W95" t="n">
         <v>0.1516906581923808</v>
@@ -15730,7 +15730,7 @@
         <v>0.05006718363447132</v>
       </c>
       <c r="Z95" t="n">
-        <v>0.00576247694900188</v>
+        <v>0.005762476949001881</v>
       </c>
       <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="n">
@@ -15740,14 +15740,14 @@
         <v>0</v>
       </c>
       <c r="AD95" t="n">
-        <v>4.749518693807243e-05</v>
+        <v>4.749518693807244e-05</v>
       </c>
       <c r="AE95" t="n">
         <v>0.0002668046071561128</v>
       </c>
       <c r="AF95" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-10_S_UHfit.dat</t>
+          <t>data//heating/2024-05-10_S_UHfit.dat</t>
         </is>
       </c>
       <c r="AG95" t="inlineStr">
@@ -15886,7 +15886,7 @@
         <v>0.02997685225208591</v>
       </c>
       <c r="Z96" t="n">
-        <v>0.005732003875027769</v>
+        <v>0.00573200387502777</v>
       </c>
       <c r="AA96" t="inlineStr"/>
       <c r="AB96" t="n">
@@ -15903,7 +15903,7 @@
       </c>
       <c r="AF96" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-10_S_UHfit.dat</t>
+          <t>data//heating/2024-05-10_S_UHfit.dat</t>
         </is>
       </c>
       <c r="AG96" t="inlineStr">
@@ -16059,7 +16059,7 @@
       </c>
       <c r="AF97" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-10_S_UHfit.dat</t>
+          <t>data//heating/2024-05-10_S_UHfit.dat</t>
         </is>
       </c>
       <c r="AG97" t="inlineStr">

--- a/data/heating/heating_data_results.xlsx
+++ b/data/heating/heating_data_results.xlsx
@@ -682,34 +682,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3354811069612613</v>
+        <v>0.3354811069345606</v>
       </c>
       <c r="C2" t="n">
         <v>202.14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04902673234745315</v>
+        <v>0.04902673234934449</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4094676047098669</v>
+        <v>0.4094676032350194</v>
       </c>
       <c r="F2" t="n">
-        <v>15.84454174532855</v>
+        <v>15.84454174444826</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4072072779002595</v>
+        <v>0.4072072765164204</v>
       </c>
       <c r="H2" t="n">
-        <v>22.42095269142165</v>
+        <v>22.42095269616775</v>
       </c>
       <c r="I2" t="n">
-        <v>39343.16021832186</v>
+        <v>39343.16019728019</v>
       </c>
       <c r="J2" t="n">
-        <v>8.858249564906572</v>
+        <v>8.858249566999907</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5609358234287903</v>
+        <v>0.5609358234291121</v>
       </c>
       <c r="L2" t="n">
         <v>0.7</v>
@@ -718,7 +718,7 @@
         <v>1.8339e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>1.51321264377996</v>
+        <v>1.513212643779954</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         <v>9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.001190448042135585</v>
+        <v>0.001190447984941629</v>
       </c>
       <c r="R2" t="n">
         <v>0.0009343490403278611</v>
@@ -738,44 +738,44 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04196601461227539</v>
+        <v>0.04196601495694224</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09313704238552371</v>
+        <v>0.09313703079693531</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04171719133910391</v>
+        <v>0.04171719169489261</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1954396227922081</v>
+        <v>0.1954396228906943</v>
       </c>
       <c r="X2" t="n">
-        <v>675.1147355857871</v>
+        <v>675.1146860802542</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.06320285695167294</v>
+        <v>0.0632028539189136</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.003500729684360824</v>
+        <v>0.003500729685906178</v>
       </c>
       <c r="AA2" t="n">
         <v>1.867230148954097</v>
       </c>
       <c r="AB2" t="n">
-        <v>32761.24617099675</v>
+        <v>32761.24210063451</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.008875677934634915</v>
+        <v>0.008875679449642158</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.001919028502678501</v>
+        <v>0.00191902848994225</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0007317215174254034</v>
+        <v>0.0007317215234671813</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-19_L_UHfit.dat</t>
+          <t>data//heating/2024-03-19_L_UHfit.dat</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -790,13 +790,13 @@
         <v>18.16190744696709</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11146734.30226994</v>
+        <v>11146734.30367849</v>
       </c>
       <c r="AK2" t="n">
-        <v>4.235504311546634e-07</v>
+        <v>4.235504311046178e-07</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.005433657492178893</v>
+        <v>0.005433657951733742</v>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="AP2" t="n">
-        <v>0.01441185986461834</v>
+        <v>0.01441185981953702</v>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
@@ -831,10 +831,10 @@
         <v>441</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.007130706776320704</v>
+        <v>0.007130706753340057</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.1017304132402231</v>
+        <v>0.1017304132441476</v>
       </c>
     </row>
     <row r="3">
@@ -844,34 +844,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2639812614023043</v>
+        <v>0.2639812615254142</v>
       </c>
       <c r="C3" t="n">
         <v>202.14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03873231071383666</v>
+        <v>0.0387323107323396</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5823701956878249</v>
+        <v>0.5823701980001815</v>
       </c>
       <c r="F3" t="n">
-        <v>16.14251574029773</v>
+        <v>16.14251574041392</v>
       </c>
       <c r="G3" t="n">
-        <v>0.51541148074925</v>
+        <v>0.5154114832946158</v>
       </c>
       <c r="H3" t="n">
-        <v>22.21226865758801</v>
+        <v>22.21226864369802</v>
       </c>
       <c r="I3" t="n">
-        <v>41578.02767856442</v>
+        <v>41578.02771773867</v>
       </c>
       <c r="J3" t="n">
-        <v>8.955728590099092</v>
+        <v>8.955728590254722</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5553376510672267</v>
+        <v>0.555337651069152</v>
       </c>
       <c r="L3" t="n">
         <v>0.5</v>
@@ -880,7 +880,7 @@
         <v>1.8339e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>1.44385910140961</v>
+        <v>1.443859101409604</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0006217403880847942</v>
+        <v>0.0006217404120658985</v>
       </c>
       <c r="R3" t="n">
         <v>0.000398994630063782</v>
@@ -900,44 +900,44 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02528700927214315</v>
+        <v>0.02528700816730562</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1095037631771035</v>
+        <v>0.1095037745547503</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02231122233934434</v>
+        <v>0.02231122136536048</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1379535938488667</v>
+        <v>0.1379535870795775</v>
       </c>
       <c r="X3" t="n">
-        <v>837.9709623925241</v>
+        <v>837.9709276449047</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.04233536567069147</v>
+        <v>0.04233536729031161</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.006209759374349501</v>
+        <v>0.006209759376484341</v>
       </c>
       <c r="AA3" t="n">
         <v>1.014614454717123</v>
       </c>
       <c r="AB3" t="n">
-        <v>38006.36796956629</v>
+        <v>38006.37191890309</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.03105463064758753</v>
+        <v>0.03105463068003033</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.002335119757222893</v>
+        <v>0.002335119772688627</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0001596052620443751</v>
+        <v>0.0001596052555142872</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-19_L_UHfit.dat</t>
+          <t>data//heating/2024-03-19_L_UHfit.dat</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -952,13 +952,13 @@
         <v>23.20390993821211</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11205430.30449119</v>
+        <v>11205430.30469088</v>
       </c>
       <c r="AK3" t="n">
-        <v>4.212390476267808e-07</v>
+        <v>4.212390476231208e-07</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.009547562831382625</v>
+        <v>0.009547562531633191</v>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="AP3" t="n">
-        <v>0.02838346757331154</v>
+        <v>0.02838346768660127</v>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
@@ -993,10 +993,10 @@
         <v>441</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.003642586265598008</v>
+        <v>0.003642586280255991</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.08036950018905376</v>
+        <v>0.08036950022744732</v>
       </c>
     </row>
     <row r="4">
@@ -1006,34 +1006,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2136079237823387</v>
+        <v>0.2136079237339889</v>
       </c>
       <c r="C4" t="n">
         <v>202.14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02987654039837011</v>
+        <v>0.02987654038927012</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2616756428060139</v>
+        <v>0.2616756729363933</v>
       </c>
       <c r="F4" t="n">
-        <v>16.12957610243477</v>
+        <v>16.12957611111113</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04946378748748615</v>
+        <v>0.04946379336892483</v>
       </c>
       <c r="H4" t="n">
-        <v>22.07786406948382</v>
+        <v>22.07786403955852</v>
       </c>
       <c r="I4" t="n">
-        <v>41376.77667748242</v>
+        <v>41376.77668876212</v>
       </c>
       <c r="J4" t="n">
-        <v>8.158882835882983</v>
+        <v>8.158882834630393</v>
       </c>
       <c r="K4" t="n">
-        <v>0.504546076060682</v>
+        <v>0.5045460761865812</v>
       </c>
       <c r="L4" t="n">
         <v>0.9</v>
@@ -1042,7 +1042,7 @@
         <v>1.8339e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>1.96350773555309</v>
+        <v>1.963507735553112</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0008433477488544318</v>
+        <v>0.0008433476372549782</v>
       </c>
       <c r="R4" t="n">
         <v>0.0003692110403157166</v>
@@ -1062,44 +1062,44 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.158135978427914</v>
+        <v>0.1581359875023696</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1857150223462521</v>
+        <v>0.1857149691273164</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02989062875774376</v>
+        <v>0.02989063058599282</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1671922436301732</v>
+        <v>0.1671922138837793</v>
       </c>
       <c r="X4" t="n">
-        <v>1422.899231447779</v>
+        <v>1422.899417106488</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.06480789681409119</v>
+        <v>0.06480788819190757</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.00532762453945029</v>
+        <v>0.005327626116911856</v>
       </c>
       <c r="AA4" t="n">
         <v>1.353964082237834</v>
       </c>
       <c r="AB4" t="n">
-        <v>65330.87077513434</v>
+        <v>65330.85230386758</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.005925516223727762</v>
+        <v>-0.005925513761764653</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.002546878802000316</v>
+        <v>0.002546878954915562</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.02324999988687599</v>
+        <v>0.023250001524139</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-19_L_UHfit.dat</t>
+          <t>data//heating/2024-03-19_L_UHfit.dat</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1114,13 +1114,13 @@
         <v>2.240424277573293</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11348131.54792835</v>
+        <v>11348131.59747603</v>
       </c>
       <c r="AK4" t="n">
-        <v>4.413302900923371e-07</v>
+        <v>4.413302901262147e-07</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.005795845133466677</v>
+        <v>-0.00579584440739551</v>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="AP4" t="n">
-        <v>0.004166839209034406</v>
+        <v>0.004166839701891457</v>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
@@ -1155,10 +1155,10 @@
         <v>441</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.03846772065045541</v>
+        <v>0.03846772558365042</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.06199378696859652</v>
+        <v>0.06199378694971405</v>
       </c>
     </row>
     <row r="5">
@@ -1168,34 +1168,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1222436714503849</v>
+        <v>0.1222436716232025</v>
       </c>
       <c r="C5" t="n">
         <v>202.14</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0161164314521513</v>
+        <v>0.01611643146948971</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7296567060970114</v>
+        <v>0.7296566418327334</v>
       </c>
       <c r="F5" t="n">
-        <v>15.27481763393494</v>
+        <v>15.27481766154129</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1872878066426102</v>
+        <v>0.1872877923654219</v>
       </c>
       <c r="H5" t="n">
-        <v>18.96158184932081</v>
+        <v>18.96158192583419</v>
       </c>
       <c r="I5" t="n">
-        <v>35138.40375288931</v>
+        <v>35138.40378117771</v>
       </c>
       <c r="J5" t="n">
-        <v>7.277944789147533</v>
+        <v>7.277944784191823</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4791824474517589</v>
+        <v>0.4791824473382754</v>
       </c>
       <c r="L5" t="n">
         <v>0.25</v>
@@ -1204,7 +1204,7 @@
         <v>1.8339e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>1.595983831389056</v>
+        <v>1.595983831389055</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0005688923354533471</v>
+        <v>0.0005688923649212936</v>
       </c>
       <c r="R5" t="n">
         <v>0.0001521218421289064</v>
@@ -1224,44 +1224,44 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.129235605239077</v>
+        <v>0.1292356101303164</v>
       </c>
       <c r="U5" t="n">
-        <v>0.167114829196894</v>
+        <v>0.1671149080537321</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03315628595351369</v>
+        <v>0.03315628759018356</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1978779859945113</v>
+        <v>0.1978780011117845</v>
       </c>
       <c r="X5" t="n">
-        <v>1148.335191828728</v>
+        <v>1148.333794490546</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.068215388825587</v>
+        <v>0.06821539224030196</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.004605024080529822</v>
+        <v>0.004605023868615634</v>
       </c>
       <c r="AA5" t="n">
         <v>1.751546421931985</v>
       </c>
       <c r="AB5" t="n">
-        <v>60164.4773346018</v>
+        <v>60164.50619921755</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.0001827808191928272</v>
+        <v>-0.0001827809096212254</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.01089355686451951</v>
+        <v>0.01089355712823767</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0001570234687683461</v>
+        <v>0.0001570234794334023</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-21_B_UHfit.dat</t>
+          <t>data//heating/2024-03-21_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1276,13 +1276,13 @@
         <v>9.87722465439019</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10998442.49302725</v>
+        <v>10998442.59967799</v>
       </c>
       <c r="AK5" t="n">
-        <v>4.672773234490709e-07</v>
+        <v>4.672773236081605e-07</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0.0009702162119030783</v>
+        <v>-0.0009702164222219862</v>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="AP5" t="n">
-        <v>0.05371612377064459</v>
+        <v>0.05371611932975399</v>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
@@ -1317,10 +1317,10 @@
         <v>441</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.0008852796043779825</v>
+        <v>0.0008852795521606563</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.03344157672931779</v>
+        <v>0.03344157676529496</v>
       </c>
     </row>
     <row r="6">
@@ -1330,34 +1330,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3316285164233719</v>
+        <v>0.331628516383437</v>
       </c>
       <c r="C6" t="n">
         <v>202.14</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04717063370597056</v>
+        <v>0.04717063370073405</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3533427882235353</v>
+        <v>0.3533427890754617</v>
       </c>
       <c r="F6" t="n">
-        <v>15.23511707381434</v>
+        <v>15.23511710734731</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2781762816743086</v>
+        <v>0.2781762834930827</v>
       </c>
       <c r="H6" t="n">
-        <v>21.90625766733252</v>
+        <v>21.90625765850353</v>
       </c>
       <c r="I6" t="n">
-        <v>34900.37181868273</v>
+        <v>34900.37175997071</v>
       </c>
       <c r="J6" t="n">
-        <v>8.396317840072898</v>
+        <v>8.39631784024594</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5446513964853444</v>
+        <v>0.5446513964844253</v>
       </c>
       <c r="L6" t="n">
         <v>0.75</v>
@@ -1366,7 +1366,7 @@
         <v>1.8339e-05</v>
       </c>
       <c r="N6" t="n">
-        <v>2.288023640017647</v>
+        <v>2.288023640017621</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.001612514573856521</v>
+        <v>0.001612514517581879</v>
       </c>
       <c r="R6" t="n">
         <v>0.001195533601683541</v>
@@ -1386,44 +1386,44 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.06543452609319385</v>
+        <v>0.06543452527668331</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1161281206734756</v>
+        <v>0.1161280507827535</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0515037481644691</v>
+        <v>0.05150374774721229</v>
       </c>
       <c r="W6" t="n">
-        <v>0.264936880689985</v>
+        <v>0.2649368859408744</v>
       </c>
       <c r="X6" t="n">
-        <v>812.133245245403</v>
+        <v>812.1335286592864</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.08225214652111791</v>
+        <v>0.08225214364123944</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.007370583557059543</v>
+        <v>0.007370583555346578</v>
       </c>
       <c r="AA6" t="n">
         <v>2.355961793337599</v>
       </c>
       <c r="AB6" t="n">
-        <v>41927.40139012847</v>
+        <v>41927.37624646962</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.002136462553547266</v>
+        <v>-0.002136459901581963</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.00229201487202249</v>
+        <v>0.002292014835433633</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.001687601526758457</v>
+        <v>0.001687601526448338</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-21_B_UHfit.dat</t>
+          <t>data//heating/2024-03-21_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1438,13 +1438,13 @@
         <v>12.69848412114133</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11001105.76275454</v>
+        <v>11001105.81058064</v>
       </c>
       <c r="AK6" t="n">
-        <v>4.350454679614249e-07</v>
+        <v>4.350454679569419e-07</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.00264335951247644</v>
+        <v>-0.002643358490298567</v>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="AP6" t="n">
-        <v>0.01089744710801123</v>
+        <v>0.0108974471339143</v>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
         <v>441</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.009107169902532143</v>
+        <v>0.009107170043267252</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.09787901069366015</v>
+        <v>0.09787901068279441</v>
       </c>
     </row>
     <row r="7">
@@ -1492,34 +1492,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2347127322483485</v>
+        <v>0.2347127323482914</v>
       </c>
       <c r="C7" t="n">
         <v>202.14</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03354361832802753</v>
+        <v>0.03354361834348995</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5178007051563801</v>
+        <v>0.5178007075695159</v>
       </c>
       <c r="F7" t="n">
-        <v>15.41898504217519</v>
+        <v>15.41898504230144</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3191012312067147</v>
+        <v>0.3191012329856618</v>
       </c>
       <c r="H7" t="n">
-        <v>21.91335830811049</v>
+        <v>21.91335829868554</v>
       </c>
       <c r="I7" t="n">
-        <v>36207.12795731248</v>
+        <v>36207.12802667142</v>
       </c>
       <c r="J7" t="n">
-        <v>8.509299123848685</v>
+        <v>8.509299124408679</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5530748758459124</v>
+        <v>0.5530748758675129</v>
       </c>
       <c r="L7" t="n">
         <v>0.45</v>
@@ -1528,7 +1528,7 @@
         <v>1.8339e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>0.833741511640258</v>
+        <v>0.8337415116402584</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>9</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.000344405949578312</v>
+        <v>0.000344405916483588</v>
       </c>
       <c r="R7" t="n">
         <v>0.0001831418323715859</v>
@@ -1548,44 +1548,44 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.01591019958159024</v>
+        <v>0.0159101991674727</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03125061023419905</v>
+        <v>0.03125060867081655</v>
       </c>
       <c r="V7" t="n">
-        <v>0.009799527696163081</v>
+        <v>0.009799527450264968</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0584589598955579</v>
+        <v>0.05845895331901674</v>
       </c>
       <c r="X7" t="n">
-        <v>226.2222413158127</v>
+        <v>226.2223036932575</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02502732855906454</v>
+        <v>0.02502732613979753</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.003256025572087955</v>
+        <v>0.003256025533538459</v>
       </c>
       <c r="AA7" t="n">
         <v>0.4488441376243605</v>
       </c>
       <c r="AB7" t="n">
-        <v>11253.51414135778</v>
+        <v>11253.5135782503</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.02576833489307765</v>
+        <v>-0.02576832607322814</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.001520386610265496</v>
+        <v>0.001520386550515175</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.000118533851998725</v>
+        <v>0.0001185338489049785</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-21_B_UHfit.dat</t>
+          <t>data//heating/2024-03-21_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1600,13 +1600,13 @@
         <v>14.56195024233941</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11104920.18665375</v>
+        <v>11104920.18662135</v>
       </c>
       <c r="AK7" t="n">
-        <v>4.321476828735947e-07</v>
+        <v>4.321476828593749e-07</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0.006707130582073758</v>
+        <v>-0.006707130698606711</v>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="AP7" t="n">
-        <v>0.02436372043939997</v>
+        <v>0.02436372055407691</v>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
@@ -1641,10 +1641,10 @@
         <v>441</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.003851429667716328</v>
+        <v>0.003851429685631659</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.06960296945549606</v>
+        <v>0.06960296948758055</v>
       </c>
     </row>
     <row r="8">
@@ -1654,34 +1654,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2096746117576415</v>
+        <v>0.2096746118925363</v>
       </c>
       <c r="C8" t="n">
         <v>202.14</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03015449817756121</v>
+        <v>0.03015449819776909</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6459195140263368</v>
+        <v>0.6459195034422761</v>
       </c>
       <c r="F8" t="n">
-        <v>15.37746985640533</v>
+        <v>15.37746983179268</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4019655248181001</v>
+        <v>0.4019655232969129</v>
       </c>
       <c r="H8" t="n">
-        <v>21.8600424183368</v>
+        <v>21.86004242676784</v>
       </c>
       <c r="I8" t="n">
-        <v>35825.21551325837</v>
+        <v>35825.21552153853</v>
       </c>
       <c r="J8" t="n">
-        <v>8.625467224928467</v>
+        <v>8.625467225340545</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5571246713043277</v>
+        <v>0.5571246713035809</v>
       </c>
       <c r="L8" t="n">
         <v>0.4</v>
@@ -1690,7 +1690,7 @@
         <v>1.8339e-05</v>
       </c>
       <c r="N8" t="n">
-        <v>1.003464526157219</v>
+        <v>1.003464526157227</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.000470709080752922</v>
+        <v>0.0004707090941121699</v>
       </c>
       <c r="R8" t="n">
         <v>0.0002310967644852671</v>
@@ -1710,44 +1710,44 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.03327795955323343</v>
+        <v>0.03327796154114112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2074530305871123</v>
+        <v>0.2074529127319583</v>
       </c>
       <c r="V8" t="n">
-        <v>0.02053111574923022</v>
+        <v>0.02053111746452187</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1286731864095997</v>
+        <v>0.12867319274115</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.861811146466</v>
+        <v>1483.860694742904</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.03885829371131856</v>
+        <v>0.03885829479465408</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.009247218164599403</v>
+        <v>0.009247218160037944</v>
       </c>
       <c r="AA8" t="n">
         <v>0.9453266815662364</v>
       </c>
       <c r="AB8" t="n">
-        <v>74595.10779110652</v>
+        <v>74595.0663731055</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.0005381623829175345</v>
+        <v>-0.0005381624332717014</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.003420721727387419</v>
+        <v>0.003420721667533242</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0001272427985345487</v>
+        <v>0.0001272428064372481</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-21_B_UHfit.dat</t>
+          <t>data//heating/2024-03-21_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -1762,13 +1762,13 @@
         <v>18.38814011788988</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11058734.7723645</v>
+        <v>11058734.8969653</v>
       </c>
       <c r="AK8" t="n">
-        <v>4.292277278067013e-07</v>
+        <v>4.292277277964482e-07</v>
       </c>
       <c r="AL8" t="n">
-        <v>-0.002005624768702863</v>
+        <v>-0.002005624202428942</v>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="AP8" t="n">
-        <v>0.03866583051415144</v>
+        <v>0.03866583044184844</v>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
@@ -1803,10 +1803,10 @@
         <v>441</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.002408606054678403</v>
+        <v>0.002408606096625524</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.06257054904076662</v>
+        <v>0.06257054908269793</v>
       </c>
     </row>
     <row r="9">
@@ -1816,34 +1816,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1201651046857674</v>
+        <v>0.1201651048089374</v>
       </c>
       <c r="C9" t="n">
         <v>202.14</v>
       </c>
       <c r="D9" t="n">
-        <v>0.016093772132441</v>
+        <v>0.01609377214953949</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8141660019208506</v>
+        <v>0.8141659819350886</v>
       </c>
       <c r="F9" t="n">
-        <v>15.21894688006069</v>
+        <v>15.21894687414334</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1680767608197653</v>
+        <v>0.1680767570948922</v>
       </c>
       <c r="H9" t="n">
-        <v>19.73594734720702</v>
+        <v>19.73594736892178</v>
       </c>
       <c r="I9" t="n">
-        <v>34758.35572999506</v>
+        <v>34758.35570889336</v>
       </c>
       <c r="J9" t="n">
-        <v>7.510788749502558</v>
+        <v>7.51078875001186</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4914068853111642</v>
+        <v>0.4914068853087659</v>
       </c>
       <c r="L9" t="n">
         <v>0.25</v>
@@ -1852,7 +1852,7 @@
         <v>1.8339e-05</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2697585547853401</v>
+        <v>0.2697585547853398</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>9</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0007367699784202634</v>
+        <v>0.0007367699636110954</v>
       </c>
       <c r="R9" t="n">
         <v>0.0001914727085253033</v>
@@ -1872,44 +1872,44 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1958703550133653</v>
+        <v>0.1958703509945993</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07494507088655961</v>
+        <v>0.07494509345554085</v>
       </c>
       <c r="V9" t="n">
-        <v>0.04043343798654029</v>
+        <v>0.04043343725215359</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2727876938341263</v>
+        <v>0.2727876967797308</v>
       </c>
       <c r="X9" t="n">
-        <v>515.6109573319067</v>
+        <v>515.6109930631799</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.09295604486643413</v>
+        <v>0.09295604289083717</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.009025917325402965</v>
+        <v>0.009025917297820613</v>
       </c>
       <c r="AA9" t="n">
         <v>2.051997636845923</v>
       </c>
       <c r="AB9" t="n">
-        <v>27045.87131944787</v>
+        <v>27045.87948181294</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.0008456904232831837</v>
+        <v>-0.0008456915610483019</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.01331824727145519</v>
+        <v>0.01331824698422349</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0004495496007378563</v>
+        <v>0.000449549591917639</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-21_B_UHfit.dat</t>
+          <t>data//heating/2024-03-21_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -1924,13 +1924,13 @@
         <v>8.516274901654725</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10984302.87853529</v>
+        <v>10984302.88147872</v>
       </c>
       <c r="AK9" t="n">
-        <v>4.599772054790406e-07</v>
+        <v>4.599772054634453e-07</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0.001649797644130926</v>
+        <v>-0.00164979872545752</v>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="AP9" t="n">
-        <v>0.0502552837099175</v>
+        <v>0.05025528253222907</v>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
@@ -1965,10 +1965,10 @@
         <v>441</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.001868330236858455</v>
+        <v>0.00186833019249752</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.03339455866697712</v>
+        <v>0.03339455870245647</v>
       </c>
     </row>
     <row r="10">
@@ -1978,34 +1978,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1223707276530547</v>
+        <v>0.1223707277885627</v>
       </c>
       <c r="C10" t="n">
         <v>202.14</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0161130170312614</v>
+        <v>0.01611301704855604</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7513465356351433</v>
+        <v>0.7513465119716767</v>
       </c>
       <c r="F10" t="n">
-        <v>15.34170301638793</v>
+        <v>15.34170303023001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1752030878091956</v>
+        <v>0.1752030834184386</v>
       </c>
       <c r="H10" t="n">
-        <v>18.96592303478932</v>
+        <v>18.96592305173098</v>
       </c>
       <c r="I10" t="n">
-        <v>35610.51233755074</v>
+        <v>35610.51231910352</v>
       </c>
       <c r="J10" t="n">
-        <v>7.259769470947237</v>
+        <v>7.259769470404278</v>
       </c>
       <c r="K10" t="n">
-        <v>0.478065598865124</v>
+        <v>0.4780655988669092</v>
       </c>
       <c r="L10" t="n">
         <v>0.25</v>
@@ -2014,7 +2014,7 @@
         <v>1.8339e-05</v>
       </c>
       <c r="N10" t="n">
-        <v>0.8569693500323949</v>
+        <v>0.8569693500323962</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0002721754398510558</v>
+        <v>0.0002721754434058973</v>
       </c>
       <c r="R10" t="n">
         <v>7.250677997496892e-05</v>
@@ -2034,44 +2034,44 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.07666796109992861</v>
+        <v>0.07666794701133268</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1452767652743318</v>
+        <v>0.1452767832880278</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01785859819528085</v>
+        <v>0.0178585950178518</v>
       </c>
       <c r="W10" t="n">
-        <v>0.08877604492048433</v>
+        <v>0.08877602833294693</v>
       </c>
       <c r="X10" t="n">
-        <v>1007.216582053636</v>
+        <v>1007.216378204649</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.03240223953389481</v>
+        <v>0.03240223992008764</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.006773081514518398</v>
+        <v>0.006773081514827197</v>
       </c>
       <c r="AA10" t="n">
         <v>0.942573754995929</v>
       </c>
       <c r="AB10" t="n">
-        <v>52072.09537580652</v>
+        <v>52072.10200913143</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0006062127220519951</v>
+        <v>0.0006062126305991633</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.006127985687347026</v>
+        <v>0.0061279848972437</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0001242736303879682</v>
+        <v>0.0001242736093717449</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-21_B_UHfit.dat</t>
+          <t>data//heating/2024-03-21_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -2086,13 +2086,13 @@
         <v>9.23778329408673</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10997968.20486889</v>
+        <v>10997968.25209266</v>
       </c>
       <c r="AK10" t="n">
-        <v>4.678618878126199e-07</v>
+        <v>4.678618878301157e-07</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.001621437635904469</v>
+        <v>0.001621437097289208</v>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="AP10" t="n">
-        <v>0.04970951525365109</v>
+        <v>0.04970951380808977</v>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
@@ -2127,10 +2127,10 @@
         <v>441</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.001213968270166191</v>
+        <v>0.001213968247570413</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.03343449180989782</v>
+        <v>0.03343449184578418</v>
       </c>
     </row>
     <row r="11">
@@ -2140,34 +2140,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1621740696359982</v>
+        <v>0.1621740696431216</v>
       </c>
       <c r="C11" t="n">
         <v>202.14</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02250075498091412</v>
+        <v>0.02250075498303831</v>
       </c>
       <c r="E11" t="n">
-        <v>1.040582494076915</v>
+        <v>1.040582493889419</v>
       </c>
       <c r="F11" t="n">
-        <v>16.59214965465781</v>
+        <v>16.59214966060304</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1945172679204691</v>
+        <v>0.194517268030158</v>
       </c>
       <c r="H11" t="n">
-        <v>21.09706321637482</v>
+        <v>21.0970632163764</v>
       </c>
       <c r="I11" t="n">
-        <v>45065.18818252184</v>
+        <v>45065.18820660144</v>
       </c>
       <c r="J11" t="n">
-        <v>8.045575871490572</v>
+        <v>8.045575872303257</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4896334517382453</v>
+        <v>0.4896334516087947</v>
       </c>
       <c r="L11" t="n">
         <v>0.4</v>
@@ -2176,7 +2176,7 @@
         <v>1.8339e-05</v>
       </c>
       <c r="N11" t="n">
-        <v>17.04469400289277</v>
+        <v>17.04469400289279</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>9</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.843692364864533e-05</v>
+        <v>1.843692362608058e-05</v>
       </c>
       <c r="R11" t="n">
         <v>6.481565471062465e-06</v>
@@ -2196,44 +2196,44 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1064593625833518</v>
+        <v>0.1064593724195669</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1333143426632088</v>
+        <v>0.1333144485682261</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01988522072294357</v>
+        <v>0.0198852225534748</v>
       </c>
       <c r="W11" t="n">
-        <v>0.03867925905941023</v>
+        <v>0.03867925966337543</v>
       </c>
       <c r="X11" t="n">
-        <v>1076.053192978017</v>
+        <v>1076.053041414807</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.001829650914677405</v>
+        <v>0.001829650912545634</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.004314422337541476</v>
+        <v>0.00431442223298221</v>
       </c>
       <c r="AA11" t="n">
         <v>0.942705653427713</v>
       </c>
       <c r="AB11" t="n">
-        <v>45794.25359922051</v>
+        <v>45794.28998722864</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.01091169905922483</v>
+        <v>0.01091169915583982</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.002809473049631079</v>
+        <v>0.002809473347221501</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.003059599029641544</v>
+        <v>0.003059599327309143</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-21_D_UHfit.dat</t>
+          <t>data//heating/2024-03-21_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
@@ -2248,13 +2248,13 @@
         <v>9.220111059874879</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11399000.19551775</v>
+        <v>11399000.20184681</v>
       </c>
       <c r="AK11" t="n">
-        <v>4.444270830098086e-07</v>
+        <v>4.444270829873628e-07</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.005853576126718225</v>
+        <v>0.005853575902667974</v>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="AP11" t="n">
-        <v>0.02686519630678244</v>
+        <v>0.02686519630031931</v>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
@@ -2289,10 +2289,10 @@
         <v>441</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.02983698843817857</v>
+        <v>0.02983698848250151</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.04668904070952857</v>
+        <v>0.04668904071393627</v>
       </c>
     </row>
     <row r="12">
@@ -2302,34 +2302,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1722292714552118</v>
+        <v>0.1722292715544601</v>
       </c>
       <c r="C12" t="n">
         <v>202.14</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02445876856214173</v>
+        <v>0.02445876857650143</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6772641298529515</v>
+        <v>0.6772641286266557</v>
       </c>
       <c r="F12" t="n">
-        <v>16.67731284187015</v>
+        <v>16.67731284809606</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2307599883828847</v>
+        <v>0.2307599877928465</v>
       </c>
       <c r="H12" t="n">
-        <v>21.94776314743635</v>
+        <v>21.94776315160408</v>
       </c>
       <c r="I12" t="n">
-        <v>45730.02783425825</v>
+        <v>45730.0278030815</v>
       </c>
       <c r="J12" t="n">
-        <v>8.424350863152684</v>
+        <v>8.424350863295933</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5037151658631416</v>
+        <v>0.5037151657840144</v>
       </c>
       <c r="L12" t="n">
         <v>0.35</v>
@@ -2338,7 +2338,7 @@
         <v>1.8339e-05</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7269131851081349</v>
+        <v>0.7269131851081403</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0002330787529608506</v>
+        <v>0.0002330787356448705</v>
       </c>
       <c r="R12" t="n">
         <v>8.841714254319355e-05</v>
@@ -2358,44 +2358,44 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0.02483543567860279</v>
+        <v>0.02483543355381125</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1455074999324931</v>
+        <v>0.1455075141385279</v>
       </c>
       <c r="V12" t="n">
-        <v>0.008401930809544276</v>
+        <v>0.008401930062616856</v>
       </c>
       <c r="W12" t="n">
-        <v>0.06533452253978309</v>
+        <v>0.0653345235004834</v>
       </c>
       <c r="X12" t="n">
-        <v>1221.905851884658</v>
+        <v>1221.905828646318</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.02284780373051151</v>
+        <v>0.0228478020168378</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.002267289340678756</v>
+        <v>0.002267289501267315</v>
       </c>
       <c r="AA12" t="n">
         <v>0.3840637348152651</v>
       </c>
       <c r="AB12" t="n">
-        <v>50245.60199805128</v>
+        <v>50245.6067885593</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.00221302754626944</v>
+        <v>-0.002213026790113425</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.001841951106855273</v>
+        <v>0.001841951019576657</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.000210436064103754</v>
+        <v>0.0002104360464417822</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-21_D_UHfit.dat</t>
+          <t>data//heating/2024-03-21_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
@@ -2410,13 +2410,13 @@
         <v>10.51405488768499</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11517779.13631066</v>
+        <v>11517779.114245</v>
       </c>
       <c r="AK12" t="n">
-        <v>4.343210321938516e-07</v>
+        <v>4.34321032190159e-07</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0.003250764775032926</v>
+        <v>-0.003250764051350065</v>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         </is>
       </c>
       <c r="AP12" t="n">
-        <v>0.02797012635661993</v>
+        <v>0.02797012623198277</v>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
@@ -2451,10 +2451,10 @@
         <v>441</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.005620530679654372</v>
+        <v>0.005620530637174197</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.05075191663886025</v>
+        <v>0.0507519166686566</v>
       </c>
     </row>
     <row r="13">
@@ -2464,34 +2464,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1455991807791394</v>
+        <v>0.1455991808919285</v>
       </c>
       <c r="C13" t="n">
         <v>202.14</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0207083667199866</v>
+        <v>0.02070836673757438</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8714797196148125</v>
+        <v>0.8714797233738724</v>
       </c>
       <c r="F13" t="n">
-        <v>16.41509192764189</v>
+        <v>16.41509192818586</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2663985457340233</v>
+        <v>0.2663985473697726</v>
       </c>
       <c r="H13" t="n">
-        <v>21.90517877186547</v>
+        <v>21.90517876262416</v>
       </c>
       <c r="I13" t="n">
-        <v>43652.5401652278</v>
+        <v>43652.54015451063</v>
       </c>
       <c r="J13" t="n">
-        <v>8.459088543849717</v>
+        <v>8.459088545074197</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5138599227093562</v>
+        <v>0.5138599226930197</v>
       </c>
       <c r="L13" t="n">
         <v>0.3</v>
@@ -2500,7 +2500,7 @@
         <v>1.8339e-05</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5702377075312071</v>
+        <v>0.5702377075312114</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0002480981787089106</v>
+        <v>0.0002480981625107613</v>
       </c>
       <c r="R13" t="n">
         <v>8.02764092921185e-05</v>
@@ -2520,44 +2520,44 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.04161211569333091</v>
+        <v>0.04161211656401198</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1147019444643253</v>
+        <v>0.1147019223176294</v>
       </c>
       <c r="V13" t="n">
-        <v>0.01268611532098973</v>
+        <v>0.01268611562392699</v>
       </c>
       <c r="W13" t="n">
-        <v>0.07964388435200044</v>
+        <v>0.07964388495975223</v>
       </c>
       <c r="X13" t="n">
-        <v>932.1741841524174</v>
+        <v>932.1741928060494</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.02890209738385253</v>
+        <v>0.02890209547376165</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.001680234323855728</v>
+        <v>0.001680234223030037</v>
       </c>
       <c r="AA13" t="n">
         <v>0.5807835239911961</v>
       </c>
       <c r="AB13" t="n">
-        <v>40132.84627447662</v>
+        <v>40132.83852960879</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.02651437745698496</v>
+        <v>-0.02651437546619731</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.003573417097577792</v>
+        <v>0.003573417046757775</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0001752904941064603</v>
+        <v>0.0001752904972628671</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-21_D_UHfit.dat</t>
+          <t>data//heating/2024-03-21_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
@@ -2572,13 +2572,13 @@
         <v>12.16144142344487</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11486890.89779729</v>
+        <v>11486890.89932217</v>
       </c>
       <c r="AK13" t="n">
-        <v>4.33428333982827e-07</v>
+        <v>4.334283339514569e-07</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.009968039660431641</v>
+        <v>-0.00996803906075599</v>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="AP13" t="n">
-        <v>0.04663665019473712</v>
+        <v>0.04663665040575152</v>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
@@ -2613,10 +2613,10 @@
         <v>441</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.003641965396755351</v>
+        <v>0.003641965413915097</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.04296983712935046</v>
+        <v>0.0429698371658451</v>
       </c>
     </row>
     <row r="14">
@@ -2626,16 +2626,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1419347487436624</v>
+        <v>0.1419347488499073</v>
       </c>
       <c r="C14" t="n">
         <v>202.14</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02025429649893607</v>
+        <v>0.02025429651413827</v>
       </c>
       <c r="E14" t="n">
-        <v>1.034266114650855</v>
+        <v>1.03426611310246</v>
       </c>
       <c r="F14" t="n">
         <v>15.47103678037577</v>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0003964627087835728</v>
+        <v>0.000396462709080344</v>
       </c>
       <c r="R14" t="n">
         <v>0.0001237205922427153</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.01253774097877641</v>
+        <v>0.01253774096000622</v>
       </c>
       <c r="U14" t="n">
         <v>0.107833711941158</v>
@@ -2694,7 +2694,7 @@
         <v>0.1460982768299964</v>
       </c>
       <c r="X14" t="n">
-        <v>784.839603634612</v>
+        <v>784.8396036346121</v>
       </c>
       <c r="Y14" t="n">
         <v>0.04777817712918715</v>
@@ -2712,14 +2712,14 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0009778645674015133</v>
+        <v>0.0009778645659375572</v>
       </c>
       <c r="AE14" t="n">
-        <v>8.425564241914689e-05</v>
+        <v>8.425564229300819e-05</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_B_UHfit.dat</t>
+          <t>data//heating/2024-03-26_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="AP14" t="n">
-        <v>0.05151356966739045</v>
+        <v>0.05151356959026975</v>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
@@ -2775,10 +2775,10 @@
         <v>441</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.006221771499840329</v>
+        <v>0.006221771490525747</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.04202764194285137</v>
+        <v>0.04202764197439592</v>
       </c>
     </row>
     <row r="15">
@@ -2788,16 +2788,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2646813159968662</v>
+        <v>0.2646813161226024</v>
       </c>
       <c r="C15" t="n">
         <v>202.14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03873231071383666</v>
+        <v>0.0387323107323396</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5408624846605921</v>
+        <v>0.5408624841467211</v>
       </c>
       <c r="F15" t="n">
         <v>15.52663836497415</v>
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0006537546877528092</v>
+        <v>0.000653754688063374</v>
       </c>
       <c r="R15" t="n">
         <v>0.000413656029797415</v>
@@ -2844,10 +2844,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.005584256236359086</v>
+        <v>0.00558425623105351</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1572699077346514</v>
+        <v>0.1572699077346515</v>
       </c>
       <c r="V15" t="n">
         <v>0.004258805802325055</v>
@@ -2862,26 +2862,26 @@
         <v>0.04417061460135861</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.006117710547527836</v>
+        <v>0.006117710547527837</v>
       </c>
       <c r="AA15" t="n">
         <v>0.1902629613680637</v>
       </c>
       <c r="AB15" t="n">
-        <v>56118.07504076297</v>
+        <v>56118.07504076299</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.0006364922904807393</v>
+        <v>0.0006364922898760111</v>
       </c>
       <c r="AE15" t="n">
-        <v>4.431803248849688e-05</v>
+        <v>4.431803244639053e-05</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_B_UHfit.dat</t>
+          <t>data//heating/2024-03-26_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="AP15" t="n">
-        <v>0.02802698547003713</v>
+        <v>0.02802698544340882</v>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
@@ -2937,10 +2937,10 @@
         <v>441</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.003271189087367125</v>
+        <v>0.003271189084259184</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.08036950018905376</v>
+        <v>0.08036950022744732</v>
       </c>
     </row>
     <row r="16">
@@ -2950,16 +2950,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3914114515059015</v>
+        <v>0.391411451653824</v>
       </c>
       <c r="C16" t="n">
         <v>202.14</v>
       </c>
       <c r="D16" t="n">
-        <v>0.05721032492873725</v>
+        <v>0.05721032495054093</v>
       </c>
       <c r="E16" t="n">
-        <v>0.486815338312334</v>
+        <v>0.486815337944379</v>
       </c>
       <c r="F16" t="n">
         <v>15.63049706016167</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.000869309897792237</v>
+        <v>0.0008693098981207672</v>
       </c>
       <c r="R16" t="n">
         <v>0.0008109955988434187</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.004126701591471149</v>
+        <v>0.004126701588352018</v>
       </c>
       <c r="U16" t="n">
         <v>0.1162940558530659</v>
@@ -3018,7 +3018,7 @@
         <v>0.1203126514343147</v>
       </c>
       <c r="X16" t="n">
-        <v>858.551800165061</v>
+        <v>858.5518001650609</v>
       </c>
       <c r="Y16" t="n">
         <v>0.03940050708852261</v>
@@ -3036,14 +3036,14 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.000428702349510243</v>
+        <v>0.0004287023491862121</v>
       </c>
       <c r="AE16" t="n">
-        <v>3.166550238242062e-05</v>
+        <v>3.166550235848653e-05</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_B_UHfit.dat</t>
+          <t>data//heating/2024-03-26_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="AP16" t="n">
-        <v>0.02478518800995678</v>
+        <v>0.02478518799122312</v>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
@@ -3099,10 +3099,10 @@
         <v>441</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.002973898007801884</v>
+        <v>0.00297389800555409</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.1187113584352561</v>
+        <v>0.1187113584804987</v>
       </c>
     </row>
     <row r="17">
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6367254114110226</v>
+        <v>0.6367254116006256</v>
       </c>
       <c r="C17" t="n">
         <v>202.14</v>
       </c>
       <c r="D17" t="n">
-        <v>0.09416635335853846</v>
+        <v>0.09416635338694361</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4001872355989941</v>
+        <v>0.4001872353606599</v>
       </c>
       <c r="F17" t="n">
         <v>15.79962445764327</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.001365410124836616</v>
+        <v>0.001365410125243205</v>
       </c>
       <c r="R17" t="n">
         <v>0.002113942033059336</v>
@@ -3168,22 +3168,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.003567306890301985</v>
+        <v>0.003567306888177453</v>
       </c>
       <c r="U17" t="n">
         <v>0.1287073904165052</v>
       </c>
       <c r="V17" t="n">
-        <v>0.01629769135936453</v>
+        <v>0.01629769135936454</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1135133261063983</v>
+        <v>0.1135133261063984</v>
       </c>
       <c r="X17" t="n">
         <v>953.8562572176862</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.03853408812786284</v>
+        <v>0.03853408812786285</v>
       </c>
       <c r="Z17" t="n">
         <v>0.004588966102511543</v>
@@ -3192,20 +3192,20 @@
         <v>0.7312080339994109</v>
       </c>
       <c r="AB17" t="n">
-        <v>45527.7256112074</v>
+        <v>45527.72561120741</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.0003781694535475752</v>
+        <v>0.000378169453322354</v>
       </c>
       <c r="AE17" t="n">
-        <v>2.824365281035747e-05</v>
+        <v>2.824365279353679e-05</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_B_UHfit.dat</t>
+          <t>data//heating/2024-03-26_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="AP17" t="n">
-        <v>0.0203097068877558</v>
+        <v>0.02030970687566023</v>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
@@ -3261,10 +3261,10 @@
         <v>441</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.002484482898647924</v>
+        <v>0.002484482897168274</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.1953950749276609</v>
+        <v>0.1953950749866016</v>
       </c>
     </row>
     <row r="18">
@@ -3274,16 +3274,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7513424649438164</v>
+        <v>0.7513424651519971</v>
       </c>
       <c r="C18" t="n">
         <v>202.14</v>
       </c>
       <c r="D18" t="n">
-        <v>0.112644367573439</v>
+        <v>0.1126443676051449</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3742329175574058</v>
+        <v>0.3742329173500222</v>
       </c>
       <c r="F18" t="n">
         <v>15.77356009644506</v>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.001425362990152472</v>
+        <v>0.001425362990547409</v>
       </c>
       <c r="R18" t="n">
         <v>0.00277334506332259</v>
@@ -3330,10 +3330,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.002929594200945595</v>
+        <v>0.002929594199322141</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1077465488527265</v>
+        <v>0.1077465488527266</v>
       </c>
       <c r="V18" t="n">
         <v>0.01925666328928261</v>
@@ -3345,7 +3345,7 @@
         <v>766.425430133654</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.03483647459090098</v>
+        <v>0.03483647459090099</v>
       </c>
       <c r="Z18" t="n">
         <v>0.005248494574108314</v>
@@ -3360,14 +3360,14 @@
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.000308154766832911</v>
+        <v>0.0003081547666621449</v>
       </c>
       <c r="AE18" t="n">
-        <v>2.274051617261839e-05</v>
+        <v>2.274051616001659e-05</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_B_UHfit.dat</t>
+          <t>data//heating/2024-03-26_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -3406,7 +3406,7 @@
         </is>
       </c>
       <c r="AP18" t="n">
-        <v>0.0194639948143323</v>
+        <v>0.0194639948035462</v>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
@@ -3423,10 +3423,10 @@
         <v>441</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.002317603860491597</v>
+        <v>0.002317603859207282</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.2337369331738633</v>
+        <v>0.233736933239653</v>
       </c>
     </row>
     <row r="19">
@@ -3436,16 +3436,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1123187330643758</v>
+        <v>0.1123187331849204</v>
       </c>
       <c r="C19" t="n">
         <v>202.14</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01611668993797871</v>
+        <v>0.01611668995532094</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9420425584606276</v>
+        <v>0.9420425564385589</v>
       </c>
       <c r="F19" t="n">
         <v>15.226558535605</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0006181776296431126</v>
+        <v>0.0006181776303065634</v>
       </c>
       <c r="R19" t="n">
         <v>0.0001525863326529895</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.01641158978665649</v>
+        <v>0.01641158975142946</v>
       </c>
       <c r="U19" t="n">
         <v>0.1325386049448036</v>
@@ -3510,7 +3510,7 @@
         <v>0.09568835007763113</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.01015014486574233</v>
+        <v>0.01015014486574234</v>
       </c>
       <c r="AA19" t="n">
         <v>0.1834014288598314</v>
@@ -3522,14 +3522,14 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.002243183775414378</v>
+        <v>0.002243183770599446</v>
       </c>
       <c r="AE19" t="n">
-        <v>2.021352283359828e-05</v>
+        <v>2.02135227902105e-05</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_C_UHfit.dat</t>
+          <t>data//heating/2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="AP19" t="n">
-        <v>0.08425674605693743</v>
+        <v>0.08425674587608263</v>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
@@ -3585,10 +3585,10 @@
         <v>441</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.00106486342083625</v>
+        <v>0.00106486341855055</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.03344211308711238</v>
+        <v>0.0334421131230975</v>
       </c>
     </row>
     <row r="20">
@@ -3598,16 +3598,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2427237280955998</v>
+        <v>0.2427237282585855</v>
       </c>
       <c r="C20" t="n">
         <v>202.14</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03516423516705296</v>
+        <v>0.03516423519077838</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5898575121538121</v>
+        <v>0.5898575113616493</v>
       </c>
       <c r="F20" t="n">
         <v>15.00603415736551</v>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.001197319638991575</v>
+        <v>0.001197319639795559</v>
       </c>
       <c r="R20" t="n">
         <v>0.0006476774196837223</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0.009189039716009878</v>
+        <v>0.009189039703669244</v>
       </c>
       <c r="U20" t="n">
         <v>0.1724953376954753</v>
@@ -3684,14 +3684,14 @@
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.001580222417872504</v>
+        <v>0.001580222415750307</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.205996027717734e-05</v>
+        <v>1.205996026098114e-05</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_C_UHfit.dat</t>
+          <t>data//heating/2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
@@ -3730,7 +3730,7 @@
         </is>
       </c>
       <c r="AP20" t="n">
-        <v>0.05466848192456914</v>
+        <v>0.05466848185115084</v>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
@@ -3747,10 +3747,10 @@
         <v>441</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.0006523291137786932</v>
+        <v>0.0006523291129026327</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.07296574753276444</v>
+        <v>0.07296574758199467</v>
       </c>
     </row>
     <row r="21">
@@ -3760,16 +3760,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3722214926694687</v>
+        <v>0.3722214928747171</v>
       </c>
       <c r="C21" t="n">
         <v>202.14</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0542117803961272</v>
+        <v>0.05421178042623583</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4709119301003746</v>
+        <v>0.4709119295810393</v>
       </c>
       <c r="F21" t="n">
         <v>14.64084710905151</v>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.001566799906529388</v>
+        <v>0.001566799907393344</v>
       </c>
       <c r="R21" t="n">
         <v>0.001286899393708358</v>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0.009053923347237192</v>
+        <v>0.009053923337252264</v>
       </c>
       <c r="U21" t="n">
         <v>0.2390001346721647</v>
@@ -3834,7 +3834,7 @@
         <v>0.07443008053349141</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.01400154668503923</v>
+        <v>0.01400154668503924</v>
       </c>
       <c r="AA21" t="n">
         <v>1.015663517342898</v>
@@ -3846,14 +3846,14 @@
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.001727302892518074</v>
+        <v>0.001727302890613154</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.197736943053663e-05</v>
+        <v>1.197736941732764e-05</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_C_UHfit.dat</t>
+          <t>data//heating/2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="AP21" t="n">
-        <v>0.04552119638818161</v>
+        <v>0.04552119633797952</v>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
@@ -3909,10 +3909,10 @@
         <v>441</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.0005018913977783569</v>
+        <v>0.0005018913972248566</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.1124893819784165</v>
+        <v>0.1124893820408919</v>
       </c>
     </row>
     <row r="22">
@@ -3922,16 +3922,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5057914042333089</v>
+        <v>0.5057914044826287</v>
       </c>
       <c r="C22" t="n">
         <v>202.14</v>
       </c>
       <c r="D22" t="n">
-        <v>0.07325932562520146</v>
+        <v>0.07325932566169326</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4594595687043455</v>
+        <v>0.4594595682513825</v>
       </c>
       <c r="F22" t="n">
         <v>15.07355079843216</v>
@@ -3969,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.002898001837189094</v>
+        <v>0.002898001838617607</v>
       </c>
       <c r="R22" t="n">
         <v>0.003215597378501776</v>
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.007900652824026199</v>
+        <v>0.007900652816237259</v>
       </c>
       <c r="U22" t="n">
         <v>0.1596403578408903</v>
@@ -3993,29 +3993,29 @@
         <v>1053.684472384615</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.09988324905752001</v>
+        <v>0.09988324905752002</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.01185203016102211</v>
+        <v>0.0118520301610221</v>
       </c>
       <c r="AA22" t="n">
         <v>1.745436260875499</v>
       </c>
       <c r="AB22" t="n">
-        <v>57813.69947094032</v>
+        <v>57813.69947094033</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.001217530866993335</v>
+        <v>0.001217530865793019</v>
       </c>
       <c r="AE22" t="n">
-        <v>9.969522215702005e-06</v>
+        <v>9.969522205873452e-06</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_C_UHfit.dat</t>
+          <t>data//heating/2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="AP22" t="n">
-        <v>0.0418196226376514</v>
+        <v>0.0418196225964231</v>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
@@ -4071,10 +4071,10 @@
         <v>441</v>
       </c>
       <c r="AU22" t="n">
-        <v>0.000511553905703368</v>
+        <v>0.0005115539051990473</v>
       </c>
       <c r="AV22" t="n">
-        <v>0.1520130164240686</v>
+        <v>0.152013016499789</v>
       </c>
     </row>
     <row r="23">
@@ -4084,16 +4084,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6411421045810842</v>
+        <v>0.6411421048748662</v>
       </c>
       <c r="C23" t="n">
         <v>202.14</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0923068708542757</v>
+        <v>0.0923068708971507</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4339126029952342</v>
+        <v>0.4339126025975822</v>
       </c>
       <c r="F23" t="n">
         <v>15.7986567805124</v>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.003241684983248856</v>
+        <v>0.003241684984734251</v>
       </c>
       <c r="R23" t="n">
         <v>0.004542880267104922</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0.006081942489320562</v>
+        <v>0.006081942483746867</v>
       </c>
       <c r="U23" t="n">
         <v>0.1878705319257546</v>
@@ -4170,14 +4170,14 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.001041414581235288</v>
+        <v>0.001041414580280901</v>
       </c>
       <c r="AE23" t="n">
-        <v>9.016332065408616e-06</v>
+        <v>9.016332057145748e-06</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_C_UHfit.dat</t>
+          <t>data//heating/2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="AP23" t="n">
-        <v>0.03616974986696651</v>
+        <v>0.03616974983381935</v>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
@@ -4233,10 +4233,10 @@
         <v>441</v>
       </c>
       <c r="AU23" t="n">
-        <v>0.0005183859973399783</v>
+        <v>0.000518385996864912</v>
       </c>
       <c r="AV23" t="n">
-        <v>0.1915366508697206</v>
+        <v>0.1915366509586862</v>
       </c>
     </row>
     <row r="24">
@@ -4246,16 +4246,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.162621485008474</v>
+        <v>0.1626214849670611</v>
       </c>
       <c r="C24" t="n">
         <v>202.14</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02258269375806449</v>
+        <v>0.02258269375230244</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1570822449342167</v>
+        <v>0.1570822450142212</v>
       </c>
       <c r="F24" t="n">
         <v>15.72707089435206</v>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.0007357071768974702</v>
+        <v>0.0007357071767101165</v>
       </c>
       <c r="R24" t="n">
         <v>0.0002412392319179509</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.001976223209818046</v>
+        <v>0.001976223210824569</v>
       </c>
       <c r="U24" t="n">
         <v>0.1243609888015762</v>
@@ -4317,7 +4317,7 @@
         <v>892.1489088213422</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.07342149336700361</v>
+        <v>0.07342149336700363</v>
       </c>
       <c r="Z24" t="n">
         <v>0.008443359972059573</v>
@@ -4332,14 +4332,14 @@
         <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>5.564184157593546e-05</v>
+        <v>5.564184160427474e-05</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.0003139036465036604</v>
+        <v>0.0003139036466635366</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_C_UHfit.dat</t>
+          <t>data//heating/2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="AP24" t="n">
-        <v>0.002554033946308145</v>
+        <v>0.002554033947608955</v>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
@@ -4395,10 +4395,10 @@
         <v>441</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.02191474792957078</v>
+        <v>0.02191474794073231</v>
       </c>
       <c r="AV24" t="n">
-        <v>0.046859063577886</v>
+        <v>0.04685906356592975</v>
       </c>
     </row>
     <row r="25">
@@ -4408,16 +4408,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2136108204008995</v>
+        <v>0.2136108203361517</v>
       </c>
       <c r="C25" t="n">
         <v>202.14</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02987654039837011</v>
+        <v>0.02987654038927012</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2578983183245706</v>
+        <v>0.257898318480914</v>
       </c>
       <c r="F25" t="n">
         <v>15.34445420865337</v>
@@ -4455,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0007146060828346268</v>
+        <v>0.0007146060826180219</v>
       </c>
       <c r="R25" t="n">
         <v>0.0003109692726287586</v>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.003248332691292478</v>
+        <v>0.003248332693261687</v>
       </c>
       <c r="U25" t="n">
         <v>0.1719589084138103</v>
@@ -4494,14 +4494,14 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.0001143792698262006</v>
+        <v>0.0001143792698955398</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.0005513554618488682</v>
+        <v>0.0005513554621831118</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_C_UHfit.dat</t>
+          <t>data//heating/2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
@@ -4540,7 +4540,7 @@
         </is>
       </c>
       <c r="AP25" t="n">
-        <v>0.004404538398710207</v>
+        <v>0.004404538401380333</v>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
@@ -4557,10 +4557,10 @@
         <v>441</v>
       </c>
       <c r="AU25" t="n">
-        <v>0.03467474628465084</v>
+        <v>0.03467474630567142</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.06199378696859652</v>
+        <v>0.06199378694971405</v>
       </c>
     </row>
     <row r="26">
@@ -4570,16 +4570,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.266711206782516</v>
+        <v>0.2667112066936685</v>
       </c>
       <c r="C26" t="n">
         <v>202.14</v>
       </c>
       <c r="D26" t="n">
-        <v>0.03717038703867572</v>
+        <v>0.0371703870262378</v>
       </c>
       <c r="E26" t="n">
-        <v>0.241705465816667</v>
+        <v>0.241705465977702</v>
       </c>
       <c r="F26" t="n">
         <v>15.48707494441483</v>
@@ -4617,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.0009978514535626773</v>
+        <v>0.0009978514532302705</v>
       </c>
       <c r="R26" t="n">
         <v>0.0005425911207120942</v>
@@ -4626,13 +4626,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0.003571786911634279</v>
+        <v>0.003571786914013965</v>
       </c>
       <c r="U26" t="n">
         <v>0.2085502123174643</v>
       </c>
       <c r="V26" t="n">
-        <v>0.0009052993026546311</v>
+        <v>0.0009052993026546312</v>
       </c>
       <c r="W26" t="n">
         <v>0.203172259697347</v>
@@ -4641,7 +4641,7 @@
         <v>1449.053194257854</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.06082804482041913</v>
+        <v>0.06082804482041914</v>
       </c>
       <c r="Z26" t="n">
         <v>0.01069565694808464</v>
@@ -4656,14 +4656,14 @@
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.0001246113350638749</v>
+        <v>0.0001246113351468966</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.0006203105639943336</v>
+        <v>0.0006203105644076123</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_C_UHfit.dat</t>
+          <t>data//heating/2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="AP26" t="n">
-        <v>0.00403365880231072</v>
+        <v>0.004033658804998125</v>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
@@ -4719,10 +4719,10 @@
         <v>441</v>
       </c>
       <c r="AU26" t="n">
-        <v>0.03295172730728924</v>
+        <v>0.03295172732924315</v>
       </c>
       <c r="AV26" t="n">
-        <v>0.07712851035930703</v>
+        <v>0.07712851033349835</v>
       </c>
     </row>
     <row r="27">
@@ -4732,16 +4732,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3164990440925186</v>
+        <v>0.3164990439809538</v>
       </c>
       <c r="C27" t="n">
         <v>202.14</v>
       </c>
       <c r="D27" t="n">
-        <v>0.04446423367898133</v>
+        <v>0.04446423366320548</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3094149784220647</v>
+        <v>0.3094149786402002</v>
       </c>
       <c r="F27" t="n">
         <v>15.44658261729994</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0008291081195866434</v>
+        <v>0.0008291081192943856</v>
       </c>
       <c r="R27" t="n">
         <v>0.0005366754458806917</v>
@@ -4788,13 +4788,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0.005272934864593576</v>
+        <v>0.00527293486831096</v>
       </c>
       <c r="U27" t="n">
         <v>0.1304474071211491</v>
       </c>
       <c r="V27" t="n">
-        <v>0.002074332037368824</v>
+        <v>0.002074332037368825</v>
       </c>
       <c r="W27" t="n">
         <v>0.1365026610103034</v>
@@ -4803,29 +4803,29 @@
         <v>940.5464221811588</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.04311624135117767</v>
+        <v>0.04311624135117768</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.006171117276924459</v>
+        <v>0.00617111727692446</v>
       </c>
       <c r="AA27" t="n">
         <v>0.09319474735516134</v>
       </c>
       <c r="AB27" t="n">
-        <v>46667.56034378101</v>
+        <v>46667.56034378102</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.0001271774544315715</v>
+        <v>0.0001271774545212307</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.0007791977873629935</v>
+        <v>0.0007791977879123228</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_C_UHfit.dat</t>
+          <t>data//heating/2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
@@ -4864,7 +4864,7 @@
         </is>
       </c>
       <c r="AP27" t="n">
-        <v>0.00525673210827678</v>
+        <v>0.005256732111982739</v>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
@@ -4881,10 +4881,10 @@
         <v>441</v>
       </c>
       <c r="AU27" t="n">
-        <v>0.04201724417554178</v>
+        <v>0.04201724420516365</v>
       </c>
       <c r="AV27" t="n">
-        <v>0.09226323375001753</v>
+        <v>0.09226323371728265</v>
       </c>
     </row>
     <row r="28">
@@ -4894,16 +4894,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.367693417908862</v>
+        <v>0.3676934177741843</v>
       </c>
       <c r="C28" t="n">
         <v>202.14</v>
       </c>
       <c r="D28" t="n">
-        <v>0.05175808031928695</v>
+        <v>0.05175808030017313</v>
       </c>
       <c r="E28" t="n">
-        <v>0.09925782323478445</v>
+        <v>0.09925782330749616</v>
       </c>
       <c r="F28" t="n">
         <v>15.38806376808432</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.001070760054124916</v>
+        <v>0.001070760053732721</v>
       </c>
       <c r="R28" t="n">
         <v>0.0007947443299954079</v>
@@ -4950,13 +4950,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0.001301992705417966</v>
+        <v>0.001301992706371746</v>
       </c>
       <c r="U28" t="n">
         <v>0.1645445680239333</v>
       </c>
       <c r="V28" t="n">
-        <v>0.0006515445393777736</v>
+        <v>0.0006515445393777737</v>
       </c>
       <c r="W28" t="n">
         <v>0.1644965717230196</v>
@@ -4980,14 +4980,14 @@
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>4.28071869583414e-05</v>
+        <v>4.280718698969998e-05</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.0002151964696447087</v>
+        <v>0.0002151964698023518</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>data//heating\2024-03-26_C_UHfit.dat</t>
+          <t>data//heating/2024-03-26_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="AP28" t="n">
-        <v>0.001699072109219147</v>
+        <v>0.001699072110463808</v>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
@@ -5043,10 +5043,10 @@
         <v>441</v>
       </c>
       <c r="AU28" t="n">
-        <v>0.01340226886906876</v>
+        <v>0.01340226887888665</v>
       </c>
       <c r="AV28" t="n">
-        <v>0.1073979571407281</v>
+        <v>0.1073979571010669</v>
       </c>
     </row>
     <row r="29">
@@ -5056,16 +5056,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1487106469968315</v>
+        <v>0.1487106470905628</v>
       </c>
       <c r="C29" t="n">
         <v>202.14</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02094992509415159</v>
+        <v>0.02094992510741003</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2973695310437869</v>
+        <v>0.297369530668927</v>
       </c>
       <c r="F29" t="n">
         <v>14.07100783561731</v>
@@ -5103,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0008538327699608737</v>
+        <v>0.0008538327704990386</v>
       </c>
       <c r="R29" t="n">
         <v>0.0002561807282803008</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0.006285216434762909</v>
+        <v>0.006285216426839851</v>
       </c>
       <c r="U29" t="n">
         <v>0.2309874813807395</v>
@@ -5130,7 +5130,7 @@
         <v>0.09612005392216005</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.01613076917777533</v>
+        <v>0.01613076917777534</v>
       </c>
       <c r="AA29" t="n">
         <v>0.009760320614785616</v>
@@ -5142,14 +5142,14 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.0001048735394080927</v>
+        <v>0.0001048735392758905</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.009998768811045802</v>
+        <v>0.00999876879844149</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_B_UHfit.dat</t>
+          <t>data//heating/2024-04-03_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
@@ -5188,7 +5188,7 @@
         </is>
       </c>
       <c r="AP29" t="n">
-        <v>0.002630777841450094</v>
+        <v>0.002630777838133772</v>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
@@ -5205,10 +5205,10 @@
         <v>441</v>
       </c>
       <c r="AU29" t="n">
-        <v>0.3925336524284581</v>
+        <v>0.3925336519336355</v>
       </c>
       <c r="AV29" t="n">
-        <v>0.04347107047795069</v>
+        <v>0.04347107050546194</v>
       </c>
     </row>
     <row r="30">
@@ -5218,16 +5218,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2698280633819131</v>
+        <v>0.2698280633474793</v>
       </c>
       <c r="C30" t="n">
         <v>202.14</v>
       </c>
       <c r="D30" t="n">
-        <v>0.03831817403892208</v>
+        <v>0.03831817403400536</v>
       </c>
       <c r="E30" t="n">
-        <v>0.02702647792446166</v>
+        <v>0.02702647793135955</v>
       </c>
       <c r="F30" t="n">
         <v>13.60078249230261</v>
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.001280439946129526</v>
+        <v>0.001280439945966125</v>
       </c>
       <c r="R30" t="n">
         <v>0.0006952336120634018</v>
@@ -5274,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0.0006653029455311992</v>
+        <v>0.0006653029457010026</v>
       </c>
       <c r="U30" t="n">
         <v>0.2381493717181488</v>
@@ -5292,7 +5292,7 @@
         <v>0.08020276367902912</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.01436052319052323</v>
+        <v>0.01436052319052324</v>
       </c>
       <c r="AA30" t="n">
         <v>0.005319459004290654</v>
@@ -5304,14 +5304,14 @@
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>1.728100175206438e-05</v>
+        <v>1.728100175647496e-05</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.0002479723896715407</v>
+        <v>0.00024797238973483</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_B_UHfit.dat</t>
+          <t>data//heating/2024-04-03_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
@@ -5350,7 +5350,7 @@
         </is>
       </c>
       <c r="AP30" t="n">
-        <v>0.0004022314819811163</v>
+        <v>0.0004022314820837767</v>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
@@ -5367,10 +5367,10 @@
         <v>441</v>
       </c>
       <c r="AU30" t="n">
-        <v>0.008576654242195676</v>
+        <v>0.008576654244384672</v>
       </c>
       <c r="AV30" t="n">
-        <v>0.07951016706486316</v>
+        <v>0.07951016705466099</v>
       </c>
     </row>
     <row r="31">
@@ -5380,16 +5380,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2119186321228888</v>
+        <v>0.211918632058654</v>
       </c>
       <c r="C31" t="n">
         <v>202.14</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02987654039837011</v>
+        <v>0.02987654038927012</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2171585764812421</v>
+        <v>0.2171585766128883</v>
       </c>
       <c r="F31" t="n">
         <v>13.91744773483873</v>
@@ -5427,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.001326032756866916</v>
+        <v>0.001326032756464982</v>
       </c>
       <c r="R31" t="n">
         <v>0.0005780907528441129</v>
@@ -5436,16 +5436,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0.005225048173217563</v>
+        <v>0.0052250481763851</v>
       </c>
       <c r="U31" t="n">
         <v>0.2045901580484306</v>
       </c>
       <c r="V31" t="n">
-        <v>0.0008694072160257352</v>
+        <v>0.0008694072160257353</v>
       </c>
       <c r="W31" t="n">
-        <v>0.3555183384532535</v>
+        <v>0.3555183384532536</v>
       </c>
       <c r="X31" t="n">
         <v>1208.141442919661</v>
@@ -5466,14 +5466,14 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.0001715209355288838</v>
+        <v>0.0001715209356328634</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.0006865375553817156</v>
+        <v>0.0006865375557979094</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_B_UHfit.dat</t>
+          <t>data//heating/2024-04-03_B_UHfit.dat</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="AP31" t="n">
-        <v>0.004362393704453343</v>
+        <v>0.004362393707097919</v>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
@@ -5529,10 +5529,10 @@
         <v>441</v>
       </c>
       <c r="AU31" t="n">
-        <v>0.02522051776612969</v>
+        <v>0.02522051778141891</v>
       </c>
       <c r="AV31" t="n">
-        <v>0.06199378696859652</v>
+        <v>0.06199378694971405</v>
       </c>
     </row>
     <row r="32">
@@ -5542,16 +5542,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1626772787014487</v>
+        <v>0.1626772788039831</v>
       </c>
       <c r="C32" t="n">
         <v>202.14</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02094992509415159</v>
+        <v>0.02094992510741003</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.3506651840682471</v>
+        <v>-0.3506651836262032</v>
       </c>
       <c r="F32" t="n">
         <v>13.10467374088999</v>
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.0003840009562704608</v>
+        <v>0.000384000956512494</v>
       </c>
       <c r="R32" t="n">
         <v>0.0001234005393582777</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.003633952847514036</v>
+        <v>-0.003633952842933123</v>
       </c>
       <c r="U32" t="n">
         <v>0.1559261441305212</v>
@@ -5628,14 +5628,14 @@
         <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>-7.413505137114331e-05</v>
+        <v>-7.413505127768965e-05</v>
       </c>
       <c r="AE32" t="n">
-        <v>-0.006079922980106806</v>
+        <v>-0.006079922972442538</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_C_UHfit.dat</t>
+          <t>data//heating/2024-04-03_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
@@ -5674,7 +5674,7 @@
         </is>
       </c>
       <c r="AP32" t="n">
-        <v>-0.002884424478441051</v>
+        <v>-0.002884424474804984</v>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
@@ -5691,10 +5691,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU32" t="n">
-        <v>-0.4160299422572066</v>
+        <v>-0.4160299417327649</v>
       </c>
       <c r="AV32" t="n">
-        <v>0.04347107047795069</v>
+        <v>0.04347107050546194</v>
       </c>
     </row>
     <row r="33">
@@ -5704,16 +5704,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.296758344884942</v>
+        <v>0.2967583448470716</v>
       </c>
       <c r="C33" t="n">
         <v>202.14</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03831817403892208</v>
+        <v>0.03831817403400536</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08653315930022501</v>
+        <v>0.08653315932231061</v>
       </c>
       <c r="F33" t="n">
         <v>13.21957933089495</v>
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.001229408511505884</v>
+        <v>0.001229408511348995</v>
       </c>
       <c r="R33" t="n">
         <v>0.0007413808513716452</v>
@@ -5760,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.001394111480005969</v>
+        <v>0.001394111480361784</v>
       </c>
       <c r="U33" t="n">
         <v>0.1079064073718668</v>
@@ -5769,10 +5769,10 @@
         <v>0.0002665079735409577</v>
       </c>
       <c r="W33" t="n">
-        <v>0.1745838135658429</v>
+        <v>0.174583813565843</v>
       </c>
       <c r="X33" t="n">
-        <v>782.9356043052896</v>
+        <v>782.9356043052895</v>
       </c>
       <c r="Y33" t="n">
         <v>0.05783413710477434</v>
@@ -5790,14 +5790,14 @@
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>2.67143343149001e-05</v>
+        <v>2.671433432171831e-05</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.0004629569278975064</v>
+        <v>0.0004629569280156656</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_C_UHfit.dat</t>
+          <t>data//heating/2024-04-03_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="AP33" t="n">
-        <v>0.001111109622735177</v>
+        <v>0.001111109623018763</v>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
@@ -5853,10 +5853,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU33" t="n">
-        <v>0.02631428778882034</v>
+        <v>0.02631428779553646</v>
       </c>
       <c r="AV33" t="n">
-        <v>0.07951016706486316</v>
+        <v>0.07951016705466099</v>
       </c>
     </row>
     <row r="34">
@@ -5866,16 +5866,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2315627345485074</v>
+        <v>0.2315627344783182</v>
       </c>
       <c r="C34" t="n">
         <v>202.14</v>
       </c>
       <c r="D34" t="n">
-        <v>0.02987654039837011</v>
+        <v>0.02987654038927012</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1671631256379172</v>
+        <v>0.1671631257392551</v>
       </c>
       <c r="F34" t="n">
         <v>13.25195598781881</v>
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.0008576613026567224</v>
+        <v>0.0008576613023967561</v>
       </c>
       <c r="R34" t="n">
         <v>0.00040830512232788</v>
@@ -5922,25 +5922,25 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0.001988093918971365</v>
+        <v>0.00198809392017659</v>
       </c>
       <c r="U34" t="n">
         <v>0.09328861391850306</v>
       </c>
       <c r="V34" t="n">
-        <v>0.0003238157315342231</v>
+        <v>0.0003238157315342232</v>
       </c>
       <c r="W34" t="n">
         <v>0.1571507382258482</v>
       </c>
       <c r="X34" t="n">
-        <v>698.0142086185159</v>
+        <v>698.0142086185161</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.05171580045317155</v>
+        <v>0.05171580045317156</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.00593462226645939</v>
+        <v>0.005934622266459391</v>
       </c>
       <c r="AA34" t="n">
         <v>0.01721910186501135</v>
@@ -5952,14 +5952,14 @@
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>5.91736375428289e-05</v>
+        <v>5.917363757870123e-05</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.0002410768851723972</v>
+        <v>0.0002410768853185433</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_C_UHfit.dat</t>
+          <t>data//heating/2024-04-03_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
@@ -5998,7 +5998,7 @@
         </is>
       </c>
       <c r="AP34" t="n">
-        <v>0.003026974212808439</v>
+        <v>0.003026974214643456</v>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
@@ -6015,10 +6015,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU34" t="n">
-        <v>0.01803840252090497</v>
+        <v>0.01803840253184024</v>
       </c>
       <c r="AV34" t="n">
-        <v>0.06199378696859652</v>
+        <v>0.06199378694971405</v>
       </c>
     </row>
     <row r="35">
@@ -6028,16 +6028,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.15510298641187</v>
+        <v>0.1551029865096303</v>
       </c>
       <c r="C35" t="n">
         <v>202.14</v>
       </c>
       <c r="D35" t="n">
-        <v>0.02094992509415159</v>
+        <v>0.02094992510741003</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1458201265017134</v>
+        <v>0.1458201263178945</v>
       </c>
       <c r="F35" t="n">
         <v>14.22355149680992</v>
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.0007734803782073526</v>
+        <v>0.000773480378694872</v>
       </c>
       <c r="R35" t="n">
         <v>0.0002415682063954473</v>
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.002414449109999343</v>
+        <v>0.002414449106955722</v>
       </c>
       <c r="U35" t="n">
         <v>0.2471669149447833</v>
@@ -6114,14 +6114,14 @@
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>4.528356565840986e-05</v>
+        <v>4.528356560132601e-05</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.004377067351128882</v>
+        <v>0.004377067345611211</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_D_UHfit.dat</t>
+          <t>data//heating/2024-04-03_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
@@ -6160,7 +6160,7 @@
         </is>
       </c>
       <c r="AP35" t="n">
-        <v>0.001166876026458222</v>
+        <v>0.001166876024987274</v>
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
@@ -6177,10 +6177,10 @@
         <v>418.3693344402766</v>
       </c>
       <c r="AU35" t="n">
-        <v>0.1956240135420005</v>
+        <v>0.1956240132953996</v>
       </c>
       <c r="AV35" t="n">
-        <v>0.04347107047795069</v>
+        <v>0.04347107050546194</v>
       </c>
     </row>
     <row r="36">
@@ -6190,16 +6190,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2835391583758622</v>
+        <v>0.2835391583396787</v>
       </c>
       <c r="C36" t="n">
         <v>202.14</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03831817403892208</v>
+        <v>0.03831817403400536</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1240209039127387</v>
+        <v>0.1240209039443922</v>
       </c>
       <c r="F36" t="n">
         <v>13.97646914438417</v>
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.00105264214511313</v>
+        <v>0.001052642144978799</v>
       </c>
       <c r="R36" t="n">
         <v>0.0006096779887731199</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0.00179386762500062</v>
+        <v>0.001793867625458464</v>
       </c>
       <c r="U36" t="n">
         <v>0.1736166648563411</v>
@@ -6264,7 +6264,7 @@
         <v>0.05673576142102279</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.007939324916725192</v>
+        <v>0.007939324916725193</v>
       </c>
       <c r="AA36" t="n">
         <v>0.01589035298903333</v>
@@ -6276,14 +6276,14 @@
         <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>4.659001906808467e-05</v>
+        <v>4.659001907997571e-05</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.0007390581591451549</v>
+        <v>0.0007390581593337825</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_D_UHfit.dat</t>
+          <t>data//heating/2024-04-03_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
@@ -6322,7 +6322,7 @@
         </is>
       </c>
       <c r="AP36" t="n">
-        <v>0.001604646147426429</v>
+        <v>0.001604646147835979</v>
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
@@ -6339,10 +6339,10 @@
         <v>418.3693344402766</v>
       </c>
       <c r="AU36" t="n">
-        <v>0.04099904157662834</v>
+        <v>0.04099904158709241</v>
       </c>
       <c r="AV36" t="n">
-        <v>0.07951016706486316</v>
+        <v>0.07951016705466099</v>
       </c>
     </row>
     <row r="37">
@@ -6352,16 +6352,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2194540636658283</v>
+        <v>0.2194540635993094</v>
       </c>
       <c r="C37" t="n">
         <v>202.14</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02987654039837011</v>
+        <v>0.02987654038927012</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1847501197534571</v>
+        <v>0.1847501198654566</v>
       </c>
       <c r="F37" t="n">
         <v>13.91316993527453</v>
@@ -6399,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.000789995632370992</v>
+        <v>0.0007899956321315357</v>
       </c>
       <c r="R37" t="n">
         <v>0.0003572377265178076</v>
@@ -6408,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.002448304278998844</v>
+        <v>0.002448304280483059</v>
       </c>
       <c r="U37" t="n">
         <v>0.1847457730870832</v>
@@ -6423,10 +6423,10 @@
         <v>1209.268304866855</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.05595504252672416</v>
+        <v>0.05595504252672415</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.01086911142463408</v>
+        <v>0.01086911142463409</v>
       </c>
       <c r="AA37" t="n">
         <v>0.01758516202167256</v>
@@ -6438,14 +6438,14 @@
         <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.0001032161008194385</v>
+        <v>0.0001032161008820103</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.000376299364537818</v>
+        <v>0.0003762993647659389</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_D_UHfit.dat</t>
+          <t>data//heating/2024-04-03_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
@@ -6484,7 +6484,7 @@
         </is>
       </c>
       <c r="AP37" t="n">
-        <v>0.00346245305890595</v>
+        <v>0.003462453061004964</v>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
@@ -6501,10 +6501,10 @@
         <v>418.3693344402766</v>
       </c>
       <c r="AU37" t="n">
-        <v>0.02144674936822397</v>
+        <v>0.02144674938122545</v>
       </c>
       <c r="AV37" t="n">
-        <v>0.06199378696859652</v>
+        <v>0.06199378694971405</v>
       </c>
     </row>
     <row r="38">
@@ -6514,16 +6514,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3152043505720522</v>
+        <v>0.3152043504913776</v>
       </c>
       <c r="C38" t="n">
         <v>202.14</v>
       </c>
       <c r="D38" t="n">
-        <v>0.041065978238127</v>
+        <v>0.04106597822755617</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4461791582636502</v>
+        <v>0.4461791584920439</v>
       </c>
       <c r="F38" t="n">
         <v>13.89331276548589</v>
@@ -6561,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.0009959531480011265</v>
+        <v>0.0009959531477462182</v>
       </c>
       <c r="R38" t="n">
         <v>0.0006938648877744191</v>
@@ -6570,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.005329303129613243</v>
+        <v>0.00532930313234125</v>
       </c>
       <c r="U38" t="n">
         <v>0.1549161745561966</v>
@@ -6585,10 +6585,10 @@
         <v>1269.534113694206</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.04480518699217535</v>
+        <v>0.04480518699217536</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.006425173512659229</v>
+        <v>0.00642517351265923</v>
       </c>
       <c r="AA38" t="n">
         <v>0.1195105581499039</v>
@@ -6600,14 +6600,14 @@
         <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.0002755724294229042</v>
+        <v>0.0002755724295639664</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.0002806653119206865</v>
+        <v>0.0002806653120643558</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_E_UHfit.dat</t>
+          <t>data//heating/2024-04-03_E_UHfit.dat</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="AP38" t="n">
-        <v>0.01081845206402866</v>
+        <v>0.01081845206956649</v>
       </c>
       <c r="AQ38" t="inlineStr">
         <is>
@@ -6663,10 +6663,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU38" t="n">
-        <v>0.01827303217093653</v>
+        <v>0.01827303218029027</v>
       </c>
       <c r="AV38" t="n">
-        <v>0.08521185761823856</v>
+        <v>0.08521185759630409</v>
       </c>
     </row>
     <row r="39">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0876988284586387</v>
+        <v>0.08769882858005114</v>
       </c>
       <c r="C39" t="n">
         <v>202.14</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01135480363071015</v>
+        <v>0.01135480364645658</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9198148510232392</v>
+        <v>0.9198148484764102</v>
       </c>
       <c r="F39" t="n">
         <v>13.3319777206682</v>
@@ -6723,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.000398297469385217</v>
+        <v>0.0003982974699366299</v>
       </c>
       <c r="R39" t="n">
         <v>7.364304298300004e-05</v>
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0.01762546973898273</v>
+        <v>0.01762546969018046</v>
       </c>
       <c r="U39" t="n">
         <v>0.212092949616298</v>
@@ -6741,7 +6741,7 @@
         <v>0.001951034595195173</v>
       </c>
       <c r="W39" t="n">
-        <v>0.1969578277471485</v>
+        <v>0.1969578277471486</v>
       </c>
       <c r="X39" t="n">
         <v>1544.365797375912</v>
@@ -6750,7 +6750,7 @@
         <v>0.06428376339749634</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.0101880732586137</v>
+        <v>0.01018807325861371</v>
       </c>
       <c r="AA39" t="n">
         <v>0.1038379378196855</v>
@@ -6762,14 +6762,14 @@
         <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.003061860249207471</v>
+        <v>0.00306186024072964</v>
       </c>
       <c r="AE39" t="n">
-        <v>2.010426407471889e-05</v>
+        <v>2.01042640190532e-05</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_E_UHfit.dat</t>
+          <t>data//heating/2024-04-03_E_UHfit.dat</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
@@ -6808,7 +6808,7 @@
         </is>
       </c>
       <c r="AP39" t="n">
-        <v>0.08186822375732582</v>
+        <v>0.08186822353064502</v>
       </c>
       <c r="AQ39" t="inlineStr">
         <is>
@@ -6825,10 +6825,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU39" t="n">
-        <v>0.0008518498221717339</v>
+        <v>0.0008518498198130898</v>
       </c>
       <c r="AV39" t="n">
-        <v>0.02356120447569938</v>
+        <v>0.02356120450837321</v>
       </c>
     </row>
     <row r="40">
@@ -6838,16 +6838,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3614391501887024</v>
+        <v>0.3614391502026425</v>
       </c>
       <c r="C40" t="n">
         <v>202.14</v>
       </c>
       <c r="D40" t="n">
-        <v>0.04902673234745315</v>
+        <v>0.04902673234934449</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5030861538883906</v>
+        <v>0.5030861538495842</v>
       </c>
       <c r="F40" t="n">
         <v>13.63122981726959</v>
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.001725854678158975</v>
+        <v>0.001725854678225539</v>
       </c>
       <c r="R40" t="n">
         <v>0.001537155401485908</v>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.007525768524753246</v>
+        <v>0.007525768524172733</v>
       </c>
       <c r="U40" t="n">
         <v>0.1707452966345169</v>
@@ -6909,7 +6909,7 @@
         <v>1342.266566818976</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.07340607204926587</v>
+        <v>0.07340607204926589</v>
       </c>
       <c r="Z40" t="n">
         <v>0.01020255497134582</v>
@@ -6924,14 +6924,14 @@
         <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.0005769974813674524</v>
+        <v>0.0005769974813229448</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.0001308153344786557</v>
+        <v>0.0001308153344685651</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_E_UHfit.dat</t>
+          <t>data//heating/2024-04-03_E_UHfit.dat</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
@@ -6970,7 +6970,7 @@
         </is>
       </c>
       <c r="AP40" t="n">
-        <v>0.01919745252077249</v>
+        <v>0.01919745251929167</v>
       </c>
       <c r="AQ40" t="inlineStr">
         <is>
@@ -6987,10 +6987,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU40" t="n">
-        <v>0.007079336419469722</v>
+        <v>0.007079336418923646</v>
       </c>
       <c r="AV40" t="n">
-        <v>0.1017304132402231</v>
+        <v>0.1017304132441476</v>
       </c>
     </row>
     <row r="41">
@@ -7000,16 +7000,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2549807478081045</v>
+        <v>0.254980747939596</v>
       </c>
       <c r="C41" t="n">
         <v>202.14</v>
       </c>
       <c r="D41" t="n">
-        <v>0.03411280716011152</v>
+        <v>0.03411280717778927</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5264627273351656</v>
+        <v>0.5264627267921804</v>
       </c>
       <c r="F41" t="n">
         <v>13.69727122493564</v>
@@ -7047,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.001047621965563418</v>
+        <v>0.001047621966103668</v>
       </c>
       <c r="R41" t="n">
         <v>0.0006228227380999385</v>
@@ -7056,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.009282053260710478</v>
+        <v>0.009282053251137118</v>
       </c>
       <c r="U41" t="n">
         <v>0.1579070666191242</v>
@@ -7071,7 +7071,7 @@
         <v>1211.160256007988</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.06164623886970067</v>
+        <v>0.06164623886970068</v>
       </c>
       <c r="Z41" t="n">
         <v>0.006371946366256116</v>
@@ -7086,14 +7086,14 @@
         <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.000815941073686715</v>
+        <v>0.0008159410728451664</v>
       </c>
       <c r="AE41" t="n">
-        <v>5.345558905426989e-05</v>
+        <v>5.345558899913664e-05</v>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_E_UHfit.dat</t>
+          <t>data//heating/2024-04-03_E_UHfit.dat</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="AP41" t="n">
-        <v>0.02755612181628963</v>
+        <v>0.02755612178786869</v>
       </c>
       <c r="AQ41" t="inlineStr">
         <is>
@@ -7149,10 +7149,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU41" t="n">
-        <v>0.002638282796492718</v>
+        <v>0.002638282793771635</v>
       </c>
       <c r="AV41" t="n">
-        <v>0.07078403562750317</v>
+        <v>0.07078403566418448</v>
       </c>
     </row>
     <row r="42">
@@ -7162,16 +7162,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1221292282984225</v>
+        <v>0.1221292284283256</v>
       </c>
       <c r="C42" t="n">
         <v>202.14</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01610198384786716</v>
+        <v>0.01610198386504403</v>
       </c>
       <c r="E42" t="n">
-        <v>1.269733732947162</v>
+        <v>1.269733730246051</v>
       </c>
       <c r="F42" t="n">
         <v>13.3247630950602</v>
@@ -7209,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.0005329295411211473</v>
+        <v>0.0005329295416879992</v>
       </c>
       <c r="R42" t="n">
         <v>0.0001462387902582811</v>
@@ -7218,7 +7218,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0.02456620289041735</v>
+        <v>0.02456620283815754</v>
       </c>
       <c r="U42" t="n">
         <v>0.1983890047006756</v>
@@ -7227,7 +7227,7 @@
         <v>0.004522510252964317</v>
       </c>
       <c r="W42" t="n">
-        <v>0.1979633027450768</v>
+        <v>0.1979633027450769</v>
       </c>
       <c r="X42" t="n">
         <v>1464.904879733379</v>
@@ -7248,14 +7248,14 @@
         <v>0</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.003423687978568386</v>
+        <v>0.003423687971285157</v>
       </c>
       <c r="AE42" t="n">
-        <v>5.018692844964873e-05</v>
+        <v>5.018692834288581e-05</v>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_E_UHfit.dat</t>
+          <t>data//heating/2024-04-03_E_UHfit.dat</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
@@ -7294,7 +7294,7 @@
         </is>
       </c>
       <c r="AP42" t="n">
-        <v>0.09562878871988544</v>
+        <v>0.09562878851645382</v>
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
@@ -7311,10 +7311,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU42" t="n">
-        <v>0.002158537219879971</v>
+        <v>0.002158537215288104</v>
       </c>
       <c r="AV42" t="n">
-        <v>0.03341159796704294</v>
+        <v>0.03341159800268492</v>
       </c>
     </row>
     <row r="43">
@@ -7324,16 +7324,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1591233330106397</v>
+        <v>0.1591233331109341</v>
       </c>
       <c r="C43" t="n">
         <v>202.14</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02094992509415159</v>
+        <v>0.02094992510741003</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.003923600711396448</v>
+        <v>-0.003923600706450411</v>
       </c>
       <c r="F43" t="n">
         <v>13.31800148771208</v>
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.0002713108287694901</v>
+        <v>0.0002713108289404955</v>
       </c>
       <c r="R43" t="n">
         <v>8.619437675110126e-05</v>
@@ -7380,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>-2.490011614982905e-05</v>
+        <v>-2.49001161184403e-05</v>
       </c>
       <c r="U43" t="n">
         <v>0.08707519952468655</v>
@@ -7410,14 +7410,14 @@
         <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>-4.796202206843231e-07</v>
+        <v>-4.796202200797204e-07</v>
       </c>
       <c r="AE43" t="n">
-        <v>-4.056126460204028e-05</v>
+        <v>-4.05612645509093e-05</v>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_F_UHfit.dat</t>
+          <t>data//heating/2024-04-03_F_UHfit.dat</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr">
@@ -7456,7 +7456,7 @@
         </is>
       </c>
       <c r="AP43" t="n">
-        <v>-3.292441922168224e-05</v>
+        <v>-3.292441918017817e-05</v>
       </c>
       <c r="AQ43" t="inlineStr">
         <is>
@@ -7473,10 +7473,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU43" t="n">
-        <v>-0.004769095434994534</v>
+        <v>-0.004769095428982678</v>
       </c>
       <c r="AV43" t="n">
-        <v>0.04347107047795069</v>
+        <v>0.04347107050546194</v>
       </c>
     </row>
     <row r="44">
@@ -7486,16 +7486,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2872887361880394</v>
+        <v>0.2872887361513775</v>
       </c>
       <c r="C44" t="n">
         <v>202.14</v>
       </c>
       <c r="D44" t="n">
-        <v>0.03831817403892208</v>
+        <v>0.03831817403400536</v>
       </c>
       <c r="E44" t="n">
-        <v>0.008151622292625145</v>
+        <v>0.008151622294705658</v>
       </c>
       <c r="F44" t="n">
         <v>13.16203500254065</v>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.0005846278603319061</v>
+        <v>0.0005846278602572997</v>
       </c>
       <c r="R44" t="n">
         <v>0.0003368341510079095</v>
@@ -7542,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>5.832593701241526e-05</v>
+        <v>5.832593702730162e-05</v>
       </c>
       <c r="U44" t="n">
         <v>0.09185022888317876</v>
@@ -7551,10 +7551,10 @@
         <v>1.004068344570396e-05</v>
       </c>
       <c r="W44" t="n">
-        <v>0.09985197858641158</v>
+        <v>0.09985197858641159</v>
       </c>
       <c r="X44" t="n">
-        <v>651.8869378315416</v>
+        <v>651.8869378315417</v>
       </c>
       <c r="Y44" t="n">
         <v>0.03021638434698934</v>
@@ -7572,14 +7572,14 @@
         <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>1.778804809215007e-06</v>
+        <v>1.778804809669006e-06</v>
       </c>
       <c r="AE44" t="n">
-        <v>2.30653354806172e-05</v>
+        <v>2.30653354865041e-05</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_F_UHfit.dat</t>
+          <t>data//heating/2024-04-03_F_UHfit.dat</t>
         </is>
       </c>
       <c r="AG44" t="inlineStr">
@@ -7618,7 +7618,7 @@
         </is>
       </c>
       <c r="AP44" t="n">
-        <v>0.0001124162181643395</v>
+        <v>0.0001124162181930311</v>
       </c>
       <c r="AQ44" t="inlineStr">
         <is>
@@ -7635,10 +7635,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU44" t="n">
-        <v>0.002462698338977246</v>
+        <v>0.002462698339605793</v>
       </c>
       <c r="AV44" t="n">
-        <v>0.07951016706486316</v>
+        <v>0.07951016705466099</v>
       </c>
     </row>
     <row r="45">
@@ -7648,16 +7648,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.3755813734802746</v>
+        <v>0.3755813733427077</v>
       </c>
       <c r="C45" t="n">
         <v>202.14</v>
       </c>
       <c r="D45" t="n">
-        <v>0.05175808031928695</v>
+        <v>0.05175808030017313</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1359495749399256</v>
+        <v>0.135949575039516</v>
       </c>
       <c r="F45" t="n">
         <v>12.7450835243572</v>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.000697487051313371</v>
+        <v>0.0006974870510578975</v>
       </c>
       <c r="R45" t="n">
         <v>0.0005858899233278746</v>
@@ -7704,16 +7704,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0.001106999056173285</v>
+        <v>0.001106999056984222</v>
       </c>
       <c r="U45" t="n">
         <v>0.1025135602301789</v>
       </c>
       <c r="V45" t="n">
-        <v>0.0004800563279680003</v>
+        <v>0.0004800563279680004</v>
       </c>
       <c r="W45" t="n">
-        <v>0.09731581530616236</v>
+        <v>0.09731581530616237</v>
       </c>
       <c r="X45" t="n">
         <v>708.5029059300879</v>
@@ -7722,7 +7722,7 @@
         <v>0.0293156619254747</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.005676023935468345</v>
+        <v>0.005676023935468346</v>
       </c>
       <c r="AA45" t="n">
         <v>0.02321634462179726</v>
@@ -7734,14 +7734,14 @@
         <v>0</v>
       </c>
       <c r="AD45" t="n">
-        <v>5.315644241966758e-05</v>
+        <v>5.315644245860756e-05</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.0001482686415883295</v>
+        <v>0.0001482686416969443</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-03_F_UHfit.dat</t>
+          <t>data//heating/2024-04-03_F_UHfit.dat</t>
         </is>
       </c>
       <c r="AG45" t="inlineStr">
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="AP45" t="n">
-        <v>0.002959037540526569</v>
+        <v>0.002959037542694224</v>
       </c>
       <c r="AQ45" t="inlineStr">
         <is>
@@ -7797,10 +7797,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU45" t="n">
-        <v>0.01383660351527724</v>
+        <v>0.0138366035254133</v>
       </c>
       <c r="AV45" t="n">
-        <v>0.1073979571407281</v>
+        <v>0.1073979571010669</v>
       </c>
     </row>
     <row r="46">
@@ -7810,16 +7810,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2295876885908148</v>
+        <v>0.2295876885941832</v>
       </c>
       <c r="C46" t="n">
         <v>202.14</v>
       </c>
       <c r="D46" t="n">
-        <v>0.03277715930288185</v>
+        <v>0.03277715930338938</v>
       </c>
       <c r="E46" t="n">
-        <v>0.04062961722209716</v>
+        <v>0.04062961722090495</v>
       </c>
       <c r="F46" t="n">
         <v>12.26055059699803</v>
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.0006077182544359763</v>
+        <v>0.0006077182544448926</v>
       </c>
       <c r="R46" t="n">
         <v>0.0002839772565408898</v>
@@ -7866,10 +7866,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.0004026497128960995</v>
+        <v>0.0004026497128842844</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06135400343440021</v>
+        <v>0.0613540034344002</v>
       </c>
       <c r="V46" t="n">
         <v>4.86021434494244e-05</v>
@@ -7881,10 +7881,10 @@
         <v>390.4652376048063</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.0451438951046135</v>
+        <v>0.04514389510461349</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.005145169070573799</v>
+        <v>0.0051451690705738</v>
       </c>
       <c r="AA46" t="n">
         <v>0.002039573340076269</v>
@@ -7896,14 +7896,14 @@
         <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>9.490998755017724e-06</v>
+        <v>9.490998754739227e-06</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.0001668160889879451</v>
+        <v>0.0001668160889830501</v>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-04_C_UHfit.dat</t>
+          <t>data//heating/2024-04-04_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG46" t="inlineStr">
@@ -7942,7 +7942,7 @@
         </is>
       </c>
       <c r="AP46" t="n">
-        <v>0.0006396703481963111</v>
+        <v>0.000639670348177541</v>
       </c>
       <c r="AQ46" t="inlineStr">
         <is>
@@ -7959,10 +7959,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU46" t="n">
-        <v>0.0154225191513711</v>
+        <v>0.01542251915091855</v>
       </c>
       <c r="AV46" t="n">
-        <v>0.06801256785974664</v>
+        <v>0.06801256786079977</v>
       </c>
     </row>
     <row r="47">
@@ -7972,16 +7972,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.3007536315069598</v>
+        <v>0.3007536314399773</v>
       </c>
       <c r="C47" t="n">
         <v>202.14</v>
       </c>
       <c r="D47" t="n">
-        <v>0.04362474945486402</v>
+        <v>0.04362474944510088</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1133730146393726</v>
+        <v>0.1133730146898725</v>
       </c>
       <c r="F47" t="n">
         <v>11.82548871122662</v>
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0006429598299651931</v>
+        <v>0.0006429598298219959</v>
       </c>
       <c r="R47" t="n">
         <v>0.0004329408371995737</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>0.004477167588967718</v>
+        <v>0.004477167590961989</v>
       </c>
       <c r="U47" t="n">
         <v>0.09053697468096671</v>
@@ -8043,10 +8043,10 @@
         <v>530.5602649408449</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.03749144874452613</v>
+        <v>0.03749144874452614</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.007190339801329443</v>
+        <v>0.007190339801329442</v>
       </c>
       <c r="AA47" t="n">
         <v>0.05039415159101032</v>
@@ -8058,14 +8058,14 @@
         <v>0</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.000100692664591425</v>
+        <v>0.0001006926646362766</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.0008885447860001603</v>
+        <v>0.0008885447863959459</v>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-04_C_UHfit.dat</t>
+          <t>data//heating/2024-04-04_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
@@ -8104,7 +8104,7 @@
         </is>
       </c>
       <c r="AP47" t="n">
-        <v>0.002374934682856003</v>
+        <v>0.002374934683913873</v>
       </c>
       <c r="AQ47" t="inlineStr">
         <is>
@@ -8121,10 +8121,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU47" t="n">
-        <v>0.02218957987345735</v>
+        <v>0.02218957988334129</v>
       </c>
       <c r="AV47" t="n">
-        <v>0.09052130495038097</v>
+        <v>0.09052130493012248</v>
       </c>
     </row>
     <row r="48">
@@ -8134,16 +8134,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.3663243185132377</v>
+        <v>0.3663243183919353</v>
       </c>
       <c r="C48" t="n">
         <v>202.14</v>
       </c>
       <c r="D48" t="n">
-        <v>0.05357383899082014</v>
+        <v>0.05357383897294321</v>
       </c>
       <c r="E48" t="n">
-        <v>0.09044887154396983</v>
+        <v>0.09044887160387119</v>
       </c>
       <c r="F48" t="n">
         <v>12.30797262235444</v>
@@ -8181,7 +8181,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.000733665508482953</v>
+        <v>0.0007336655082400116</v>
       </c>
       <c r="R48" t="n">
         <v>0.0006296354816356805</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>0.0006798322879050591</v>
+        <v>0.0006798322883552901</v>
       </c>
       <c r="U48" t="n">
         <v>0.07796575887813112</v>
@@ -8220,14 +8220,14 @@
         <v>0</v>
       </c>
       <c r="AD48" t="n">
-        <v>3.119036151033404e-05</v>
+        <v>3.119036153099041e-05</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.0001136097423270994</v>
+        <v>0.0001136097424023394</v>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-04_C_UHfit.dat</t>
+          <t>data//heating/2024-04-04_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG48" t="inlineStr">
@@ -8266,7 +8266,7 @@
         </is>
       </c>
       <c r="AP48" t="n">
-        <v>0.002088598465210825</v>
+        <v>0.002088598466594036</v>
       </c>
       <c r="AQ48" t="inlineStr">
         <is>
@@ -8283,10 +8283,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU48" t="n">
-        <v>0.01220915390188507</v>
+        <v>0.01220915390997079</v>
       </c>
       <c r="AV48" t="n">
-        <v>0.1111656542960369</v>
+        <v>0.1111656542589423</v>
       </c>
     </row>
     <row r="49">
@@ -8296,16 +8296,16 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2287685682546399</v>
+        <v>0.2287685681852976</v>
       </c>
       <c r="C49" t="n">
         <v>202.14</v>
       </c>
       <c r="D49" t="n">
-        <v>0.02987654039837011</v>
+        <v>0.02987654038927012</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2292950441857491</v>
+        <v>0.2292950443247527</v>
       </c>
       <c r="F49" t="n">
         <v>11.50849648037608</v>
@@ -8343,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.001476158103415303</v>
+        <v>0.001476158102967864</v>
       </c>
       <c r="R49" t="n">
         <v>0.0007197083226667287</v>
@@ -8352,10 +8352,10 @@
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>0.005163129804584289</v>
+        <v>0.005163129807714289</v>
       </c>
       <c r="U49" t="n">
-        <v>0.2224101947811591</v>
+        <v>0.2224101947811592</v>
       </c>
       <c r="V49" t="n">
         <v>0.0007410587335454579</v>
@@ -8367,7 +8367,7 @@
         <v>1251.955100295356</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.09269549496557189</v>
+        <v>0.09269549496557192</v>
       </c>
       <c r="Z49" t="n">
         <v>0.01782022484235882</v>
@@ -8376,20 +8376,20 @@
         <v>0.03862544380619028</v>
       </c>
       <c r="AB49" t="n">
-        <v>92180.96457149845</v>
+        <v>92180.96457149847</v>
       </c>
       <c r="AC49" t="n">
         <v>0</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.0002393972557690052</v>
+        <v>0.000239397255914133</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.0005618081263534223</v>
+        <v>0.0005618081266940026</v>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-05_C_UHfit.dat</t>
+          <t>data//heating/2024-04-05_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG49" t="inlineStr">
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="AP49" t="n">
-        <v>0.005256535849294228</v>
+        <v>0.005256535852480853</v>
       </c>
       <c r="AQ49" t="inlineStr">
         <is>
@@ -8445,10 +8445,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU49" t="n">
-        <v>0.02002443014051554</v>
+        <v>0.02002443015265479</v>
       </c>
       <c r="AV49" t="n">
-        <v>0.06199378696859652</v>
+        <v>0.06199378694971405</v>
       </c>
     </row>
     <row r="50">
@@ -8458,16 +8458,16 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2693925489409492</v>
+        <v>0.2693925488530196</v>
       </c>
       <c r="C50" t="n">
         <v>202.14</v>
       </c>
       <c r="D50" t="n">
-        <v>0.03534692537859931</v>
+        <v>0.03534692536699587</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1276552599858603</v>
+        <v>0.1276552600691935</v>
       </c>
       <c r="F50" t="n">
         <v>11.61449596183343</v>
@@ -8505,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.00106315036028174</v>
+        <v>0.001063150359934729</v>
       </c>
       <c r="R50" t="n">
         <v>0.0006044676604811834</v>
@@ -8514,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>0.002641403883584371</v>
+        <v>0.002641403885308675</v>
       </c>
       <c r="U50" t="n">
         <v>0.2010917821240933</v>
@@ -8529,7 +8529,7 @@
         <v>1097.357346684398</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.05692072654298942</v>
+        <v>0.05692072654298943</v>
       </c>
       <c r="Z50" t="n">
         <v>0.01358354724428702</v>
@@ -8544,14 +8544,14 @@
         <v>0</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.0001168914687979676</v>
+        <v>0.0001168914688742742</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.0002888183035558602</v>
+        <v>0.0002888183037444004</v>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-05_C_UHfit.dat</t>
+          <t>data//heating/2024-04-05_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG50" t="inlineStr">
@@ -8590,7 +8590,7 @@
         </is>
       </c>
       <c r="AP50" t="n">
-        <v>0.002909060808902385</v>
+        <v>0.002909060810801416</v>
       </c>
       <c r="AQ50" t="inlineStr">
         <is>
@@ -8607,10 +8607,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU50" t="n">
-        <v>0.01130256150376595</v>
+        <v>0.01130256151114425</v>
       </c>
       <c r="AV50" t="n">
-        <v>0.07334482951162939</v>
+        <v>0.07334482948755226</v>
       </c>
     </row>
     <row r="51">
@@ -8620,16 +8620,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.3097210589860768</v>
+        <v>0.3097210588797341</v>
       </c>
       <c r="C51" t="n">
         <v>202.14</v>
       </c>
       <c r="D51" t="n">
-        <v>0.04081731035882852</v>
+        <v>0.04081731034472164</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1327231943442974</v>
+        <v>0.1327231944354384</v>
       </c>
       <c r="F51" t="n">
         <v>11.44592319174285</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.001637570430348824</v>
+        <v>0.001637570429786564</v>
       </c>
       <c r="R51" t="n">
         <v>0.001087491582191195</v>
@@ -8676,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>0.002677854852210498</v>
+        <v>0.002677854854049381</v>
       </c>
       <c r="U51" t="n">
         <v>0.2288090584726222</v>
@@ -8706,14 +8706,14 @@
         <v>0</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.0001398690756367022</v>
+        <v>0.0001398690757327503</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.0003056378131034526</v>
+        <v>0.000305637813313334</v>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-05_C_UHfit.dat</t>
+          <t>data//heating/2024-04-05_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG51" t="inlineStr">
@@ -8752,7 +8752,7 @@
         </is>
       </c>
       <c r="AP51" t="n">
-        <v>0.003113999171902167</v>
+        <v>0.003113999174040549</v>
       </c>
       <c r="AQ51" t="inlineStr">
         <is>
@@ -8769,10 +8769,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU51" t="n">
-        <v>0.01149636860455495</v>
+        <v>0.0114963686124495</v>
       </c>
       <c r="AV51" t="n">
-        <v>0.08469587205466228</v>
+        <v>0.0846958720253905</v>
       </c>
     </row>
     <row r="52">
@@ -8782,16 +8782,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.3480785983261472</v>
+        <v>0.3480785982019458</v>
       </c>
       <c r="C52" t="n">
         <v>202.14</v>
       </c>
       <c r="D52" t="n">
-        <v>0.04628769533905774</v>
+        <v>0.04628769532244738</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1513802696943528</v>
+        <v>0.1513802698023839</v>
       </c>
       <c r="F52" t="n">
         <v>11.79398319530318</v>
@@ -8829,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.001139862661902652</v>
+        <v>0.001139862661495925</v>
       </c>
       <c r="R52" t="n">
         <v>0.0008803745960908611</v>
@@ -8838,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>0.003575803065507632</v>
+        <v>0.00357580306805947</v>
       </c>
       <c r="U52" t="n">
         <v>0.1447834485230894</v>
@@ -8862,20 +8862,20 @@
         <v>0.06840309558678188</v>
       </c>
       <c r="AB52" t="n">
-        <v>59276.76807329814</v>
+        <v>59276.76807329816</v>
       </c>
       <c r="AC52" t="n">
         <v>0</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.0001178750953981371</v>
+        <v>0.0001178750954822576</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.0003552684715280816</v>
+        <v>0.0003552684717816155</v>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-05_C_UHfit.dat</t>
+          <t>data//heating/2024-04-05_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr">
@@ -8914,7 +8914,7 @@
         </is>
       </c>
       <c r="AP52" t="n">
-        <v>0.003452027444433503</v>
+        <v>0.00345202744689701</v>
       </c>
       <c r="AQ52" t="inlineStr">
         <is>
@@ -8931,10 +8931,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU52" t="n">
-        <v>0.01371505789160262</v>
+        <v>0.01371505790139024</v>
       </c>
       <c r="AV52" t="n">
-        <v>0.09604691459769517</v>
+        <v>0.09604691456322871</v>
       </c>
     </row>
     <row r="53">
@@ -8944,16 +8944,16 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.3927416764519214</v>
+        <v>0.3927416763080692</v>
       </c>
       <c r="C53" t="n">
         <v>202.14</v>
       </c>
       <c r="D53" t="n">
-        <v>0.05175808031928695</v>
+        <v>0.05175808030017313</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1054239298840005</v>
+        <v>0.1054239299612292</v>
       </c>
       <c r="F53" t="n">
         <v>11.88551407050829</v>
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.001636536905686245</v>
+        <v>0.001636536905086819</v>
       </c>
       <c r="R53" t="n">
         <v>0.001409561213389829</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>0.001585093648604671</v>
+        <v>0.001585093649765838</v>
       </c>
       <c r="U53" t="n">
         <v>0.1931497921627567</v>
@@ -9015,29 +9015,29 @@
         <v>1141.75025484755</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.06036574681043319</v>
+        <v>0.0603657468104332</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.009809404674489741</v>
+        <v>0.009809404674489743</v>
       </c>
       <c r="AA53" t="n">
         <v>0.03365451106271742</v>
       </c>
       <c r="AB53" t="n">
-        <v>78773.67597450476</v>
+        <v>78773.67597450473</v>
       </c>
       <c r="AC53" t="n">
         <v>0</v>
       </c>
       <c r="AD53" t="n">
-        <v>8.355824940842604e-05</v>
+        <v>8.355824946963697e-05</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.0001990005076183194</v>
+        <v>0.000199000507764098</v>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-05_C_UHfit.dat</t>
+          <t>data//heating/2024-04-05_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG53" t="inlineStr">
@@ -9076,7 +9076,7 @@
         </is>
       </c>
       <c r="AP53" t="n">
-        <v>0.002330198979883305</v>
+        <v>0.002330198981590302</v>
       </c>
       <c r="AQ53" t="inlineStr">
         <is>
@@ -9093,10 +9093,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU53" t="n">
-        <v>0.009662817355106502</v>
+        <v>0.009662817362185038</v>
       </c>
       <c r="AV53" t="n">
-        <v>0.1073979571407281</v>
+        <v>0.1073979571010669</v>
       </c>
     </row>
     <row r="54">
@@ -9106,16 +9106,16 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.4324189091406113</v>
+        <v>0.4324189089785215</v>
       </c>
       <c r="C54" t="n">
         <v>202.14</v>
       </c>
       <c r="D54" t="n">
-        <v>0.05722846529951615</v>
+        <v>0.05722846527789888</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1244363551991418</v>
+        <v>0.1244363552924304</v>
       </c>
       <c r="F54" t="n">
         <v>11.82416699889602</v>
@@ -9153,7 +9153,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.001983626967482753</v>
+        <v>0.001983626966739201</v>
       </c>
       <c r="R54" t="n">
         <v>0.001957273231333831</v>
@@ -9162,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>0.002827377640994941</v>
+        <v>0.002827377643114595</v>
       </c>
       <c r="U54" t="n">
         <v>0.2073062896388083</v>
@@ -9171,13 +9171,13 @@
         <v>0.001529516983356796</v>
       </c>
       <c r="W54" t="n">
-        <v>0.2198194885780311</v>
+        <v>0.2198194885780312</v>
       </c>
       <c r="X54" t="n">
         <v>1242.280729125086</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.06695677426481798</v>
+        <v>0.066956774264818</v>
       </c>
       <c r="Z54" t="n">
         <v>0.01277093627195055</v>
@@ -9186,20 +9186,20 @@
         <v>0.08128997262514499</v>
       </c>
       <c r="AB54" t="n">
-        <v>84766.26619669159</v>
+        <v>84766.26619669162</v>
       </c>
       <c r="AC54" t="n">
         <v>0</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.0001168616708122938</v>
+        <v>0.0001168616708999037</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.000309274625554202</v>
+        <v>0.0003092746257860618</v>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-05_C_UHfit.dat</t>
+          <t>data//heating/2024-04-05_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG54" t="inlineStr">
@@ -9238,7 +9238,7 @@
         </is>
       </c>
       <c r="AP54" t="n">
-        <v>0.002791029462649888</v>
+        <v>0.002791029464742292</v>
       </c>
       <c r="AQ54" t="inlineStr">
         <is>
@@ -9255,10 +9255,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU54" t="n">
-        <v>0.01131724526036548</v>
+        <v>0.01131724526884989</v>
       </c>
       <c r="AV54" t="n">
-        <v>0.1187489996837609</v>
+        <v>0.1187489996389051</v>
       </c>
     </row>
     <row r="55">
@@ -9268,16 +9268,16 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.4724969105673988</v>
+        <v>0.472496910387186</v>
       </c>
       <c r="C55" t="n">
         <v>202.14</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06269885027974537</v>
+        <v>0.06269885025562466</v>
       </c>
       <c r="E55" t="n">
-        <v>0.130612747456323</v>
+        <v>0.1306127475559557</v>
       </c>
       <c r="F55" t="n">
         <v>12.02318197947576</v>
@@ -9315,7 +9315,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.001783037291937088</v>
+        <v>0.001783037291257028</v>
       </c>
       <c r="R55" t="n">
         <v>0.001997162080808323</v>
@@ -9324,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>0.001816690946144781</v>
+        <v>0.001816690947530572</v>
       </c>
       <c r="U55" t="n">
         <v>0.1914226085217738</v>
@@ -9333,10 +9333,10 @@
         <v>0.0010556346543599</v>
       </c>
       <c r="W55" t="n">
-        <v>0.1742431042314699</v>
+        <v>0.17424310423147</v>
       </c>
       <c r="X55" t="n">
-        <v>1135.510159962375</v>
+        <v>1135.510159962374</v>
       </c>
       <c r="Y55" t="n">
         <v>0.05521977313741935</v>
@@ -9354,14 +9354,14 @@
         <v>0</v>
       </c>
       <c r="AD55" t="n">
-        <v>9.938570572301434e-05</v>
+        <v>9.93857057988268e-05</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.0002385478706446817</v>
+        <v>0.0002385478708266485</v>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-05_C_UHfit.dat</t>
+          <t>data//heating/2024-04-05_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG55" t="inlineStr">
@@ -9400,7 +9400,7 @@
         </is>
       </c>
       <c r="AP55" t="n">
-        <v>0.002867847181618426</v>
+        <v>0.00286784718380605</v>
       </c>
       <c r="AQ55" t="inlineStr">
         <is>
@@ -9417,10 +9417,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU55" t="n">
-        <v>0.01218014081720047</v>
+        <v>0.01218014082649161</v>
       </c>
       <c r="AV55" t="n">
-        <v>0.1301000422267938</v>
+        <v>0.1301000421767434</v>
       </c>
     </row>
     <row r="56">
@@ -9430,16 +9430,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.3180963888679635</v>
+        <v>0.3180963890241739</v>
       </c>
       <c r="C56" t="n">
         <v>202.14</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07324925272627343</v>
+        <v>0.07324925276263533</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0386464422416869</v>
+        <v>0.03864644220373</v>
       </c>
       <c r="F56" t="n">
         <v>17.5353075273098</v>
@@ -9477,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.001647305620087446</v>
+        <v>0.001647305620896403</v>
       </c>
       <c r="R56" t="n">
         <v>0.001080295373492714</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>0.0008410804305610644</v>
+        <v>0.0008410804297349909</v>
       </c>
       <c r="U56" t="n">
         <v>0.1410992825865406</v>
@@ -9516,14 +9516,14 @@
         <v>0</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.0001856535205821769</v>
+        <v>0.0001856535203998359</v>
       </c>
       <c r="AE56" t="n">
-        <v>1.621789083235627e-06</v>
+        <v>1.621789081642775e-06</v>
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-08_G_UHfit.dat</t>
+          <t>data//heating/2024-04-08_G_UHfit.dat</t>
         </is>
       </c>
       <c r="AG56" t="inlineStr">
@@ -9562,7 +9562,7 @@
         </is>
       </c>
       <c r="AP56" t="n">
-        <v>0.006468628392138019</v>
+        <v>0.006468628385784807</v>
       </c>
       <c r="AQ56" t="inlineStr">
         <is>
@@ -9579,10 +9579,10 @@
         <v>483.0912957195565</v>
       </c>
       <c r="AU56" t="n">
-        <v>7.096957745678209e-05</v>
+        <v>7.096957738707877e-05</v>
       </c>
       <c r="AV56" t="n">
-        <v>0.1519921151703768</v>
+        <v>0.1519921152458276</v>
       </c>
     </row>
     <row r="57">
@@ -9592,16 +9592,16 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2774126145830492</v>
+        <v>0.2774126147265901</v>
       </c>
       <c r="C57" t="n">
         <v>202.14</v>
       </c>
       <c r="D57" t="n">
-        <v>0.06373555301066434</v>
+        <v>0.06373555304396454</v>
       </c>
       <c r="E57" t="n">
-        <v>0.02280243426557547</v>
+        <v>0.02280243424197826</v>
       </c>
       <c r="F57" t="n">
         <v>17.3937060818269</v>
@@ -9639,7 +9639,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.001217437702767135</v>
+        <v>0.001217437703397071</v>
       </c>
       <c r="R57" t="n">
         <v>0.0006852378703559522</v>
@@ -9648,7 +9648,7 @@
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>0.0002750879748453674</v>
+        <v>0.0002750879745606913</v>
       </c>
       <c r="U57" t="n">
         <v>0.1322430496342258</v>
@@ -9672,20 +9672,20 @@
         <v>0.01760034699424387</v>
       </c>
       <c r="AB57" t="n">
-        <v>44583.34449562406</v>
+        <v>44583.34449562404</v>
       </c>
       <c r="AC57" t="n">
         <v>0</v>
       </c>
       <c r="AD57" t="n">
-        <v>8.854447704131369e-05</v>
+        <v>8.854447694968298e-05</v>
       </c>
       <c r="AE57" t="n">
-        <v>4.325117250333301e-07</v>
+        <v>4.325117245857432e-07</v>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-08_G_UHfit.dat</t>
+          <t>data//heating/2024-04-08_G_UHfit.dat</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
@@ -9724,7 +9724,7 @@
         </is>
       </c>
       <c r="AP57" t="n">
-        <v>0.00422434469749773</v>
+        <v>0.004224344693126146</v>
       </c>
       <c r="AQ57" t="inlineStr">
         <is>
@@ -9741,10 +9741,10 @@
         <v>483.0912957195565</v>
       </c>
       <c r="AU57" t="n">
-        <v>3.146952255922216e-05</v>
+        <v>3.146952252665578e-05</v>
       </c>
       <c r="AV57" t="n">
-        <v>0.1322511992012426</v>
+        <v>0.1322511992703404</v>
       </c>
     </row>
     <row r="58">
@@ -9754,16 +9754,16 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2802970069361724</v>
+        <v>0.2802970070813259</v>
       </c>
       <c r="C58" t="n">
         <v>202.14</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0637371078114119</v>
+        <v>0.06373710784473627</v>
       </c>
       <c r="E58" t="n">
-        <v>0.04612269624185222</v>
+        <v>0.04612269619408237</v>
       </c>
       <c r="F58" t="n">
         <v>17.4157679269363</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.001803848491811649</v>
+        <v>0.001803848492745783</v>
       </c>
       <c r="R58" t="n">
         <v>0.001044996735598873</v>
@@ -9810,7 +9810,7 @@
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>0.0007437063278130495</v>
+        <v>0.0007437063270427836</v>
       </c>
       <c r="U58" t="n">
         <v>0.1045368340827676</v>
@@ -9819,13 +9819,13 @@
         <v>0.003406668038524972</v>
       </c>
       <c r="W58" t="n">
-        <v>0.8468573351952023</v>
+        <v>0.8468573351952025</v>
       </c>
       <c r="X58" t="n">
-        <v>507.6283261950177</v>
+        <v>507.6283261950178</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.2775599508392596</v>
+        <v>0.2775599508392597</v>
       </c>
       <c r="Z58" t="n">
         <v>0.01400537479763473</v>
@@ -9840,14 +9840,14 @@
         <v>0</v>
       </c>
       <c r="AD58" t="n">
-        <v>0.0002136829499089887</v>
+        <v>0.0002136829496876746</v>
       </c>
       <c r="AE58" t="n">
-        <v>8.5740648344292e-07</v>
+        <v>8.574064825548933e-07</v>
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-08_G_UHfit.dat</t>
+          <t>data//heating/2024-04-08_G_UHfit.dat</t>
         </is>
       </c>
       <c r="AG58" t="inlineStr">
@@ -9886,7 +9886,7 @@
         </is>
       </c>
       <c r="AP58" t="n">
-        <v>0.009023540076221099</v>
+        <v>0.009023540066875306</v>
       </c>
       <c r="AQ58" t="inlineStr">
         <is>
@@ -9903,10 +9903,10 @@
         <v>483.0912957195565</v>
       </c>
       <c r="AU58" t="n">
-        <v>5.06091679460567e-05</v>
+        <v>5.060916789364015e-05</v>
       </c>
       <c r="AV58" t="n">
-        <v>0.1322544254110057</v>
+        <v>0.1322544254801537</v>
       </c>
     </row>
     <row r="59">
@@ -9916,16 +9916,16 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.5887947498900191</v>
+        <v>0.5887947498374494</v>
       </c>
       <c r="C59" t="n">
         <v>202.14</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1361183826911875</v>
+        <v>0.136118382678804</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.0001453364480874119</v>
+        <v>-0.0001453364481133643</v>
       </c>
       <c r="F59" t="n">
         <v>17.49695481265015</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.002923576767402221</v>
+        <v>0.002923576767141194</v>
       </c>
       <c r="R59" t="n">
         <v>0.003441386958015838</v>
@@ -9972,22 +9972,22 @@
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>-2.759819118069853e-06</v>
+        <v>-2.759819118562667e-06</v>
       </c>
       <c r="U59" t="n">
-        <v>0.09262695010105115</v>
+        <v>0.09262695010105117</v>
       </c>
       <c r="V59" t="n">
         <v>-2.156606246098924e-05</v>
       </c>
       <c r="W59" t="n">
-        <v>0.654979213374602</v>
+        <v>0.6549792133746021</v>
       </c>
       <c r="X59" t="n">
         <v>460.2709773842168</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.216359700018379</v>
+        <v>0.2163597000183791</v>
       </c>
       <c r="Z59" t="n">
         <v>0.008481387962932574</v>
@@ -10002,14 +10002,14 @@
         <v>0</v>
       </c>
       <c r="AD59" t="n">
-        <v>-2.567017103773199e-07</v>
+        <v>-2.567017104231585e-07</v>
       </c>
       <c r="AE59" t="n">
-        <v>-5.809977228896621e-08</v>
+        <v>-5.809977229934092e-08</v>
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-08_G_UHfit.dat</t>
+          <t>data//heating/2024-04-08_G_UHfit.dat</t>
         </is>
       </c>
       <c r="AG59" t="inlineStr">
@@ -10048,7 +10048,7 @@
         </is>
       </c>
       <c r="AP59" t="n">
-        <v>-1.080619327314346e-05</v>
+        <v>-1.080619327507309e-05</v>
       </c>
       <c r="AQ59" t="inlineStr">
         <is>
@@ -10065,10 +10065,10 @@
         <v>483.0912957195565</v>
       </c>
       <c r="AU59" t="n">
-        <v>-2.974170584711362e-06</v>
+        <v>-2.974170585242451e-06</v>
       </c>
       <c r="AV59" t="n">
-        <v>0.282445487548074</v>
+        <v>0.2824454875223783</v>
       </c>
     </row>
     <row r="60">
@@ -10078,16 +10078,16 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.6479905973536577</v>
+        <v>0.6479905974296034</v>
       </c>
       <c r="C60" t="n">
         <v>202.14</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1521054562541256</v>
+        <v>0.1521054562723503</v>
       </c>
       <c r="E60" t="n">
-        <v>0.02087244792689228</v>
+        <v>0.0208724479219997</v>
       </c>
       <c r="F60" t="n">
         <v>17.53752184467893</v>
@@ -10125,7 +10125,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.004156010677556818</v>
+        <v>0.00415601067804391</v>
       </c>
       <c r="R60" t="n">
         <v>0.005589285763334817</v>
@@ -10134,10 +10134,10 @@
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>0.0003671129528946252</v>
+        <v>0.0003671129528085726</v>
       </c>
       <c r="U60" t="n">
-        <v>0.1075518023355561</v>
+        <v>0.1075518023355562</v>
       </c>
       <c r="V60" t="n">
         <v>0.004348004036318956</v>
@@ -10158,20 +10158,20 @@
         <v>0.06751425090226157</v>
       </c>
       <c r="AB60" t="n">
-        <v>36110.1616443763</v>
+        <v>36110.16164437631</v>
       </c>
       <c r="AC60" t="n">
         <v>0</v>
       </c>
       <c r="AD60" t="n">
-        <v>4.820640705758391e-05</v>
+        <v>4.820640704628416e-05</v>
       </c>
       <c r="AE60" t="n">
-        <v>4.28658376725744e-06</v>
+        <v>4.286583766252649e-06</v>
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-08_G_UHfit.dat</t>
+          <t>data//heating/2024-04-08_G_UHfit.dat</t>
         </is>
       </c>
       <c r="AG60" t="inlineStr">
@@ -10210,7 +10210,7 @@
         </is>
       </c>
       <c r="AP60" t="n">
-        <v>0.001943981318220025</v>
+        <v>0.001943981317764349</v>
       </c>
       <c r="AQ60" t="inlineStr">
         <is>
@@ -10227,10 +10227,10 @@
         <v>483.0912957195565</v>
       </c>
       <c r="AU60" t="n">
-        <v>0.0002333116696776492</v>
+        <v>0.00023331166962296</v>
       </c>
       <c r="AV60" t="n">
-        <v>0.315618646806036</v>
+        <v>0.3156186468438522</v>
       </c>
     </row>
     <row r="61">
@@ -10240,16 +10240,16 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.5639625784694912</v>
+        <v>0.5639625786172978</v>
       </c>
       <c r="C61" t="n">
         <v>202.14</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1311223817883397</v>
+        <v>0.1311223818233462</v>
       </c>
       <c r="E61" t="n">
-        <v>0.03702417978634485</v>
+        <v>0.03702417976693782</v>
       </c>
       <c r="F61" t="n">
         <v>17.41964151506405</v>
@@ -10287,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.001890837372211503</v>
+        <v>0.001890837372707064</v>
       </c>
       <c r="R61" t="n">
         <v>0.002259277345807567</v>
@@ -10296,7 +10296,7 @@
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>0.0005079471817273206</v>
+        <v>0.0005079471814610691</v>
       </c>
       <c r="U61" t="n">
         <v>0.1008505346187583</v>
@@ -10305,7 +10305,7 @@
         <v>0.005137693945840181</v>
       </c>
       <c r="W61" t="n">
-        <v>0.4465225446190242</v>
+        <v>0.4465225446190244</v>
       </c>
       <c r="X61" t="n">
         <v>505.0834578452248</v>
@@ -10320,20 +10320,20 @@
         <v>0.08172376454090759</v>
       </c>
       <c r="AB61" t="n">
-        <v>33974.60768885796</v>
+        <v>33974.60768885797</v>
       </c>
       <c r="AC61" t="n">
         <v>0</v>
       </c>
       <c r="AD61" t="n">
-        <v>7.52000320334249e-05</v>
+        <v>7.52000319940072e-05</v>
       </c>
       <c r="AE61" t="n">
-        <v>3.886888343146718e-06</v>
+        <v>3.88688834110932e-06</v>
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-08_G_UHfit.dat</t>
+          <t>data//heating/2024-04-08_G_UHfit.dat</t>
         </is>
       </c>
       <c r="AG61" t="inlineStr">
@@ -10372,7 +10372,7 @@
         </is>
       </c>
       <c r="AP61" t="n">
-        <v>0.003969586226473045</v>
+        <v>0.003969586224392301</v>
       </c>
       <c r="AQ61" t="inlineStr">
         <is>
@@ -10389,10 +10389,10 @@
         <v>483.0912957195565</v>
       </c>
       <c r="AU61" t="n">
-        <v>0.0002661012404887412</v>
+        <v>0.0002661012403492584</v>
       </c>
       <c r="AV61" t="n">
-        <v>0.2720787914200657</v>
+        <v>0.2720787914927044</v>
       </c>
     </row>
     <row r="62">
@@ -10402,16 +10402,16 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.3987740909618719</v>
+        <v>0.3987740911286464</v>
       </c>
       <c r="C62" t="n">
         <v>202.14</v>
       </c>
       <c r="D62" t="n">
-        <v>0.09181944100432003</v>
+        <v>0.09181944104323055</v>
       </c>
       <c r="E62" t="n">
-        <v>0.01378846013986719</v>
+        <v>0.01378846012833403</v>
       </c>
       <c r="F62" t="n">
         <v>17.44955869505849</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.001695937210783601</v>
+        <v>0.001695937211492872</v>
       </c>
       <c r="R62" t="n">
         <v>0.001370259056864319</v>
@@ -10458,10 +10458,10 @@
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>0.000187730887327424</v>
+        <v>0.0001877308871703991</v>
       </c>
       <c r="U62" t="n">
-        <v>0.08365948766701582</v>
+        <v>0.08365948766701584</v>
       </c>
       <c r="V62" t="n">
         <v>0.001162300586984725</v>
@@ -10470,10 +10470,10 @@
         <v>0.5681362279045871</v>
       </c>
       <c r="X62" t="n">
-        <v>412.2819561093273</v>
+        <v>412.2819561093274</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.1859577171795151</v>
+        <v>0.1859577171795152</v>
       </c>
       <c r="Z62" t="n">
         <v>0.0104514611471847</v>
@@ -10482,20 +10482,20 @@
         <v>0.01822078451552707</v>
       </c>
       <c r="AB62" t="n">
-        <v>28159.10382048651</v>
+        <v>28159.10382048652</v>
       </c>
       <c r="AC62" t="n">
         <v>0</v>
       </c>
       <c r="AD62" t="n">
-        <v>3.321540205326708e-05</v>
+        <v>3.321540202548452e-05</v>
       </c>
       <c r="AE62" t="n">
-        <v>7.69818290738183e-07</v>
+        <v>7.698182900942794e-07</v>
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-08_G_UHfit.dat</t>
+          <t>data//heating/2024-04-08_G_UHfit.dat</t>
         </is>
       </c>
       <c r="AG62" t="inlineStr">
@@ -10534,7 +10534,7 @@
         </is>
       </c>
       <c r="AP62" t="n">
-        <v>0.00179107527454093</v>
+        <v>0.00179107527304281</v>
       </c>
       <c r="AQ62" t="inlineStr">
         <is>
@@ -10551,10 +10551,10 @@
         <v>483.0912957195565</v>
       </c>
       <c r="AU62" t="n">
-        <v>5.408267751329332e-05</v>
+        <v>5.408267746805662e-05</v>
       </c>
       <c r="AV62" t="n">
-        <v>0.1905252344916069</v>
+        <v>0.1905252345723462</v>
       </c>
     </row>
     <row r="63">
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.3608211427090838</v>
+        <v>0.3608211428767057</v>
       </c>
       <c r="C63" t="n">
         <v>202.14</v>
       </c>
       <c r="D63" t="n">
-        <v>0.08270756066303324</v>
+        <v>0.08270756070191235</v>
       </c>
       <c r="E63" t="n">
-        <v>0.05131119883255798</v>
+        <v>0.05131119878488407</v>
       </c>
       <c r="F63" t="n">
         <v>17.59307513519156</v>
@@ -10611,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.00231472945781089</v>
+        <v>0.002314729458886213</v>
       </c>
       <c r="R63" t="n">
         <v>0.001749032009203159</v>
@@ -10620,10 +10620,10 @@
         <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>0.0009308467785470526</v>
+        <v>0.0009308467776821905</v>
       </c>
       <c r="U63" t="n">
-        <v>0.0820343192445268</v>
+        <v>0.08203431924452682</v>
       </c>
       <c r="V63" t="n">
         <v>0.005476203903737925</v>
@@ -10632,7 +10632,7 @@
         <v>0.8596016317838717</v>
       </c>
       <c r="X63" t="n">
-        <v>412.1277000181161</v>
+        <v>412.1277000181162</v>
       </c>
       <c r="Y63" t="n">
         <v>0.2796249782220391</v>
@@ -10644,20 +10644,20 @@
         <v>0.0879662484514811</v>
       </c>
       <c r="AB63" t="n">
-        <v>27499.23118651174</v>
+        <v>27499.23118651175</v>
       </c>
       <c r="AC63" t="n">
         <v>0</v>
       </c>
       <c r="AD63" t="n">
-        <v>0.0001811726791784392</v>
+        <v>0.0001811726790101093</v>
       </c>
       <c r="AE63" t="n">
-        <v>2.459517296482946e-06</v>
+        <v>2.459517294197776e-06</v>
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-08_G_UHfit.dat</t>
+          <t>data//heating/2024-04-08_G_UHfit.dat</t>
         </is>
       </c>
       <c r="AG63" t="inlineStr">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="AP63" t="n">
-        <v>0.007553748871162308</v>
+        <v>0.007553748864144019</v>
       </c>
       <c r="AQ63" t="inlineStr">
         <is>
@@ -10713,10 +10713,10 @@
         <v>483.0912957195565</v>
       </c>
       <c r="AU63" t="n">
-        <v>0.0001323373510681776</v>
+        <v>0.0001323373509452212</v>
       </c>
       <c r="AV63" t="n">
-        <v>0.1716180932620992</v>
+        <v>0.1716180933427733</v>
       </c>
     </row>
     <row r="64">
@@ -10726,16 +10726,16 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.3808669034972701</v>
+        <v>0.3808669036843059</v>
       </c>
       <c r="C64" t="n">
         <v>202.14</v>
       </c>
       <c r="D64" t="n">
-        <v>0.07324925272627343</v>
+        <v>0.07324925276263533</v>
       </c>
       <c r="E64" t="n">
-        <v>0.09313095407007461</v>
+        <v>0.09313095397860532</v>
       </c>
       <c r="F64" t="n">
         <v>14.93788063804305</v>
@@ -10773,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.001691981958738453</v>
+        <v>0.001691981959569349</v>
       </c>
       <c r="R64" t="n">
         <v>0.001419682552067362</v>
@@ -10782,19 +10782,19 @@
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>0.001372582205072818</v>
+        <v>0.001372582203724726</v>
       </c>
       <c r="U64" t="n">
         <v>0.1164691925311543</v>
       </c>
       <c r="V64" t="n">
-        <v>0.006362417896020846</v>
+        <v>0.006362417896020847</v>
       </c>
       <c r="W64" t="n">
-        <v>0.4378631971499066</v>
+        <v>0.4378631971499067</v>
       </c>
       <c r="X64" t="n">
-        <v>759.1732819982534</v>
+        <v>759.1732819982533</v>
       </c>
       <c r="Y64" t="n">
         <v>0.1362770243032592</v>
@@ -10812,14 +10812,14 @@
         <v>0</v>
       </c>
       <c r="AD64" t="n">
-        <v>0.0003166078180415564</v>
+        <v>0.0003166078177305975</v>
       </c>
       <c r="AE64" t="n">
-        <v>2.179915091722463e-06</v>
+        <v>2.179915089581443e-06</v>
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_C_UHfit.dat</t>
+          <t>data//heating/2024-04-10_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG64" t="inlineStr">
@@ -10858,7 +10858,7 @@
         </is>
       </c>
       <c r="AP64" t="n">
-        <v>0.0138294320855247</v>
+        <v>0.01382943207194201</v>
       </c>
       <c r="AQ64" t="inlineStr">
         <is>
@@ -10875,10 +10875,10 @@
         <v>441</v>
       </c>
       <c r="AU64" t="n">
-        <v>0.0001344683727608293</v>
+        <v>0.0001344683726287602</v>
       </c>
       <c r="AV64" t="n">
-        <v>0.1519921151703768</v>
+        <v>0.1519921152458276</v>
       </c>
     </row>
     <row r="65">
@@ -10888,16 +10888,16 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.3816995453291687</v>
+        <v>0.3816995455173198</v>
       </c>
       <c r="C65" t="n">
         <v>202.14</v>
       </c>
       <c r="D65" t="n">
-        <v>0.07325932562520146</v>
+        <v>0.07325932566169326</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0648569964334344</v>
+        <v>0.06485699636949448</v>
       </c>
       <c r="F65" t="n">
         <v>15.0157986178278</v>
@@ -10935,7 +10935,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.001705749718217408</v>
+        <v>0.001705749719058223</v>
       </c>
       <c r="R65" t="n">
         <v>0.001401571431910469</v>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>0.0007897653337538441</v>
+        <v>0.000789765332975246</v>
       </c>
       <c r="U65" t="n">
         <v>0.119965137481259</v>
@@ -10953,13 +10953,13 @@
         <v>0.003939558814646643</v>
       </c>
       <c r="W65" t="n">
-        <v>0.4290870653389819</v>
+        <v>0.429087065338982</v>
       </c>
       <c r="X65" t="n">
         <v>798.6928478179552</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.1365313738411003</v>
+        <v>0.1365313738411004</v>
       </c>
       <c r="Z65" t="n">
         <v>0.01278698408404246</v>
@@ -10974,14 +10974,14 @@
         <v>0</v>
       </c>
       <c r="AD65" t="n">
-        <v>0.0002254182157917248</v>
+        <v>0.000225418215569494</v>
       </c>
       <c r="AE65" t="n">
-        <v>1.005531552930098e-06</v>
+        <v>1.005531551938784e-06</v>
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_C_UHfit.dat</t>
+          <t>data//heating/2024-04-10_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG65" t="inlineStr">
@@ -11020,7 +11020,7 @@
         </is>
       </c>
       <c r="AP65" t="n">
-        <v>0.01042533323001336</v>
+        <v>0.01042533321973544</v>
       </c>
       <c r="AQ65" t="inlineStr">
         <is>
@@ -11037,10 +11037,10 @@
         <v>441</v>
       </c>
       <c r="AU65" t="n">
-        <v>7.179599788409061e-05</v>
+        <v>7.17959978133098e-05</v>
       </c>
       <c r="AV65" t="n">
-        <v>0.1520130164240686</v>
+        <v>0.152013016499789</v>
       </c>
     </row>
     <row r="66">
@@ -11050,16 +11050,16 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.3328876450237209</v>
+        <v>0.3328876451961089</v>
       </c>
       <c r="C66" t="n">
         <v>202.14</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0637371078114119</v>
+        <v>0.06373710784473627</v>
       </c>
       <c r="E66" t="n">
-        <v>0.08679020277051604</v>
+        <v>0.08679020268062632</v>
       </c>
       <c r="F66" t="n">
         <v>15.23189729586548</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.001502215080536079</v>
+        <v>0.001502215081314011</v>
       </c>
       <c r="R66" t="n">
         <v>0.001084774802181182</v>
@@ -11106,10 +11106,10 @@
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>0.001376444149526708</v>
+        <v>0.001376444148101108</v>
       </c>
       <c r="U66" t="n">
-        <v>0.1007492277705461</v>
+        <v>0.1007492277705462</v>
       </c>
       <c r="V66" t="n">
         <v>0.005869412216422343</v>
@@ -11118,7 +11118,7 @@
         <v>0.4370225433976812</v>
       </c>
       <c r="X66" t="n">
-        <v>707.1127931714053</v>
+        <v>707.1127931714054</v>
       </c>
       <c r="Y66" t="n">
         <v>0.137591170683432</v>
@@ -11130,20 +11130,20 @@
         <v>0.1385595962969782</v>
       </c>
       <c r="AB66" t="n">
-        <v>36296.15133601531</v>
+        <v>36296.15133601532</v>
       </c>
       <c r="AC66" t="n">
         <v>0</v>
       </c>
       <c r="AD66" t="n">
-        <v>0.0003281356047025291</v>
+        <v>0.0003281356043626749</v>
       </c>
       <c r="AE66" t="n">
-        <v>1.313459892461912e-06</v>
+        <v>1.313459891101545e-06</v>
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_C_UHfit.dat</t>
+          <t>data//heating/2024-04-10_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG66" t="inlineStr">
@@ -11182,7 +11182,7 @@
         </is>
       </c>
       <c r="AP66" t="n">
-        <v>0.01471829398781321</v>
+        <v>0.01471829397256928</v>
       </c>
       <c r="AQ66" t="inlineStr">
         <is>
@@ -11199,10 +11199,10 @@
         <v>441</v>
       </c>
       <c r="AU66" t="n">
-        <v>7.789368924710963e-05</v>
+        <v>7.789368916643415e-05</v>
       </c>
       <c r="AV66" t="n">
-        <v>0.1322544254110057</v>
+        <v>0.1322544254801537</v>
       </c>
     </row>
     <row r="67">
@@ -11212,16 +11212,16 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.7048405951268137</v>
+        <v>0.704840595063883</v>
       </c>
       <c r="C67" t="n">
         <v>202.14</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1361183826911875</v>
+        <v>0.136118382678804</v>
       </c>
       <c r="E67" t="n">
-        <v>0.06678476868150116</v>
+        <v>0.06678476869342673</v>
       </c>
       <c r="F67" t="n">
         <v>15.47645326393051</v>
@@ -11259,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.002509769002979933</v>
+        <v>0.002509769002755852</v>
       </c>
       <c r="R67" t="n">
         <v>0.003939269866303302</v>
@@ -11268,13 +11268,13 @@
         <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>0.0008670597790231895</v>
+        <v>0.0008670597791780183</v>
       </c>
       <c r="U67" t="n">
         <v>0.1508338431921717</v>
       </c>
       <c r="V67" t="n">
-        <v>0.005964598997961156</v>
+        <v>0.005964598997961158</v>
       </c>
       <c r="W67" t="n">
         <v>0.3505670496764239</v>
@@ -11286,7 +11286,7 @@
         <v>0.108042616673549</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.01377251986662813</v>
+        <v>0.01377251986662814</v>
       </c>
       <c r="AA67" t="n">
         <v>0.1434911731625054</v>
@@ -11298,14 +11298,14 @@
         <v>0</v>
       </c>
       <c r="AD67" t="n">
-        <v>9.9923520599138e-05</v>
+        <v>9.992352061698108e-05</v>
       </c>
       <c r="AE67" t="n">
-        <v>1.760563342881436e-05</v>
+        <v>1.760563343195816e-05</v>
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_C_UHfit.dat</t>
+          <t>data//heating/2024-04-10_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG67" t="inlineStr">
@@ -11344,7 +11344,7 @@
         </is>
       </c>
       <c r="AP67" t="n">
-        <v>0.004165414250920183</v>
+        <v>0.00416541425166399</v>
       </c>
       <c r="AQ67" t="inlineStr">
         <is>
@@ -11361,10 +11361,10 @@
         <v>441</v>
       </c>
       <c r="AU67" t="n">
-        <v>0.00113692603955293</v>
+        <v>0.001136926039755948</v>
       </c>
       <c r="AV67" t="n">
-        <v>0.282445487548074</v>
+        <v>0.2824454875223783</v>
       </c>
     </row>
     <row r="68">
@@ -11374,16 +11374,16 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.775746690627389</v>
+        <v>0.775746690718308</v>
       </c>
       <c r="C68" t="n">
         <v>202.14</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1521054562541256</v>
+        <v>0.1521054562723503</v>
       </c>
       <c r="E68" t="n">
-        <v>0.05229104266751718</v>
+        <v>0.05229104265525995</v>
       </c>
       <c r="F68" t="n">
         <v>15.34606635914083</v>
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.00323667138135167</v>
+        <v>0.003236671381731015</v>
       </c>
       <c r="R68" t="n">
         <v>0.005690858812340902</v>
@@ -11430,44 +11430,44 @@
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>0.0006992329699471526</v>
+        <v>0.0006992329697832496</v>
       </c>
       <c r="U68" t="n">
         <v>0.1235817870667482</v>
       </c>
       <c r="V68" t="n">
-        <v>0.007502215588129964</v>
+        <v>0.007502215588129963</v>
       </c>
       <c r="W68" t="n">
         <v>0.4116893613562038</v>
       </c>
       <c r="X68" t="n">
-        <v>860.8529724832997</v>
+        <v>860.8529724832999</v>
       </c>
       <c r="Y68" t="n">
         <v>0.1300367644405842</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.01301419052829129</v>
+        <v>0.0130141905282913</v>
       </c>
       <c r="AA68" t="n">
         <v>0.1771218932068319</v>
       </c>
       <c r="AB68" t="n">
-        <v>44355.94002269916</v>
+        <v>44355.94002269917</v>
       </c>
       <c r="AC68" t="n">
         <v>0</v>
       </c>
       <c r="AD68" t="n">
-        <v>9.204931512565502e-05</v>
+        <v>9.204931510407833e-05</v>
       </c>
       <c r="AE68" t="n">
-        <v>7.215621102636019e-06</v>
+        <v>7.215621100944649e-06</v>
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_C_UHfit.dat</t>
+          <t>data//heating/2024-04-10_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG68" t="inlineStr">
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="AP68" t="n">
-        <v>0.004151454450650752</v>
+        <v>0.004151454449677635</v>
       </c>
       <c r="AQ68" t="inlineStr">
         <is>
@@ -11523,10 +11523,10 @@
         <v>441</v>
       </c>
       <c r="AU68" t="n">
-        <v>0.0004784467923907295</v>
+        <v>0.0004784467922785796</v>
       </c>
       <c r="AV68" t="n">
-        <v>0.315618646806036</v>
+        <v>0.3156186468438522</v>
       </c>
     </row>
     <row r="69">
@@ -11536,16 +11536,16 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.6004626192588877</v>
+        <v>0.6004626194227543</v>
       </c>
       <c r="C69" t="n">
         <v>202.14</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1172638711271642</v>
+        <v>0.1172638711596952</v>
       </c>
       <c r="E69" t="n">
-        <v>0.06571804426864007</v>
+        <v>0.0657180442327711</v>
       </c>
       <c r="F69" t="n">
         <v>15.11113567066597</v>
@@ -11583,7 +11583,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.002217301125618127</v>
+        <v>0.00221730112622323</v>
       </c>
       <c r="R69" t="n">
         <v>0.002967185859470168</v>
@@ -11592,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>0.0007922371525930669</v>
+        <v>0.0007922371521606631</v>
       </c>
       <c r="U69" t="n">
         <v>0.1069035043652578</v>
@@ -11604,7 +11604,7 @@
         <v>0.3594978469391446</v>
       </c>
       <c r="X69" t="n">
-        <v>721.5122321285421</v>
+        <v>721.5122321285423</v>
       </c>
       <c r="Y69" t="n">
         <v>0.115213335547838</v>
@@ -11622,14 +11622,14 @@
         <v>0</v>
       </c>
       <c r="AD69" t="n">
-        <v>0.0001215992561168404</v>
+        <v>0.0001215992560504714</v>
       </c>
       <c r="AE69" t="n">
-        <v>5.160527459808148e-06</v>
+        <v>5.160527456991525e-06</v>
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_C_UHfit.dat</t>
+          <t>data//heating/2024-04-10_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG69" t="inlineStr">
@@ -11668,7 +11668,7 @@
         </is>
       </c>
       <c r="AP69" t="n">
-        <v>0.006176855132408188</v>
+        <v>0.006176855129036853</v>
       </c>
       <c r="AQ69" t="inlineStr">
         <is>
@@ -11685,10 +11685,10 @@
         <v>441</v>
       </c>
       <c r="AU69" t="n">
-        <v>0.0003816215760643876</v>
+        <v>0.0003816215758560981</v>
       </c>
       <c r="AV69" t="n">
-        <v>0.2433223977354139</v>
+        <v>0.2433223978029158</v>
       </c>
     </row>
     <row r="70">
@@ -11698,16 +11698,16 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.5169659854819575</v>
+        <v>0.5169659856916878</v>
       </c>
       <c r="C70" t="n">
         <v>202.14</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1012929229848712</v>
+        <v>0.1012929230265708</v>
       </c>
       <c r="E70" t="n">
-        <v>0.08441083914486347</v>
+        <v>0.08441083907637344</v>
       </c>
       <c r="F70" t="n">
         <v>15.12889204772455</v>
@@ -11745,7 +11745,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.001577330564276687</v>
+        <v>0.001577330564916602</v>
       </c>
       <c r="R70" t="n">
         <v>0.001851140723155121</v>
@@ -11754,13 +11754,13 @@
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>0.001038410808786598</v>
+        <v>0.001038410807944043</v>
       </c>
       <c r="U70" t="n">
         <v>0.1197204072876763</v>
       </c>
       <c r="V70" t="n">
-        <v>0.006988871852343422</v>
+        <v>0.006988871852343425</v>
       </c>
       <c r="W70" t="n">
         <v>0.3091349633900268</v>
@@ -11772,26 +11772,26 @@
         <v>0.09617311549417953</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.01182500639140066</v>
+        <v>0.01182500639140067</v>
       </c>
       <c r="AA70" t="n">
         <v>0.1626604066866005</v>
       </c>
       <c r="AB70" t="n">
-        <v>43277.33169044923</v>
+        <v>43277.33169044922</v>
       </c>
       <c r="AC70" t="n">
         <v>0</v>
       </c>
       <c r="AD70" t="n">
-        <v>0.0002018306958234562</v>
+        <v>0.0002018306956596929</v>
       </c>
       <c r="AE70" t="n">
-        <v>3.763899891419608e-06</v>
+        <v>3.763899888365621e-06</v>
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_C_UHfit.dat</t>
+          <t>data//heating/2024-04-10_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG70" t="inlineStr">
@@ -11830,7 +11830,7 @@
         </is>
       </c>
       <c r="AP70" t="n">
-        <v>0.009808668469851614</v>
+        <v>0.009808668461892966</v>
       </c>
       <c r="AQ70" t="inlineStr">
         <is>
@@ -11847,10 +11847,10 @@
         <v>441</v>
       </c>
       <c r="AU70" t="n">
-        <v>0.0002672850376884151</v>
+        <v>0.0002672850374715429</v>
       </c>
       <c r="AV70" t="n">
-        <v>0.2101826987067464</v>
+        <v>0.210182698793273</v>
       </c>
     </row>
     <row r="71">
@@ -11860,16 +11860,16 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.4263088008363459</v>
+        <v>0.4263088010343904</v>
       </c>
       <c r="C71" t="n">
         <v>202.14</v>
       </c>
       <c r="D71" t="n">
-        <v>0.08270756066303324</v>
+        <v>0.08270756070191235</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0786316866818635</v>
+        <v>0.07863168660880576</v>
       </c>
       <c r="F71" t="n">
         <v>15.17781697496819</v>
@@ -11907,7 +11907,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.002129757496110875</v>
+        <v>0.002129757497100268</v>
       </c>
       <c r="R71" t="n">
         <v>0.001992277715880681</v>
@@ -11916,22 +11916,22 @@
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>0.001278694033912589</v>
+        <v>0.001278694032724538</v>
       </c>
       <c r="U71" t="n">
         <v>0.1502189766327944</v>
       </c>
       <c r="V71" t="n">
-        <v>0.006711452742764234</v>
+        <v>0.006711452742764235</v>
       </c>
       <c r="W71" t="n">
-        <v>0.4972898462870549</v>
+        <v>0.497289846287055</v>
       </c>
       <c r="X71" t="n">
         <v>1037.914885420658</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.1556603824664357</v>
+        <v>0.1556603824664358</v>
       </c>
       <c r="Z71" t="n">
         <v>0.01683467585540828</v>
@@ -11946,14 +11946,14 @@
         <v>0</v>
       </c>
       <c r="AD71" t="n">
-        <v>0.0002799129677648159</v>
+        <v>0.0002799129675047451</v>
       </c>
       <c r="AE71" t="n">
-        <v>2.98725342981969e-06</v>
+        <v>2.987253427044193e-06</v>
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_C_UHfit.dat</t>
+          <t>data//heating/2024-04-10_C_UHfit.dat</t>
         </is>
       </c>
       <c r="AG71" t="inlineStr">
@@ -11992,7 +11992,7 @@
         </is>
       </c>
       <c r="AP71" t="n">
-        <v>0.01034860950428406</v>
+        <v>0.01034860949466903</v>
       </c>
       <c r="AQ71" t="inlineStr">
         <is>
@@ -12009,10 +12009,10 @@
         <v>441</v>
       </c>
       <c r="AU71" t="n">
-        <v>0.0001625059243512633</v>
+        <v>0.0001625059242002769</v>
       </c>
       <c r="AV71" t="n">
-        <v>0.1716180932620992</v>
+        <v>0.1716180933427733</v>
       </c>
     </row>
     <row r="72">
@@ -12022,16 +12022,16 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.4085152277536632</v>
+        <v>0.4085152279542764</v>
       </c>
       <c r="C72" t="n">
         <v>202.14</v>
       </c>
       <c r="D72" t="n">
-        <v>0.07324925272627343</v>
+        <v>0.07324925276263533</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1137475327602722</v>
+        <v>0.1137475326485542</v>
       </c>
       <c r="F72" t="n">
         <v>13.76135596753379</v>
@@ -12069,7 +12069,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.002204079513158155</v>
+        <v>0.002204079514240532</v>
       </c>
       <c r="R72" t="n">
         <v>0.002049474997795276</v>
@@ -12078,7 +12078,7 @@
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>0.001815411840946406</v>
+        <v>0.001815411839163385</v>
       </c>
       <c r="U72" t="n">
         <v>0.1698291078135141</v>
@@ -12090,10 +12090,10 @@
         <v>0.457572224761756</v>
       </c>
       <c r="X72" t="n">
-        <v>946.3866506055778</v>
+        <v>946.386650605578</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.1440699690381345</v>
+        <v>0.1440699690381346</v>
       </c>
       <c r="Z72" t="n">
         <v>0.01737240266402754</v>
@@ -12108,14 +12108,14 @@
         <v>0</v>
       </c>
       <c r="AD72" t="n">
-        <v>0.000509701351535592</v>
+        <v>0.0005097013510349848</v>
       </c>
       <c r="AE72" t="n">
-        <v>2.789386531670889e-06</v>
+        <v>2.78938652893127e-06</v>
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_D_UHfit.dat</t>
+          <t>data//heating/2024-04-10_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG72" t="inlineStr">
@@ -12154,7 +12154,7 @@
         </is>
       </c>
       <c r="AP72" t="n">
-        <v>0.01660442662682508</v>
+        <v>0.01660442661051692</v>
       </c>
       <c r="AQ72" t="inlineStr">
         <is>
@@ -12171,10 +12171,10 @@
         <v>441</v>
       </c>
       <c r="AU72" t="n">
-        <v>0.0001452200054982995</v>
+        <v>0.0001452200053556705</v>
       </c>
       <c r="AV72" t="n">
-        <v>0.1519921151703768</v>
+        <v>0.1519921152458276</v>
       </c>
     </row>
     <row r="73">
@@ -12184,16 +12184,16 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.4072850015985764</v>
+        <v>0.4072850017993394</v>
       </c>
       <c r="C73" t="n">
         <v>202.14</v>
       </c>
       <c r="D73" t="n">
-        <v>0.07325932562520146</v>
+        <v>0.07325932566169326</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1171971036688522</v>
+        <v>0.1171971035533123</v>
       </c>
       <c r="F73" t="n">
         <v>13.62813144983079</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.002031122053755051</v>
+        <v>0.002031122054756252</v>
       </c>
       <c r="R73" t="n">
         <v>0.001915392223450218</v>
@@ -12240,7 +12240,7 @@
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>0.002017406336088798</v>
+        <v>0.002017406334099918</v>
       </c>
       <c r="U73" t="n">
         <v>0.2235949367348394</v>
@@ -12249,7 +12249,7 @@
         <v>0.00892214200974261</v>
       </c>
       <c r="W73" t="n">
-        <v>0.4021357686096941</v>
+        <v>0.4021357686096942</v>
       </c>
       <c r="X73" t="n">
         <v>1184.421972145063</v>
@@ -12270,14 +12270,14 @@
         <v>0</v>
       </c>
       <c r="AD73" t="n">
-        <v>0.0007173642935458719</v>
+        <v>0.0007173642928386513</v>
       </c>
       <c r="AE73" t="n">
-        <v>2.50377615330408e-06</v>
+        <v>2.503776150835707e-06</v>
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_D_UHfit.dat</t>
+          <t>data//heating/2024-04-10_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG73" t="inlineStr">
@@ -12316,7 +12316,7 @@
         </is>
       </c>
       <c r="AP73" t="n">
-        <v>0.01913659318430479</v>
+        <v>0.01913659316543879</v>
       </c>
       <c r="AQ73" t="inlineStr">
         <is>
@@ -12333,10 +12333,10 @@
         <v>441</v>
       </c>
       <c r="AU73" t="n">
-        <v>0.0001121739726588834</v>
+        <v>0.0001121739725482955</v>
       </c>
       <c r="AV73" t="n">
-        <v>0.1520130164240686</v>
+        <v>0.152013016499789</v>
       </c>
     </row>
     <row r="74">
@@ -12346,16 +12346,16 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.355754848127873</v>
+        <v>0.3557548483121029</v>
       </c>
       <c r="C74" t="n">
         <v>202.14</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0637371078114119</v>
+        <v>0.06373710784473627</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1079129788881905</v>
+        <v>0.1079129787764236</v>
       </c>
       <c r="F74" t="n">
         <v>13.40133789558506</v>
@@ -12393,7 +12393,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.001533243201838732</v>
+        <v>0.001533243202632732</v>
       </c>
       <c r="R74" t="n">
         <v>0.001218574117521438</v>
@@ -12402,13 +12402,13 @@
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>0.002049316178792926</v>
+        <v>0.002049316176670424</v>
       </c>
       <c r="U74" t="n">
         <v>0.1711794585322717</v>
       </c>
       <c r="V74" t="n">
-        <v>0.007892827701943847</v>
+        <v>0.007892827701943848</v>
       </c>
       <c r="W74" t="n">
         <v>0.3691615525116914</v>
@@ -12420,7 +12420,7 @@
         <v>0.1150210208379362</v>
       </c>
       <c r="Z74" t="n">
-        <v>0.01681783668295196</v>
+        <v>0.01681783668295197</v>
       </c>
       <c r="AA74" t="n">
         <v>0.2160810861415322</v>
@@ -12432,14 +12432,14 @@
         <v>0</v>
       </c>
       <c r="AD74" t="n">
-        <v>0.0006281883378258785</v>
+        <v>0.0006281883371752559</v>
       </c>
       <c r="AE74" t="n">
-        <v>1.756598288234789e-06</v>
+        <v>1.756598286415458e-06</v>
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_D_UHfit.dat</t>
+          <t>data//heating/2024-04-10_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG74" t="inlineStr">
@@ -12478,7 +12478,7 @@
         </is>
       </c>
       <c r="AP74" t="n">
-        <v>0.01941614106612331</v>
+        <v>0.01941614104601376</v>
       </c>
       <c r="AQ74" t="inlineStr">
         <is>
@@ -12495,10 +12495,10 @@
         <v>441</v>
       </c>
       <c r="AU74" t="n">
-        <v>7.992754687822021e-05</v>
+        <v>7.992754679543824e-05</v>
       </c>
       <c r="AV74" t="n">
-        <v>0.1322544254110057</v>
+        <v>0.1322544254801537</v>
       </c>
     </row>
     <row r="75">
@@ -12508,16 +12508,16 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.7518617894529911</v>
+        <v>0.7518617893858621</v>
       </c>
       <c r="C75" t="n">
         <v>202.14</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1361183826911875</v>
+        <v>0.136118382678804</v>
       </c>
       <c r="E75" t="n">
-        <v>0.08892123387071908</v>
+        <v>0.08892123388659751</v>
       </c>
       <c r="F75" t="n">
         <v>14.29850693627202</v>
@@ -12555,7 +12555,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.003634408627670754</v>
+        <v>0.003634408627346261</v>
       </c>
       <c r="R75" t="n">
         <v>0.006407457914468855</v>
@@ -12564,13 +12564,13 @@
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>0.00139792019594966</v>
+        <v>0.001397920196199283</v>
       </c>
       <c r="U75" t="n">
-        <v>0.1384286396050572</v>
+        <v>0.1384286396050573</v>
       </c>
       <c r="V75" t="n">
-        <v>0.009487836990139989</v>
+        <v>0.00948783699013999</v>
       </c>
       <c r="W75" t="n">
         <v>0.4127417909298814</v>
@@ -12588,20 +12588,20 @@
         <v>0.2679639141875054</v>
       </c>
       <c r="AB75" t="n">
-        <v>51472.64173139906</v>
+        <v>51472.64173139907</v>
       </c>
       <c r="AC75" t="n">
         <v>0</v>
       </c>
       <c r="AD75" t="n">
-        <v>0.000144392711119426</v>
+        <v>0.0001443927111452099</v>
       </c>
       <c r="AE75" t="n">
-        <v>2.395088403313987e-05</v>
+        <v>2.395088403741672e-05</v>
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_D_UHfit.dat</t>
+          <t>data//heating/2024-04-10_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG75" t="inlineStr">
@@ -12640,7 +12640,7 @@
         </is>
       </c>
       <c r="AP75" t="n">
-        <v>0.005488620058867649</v>
+        <v>0.005488620059847738</v>
       </c>
       <c r="AQ75" t="inlineStr">
         <is>
@@ -12657,10 +12657,10 @@
         <v>441</v>
       </c>
       <c r="AU75" t="n">
-        <v>0.001344278158743526</v>
+        <v>0.001344278158983571</v>
       </c>
       <c r="AV75" t="n">
-        <v>0.282445487548074</v>
+        <v>0.2824454875223783</v>
       </c>
     </row>
     <row r="76">
@@ -12670,16 +12670,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.8322642510632744</v>
+        <v>0.8322642511608173</v>
       </c>
       <c r="C76" t="n">
         <v>202.14</v>
       </c>
       <c r="D76" t="n">
-        <v>0.1521054562541256</v>
+        <v>0.1521054562723503</v>
       </c>
       <c r="E76" t="n">
-        <v>0.07392574112980511</v>
+        <v>0.07392574111247666</v>
       </c>
       <c r="F76" t="n">
         <v>13.86708563932457</v>
@@ -12717,7 +12717,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.003934631435998531</v>
+        <v>0.003934631436459677</v>
       </c>
       <c r="R76" t="n">
         <v>0.007987972443721195</v>
@@ -12726,19 +12726,19 @@
         <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>0.001178164045273988</v>
+        <v>0.001178164044997822</v>
       </c>
       <c r="U76" t="n">
         <v>0.1642122001202183</v>
       </c>
       <c r="V76" t="n">
-        <v>0.01169914010117583</v>
+        <v>0.01169914010117584</v>
       </c>
       <c r="W76" t="n">
         <v>0.4111931969415055</v>
       </c>
       <c r="X76" t="n">
-        <v>922.0940827449946</v>
+        <v>922.0940827449947</v>
       </c>
       <c r="Y76" t="n">
         <v>0.128118340792136</v>
@@ -12756,14 +12756,14 @@
         <v>0</v>
       </c>
       <c r="AD76" t="n">
-        <v>0.0001750159445109764</v>
+        <v>0.0001750159444699521</v>
       </c>
       <c r="AE76" t="n">
-        <v>1.101110473744322e-05</v>
+        <v>1.101110473486217e-05</v>
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_D_UHfit.dat</t>
+          <t>data//heating/2024-04-10_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG76" t="inlineStr">
@@ -12802,7 +12802,7 @@
         </is>
       </c>
       <c r="AP76" t="n">
-        <v>0.005936136191594342</v>
+        <v>0.00593613619020289</v>
       </c>
       <c r="AQ76" t="inlineStr">
         <is>
@@ -12819,10 +12819,10 @@
         <v>441</v>
       </c>
       <c r="AU76" t="n">
-        <v>0.0005810108218438389</v>
+        <v>0.0005810108217076479</v>
       </c>
       <c r="AV76" t="n">
-        <v>0.315618646806036</v>
+        <v>0.3156186468438522</v>
       </c>
     </row>
     <row r="77">
@@ -12832,16 +12832,16 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.6495061744791022</v>
+        <v>0.6495061746563527</v>
       </c>
       <c r="C77" t="n">
         <v>202.14</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1172638711271642</v>
+        <v>0.1172638711596952</v>
       </c>
       <c r="E77" t="n">
-        <v>0.07803332708158701</v>
+        <v>0.07803332703899635</v>
       </c>
       <c r="F77" t="n">
         <v>13.91593552627872</v>
@@ -12879,7 +12879,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.002114964114651501</v>
+        <v>0.002114964115228676</v>
       </c>
       <c r="R77" t="n">
         <v>0.003178417369188775</v>
@@ -12888,7 +12888,7 @@
         <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>0.001194447194856071</v>
+        <v>0.00119444719420414</v>
       </c>
       <c r="U77" t="n">
         <v>0.1496300835064674</v>
@@ -12900,32 +12900,32 @@
         <v>0.2829113997021684</v>
       </c>
       <c r="X77" t="n">
-        <v>848.8610869800125</v>
+        <v>848.8610869800126</v>
       </c>
       <c r="Y77" t="n">
         <v>0.08677681645653362</v>
       </c>
       <c r="Z77" t="n">
-        <v>0.01358301691656</v>
+        <v>0.01358301691656001</v>
       </c>
       <c r="AA77" t="n">
         <v>0.2323249376503597</v>
       </c>
       <c r="AB77" t="n">
-        <v>56397.33297559082</v>
+        <v>56397.33297559083</v>
       </c>
       <c r="AC77" t="n">
         <v>0</v>
       </c>
       <c r="AD77" t="n">
-        <v>0.0001890413152959192</v>
+        <v>0.0001890413151927403</v>
       </c>
       <c r="AE77" t="n">
-        <v>7.174833701752296e-06</v>
+        <v>7.174833697836265e-06</v>
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_D_UHfit.dat</t>
+          <t>data//heating/2024-04-10_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG77" t="inlineStr">
@@ -12964,7 +12964,7 @@
         </is>
       </c>
       <c r="AP77" t="n">
-        <v>0.007093251185071677</v>
+        <v>0.007093251181200174</v>
       </c>
       <c r="AQ77" t="inlineStr">
         <is>
@@ -12981,10 +12981,10 @@
         <v>441</v>
       </c>
       <c r="AU77" t="n">
-        <v>0.0004004528318364391</v>
+        <v>0.0004004528316178715</v>
       </c>
       <c r="AV77" t="n">
-        <v>0.2433223977354139</v>
+        <v>0.2433223978029158</v>
       </c>
     </row>
     <row r="78">
@@ -12994,16 +12994,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.5596929186050199</v>
+        <v>0.5596929188320843</v>
       </c>
       <c r="C78" t="n">
         <v>202.14</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1012929229848712</v>
+        <v>0.1012929230265708</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1057190685422678</v>
+        <v>0.1057190684564885</v>
       </c>
       <c r="F78" t="n">
         <v>13.94222335542282</v>
@@ -13041,7 +13041,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.002443851072237773</v>
+        <v>0.002443851073229229</v>
       </c>
       <c r="R78" t="n">
         <v>0.003280485389553757</v>
@@ -13050,7 +13050,7 @@
         <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>0.00184144626688366</v>
+        <v>0.00184144626538953</v>
       </c>
       <c r="U78" t="n">
         <v>0.1025079903786855</v>
@@ -13059,7 +13059,7 @@
         <v>0.01228222624674894</v>
       </c>
       <c r="W78" t="n">
-        <v>0.36452676848162</v>
+        <v>0.3645267684816201</v>
       </c>
       <c r="X78" t="n">
         <v>571.4794243501298</v>
@@ -13080,14 +13080,14 @@
         <v>0</v>
       </c>
       <c r="AD78" t="n">
-        <v>0.0002858924494610142</v>
+        <v>0.0002858924492290442</v>
       </c>
       <c r="AE78" t="n">
-        <v>5.49235183781509e-06</v>
+        <v>5.492351833358655e-06</v>
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_D_UHfit.dat</t>
+          <t>data//heating/2024-04-10_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG78" t="inlineStr">
@@ -13126,7 +13126,7 @@
         </is>
       </c>
       <c r="AP78" t="n">
-        <v>0.01184682878768456</v>
+        <v>0.01184682877807217</v>
       </c>
       <c r="AQ78" t="inlineStr">
         <is>
@@ -13143,10 +13143,10 @@
         <v>441</v>
       </c>
       <c r="AU78" t="n">
-        <v>0.000296153675079694</v>
+        <v>0.0002961536748393981</v>
       </c>
       <c r="AV78" t="n">
-        <v>0.2101826987067464</v>
+        <v>0.210182698793273</v>
       </c>
     </row>
     <row r="79">
@@ -13156,16 +13156,16 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.4589581114974915</v>
+        <v>0.4589581117107036</v>
       </c>
       <c r="C79" t="n">
         <v>202.14</v>
       </c>
       <c r="D79" t="n">
-        <v>0.08270756066303324</v>
+        <v>0.08270756070191235</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1210247568550047</v>
+        <v>0.121024756742559</v>
       </c>
       <c r="F79" t="n">
         <v>13.92932128857706</v>
@@ -13203,7 +13203,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.001963135005642762</v>
+        <v>0.00196313500655475</v>
       </c>
       <c r="R79" t="n">
         <v>0.002113723982671905</v>
@@ -13212,7 +13212,7 @@
         <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>0.001666407333421819</v>
+        <v>0.001666407331873537</v>
       </c>
       <c r="U79" t="n">
         <v>0.1559029112958186</v>
@@ -13221,16 +13221,16 @@
         <v>0.008036886595531067</v>
       </c>
       <c r="W79" t="n">
-        <v>0.381112407674126</v>
+        <v>0.3811124076741261</v>
       </c>
       <c r="X79" t="n">
-        <v>885.8313714873228</v>
+        <v>885.8313714873227</v>
       </c>
       <c r="Y79" t="n">
         <v>0.1148632993488698</v>
       </c>
       <c r="Z79" t="n">
-        <v>0.01741574030075476</v>
+        <v>0.01741574030075475</v>
       </c>
       <c r="AA79" t="n">
         <v>0.22512513893306</v>
@@ -13242,14 +13242,14 @@
         <v>0</v>
       </c>
       <c r="AD79" t="n">
-        <v>0.0004230531831664552</v>
+        <v>0.0004230531827733908</v>
       </c>
       <c r="AE79" t="n">
-        <v>3.702845617741374e-06</v>
+        <v>3.702845614301011e-06</v>
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>data//heating\2024-04-10_D_UHfit.dat</t>
+          <t>data//heating/2024-04-10_D_UHfit.dat</t>
         </is>
       </c>
       <c r="AG79" t="inlineStr">
@@ -13288,7 +13288,7 @@
         </is>
       </c>
       <c r="AP79" t="n">
-        <v>0.01563076225474684</v>
+        <v>0.01563076224022409</v>
       </c>
       <c r="AQ79" t="inlineStr">
         <is>
@@ -13305,10 +13305,10 @@
         <v>441</v>
       </c>
       <c r="AU79" t="n">
-        <v>0.0002199007912290202</v>
+        <v>0.0002199007910247074</v>
       </c>
       <c r="AV79" t="n">
-        <v>0.1716180932620992</v>
+        <v>0.1716180933427733</v>
       </c>
     </row>
     <row r="80">
@@ -13318,16 +13318,16 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.3082635083703555</v>
+        <v>0.3082635083069257</v>
       </c>
       <c r="C80" t="n">
         <v>202.14</v>
       </c>
       <c r="D80" t="n">
-        <v>0.04542237017134775</v>
+        <v>0.04542237016194293</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.09445775725308704</v>
+        <v>-0.09445775729195918</v>
       </c>
       <c r="F80" t="n">
         <v>10.25606708978171</v>
@@ -13365,14 +13365,14 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.003076053718498011</v>
+        <v>0.003076053717865068</v>
       </c>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="n">
         <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>-0.002803072879880289</v>
+        <v>-0.002803072881033836</v>
       </c>
       <c r="U80" t="n">
         <v>0.128450811997874</v>
@@ -13381,7 +13381,7 @@
         <v>-0.001465228671529741</v>
       </c>
       <c r="W80" t="n">
-        <v>0.5760174785195162</v>
+        <v>0.5760174785195163</v>
       </c>
       <c r="X80" t="n">
         <v>573.288709901041</v>
@@ -13400,14 +13400,14 @@
         <v>0</v>
       </c>
       <c r="AD80" t="n">
-        <v>-0.0002183653684019873</v>
+        <v>-0.0002183653684918511</v>
       </c>
       <c r="AE80" t="n">
-        <v>-5.897320959652537e-05</v>
+        <v>-5.897320962079459e-05</v>
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-09_M_UHfit.dat</t>
+          <t>data//heating/2024-05-09_M_UHfit.dat</t>
         </is>
       </c>
       <c r="AG80" t="inlineStr">
@@ -13444,7 +13444,7 @@
         </is>
       </c>
       <c r="AP80" t="n">
-        <v>-0.005053523805824511</v>
+        <v>-0.005053523807904185</v>
       </c>
       <c r="AQ80" t="inlineStr">
         <is>
@@ -13461,10 +13461,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU80" t="n">
-        <v>-0.001866507160566646</v>
+        <v>-0.001866507161334768</v>
       </c>
       <c r="AV80" t="n">
-        <v>0.09425136586982089</v>
+        <v>0.0942513658503059</v>
       </c>
     </row>
     <row r="81">
@@ -13474,16 +13474,16 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.3323520615134642</v>
+        <v>0.332352061463401</v>
       </c>
       <c r="C81" t="n">
         <v>202.14</v>
       </c>
       <c r="D81" t="n">
-        <v>0.04908697447632865</v>
+        <v>0.04908697446886687</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3742018282808284</v>
+        <v>-0.3742018283935626</v>
       </c>
       <c r="F81" t="n">
         <v>10.41635440578606</v>
@@ -13521,26 +13521,26 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.002212175949963984</v>
+        <v>0.002212175949630757</v>
       </c>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="n">
         <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>-0.008699830742399771</v>
+        <v>-0.008699830745020735</v>
       </c>
       <c r="U81" t="n">
         <v>0.1468978153909799</v>
       </c>
       <c r="V81" t="n">
-        <v>-0.005629850981259019</v>
+        <v>-0.00562985098125902</v>
       </c>
       <c r="W81" t="n">
         <v>0.3968932863973194</v>
       </c>
       <c r="X81" t="n">
-        <v>664.6183160280792</v>
+        <v>664.6183160280793</v>
       </c>
       <c r="Y81" t="n">
         <v>0.1216608103964792</v>
@@ -13556,14 +13556,14 @@
         <v>0</v>
       </c>
       <c r="AD81" t="n">
-        <v>-0.0008111874844869554</v>
+        <v>-0.0008111874847313386</v>
       </c>
       <c r="AE81" t="n">
-        <v>-0.0001577262613967356</v>
+        <v>-0.0001577262614442531</v>
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-09_M_UHfit.dat</t>
+          <t>data//heating/2024-05-09_M_UHfit.dat</t>
         </is>
       </c>
       <c r="AG81" t="inlineStr">
@@ -13600,7 +13600,7 @@
         </is>
       </c>
       <c r="AP81" t="n">
-        <v>-0.02120400348556297</v>
+        <v>-0.02120400349195101</v>
       </c>
       <c r="AQ81" t="inlineStr">
         <is>
@@ -13617,10 +13617,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU81" t="n">
-        <v>-0.006005927611606308</v>
+        <v>-0.006005927613415689</v>
       </c>
       <c r="AV81" t="n">
-        <v>0.1018554155883613</v>
+        <v>0.1018554155728781</v>
       </c>
     </row>
     <row r="82">
@@ -13630,16 +13630,16 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.3022630739192654</v>
+        <v>0.3022630738987419</v>
       </c>
       <c r="C82" t="n">
         <v>202.14</v>
       </c>
       <c r="D82" t="n">
-        <v>0.04491606309846513</v>
+        <v>0.04491606309540944</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.2523350104746543</v>
+        <v>-0.252335010508921</v>
       </c>
       <c r="F82" t="n">
         <v>10.33409976802012</v>
@@ -13677,14 +13677,14 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.002682327347226554</v>
+        <v>0.002682327347044426</v>
       </c>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="n">
         <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>-0.008348726212809274</v>
+        <v>-0.00834872621394302</v>
       </c>
       <c r="U82" t="n">
         <v>0.1207253744025646</v>
@@ -13706,20 +13706,20 @@
       </c>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="n">
-        <v>52802.93807381821</v>
+        <v>52802.9380738182</v>
       </c>
       <c r="AC82" t="n">
         <v>0</v>
       </c>
       <c r="AD82" t="n">
-        <v>-0.0006871983622952543</v>
+        <v>-0.0006871983623885751</v>
       </c>
       <c r="AE82" t="n">
-        <v>-0.0001133318349378635</v>
+        <v>-0.0001133318349532538</v>
       </c>
       <c r="AF82" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-09_M_UHfit.dat</t>
+          <t>data//heating/2024-05-09_M_UHfit.dat</t>
         </is>
       </c>
       <c r="AG82" t="inlineStr">
@@ -13756,7 +13756,7 @@
         </is>
       </c>
       <c r="AP82" t="n">
-        <v>-0.01567713669221425</v>
+        <v>-0.01567713669434319</v>
       </c>
       <c r="AQ82" t="inlineStr">
         <is>
@@ -13773,10 +13773,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU82" t="n">
-        <v>-0.003275662375508892</v>
+        <v>-0.003275662375953723</v>
       </c>
       <c r="AV82" t="n">
-        <v>0.09320077927584258</v>
+        <v>0.09320077926950204</v>
       </c>
     </row>
     <row r="83">
@@ -13786,16 +13786,16 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.3188125325621942</v>
+        <v>0.3188125325578039</v>
       </c>
       <c r="C83" t="n">
         <v>202.14</v>
       </c>
       <c r="D83" t="n">
-        <v>0.04714866436451996</v>
+        <v>0.04714866436388331</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.3365434682744736</v>
+        <v>-0.3365434682837425</v>
       </c>
       <c r="F83" t="n">
         <v>10.70219955338082</v>
@@ -13833,14 +13833,14 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.002546758517624662</v>
+        <v>0.002546758517589591</v>
       </c>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="n">
         <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>-0.009391077657421408</v>
+        <v>-0.009391077657680054</v>
       </c>
       <c r="U83" t="n">
         <v>0.2303692964355874</v>
@@ -13862,20 +13862,20 @@
       </c>
       <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="n">
-        <v>99011.1092463731</v>
+        <v>99011.10924637312</v>
       </c>
       <c r="AC83" t="n">
         <v>0</v>
       </c>
       <c r="AD83" t="n">
-        <v>-0.001096519506110528</v>
+        <v>-0.001096519506140728</v>
       </c>
       <c r="AE83" t="n">
-        <v>-0.0001294900352104832</v>
+        <v>-0.0001294900352140496</v>
       </c>
       <c r="AF83" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-09_M_UHfit.dat</t>
+          <t>data//heating/2024-05-09_M_UHfit.dat</t>
         </is>
       </c>
       <c r="AG83" t="inlineStr">
@@ -13912,7 +13912,7 @@
         </is>
       </c>
       <c r="AP83" t="n">
-        <v>-0.02082873661827943</v>
+        <v>-0.02082873661885309</v>
       </c>
       <c r="AQ83" t="inlineStr">
         <is>
@@ -13929,10 +13929,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU83" t="n">
-        <v>-0.003858642961117304</v>
+        <v>-0.003858642961223578</v>
       </c>
       <c r="AV83" t="n">
-        <v>0.09783342433541489</v>
+        <v>0.09783342433409384</v>
       </c>
     </row>
     <row r="84">
@@ -13942,16 +13942,16 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.2304604128173939</v>
+        <v>0.2304604127429043</v>
       </c>
       <c r="C84" t="n">
         <v>202.14</v>
       </c>
       <c r="D84" t="n">
-        <v>0.03386453177556882</v>
+        <v>0.03386453176458312</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.3109290419418272</v>
+        <v>-0.3109290421428245</v>
       </c>
       <c r="F84" t="n">
         <v>11.0127448620507</v>
@@ -13989,14 +13989,14 @@
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.002697394251395509</v>
+        <v>0.002697394250523656</v>
       </c>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="n">
         <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>-0.01116355840928128</v>
+        <v>-0.01116355841649786</v>
       </c>
       <c r="U84" t="n">
         <v>0.2070783241114581</v>
@@ -14011,10 +14011,10 @@
         <v>1086.470063815229</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.214318679862746</v>
+        <v>0.2143186798627461</v>
       </c>
       <c r="Z84" t="n">
-        <v>0.03377763388530936</v>
+        <v>0.03377763388530937</v>
       </c>
       <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="n">
@@ -14024,14 +14024,14 @@
         <v>0</v>
       </c>
       <c r="AD84" t="n">
-        <v>-0.0005932255028016928</v>
+        <v>-0.0005932255031851782</v>
       </c>
       <c r="AE84" t="n">
-        <v>-0.0007623129537195714</v>
+        <v>-0.0007623129542123617</v>
       </c>
       <c r="AF84" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-09_M_UHfit.dat</t>
+          <t>data//heating/2024-05-09_M_UHfit.dat</t>
         </is>
       </c>
       <c r="AG84" t="inlineStr">
@@ -14068,7 +14068,7 @@
         </is>
       </c>
       <c r="AP84" t="n">
-        <v>-0.01054807987518599</v>
+        <v>-0.01054807988200471</v>
       </c>
       <c r="AQ84" t="inlineStr">
         <is>
@@ -14085,10 +14085,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU84" t="n">
-        <v>-0.01933616751585716</v>
+        <v>-0.01933616752835685</v>
       </c>
       <c r="AV84" t="n">
-        <v>0.07026886449009376</v>
+        <v>0.07026886446729844</v>
       </c>
     </row>
     <row r="85">
@@ -14098,16 +14098,16 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.2814813097883189</v>
+        <v>0.2814813096997912</v>
       </c>
       <c r="C85" t="n">
         <v>202.14</v>
       </c>
       <c r="D85" t="n">
-        <v>0.04087690489731198</v>
+        <v>0.04087690488437152</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.2339555376697171</v>
+        <v>-0.233955537816878</v>
       </c>
       <c r="F85" t="n">
         <v>10.59678865609354</v>
@@ -14145,14 +14145,14 @@
         <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.002440459511941939</v>
+        <v>0.002440459511174399</v>
       </c>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="n">
         <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>-0.007079286277793988</v>
+        <v>-0.007079286282246948</v>
       </c>
       <c r="U85" t="n">
         <v>0.09484705353613027</v>
@@ -14180,14 +14180,14 @@
         <v>0</v>
       </c>
       <c r="AD85" t="n">
-        <v>-0.0003685818090731884</v>
+        <v>-0.0003685818093050309</v>
       </c>
       <c r="AE85" t="n">
-        <v>-0.0002786185779302468</v>
+        <v>-0.0002786185781055014</v>
       </c>
       <c r="AF85" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-09_M_UHfit.dat</t>
+          <t>data//heating/2024-05-09_M_UHfit.dat</t>
         </is>
       </c>
       <c r="AG85" t="inlineStr">
@@ -14224,7 +14224,7 @@
         </is>
       </c>
       <c r="AP85" t="n">
-        <v>-0.009464157961652368</v>
+        <v>-0.009464157967605441</v>
       </c>
       <c r="AQ85" t="inlineStr">
         <is>
@@ -14241,10 +14241,10 @@
         <v>394.4423912309629</v>
       </c>
       <c r="AU85" t="n">
-        <v>-0.008919743751127213</v>
+        <v>-0.008919743756737843</v>
       </c>
       <c r="AV85" t="n">
-        <v>0.08481953065348173</v>
+        <v>0.08481953062663029</v>
       </c>
     </row>
     <row r="86">
@@ -14254,16 +14254,16 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.3852263982260559</v>
+        <v>0.3852263981323527</v>
       </c>
       <c r="C86" t="n">
         <v>202.14</v>
       </c>
       <c r="D86" t="n">
-        <v>0.05805327519298979</v>
+        <v>0.05805327517876775</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2368272546278155</v>
+        <v>0.2368272547430281</v>
       </c>
       <c r="F86" t="n">
         <v>15.14878921105295</v>
@@ -14301,29 +14301,29 @@
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.002599555123879417</v>
+        <v>0.002599555123247096</v>
       </c>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="n">
         <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>0.005235424500321444</v>
+        <v>0.005235424502868393</v>
       </c>
       <c r="U86" t="n">
         <v>0.2683277520276918</v>
       </c>
       <c r="V86" t="n">
-        <v>0.005074180333137679</v>
+        <v>0.00507418033313768</v>
       </c>
       <c r="W86" t="n">
-        <v>0.4410532889547694</v>
+        <v>0.4410532889547695</v>
       </c>
       <c r="X86" t="n">
         <v>1757.05845756164</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.1280982554102632</v>
+        <v>0.1280982554102633</v>
       </c>
       <c r="Z86" t="n">
         <v>0.01878103033207829</v>
@@ -14336,14 +14336,14 @@
         <v>0</v>
       </c>
       <c r="AD86" t="n">
-        <v>0.0003161740670307227</v>
+        <v>0.0003161740671845362</v>
       </c>
       <c r="AE86" t="n">
-        <v>0.0002260426253591887</v>
+        <v>0.0002260426254691548</v>
       </c>
       <c r="AF86" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-10_R_UHfit.dat</t>
+          <t>data//heating/2024-05-10_R_UHfit.dat</t>
         </is>
       </c>
       <c r="AG86" t="inlineStr">
@@ -14380,7 +14380,7 @@
         </is>
       </c>
       <c r="AP86" t="n">
-        <v>0.007356096011869467</v>
+        <v>0.007356096015448088</v>
       </c>
       <c r="AQ86" t="inlineStr">
         <is>
@@ -14397,10 +14397,10 @@
         <v>441</v>
       </c>
       <c r="AU86" t="n">
-        <v>0.008400774272042607</v>
+        <v>0.008400774276129447</v>
       </c>
       <c r="AV86" t="n">
-        <v>0.1204604792641873</v>
+        <v>0.1204604792346766</v>
       </c>
     </row>
     <row r="87">
@@ -14410,16 +14410,16 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.3287106146862703</v>
+        <v>0.3287106146367557</v>
       </c>
       <c r="C87" t="n">
         <v>202.14</v>
       </c>
       <c r="D87" t="n">
-        <v>0.04908697447632865</v>
+        <v>0.04908697446886687</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2720659470125729</v>
+        <v>0.2720659470945371</v>
       </c>
       <c r="F87" t="n">
         <v>15.83393891475779</v>
@@ -14457,14 +14457,14 @@
         <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.001236053746151347</v>
+        <v>0.001236053745965157</v>
       </c>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="n">
         <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>0.004006854100116822</v>
+        <v>0.00400685410132395</v>
       </c>
       <c r="U87" t="n">
         <v>0.2732534839138727</v>
@@ -14492,14 +14492,14 @@
         <v>0</v>
       </c>
       <c r="AD87" t="n">
-        <v>0.0003135431207637152</v>
+        <v>0.000313543120858175</v>
       </c>
       <c r="AE87" t="n">
-        <v>0.0001717176645604723</v>
+        <v>0.0001717176646122049</v>
       </c>
       <c r="AF87" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-10_R_UHfit.dat</t>
+          <t>data//heating/2024-05-10_R_UHfit.dat</t>
         </is>
       </c>
       <c r="AG87" t="inlineStr">
@@ -14536,7 +14536,7 @@
         </is>
       </c>
       <c r="AP87" t="n">
-        <v>0.008409024540058952</v>
+        <v>0.008409024542592302</v>
       </c>
       <c r="AQ87" t="inlineStr">
         <is>
@@ -14553,10 +14553,10 @@
         <v>441</v>
       </c>
       <c r="AU87" t="n">
-        <v>0.008183860185385642</v>
+        <v>0.008183860187851159</v>
       </c>
       <c r="AV87" t="n">
-        <v>0.1018554155883613</v>
+        <v>0.1018554155728781</v>
       </c>
     </row>
     <row r="88">
@@ -14566,16 +14566,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.3018831844436263</v>
+        <v>0.3018831844231286</v>
       </c>
       <c r="C88" t="n">
         <v>202.14</v>
       </c>
       <c r="D88" t="n">
-        <v>0.04491606309846513</v>
+        <v>0.04491606309540944</v>
       </c>
       <c r="E88" t="n">
-        <v>0.3583044246535503</v>
+        <v>0.3583044247022077</v>
       </c>
       <c r="F88" t="n">
         <v>16.20842559295875</v>
@@ -14613,23 +14613,23 @@
         <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.001041376080496634</v>
+        <v>0.001041376080425925</v>
       </c>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="n">
         <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>0.004806574482734204</v>
+        <v>0.004806574483386934</v>
       </c>
       <c r="U88" t="n">
         <v>0.2045226104608164</v>
       </c>
       <c r="V88" t="n">
-        <v>0.003220245951797196</v>
+        <v>0.003220245951797197</v>
       </c>
       <c r="W88" t="n">
-        <v>0.2257937187895018</v>
+        <v>0.2257937187895019</v>
       </c>
       <c r="X88" t="n">
         <v>1528.23021596515</v>
@@ -14648,14 +14648,14 @@
         <v>0</v>
       </c>
       <c r="AD88" t="n">
-        <v>0.0003262588662559463</v>
+        <v>0.000326258866300252</v>
       </c>
       <c r="AE88" t="n">
-        <v>0.0001580817756359134</v>
+        <v>0.0001580817756573808</v>
       </c>
       <c r="AF88" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-10_R_UHfit.dat</t>
+          <t>data//heating/2024-05-10_R_UHfit.dat</t>
         </is>
       </c>
       <c r="AG88" t="inlineStr">
@@ -14692,7 +14692,7 @@
         </is>
       </c>
       <c r="AP88" t="n">
-        <v>0.01136139022905472</v>
+        <v>0.01136139023059758</v>
       </c>
       <c r="AQ88" t="inlineStr">
         <is>
@@ -14709,10 +14709,10 @@
         <v>441</v>
       </c>
       <c r="AU88" t="n">
-        <v>0.009136420188574376</v>
+        <v>0.009136420189815093</v>
       </c>
       <c r="AV88" t="n">
-        <v>0.09320077927584258</v>
+        <v>0.09320077926950204</v>
       </c>
     </row>
     <row r="89">
@@ -14722,16 +14722,16 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.3135194469727011</v>
+        <v>0.3135194469683836</v>
       </c>
       <c r="C89" t="n">
         <v>202.14</v>
       </c>
       <c r="D89" t="n">
-        <v>0.04714866436451996</v>
+        <v>0.04714866436388331</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4106607303139811</v>
+        <v>0.4106607303252914</v>
       </c>
       <c r="F89" t="n">
         <v>16.44861917820996</v>
@@ -14769,23 +14769,23 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.0009937391986292888</v>
+        <v>0.0009937391986156042</v>
       </c>
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="n">
         <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>0.004850041525738522</v>
+        <v>0.004850041525872101</v>
       </c>
       <c r="U89" t="n">
         <v>0.2350806437380841</v>
       </c>
       <c r="V89" t="n">
-        <v>0.003449255609817536</v>
+        <v>0.003449255609817537</v>
       </c>
       <c r="W89" t="n">
-        <v>0.1886395354585384</v>
+        <v>0.1886395354585385</v>
       </c>
       <c r="X89" t="n">
         <v>1762.434010280964</v>
@@ -14794,7 +14794,7 @@
         <v>0.05978170885114411</v>
       </c>
       <c r="Z89" t="n">
-        <v>0.009473788279787973</v>
+        <v>0.009473788279787971</v>
       </c>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="n">
@@ -14804,14 +14804,14 @@
         <v>0</v>
       </c>
       <c r="AD89" t="n">
-        <v>0.0004241532558393174</v>
+        <v>0.0004241532558509993</v>
       </c>
       <c r="AE89" t="n">
-        <v>0.0001534810670046756</v>
+        <v>0.0001534810670089028</v>
       </c>
       <c r="AF89" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-10_R_UHfit.dat</t>
+          <t>data//heating/2024-05-10_R_UHfit.dat</t>
         </is>
       </c>
       <c r="AG89" t="inlineStr">
@@ -14848,7 +14848,7 @@
         </is>
       </c>
       <c r="AP89" t="n">
-        <v>0.01379310801281603</v>
+        <v>0.01379310801319592</v>
       </c>
       <c r="AQ89" t="inlineStr">
         <is>
@@ -14865,10 +14865,10 @@
         <v>441</v>
       </c>
       <c r="AU89" t="n">
-        <v>0.008971420361845554</v>
+        <v>0.008971420362092643</v>
       </c>
       <c r="AV89" t="n">
-        <v>0.09783342433541489</v>
+        <v>0.09783342433409384</v>
       </c>
     </row>
     <row r="90">
@@ -14878,16 +14878,16 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.4783265366497449</v>
+        <v>0.4783265364583103</v>
       </c>
       <c r="C90" t="n">
         <v>202.14</v>
       </c>
       <c r="D90" t="n">
-        <v>0.07106804132201004</v>
+        <v>0.07106804129326143</v>
       </c>
       <c r="E90" t="n">
-        <v>0.1653611350605034</v>
+        <v>0.1653611351928642</v>
       </c>
       <c r="F90" t="n">
         <v>15.77475300348277</v>
@@ -14925,17 +14925,17 @@
         <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.001555315854186267</v>
+        <v>0.001555315853563803</v>
       </c>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="n">
         <v>0</v>
       </c>
       <c r="T90" t="n">
-        <v>0.00257097397085857</v>
+        <v>0.002570973972916467</v>
       </c>
       <c r="U90" t="n">
-        <v>0.2088696724096262</v>
+        <v>0.2088696724096263</v>
       </c>
       <c r="V90" t="n">
         <v>0.002651036649188613</v>
@@ -14947,27 +14947,27 @@
         <v>1584.103536893975</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.05946006475079801</v>
+        <v>0.05946006475079803</v>
       </c>
       <c r="Z90" t="n">
         <v>0.01056010630502048</v>
       </c>
       <c r="AA90" t="inlineStr"/>
       <c r="AB90" t="n">
-        <v>73941.78900653582</v>
+        <v>73941.78900653584</v>
       </c>
       <c r="AC90" t="n">
         <v>0</v>
       </c>
       <c r="AD90" t="n">
-        <v>0.0001015594996211524</v>
+        <v>0.0001015594997024442</v>
       </c>
       <c r="AE90" t="n">
-        <v>0.0003405836493901305</v>
+        <v>0.0003405836496627456</v>
       </c>
       <c r="AF90" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-10_R_UHfit.dat</t>
+          <t>data//heating/2024-05-10_R_UHfit.dat</t>
         </is>
       </c>
       <c r="AG90" t="inlineStr">
@@ -15004,7 +15004,7 @@
         </is>
       </c>
       <c r="AP90" t="n">
-        <v>0.003309934306438314</v>
+        <v>0.0033099343090877</v>
       </c>
       <c r="AQ90" t="inlineStr">
         <is>
@@ -15021,10 +15021,10 @@
         <v>441</v>
       </c>
       <c r="AU90" t="n">
-        <v>0.01762962364000382</v>
+        <v>0.01762962365411519</v>
       </c>
       <c r="AV90" t="n">
-        <v>0.1474661040149233</v>
+        <v>0.14746610395527</v>
       </c>
     </row>
     <row r="91">
@@ -15034,16 +15034,16 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.5635734130886807</v>
+        <v>0.5635734128679083</v>
       </c>
       <c r="C91" t="n">
         <v>202.14</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0857841940827852</v>
+        <v>0.08578419404875527</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1844808916716109</v>
+        <v>0.1844808918161469</v>
       </c>
       <c r="F91" t="n">
         <v>15.28062225541032</v>
@@ -15081,14 +15081,14 @@
         <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.002450029769121868</v>
+        <v>0.002450029768162101</v>
       </c>
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="n">
         <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>0.003740483563551444</v>
+        <v>0.003740483566482015</v>
       </c>
       <c r="U91" t="n">
         <v>0.270290562939886</v>
@@ -15116,14 +15116,14 @@
         <v>0</v>
       </c>
       <c r="AD91" t="n">
-        <v>0.000190451260076745</v>
+        <v>0.0001904512602259585</v>
       </c>
       <c r="AE91" t="n">
-        <v>0.0003094982307053555</v>
+        <v>0.0003094982309478393</v>
       </c>
       <c r="AF91" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-10_R_UHfit.dat</t>
+          <t>data//heating/2024-05-10_R_UHfit.dat</t>
         </is>
       </c>
       <c r="AG91" t="inlineStr">
@@ -15160,7 +15160,7 @@
         </is>
       </c>
       <c r="AP91" t="n">
-        <v>0.004674433098623295</v>
+        <v>0.00467443310228559</v>
       </c>
       <c r="AQ91" t="inlineStr">
         <is>
@@ -15177,10 +15177,10 @@
         <v>441</v>
       </c>
       <c r="AU91" t="n">
-        <v>0.01217925121270236</v>
+        <v>0.01217925122224448</v>
       </c>
       <c r="AV91" t="n">
-        <v>0.1780021040699561</v>
+        <v>0.178002103999344</v>
       </c>
     </row>
     <row r="92">
@@ -15190,16 +15190,16 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.1390941388400127</v>
+        <v>0.1390941389655674</v>
       </c>
       <c r="C92" t="n">
         <v>202.14</v>
       </c>
       <c r="D92" t="n">
-        <v>0.02087570551464082</v>
+        <v>0.02087570553354066</v>
       </c>
       <c r="E92" t="n">
-        <v>0.8997979108705437</v>
+        <v>0.89979790924612</v>
       </c>
       <c r="F92" t="n">
         <v>16.15901405968147</v>
@@ -15237,14 +15237,14 @@
         <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.0002348248502596971</v>
+        <v>0.0002348248504716641</v>
       </c>
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="n">
         <v>0</v>
       </c>
       <c r="T92" t="n">
-        <v>0.007677051534441938</v>
+        <v>0.0076770515205824</v>
       </c>
       <c r="U92" t="n">
         <v>0.1193543380225066</v>
@@ -15259,7 +15259,7 @@
         <v>907.3883361153877</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.03188303004367853</v>
+        <v>0.03188303004367852</v>
       </c>
       <c r="Z92" t="n">
         <v>0.005494324458045458</v>
@@ -15272,14 +15272,14 @@
         <v>0</v>
       </c>
       <c r="AD92" t="n">
-        <v>0.001247603359940768</v>
+        <v>0.001247603357688444</v>
       </c>
       <c r="AE92" t="n">
-        <v>1.558701515006214e-05</v>
+        <v>1.558701512192259e-05</v>
       </c>
       <c r="AF92" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-10_S_UHfit.dat</t>
+          <t>data//heating/2024-05-10_S_UHfit.dat</t>
         </is>
       </c>
       <c r="AG92" t="inlineStr">
@@ -15316,7 +15316,7 @@
         </is>
       </c>
       <c r="AP92" t="n">
-        <v>0.07341610200753926</v>
+        <v>0.07341610187499965</v>
       </c>
       <c r="AQ92" t="inlineStr">
         <is>
@@ -15333,10 +15333,10 @@
         <v>441</v>
       </c>
       <c r="AU92" t="n">
-        <v>0.001461705525795822</v>
+        <v>0.001461705523156975</v>
       </c>
       <c r="AV92" t="n">
-        <v>0.04331706493581837</v>
+        <v>0.04331706497503551</v>
       </c>
     </row>
     <row r="93">
@@ -15346,16 +15346,16 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.3696897576492976</v>
+        <v>0.369689757549744</v>
       </c>
       <c r="C93" t="n">
         <v>202.14</v>
       </c>
       <c r="D93" t="n">
-        <v>0.05538964937525055</v>
+        <v>0.05538964936023421</v>
       </c>
       <c r="E93" t="n">
-        <v>0.3186691181944632</v>
+        <v>0.3186691183660918</v>
       </c>
       <c r="F93" t="n">
         <v>16.64574891347928</v>
@@ -15393,14 +15393,14 @@
         <v>0</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.0009245523038768723</v>
+        <v>0.0009245523036278999</v>
       </c>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="n">
         <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>0.003047778022838106</v>
+        <v>0.003047778024479576</v>
       </c>
       <c r="U93" t="n">
         <v>0.1952767995008098</v>
@@ -15428,14 +15428,14 @@
         <v>0</v>
       </c>
       <c r="AD93" t="n">
-        <v>0.0002047025064997841</v>
+        <v>0.0002047025066100327</v>
       </c>
       <c r="AE93" t="n">
-        <v>0.0002069999189268093</v>
+        <v>0.0002069999190382952</v>
       </c>
       <c r="AF93" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-10_S_UHfit.dat</t>
+          <t>data//heating/2024-05-10_S_UHfit.dat</t>
         </is>
       </c>
       <c r="AG93" t="inlineStr">
@@ -15472,7 +15472,7 @@
         </is>
       </c>
       <c r="AP93" t="n">
-        <v>0.008138895004932405</v>
+        <v>0.008138895009315847</v>
       </c>
       <c r="AQ93" t="inlineStr">
         <is>
@@ -15489,10 +15489,10 @@
         <v>441</v>
       </c>
       <c r="AU93" t="n">
-        <v>0.01483537675442809</v>
+        <v>0.01483537676241812</v>
       </c>
       <c r="AV93" t="n">
-        <v>0.1149334587555481</v>
+        <v>0.1149334587243892</v>
       </c>
     </row>
     <row r="94">
@@ -15502,16 +15502,16 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.3013638137892731</v>
+        <v>0.3013638138755887</v>
       </c>
       <c r="C94" t="n">
         <v>202.14</v>
       </c>
       <c r="D94" t="n">
-        <v>0.04593758879359213</v>
+        <v>0.04593758880683902</v>
       </c>
       <c r="E94" t="n">
-        <v>0.46229410804631</v>
+        <v>0.4622941077814924</v>
       </c>
       <c r="F94" t="n">
         <v>16.87873769341244</v>
@@ -15549,14 +15549,14 @@
         <v>0</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.0008353890274442074</v>
+        <v>0.0008353890276834768</v>
       </c>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="n">
         <v>0</v>
       </c>
       <c r="T94" t="n">
-        <v>0.004435890047680419</v>
+        <v>0.004435890045139393</v>
       </c>
       <c r="U94" t="n">
         <v>0.1588520771549456</v>
@@ -15571,10 +15571,10 @@
         <v>1354.063562191804</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.05370234934821157</v>
+        <v>0.05370234934821156</v>
       </c>
       <c r="Z94" t="n">
-        <v>0.005027615029459241</v>
+        <v>0.00502761502945924</v>
       </c>
       <c r="AA94" t="inlineStr"/>
       <c r="AB94" t="n">
@@ -15584,14 +15584,14 @@
         <v>0</v>
       </c>
       <c r="AD94" t="n">
-        <v>0.0004227540322977923</v>
+        <v>0.0004227540320556246</v>
       </c>
       <c r="AE94" t="n">
-        <v>6.142656368075551e-05</v>
+        <v>6.142656364556831e-05</v>
       </c>
       <c r="AF94" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-10_S_UHfit.dat</t>
+          <t>data//heating/2024-05-10_S_UHfit.dat</t>
         </is>
       </c>
       <c r="AG94" t="inlineStr">
@@ -15628,7 +15628,7 @@
         </is>
       </c>
       <c r="AP94" t="n">
-        <v>0.01981988195418941</v>
+        <v>0.01981988194283591</v>
       </c>
       <c r="AQ94" t="inlineStr">
         <is>
@@ -15645,10 +15645,10 @@
         <v>441</v>
       </c>
       <c r="AU94" t="n">
-        <v>0.004879092394562394</v>
+        <v>0.004879092391767485</v>
       </c>
       <c r="AV94" t="n">
-        <v>0.09532044391847656</v>
+        <v>0.09532044394596384</v>
       </c>
     </row>
     <row r="95">
@@ -15658,16 +15658,16 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.4265627386846867</v>
+        <v>0.4265627385219935</v>
       </c>
       <c r="C95" t="n">
         <v>202.14</v>
       </c>
       <c r="D95" t="n">
-        <v>0.06269885027974537</v>
+        <v>0.06269885025562466</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1459174494797361</v>
+        <v>0.1459174495910435</v>
       </c>
       <c r="F95" t="n">
         <v>16.8021387458447</v>
@@ -15705,20 +15705,20 @@
         <v>0</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.001191275651216612</v>
+        <v>0.001191275650762253</v>
       </c>
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="n">
         <v>0</v>
       </c>
       <c r="T95" t="n">
-        <v>0.001339595681356473</v>
+        <v>0.001339595682378331</v>
       </c>
       <c r="U95" t="n">
         <v>0.1459413886980297</v>
       </c>
       <c r="V95" t="n">
-        <v>0.0009886532597377434</v>
+        <v>0.0009886532597377436</v>
       </c>
       <c r="W95" t="n">
         <v>0.1516906581923808</v>
@@ -15730,7 +15730,7 @@
         <v>0.05006718363447132</v>
       </c>
       <c r="Z95" t="n">
-        <v>0.00576247694900188</v>
+        <v>0.005762476949001881</v>
       </c>
       <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="n">
@@ -15740,14 +15740,14 @@
         <v>0</v>
       </c>
       <c r="AD95" t="n">
-        <v>4.749518693807243e-05</v>
+        <v>4.749518697430226e-05</v>
       </c>
       <c r="AE95" t="n">
-        <v>0.0002668046071561128</v>
+        <v>0.0002668046073596341</v>
       </c>
       <c r="AF95" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-10_S_UHfit.dat</t>
+          <t>data//heating/2024-05-10_S_UHfit.dat</t>
         </is>
       </c>
       <c r="AG95" t="inlineStr">
@@ -15784,7 +15784,7 @@
         </is>
       </c>
       <c r="AP95" t="n">
-        <v>0.002379534826793102</v>
+        <v>0.002379534828608236</v>
       </c>
       <c r="AQ95" t="inlineStr">
         <is>
@@ -15801,10 +15801,10 @@
         <v>441</v>
       </c>
       <c r="AU95" t="n">
-        <v>0.02247976119727999</v>
+        <v>0.02247976121442779</v>
       </c>
       <c r="AV95" t="n">
-        <v>0.1301000422267938</v>
+        <v>0.1301000421767434</v>
       </c>
     </row>
     <row r="96">
@@ -15814,16 +15814,16 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.523912840918459</v>
+        <v>0.5239128407081116</v>
       </c>
       <c r="C96" t="n">
         <v>202.14</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0787440163410144</v>
+        <v>0.07874401630902897</v>
       </c>
       <c r="E96" t="n">
-        <v>0.1934300327121333</v>
+        <v>0.1934300328674549</v>
       </c>
       <c r="F96" t="n">
         <v>16.64818625561941</v>
@@ -15861,14 +15861,14 @@
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.0008431816536420466</v>
+        <v>0.0008431816533035149</v>
       </c>
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="n">
         <v>0</v>
       </c>
       <c r="T96" t="n">
-        <v>0.001421123038377372</v>
+        <v>0.001421123039518514</v>
       </c>
       <c r="U96" t="n">
         <v>0.1452497053900568</v>
@@ -15896,14 +15896,14 @@
         <v>0</v>
       </c>
       <c r="AD96" t="n">
-        <v>7.366209183742559e-05</v>
+        <v>7.366209189657523e-05</v>
       </c>
       <c r="AE96" t="n">
-        <v>0.0001869878922836399</v>
+        <v>0.0001869878924337886</v>
       </c>
       <c r="AF96" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-10_S_UHfit.dat</t>
+          <t>data//heating/2024-05-10_S_UHfit.dat</t>
         </is>
       </c>
       <c r="AG96" t="inlineStr">
@@ -15940,7 +15940,7 @@
         </is>
       </c>
       <c r="AP96" t="n">
-        <v>0.003938602838852617</v>
+        <v>0.003938602842015261</v>
       </c>
       <c r="AQ96" t="inlineStr">
         <is>
@@ -15957,10 +15957,10 @@
         <v>441</v>
       </c>
       <c r="AU96" t="n">
-        <v>0.01774270591903624</v>
+        <v>0.01774270593328339</v>
       </c>
       <c r="AV96" t="n">
-        <v>0.1633937433519861</v>
+        <v>0.1633937432856164</v>
       </c>
     </row>
     <row r="97">
@@ -15970,16 +15970,16 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.6071669970458633</v>
+        <v>0.6071669968182205</v>
       </c>
       <c r="C97" t="n">
         <v>202.14</v>
       </c>
       <c r="D97" t="n">
-        <v>0.09224123732654418</v>
+        <v>0.09224123729148685</v>
       </c>
       <c r="E97" t="n">
-        <v>0.2211935582341196</v>
+        <v>0.2211935583999821</v>
       </c>
       <c r="F97" t="n">
         <v>16.60243515532355</v>
@@ -16017,14 +16017,14 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.001060160339460697</v>
+        <v>0.001060160339063215</v>
       </c>
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="n">
         <v>0</v>
       </c>
       <c r="T97" t="n">
-        <v>0.001729578461192085</v>
+        <v>0.001729578462489013</v>
       </c>
       <c r="U97" t="n">
         <v>0.1303784418346133</v>
@@ -16052,14 +16052,14 @@
         <v>0</v>
       </c>
       <c r="AD97" t="n">
-        <v>9.108849175098437e-05</v>
+        <v>9.108849181928727e-05</v>
       </c>
       <c r="AE97" t="n">
-        <v>0.00014363080759474</v>
+        <v>0.0001436308077024419</v>
       </c>
       <c r="AF97" t="inlineStr">
         <is>
-          <t>data//heating\2024-05-10_S_UHfit.dat</t>
+          <t>data//heating/2024-05-10_S_UHfit.dat</t>
         </is>
       </c>
       <c r="AG97" t="inlineStr">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="AP97" t="n">
-        <v>0.005219170541482964</v>
+        <v>0.00521917054539657</v>
       </c>
       <c r="AQ97" t="inlineStr">
         <is>
@@ -16113,10 +16113,10 @@
         <v>441</v>
       </c>
       <c r="AU97" t="n">
-        <v>0.01385986562998146</v>
+        <v>0.01385986564037431</v>
       </c>
       <c r="AV97" t="n">
-        <v>0.1914004613751563</v>
+        <v>0.1914004613024123</v>
       </c>
     </row>
   </sheetData>
